--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>58929700</v>
+        <v>59444900</v>
       </c>
       <c r="E8" s="3">
-        <v>51414900</v>
+        <v>51864500</v>
       </c>
       <c r="F8" s="3">
-        <v>46814300</v>
+        <v>47223600</v>
       </c>
       <c r="G8" s="3">
-        <v>41284800</v>
+        <v>41645800</v>
       </c>
       <c r="H8" s="3">
-        <v>39159100</v>
+        <v>39501400</v>
       </c>
       <c r="I8" s="3">
-        <v>33640500</v>
+        <v>33934600</v>
       </c>
       <c r="J8" s="3">
-        <v>31859600</v>
+        <v>32138100</v>
       </c>
       <c r="K8" s="3">
         <v>31382100</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19899100</v>
+        <v>20073000</v>
       </c>
       <c r="E9" s="3">
-        <v>17156300</v>
+        <v>17306300</v>
       </c>
       <c r="F9" s="3">
-        <v>16231700</v>
+        <v>16373700</v>
       </c>
       <c r="G9" s="3">
-        <v>14316800</v>
+        <v>14442000</v>
       </c>
       <c r="H9" s="3">
-        <v>13783200</v>
+        <v>13903700</v>
       </c>
       <c r="I9" s="3">
-        <v>11859500</v>
+        <v>11963200</v>
       </c>
       <c r="J9" s="3">
-        <v>10976700</v>
+        <v>11072700</v>
       </c>
       <c r="K9" s="3">
         <v>11066200</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>39030600</v>
+        <v>39371900</v>
       </c>
       <c r="E10" s="3">
-        <v>34258700</v>
+        <v>34558200</v>
       </c>
       <c r="F10" s="3">
-        <v>30582600</v>
+        <v>30850000</v>
       </c>
       <c r="G10" s="3">
-        <v>26968000</v>
+        <v>27203800</v>
       </c>
       <c r="H10" s="3">
-        <v>25375900</v>
+        <v>25597700</v>
       </c>
       <c r="I10" s="3">
-        <v>21781000</v>
+        <v>21971500</v>
       </c>
       <c r="J10" s="3">
-        <v>20882900</v>
+        <v>21065400</v>
       </c>
       <c r="K10" s="3">
         <v>20315900</v>
@@ -898,25 +898,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>140500</v>
+        <v>141800</v>
       </c>
       <c r="E14" s="3">
-        <v>138300</v>
+        <v>139600</v>
       </c>
       <c r="F14" s="3">
-        <v>255800</v>
+        <v>258100</v>
       </c>
       <c r="G14" s="3">
-        <v>340400</v>
+        <v>343400</v>
       </c>
       <c r="H14" s="3">
-        <v>259100</v>
+        <v>261400</v>
       </c>
       <c r="I14" s="3">
-        <v>318400</v>
+        <v>321200</v>
       </c>
       <c r="J14" s="3">
-        <v>135100</v>
+        <v>136200</v>
       </c>
       <c r="K14" s="3">
         <v>190700</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46551900</v>
+        <v>46958900</v>
       </c>
       <c r="E17" s="3">
-        <v>40570000</v>
+        <v>40924700</v>
       </c>
       <c r="F17" s="3">
-        <v>37906300</v>
+        <v>38237700</v>
       </c>
       <c r="G17" s="3">
-        <v>33704200</v>
+        <v>33998900</v>
       </c>
       <c r="H17" s="3">
-        <v>32149400</v>
+        <v>32430500</v>
       </c>
       <c r="I17" s="3">
-        <v>27677300</v>
+        <v>27919300</v>
       </c>
       <c r="J17" s="3">
-        <v>25383600</v>
+        <v>25605500</v>
       </c>
       <c r="K17" s="3">
         <v>24939600</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12377800</v>
+        <v>12486000</v>
       </c>
       <c r="E18" s="3">
-        <v>10844900</v>
+        <v>10939800</v>
       </c>
       <c r="F18" s="3">
-        <v>8908100</v>
+        <v>8986000</v>
       </c>
       <c r="G18" s="3">
-        <v>7580600</v>
+        <v>7646900</v>
       </c>
       <c r="H18" s="3">
-        <v>7009600</v>
+        <v>7070900</v>
       </c>
       <c r="I18" s="3">
-        <v>5963200</v>
+        <v>6015400</v>
       </c>
       <c r="J18" s="3">
-        <v>6476000</v>
+        <v>6532600</v>
       </c>
       <c r="K18" s="3">
         <v>6442500</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-124100</v>
+        <v>-125200</v>
       </c>
       <c r="E20" s="3">
-        <v>-252500</v>
+        <v>-254700</v>
       </c>
       <c r="F20" s="3">
-        <v>120800</v>
+        <v>121800</v>
       </c>
       <c r="G20" s="3">
-        <v>-175700</v>
+        <v>-177200</v>
       </c>
       <c r="H20" s="3">
-        <v>-332700</v>
+        <v>-335600</v>
       </c>
       <c r="I20" s="3">
-        <v>3393900</v>
+        <v>3423600</v>
       </c>
       <c r="J20" s="3">
-        <v>-65900</v>
+        <v>-66500</v>
       </c>
       <c r="K20" s="3">
         <v>168300</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17870900</v>
+        <v>17981100</v>
       </c>
       <c r="E21" s="3">
-        <v>13123900</v>
+        <v>13217900</v>
       </c>
       <c r="F21" s="3">
-        <v>11641700</v>
+        <v>11722100</v>
       </c>
       <c r="G21" s="3">
-        <v>9761600</v>
+        <v>9827600</v>
       </c>
       <c r="H21" s="3">
-        <v>8965400</v>
+        <v>9025000</v>
       </c>
       <c r="I21" s="3">
-        <v>11441100</v>
+        <v>11524000</v>
       </c>
       <c r="J21" s="3">
-        <v>7988200</v>
+        <v>8045100</v>
       </c>
       <c r="K21" s="3">
         <v>8060500</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>489700</v>
+        <v>494000</v>
       </c>
       <c r="E22" s="3">
-        <v>173500</v>
+        <v>175000</v>
       </c>
       <c r="F22" s="3">
-        <v>185600</v>
+        <v>187200</v>
       </c>
       <c r="G22" s="3">
-        <v>173500</v>
+        <v>175000</v>
       </c>
       <c r="H22" s="3">
-        <v>121900</v>
+        <v>122900</v>
       </c>
       <c r="I22" s="3">
-        <v>158100</v>
+        <v>159500</v>
       </c>
       <c r="J22" s="3">
-        <v>151500</v>
+        <v>152800</v>
       </c>
       <c r="K22" s="3">
         <v>181800</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11764000</v>
+        <v>11866800</v>
       </c>
       <c r="E23" s="3">
-        <v>10418900</v>
+        <v>10510000</v>
       </c>
       <c r="F23" s="3">
-        <v>8843300</v>
+        <v>8920600</v>
       </c>
       <c r="G23" s="3">
-        <v>7231400</v>
+        <v>7294700</v>
       </c>
       <c r="H23" s="3">
-        <v>6555100</v>
+        <v>6612400</v>
       </c>
       <c r="I23" s="3">
-        <v>9199000</v>
+        <v>9279500</v>
       </c>
       <c r="J23" s="3">
-        <v>6258600</v>
+        <v>6313300</v>
       </c>
       <c r="K23" s="3">
         <v>6429000</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3219300</v>
+        <v>3247500</v>
       </c>
       <c r="E24" s="3">
-        <v>2743900</v>
+        <v>2767900</v>
       </c>
       <c r="F24" s="3">
-        <v>2431000</v>
+        <v>2452200</v>
       </c>
       <c r="G24" s="3">
-        <v>2342000</v>
+        <v>2362500</v>
       </c>
       <c r="H24" s="3">
-        <v>2162000</v>
+        <v>2180900</v>
       </c>
       <c r="I24" s="3">
-        <v>2495800</v>
+        <v>2517600</v>
       </c>
       <c r="J24" s="3">
-        <v>1924800</v>
+        <v>1941600</v>
       </c>
       <c r="K24" s="3">
         <v>2043100</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8544600</v>
+        <v>8619300</v>
       </c>
       <c r="E26" s="3">
-        <v>7675000</v>
+        <v>7742100</v>
       </c>
       <c r="F26" s="3">
-        <v>6412300</v>
+        <v>6468400</v>
       </c>
       <c r="G26" s="3">
-        <v>4889400</v>
+        <v>4932100</v>
       </c>
       <c r="H26" s="3">
-        <v>4393100</v>
+        <v>4431500</v>
       </c>
       <c r="I26" s="3">
-        <v>6703300</v>
+        <v>6761900</v>
       </c>
       <c r="J26" s="3">
-        <v>4333800</v>
+        <v>4371700</v>
       </c>
       <c r="K26" s="3">
         <v>4385900</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7873800</v>
+        <v>7942600</v>
       </c>
       <c r="E27" s="3">
-        <v>6976700</v>
+        <v>7037700</v>
       </c>
       <c r="F27" s="3">
-        <v>5890800</v>
+        <v>5942300</v>
       </c>
       <c r="G27" s="3">
-        <v>4464500</v>
+        <v>4503500</v>
       </c>
       <c r="H27" s="3">
-        <v>3923200</v>
+        <v>3957500</v>
       </c>
       <c r="I27" s="3">
-        <v>6201500</v>
+        <v>6255700</v>
       </c>
       <c r="J27" s="3">
-        <v>3780400</v>
+        <v>3813500</v>
       </c>
       <c r="K27" s="3">
         <v>3847300</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>124100</v>
+        <v>125200</v>
       </c>
       <c r="E32" s="3">
-        <v>252500</v>
+        <v>254700</v>
       </c>
       <c r="F32" s="3">
-        <v>-120800</v>
+        <v>-121800</v>
       </c>
       <c r="G32" s="3">
-        <v>175700</v>
+        <v>177200</v>
       </c>
       <c r="H32" s="3">
-        <v>332700</v>
+        <v>335600</v>
       </c>
       <c r="I32" s="3">
-        <v>-3393900</v>
+        <v>-3423600</v>
       </c>
       <c r="J32" s="3">
-        <v>65900</v>
+        <v>66500</v>
       </c>
       <c r="K32" s="3">
         <v>-168300</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7873800</v>
+        <v>7942600</v>
       </c>
       <c r="E33" s="3">
-        <v>6976700</v>
+        <v>7037700</v>
       </c>
       <c r="F33" s="3">
-        <v>5890800</v>
+        <v>5942300</v>
       </c>
       <c r="G33" s="3">
-        <v>4464500</v>
+        <v>4503500</v>
       </c>
       <c r="H33" s="3">
-        <v>3923200</v>
+        <v>3957500</v>
       </c>
       <c r="I33" s="3">
-        <v>6201500</v>
+        <v>6255700</v>
       </c>
       <c r="J33" s="3">
-        <v>3780400</v>
+        <v>3813500</v>
       </c>
       <c r="K33" s="3">
         <v>3847300</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7873800</v>
+        <v>7942600</v>
       </c>
       <c r="E35" s="3">
-        <v>6976700</v>
+        <v>7037700</v>
       </c>
       <c r="F35" s="3">
-        <v>5890800</v>
+        <v>5942300</v>
       </c>
       <c r="G35" s="3">
-        <v>4464500</v>
+        <v>4503500</v>
       </c>
       <c r="H35" s="3">
-        <v>3923200</v>
+        <v>3957500</v>
       </c>
       <c r="I35" s="3">
-        <v>6201500</v>
+        <v>6255700</v>
       </c>
       <c r="J35" s="3">
-        <v>3780400</v>
+        <v>3813500</v>
       </c>
       <c r="K35" s="3">
         <v>3847300</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6229000</v>
+        <v>6295900</v>
       </c>
       <c r="E41" s="3">
-        <v>5061800</v>
+        <v>5116200</v>
       </c>
       <c r="F41" s="3">
-        <v>4104300</v>
+        <v>4148400</v>
       </c>
       <c r="G41" s="3">
-        <v>3891300</v>
+        <v>3933100</v>
       </c>
       <c r="H41" s="3">
-        <v>3946200</v>
+        <v>3988600</v>
       </c>
       <c r="I41" s="3">
-        <v>4491900</v>
+        <v>4540200</v>
       </c>
       <c r="J41" s="3">
-        <v>3542100</v>
+        <v>3580200</v>
       </c>
       <c r="K41" s="3">
         <v>4792000</v>
@@ -1686,25 +1686,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>804800</v>
+        <v>813500</v>
       </c>
       <c r="E42" s="3">
-        <v>731300</v>
+        <v>739100</v>
       </c>
       <c r="F42" s="3">
-        <v>565500</v>
+        <v>571500</v>
       </c>
       <c r="G42" s="3">
-        <v>410700</v>
+        <v>415100</v>
       </c>
       <c r="H42" s="3">
-        <v>422700</v>
+        <v>427300</v>
       </c>
       <c r="I42" s="3">
-        <v>277800</v>
+        <v>280800</v>
       </c>
       <c r="J42" s="3">
-        <v>187800</v>
+        <v>189800</v>
       </c>
       <c r="K42" s="3">
         <v>522800</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6039000</v>
+        <v>6103900</v>
       </c>
       <c r="E43" s="3">
-        <v>5513100</v>
+        <v>5572300</v>
       </c>
       <c r="F43" s="3">
-        <v>5297900</v>
+        <v>5354800</v>
       </c>
       <c r="G43" s="3">
-        <v>4504000</v>
+        <v>4552400</v>
       </c>
       <c r="H43" s="3">
-        <v>4460100</v>
+        <v>4508000</v>
       </c>
       <c r="I43" s="3">
-        <v>3856200</v>
+        <v>3897600</v>
       </c>
       <c r="J43" s="3">
-        <v>3438900</v>
+        <v>3475900</v>
       </c>
       <c r="K43" s="3">
         <v>6753300</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15061300</v>
+        <v>15223100</v>
       </c>
       <c r="E44" s="3">
-        <v>13708500</v>
+        <v>13855900</v>
       </c>
       <c r="F44" s="3">
-        <v>11955000</v>
+        <v>12083500</v>
       </c>
       <c r="G44" s="3">
-        <v>11579500</v>
+        <v>11704000</v>
       </c>
       <c r="H44" s="3">
-        <v>11085400</v>
+        <v>11204500</v>
       </c>
       <c r="I44" s="3">
-        <v>10403600</v>
+        <v>10515400</v>
       </c>
       <c r="J44" s="3">
-        <v>9324200</v>
+        <v>9424400</v>
       </c>
       <c r="K44" s="3">
         <v>18034900</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>973900</v>
+        <v>984400</v>
       </c>
       <c r="E45" s="3">
-        <v>844400</v>
+        <v>853400</v>
       </c>
       <c r="F45" s="3">
-        <v>1202300</v>
+        <v>1215200</v>
       </c>
       <c r="G45" s="3">
-        <v>912400</v>
+        <v>922200</v>
       </c>
       <c r="H45" s="3">
-        <v>892700</v>
+        <v>902300</v>
       </c>
       <c r="I45" s="3">
-        <v>855300</v>
+        <v>864500</v>
       </c>
       <c r="J45" s="3">
-        <v>1043100</v>
+        <v>1054300</v>
       </c>
       <c r="K45" s="3">
         <v>1806400</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29108000</v>
+        <v>29420800</v>
       </c>
       <c r="E46" s="3">
-        <v>25859000</v>
+        <v>26136900</v>
       </c>
       <c r="F46" s="3">
-        <v>23125000</v>
+        <v>23373500</v>
       </c>
       <c r="G46" s="3">
-        <v>21297900</v>
+        <v>21526800</v>
       </c>
       <c r="H46" s="3">
-        <v>20807100</v>
+        <v>21030700</v>
       </c>
       <c r="I46" s="3">
-        <v>19884800</v>
+        <v>20098500</v>
       </c>
       <c r="J46" s="3">
-        <v>17536200</v>
+        <v>17724600</v>
       </c>
       <c r="K46" s="3">
         <v>15895200</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2974500</v>
+        <v>3006400</v>
       </c>
       <c r="E47" s="3">
-        <v>2657200</v>
+        <v>2685700</v>
       </c>
       <c r="F47" s="3">
-        <v>2209200</v>
+        <v>2232900</v>
       </c>
       <c r="G47" s="3">
-        <v>2302500</v>
+        <v>2327300</v>
       </c>
       <c r="H47" s="3">
-        <v>1935800</v>
+        <v>1956600</v>
       </c>
       <c r="I47" s="3">
-        <v>1637100</v>
+        <v>1654700</v>
       </c>
       <c r="J47" s="3">
-        <v>8711500</v>
+        <v>8805200</v>
       </c>
       <c r="K47" s="3">
         <v>14562300</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33576800</v>
+        <v>33937700</v>
       </c>
       <c r="E48" s="3">
-        <v>16593000</v>
+        <v>16771300</v>
       </c>
       <c r="F48" s="3">
-        <v>17473600</v>
+        <v>17661400</v>
       </c>
       <c r="G48" s="3">
-        <v>13328600</v>
+        <v>13471900</v>
       </c>
       <c r="H48" s="3">
-        <v>12250400</v>
+        <v>12382000</v>
       </c>
       <c r="I48" s="3">
-        <v>11404900</v>
+        <v>11527500</v>
       </c>
       <c r="J48" s="3">
-        <v>23612500</v>
+        <v>23866200</v>
       </c>
       <c r="K48" s="3">
         <v>19593300</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36901600</v>
+        <v>37298200</v>
       </c>
       <c r="E49" s="3">
-        <v>34017100</v>
+        <v>34382700</v>
       </c>
       <c r="F49" s="3">
-        <v>33811800</v>
+        <v>34175200</v>
       </c>
       <c r="G49" s="3">
-        <v>37482400</v>
+        <v>37885200</v>
       </c>
       <c r="H49" s="3">
-        <v>26016000</v>
+        <v>26295600</v>
       </c>
       <c r="I49" s="3">
-        <v>23981400</v>
+        <v>24239100</v>
       </c>
       <c r="J49" s="3">
-        <v>47574100</v>
+        <v>48085400</v>
       </c>
       <c r="K49" s="3">
         <v>55939100</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3403800</v>
+        <v>3440400</v>
       </c>
       <c r="E52" s="3">
-        <v>2455100</v>
+        <v>2481500</v>
       </c>
       <c r="F52" s="3">
-        <v>2224500</v>
+        <v>2248500</v>
       </c>
       <c r="G52" s="3">
-        <v>2467200</v>
+        <v>2493700</v>
       </c>
       <c r="H52" s="3">
-        <v>2236600</v>
+        <v>2260700</v>
       </c>
       <c r="I52" s="3">
-        <v>1683200</v>
+        <v>1701300</v>
       </c>
       <c r="J52" s="3">
-        <v>1567900</v>
+        <v>1584800</v>
       </c>
       <c r="K52" s="3">
         <v>3444500</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>105965000</v>
+        <v>107104000</v>
       </c>
       <c r="E54" s="3">
-        <v>81581400</v>
+        <v>82458100</v>
       </c>
       <c r="F54" s="3">
-        <v>76591000</v>
+        <v>77414100</v>
       </c>
       <c r="G54" s="3">
-        <v>65458400</v>
+        <v>66161800</v>
       </c>
       <c r="H54" s="3">
-        <v>63245900</v>
+        <v>63925600</v>
       </c>
       <c r="I54" s="3">
-        <v>58591500</v>
+        <v>59221100</v>
       </c>
       <c r="J54" s="3">
-        <v>61681200</v>
+        <v>62344100</v>
       </c>
       <c r="K54" s="3">
         <v>55931200</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6383800</v>
+        <v>6452400</v>
       </c>
       <c r="E57" s="3">
-        <v>5834800</v>
+        <v>5897500</v>
       </c>
       <c r="F57" s="3">
-        <v>4983800</v>
+        <v>5037400</v>
       </c>
       <c r="G57" s="3">
-        <v>4594000</v>
+        <v>4643400</v>
       </c>
       <c r="H57" s="3">
-        <v>4348100</v>
+        <v>4394800</v>
       </c>
       <c r="I57" s="3">
-        <v>3959400</v>
+        <v>4001900</v>
       </c>
       <c r="J57" s="3">
-        <v>3620100</v>
+        <v>3659000</v>
       </c>
       <c r="K57" s="3">
         <v>7014700</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10717600</v>
+        <v>10832800</v>
       </c>
       <c r="E58" s="3">
-        <v>5498800</v>
+        <v>5557900</v>
       </c>
       <c r="F58" s="3">
-        <v>5370300</v>
+        <v>5428000</v>
       </c>
       <c r="G58" s="3">
-        <v>3754100</v>
+        <v>3794400</v>
       </c>
       <c r="H58" s="3">
-        <v>4108700</v>
+        <v>4152900</v>
       </c>
       <c r="I58" s="3">
-        <v>4542400</v>
+        <v>4591200</v>
       </c>
       <c r="J58" s="3">
-        <v>6059900</v>
+        <v>6125000</v>
       </c>
       <c r="K58" s="3">
         <v>7427600</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7738700</v>
+        <v>7821900</v>
       </c>
       <c r="E59" s="3">
-        <v>7149100</v>
+        <v>7225900</v>
       </c>
       <c r="F59" s="3">
-        <v>6536400</v>
+        <v>6606600</v>
       </c>
       <c r="G59" s="3">
-        <v>5717300</v>
+        <v>5778700</v>
       </c>
       <c r="H59" s="3">
-        <v>5486700</v>
+        <v>5545700</v>
       </c>
       <c r="I59" s="3">
-        <v>4866300</v>
+        <v>4918600</v>
       </c>
       <c r="J59" s="3">
-        <v>4114200</v>
+        <v>4158400</v>
       </c>
       <c r="K59" s="3">
         <v>7611600</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24840100</v>
+        <v>25107000</v>
       </c>
       <c r="E60" s="3">
-        <v>18482600</v>
+        <v>18681300</v>
       </c>
       <c r="F60" s="3">
-        <v>16457900</v>
+        <v>16634800</v>
       </c>
       <c r="G60" s="3">
-        <v>14065400</v>
+        <v>14216500</v>
       </c>
       <c r="H60" s="3">
-        <v>13943500</v>
+        <v>14093400</v>
       </c>
       <c r="I60" s="3">
-        <v>13368200</v>
+        <v>13511800</v>
       </c>
       <c r="J60" s="3">
-        <v>12779600</v>
+        <v>12917000</v>
       </c>
       <c r="K60" s="3">
         <v>10552300</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16990500</v>
+        <v>17173000</v>
       </c>
       <c r="E61" s="3">
-        <v>6593500</v>
+        <v>6664300</v>
       </c>
       <c r="F61" s="3">
-        <v>7736500</v>
+        <v>7819700</v>
       </c>
       <c r="G61" s="3">
-        <v>4317300</v>
+        <v>4363700</v>
       </c>
       <c r="H61" s="3">
-        <v>4953100</v>
+        <v>5006300</v>
       </c>
       <c r="I61" s="3">
-        <v>5549300</v>
+        <v>5608900</v>
       </c>
       <c r="J61" s="3">
-        <v>4555600</v>
+        <v>4604600</v>
       </c>
       <c r="K61" s="3">
         <v>4291600</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22009400</v>
+        <v>22245900</v>
       </c>
       <c r="E62" s="3">
-        <v>19220500</v>
+        <v>19427000</v>
       </c>
       <c r="F62" s="3">
-        <v>19042600</v>
+        <v>19247300</v>
       </c>
       <c r="G62" s="3">
-        <v>16443600</v>
+        <v>16620400</v>
       </c>
       <c r="H62" s="3">
-        <v>16022000</v>
+        <v>16194200</v>
       </c>
       <c r="I62" s="3">
-        <v>14416700</v>
+        <v>14571700</v>
       </c>
       <c r="J62" s="3">
-        <v>20734600</v>
+        <v>20957500</v>
       </c>
       <c r="K62" s="3">
         <v>30870400</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>65793300</v>
+        <v>66500300</v>
       </c>
       <c r="E66" s="3">
-        <v>46123700</v>
+        <v>46619400</v>
       </c>
       <c r="F66" s="3">
-        <v>44783000</v>
+        <v>45264300</v>
       </c>
       <c r="G66" s="3">
-        <v>36484300</v>
+        <v>36876400</v>
       </c>
       <c r="H66" s="3">
-        <v>36521700</v>
+        <v>36914200</v>
       </c>
       <c r="I66" s="3">
-        <v>34695700</v>
+        <v>35068600</v>
       </c>
       <c r="J66" s="3">
-        <v>32168100</v>
+        <v>32513800</v>
       </c>
       <c r="K66" s="3">
         <v>28527700</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36061600</v>
+        <v>36449200</v>
       </c>
       <c r="E72" s="3">
-        <v>31640000</v>
+        <v>31980000</v>
       </c>
       <c r="F72" s="3">
-        <v>27744300</v>
+        <v>28042400</v>
       </c>
       <c r="G72" s="3">
-        <v>24365700</v>
+        <v>24627600</v>
       </c>
       <c r="H72" s="3">
-        <v>21698700</v>
+        <v>21931900</v>
       </c>
       <c r="I72" s="3">
-        <v>19565300</v>
+        <v>19775500</v>
       </c>
       <c r="J72" s="3">
-        <v>21341800</v>
+        <v>21571200</v>
       </c>
       <c r="K72" s="3">
         <v>39922600</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40171400</v>
+        <v>40603100</v>
       </c>
       <c r="E76" s="3">
-        <v>35457700</v>
+        <v>35838800</v>
       </c>
       <c r="F76" s="3">
-        <v>31808000</v>
+        <v>32149800</v>
       </c>
       <c r="G76" s="3">
-        <v>28974000</v>
+        <v>29285400</v>
       </c>
       <c r="H76" s="3">
-        <v>26724200</v>
+        <v>27011400</v>
       </c>
       <c r="I76" s="3">
-        <v>23895800</v>
+        <v>24152600</v>
       </c>
       <c r="J76" s="3">
-        <v>29513100</v>
+        <v>29830300</v>
       </c>
       <c r="K76" s="3">
         <v>27403500</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7873800</v>
+        <v>7942600</v>
       </c>
       <c r="E81" s="3">
-        <v>6976700</v>
+        <v>7037700</v>
       </c>
       <c r="F81" s="3">
-        <v>5890800</v>
+        <v>5942300</v>
       </c>
       <c r="G81" s="3">
-        <v>4464500</v>
+        <v>4503500</v>
       </c>
       <c r="H81" s="3">
-        <v>3923200</v>
+        <v>3957500</v>
       </c>
       <c r="I81" s="3">
-        <v>6201500</v>
+        <v>6255700</v>
       </c>
       <c r="J81" s="3">
-        <v>3780400</v>
+        <v>3813500</v>
       </c>
       <c r="K81" s="3">
         <v>3847300</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5608600</v>
+        <v>5657600</v>
       </c>
       <c r="E83" s="3">
-        <v>2527600</v>
+        <v>2549700</v>
       </c>
       <c r="F83" s="3">
-        <v>2608800</v>
+        <v>2631700</v>
       </c>
       <c r="G83" s="3">
-        <v>2353000</v>
+        <v>2373600</v>
       </c>
       <c r="H83" s="3">
-        <v>2284900</v>
+        <v>2304900</v>
       </c>
       <c r="I83" s="3">
-        <v>2080700</v>
+        <v>2098900</v>
       </c>
       <c r="J83" s="3">
-        <v>1575600</v>
+        <v>1589400</v>
       </c>
       <c r="K83" s="3">
         <v>1446200</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12789500</v>
+        <v>12901300</v>
       </c>
       <c r="E89" s="3">
-        <v>9322000</v>
+        <v>9403500</v>
       </c>
       <c r="F89" s="3">
-        <v>7655300</v>
+        <v>7722200</v>
       </c>
       <c r="G89" s="3">
-        <v>6781200</v>
+        <v>6840500</v>
       </c>
       <c r="H89" s="3">
-        <v>6186100</v>
+        <v>6240200</v>
       </c>
       <c r="I89" s="3">
-        <v>5058500</v>
+        <v>5102700</v>
       </c>
       <c r="J89" s="3">
-        <v>5176000</v>
+        <v>5221200</v>
       </c>
       <c r="K89" s="3">
         <v>4617000</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3140300</v>
+        <v>-3167700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2859200</v>
+        <v>-2884200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2074100</v>
+        <v>-2092300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2360700</v>
+        <v>-2381300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1909400</v>
+        <v>-1926100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1682100</v>
+        <v>-1696800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1735900</v>
+        <v>-1751100</v>
       </c>
       <c r="K91" s="3">
         <v>-1801900</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6444200</v>
+        <v>-6500500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3776000</v>
+        <v>-3809000</v>
       </c>
       <c r="F94" s="3">
-        <v>-9450500</v>
+        <v>-9533100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2523200</v>
+        <v>-2545300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2707700</v>
+        <v>-2731300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2203700</v>
+        <v>-2223000</v>
       </c>
       <c r="J94" s="3">
-        <v>-4300900</v>
+        <v>-4338500</v>
       </c>
       <c r="K94" s="3">
         <v>-1896200</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4038400</v>
+        <v>-4073800</v>
       </c>
       <c r="E96" s="3">
-        <v>-2981100</v>
+        <v>-3007100</v>
       </c>
       <c r="F96" s="3">
-        <v>-2316800</v>
+        <v>-2337000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2041200</v>
+        <v>-2059000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1834800</v>
+        <v>-1850800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1777700</v>
+        <v>-1793200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1648100</v>
+        <v>-1662500</v>
       </c>
       <c r="K96" s="3">
         <v>-1623500</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5197900</v>
+        <v>-5243400</v>
       </c>
       <c r="E100" s="3">
-        <v>-4746700</v>
+        <v>-4788200</v>
       </c>
       <c r="F100" s="3">
-        <v>2369500</v>
+        <v>2390200</v>
       </c>
       <c r="G100" s="3">
-        <v>-4375500</v>
+        <v>-4413800</v>
       </c>
       <c r="H100" s="3">
-        <v>-3873700</v>
+        <v>-3907600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1932500</v>
+        <v>-1949400</v>
       </c>
       <c r="J100" s="3">
-        <v>99900</v>
+        <v>100800</v>
       </c>
       <c r="K100" s="3">
         <v>-2765700</v>
@@ -3464,25 +3464,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>42800</v>
+        <v>43200</v>
       </c>
       <c r="E101" s="3">
-        <v>73600</v>
+        <v>74200</v>
       </c>
       <c r="F101" s="3">
-        <v>-265700</v>
+        <v>-268000</v>
       </c>
       <c r="G101" s="3">
-        <v>59300</v>
+        <v>59800</v>
       </c>
       <c r="H101" s="3">
-        <v>-36200</v>
+        <v>-36600</v>
       </c>
       <c r="I101" s="3">
-        <v>29600</v>
+        <v>29900</v>
       </c>
       <c r="J101" s="3">
-        <v>51600</v>
+        <v>52100</v>
       </c>
       <c r="K101" s="3">
         <v>-48200</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1190200</v>
+        <v>1200600</v>
       </c>
       <c r="E102" s="3">
-        <v>872900</v>
+        <v>880500</v>
       </c>
       <c r="F102" s="3">
-        <v>308500</v>
+        <v>311200</v>
       </c>
       <c r="G102" s="3">
-        <v>-58200</v>
+        <v>-58700</v>
       </c>
       <c r="H102" s="3">
-        <v>-431500</v>
+        <v>-435300</v>
       </c>
       <c r="I102" s="3">
-        <v>952000</v>
+        <v>960300</v>
       </c>
       <c r="J102" s="3">
-        <v>1026600</v>
+        <v>1035600</v>
       </c>
       <c r="K102" s="3">
         <v>-93100</v>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -666,7 +666,9 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -718,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>59444900</v>
+        <v>63486200</v>
       </c>
       <c r="E8" s="3">
-        <v>51864500</v>
+        <v>55390500</v>
       </c>
       <c r="F8" s="3">
-        <v>47223600</v>
+        <v>50434100</v>
       </c>
       <c r="G8" s="3">
-        <v>41645800</v>
+        <v>44477000</v>
       </c>
       <c r="H8" s="3">
-        <v>39501400</v>
+        <v>42186900</v>
       </c>
       <c r="I8" s="3">
-        <v>33934600</v>
+        <v>36241700</v>
       </c>
       <c r="J8" s="3">
-        <v>32138100</v>
+        <v>34323000</v>
       </c>
       <c r="K8" s="3">
         <v>31382100</v>
@@ -751,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20073000</v>
+        <v>21437700</v>
       </c>
       <c r="E9" s="3">
-        <v>17306300</v>
+        <v>18482800</v>
       </c>
       <c r="F9" s="3">
-        <v>16373700</v>
+        <v>17486800</v>
       </c>
       <c r="G9" s="3">
-        <v>14442000</v>
+        <v>15423800</v>
       </c>
       <c r="H9" s="3">
-        <v>13903700</v>
+        <v>14848900</v>
       </c>
       <c r="I9" s="3">
-        <v>11963200</v>
+        <v>12776500</v>
       </c>
       <c r="J9" s="3">
-        <v>11072700</v>
+        <v>11825500</v>
       </c>
       <c r="K9" s="3">
         <v>11066200</v>
@@ -784,25 +786,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>39371900</v>
+        <v>42048500</v>
       </c>
       <c r="E10" s="3">
-        <v>34558200</v>
+        <v>36907700</v>
       </c>
       <c r="F10" s="3">
-        <v>30850000</v>
+        <v>32947300</v>
       </c>
       <c r="G10" s="3">
-        <v>27203800</v>
+        <v>29053200</v>
       </c>
       <c r="H10" s="3">
-        <v>25597700</v>
+        <v>27338000</v>
       </c>
       <c r="I10" s="3">
-        <v>21971500</v>
+        <v>23465200</v>
       </c>
       <c r="J10" s="3">
-        <v>21065400</v>
+        <v>22497600</v>
       </c>
       <c r="K10" s="3">
         <v>20315900</v>
@@ -898,25 +900,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>141800</v>
+        <v>151400</v>
       </c>
       <c r="E14" s="3">
-        <v>139600</v>
+        <v>149000</v>
       </c>
       <c r="F14" s="3">
-        <v>258100</v>
+        <v>275600</v>
       </c>
       <c r="G14" s="3">
-        <v>343400</v>
+        <v>366700</v>
       </c>
       <c r="H14" s="3">
-        <v>261400</v>
+        <v>279200</v>
       </c>
       <c r="I14" s="3">
-        <v>321200</v>
+        <v>343000</v>
       </c>
       <c r="J14" s="3">
-        <v>136200</v>
+        <v>145500</v>
       </c>
       <c r="K14" s="3">
         <v>190700</v>
@@ -976,25 +978,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46958900</v>
+        <v>50151400</v>
       </c>
       <c r="E17" s="3">
-        <v>40924700</v>
+        <v>43707000</v>
       </c>
       <c r="F17" s="3">
-        <v>38237700</v>
+        <v>40837300</v>
       </c>
       <c r="G17" s="3">
-        <v>33998900</v>
+        <v>36310300</v>
       </c>
       <c r="H17" s="3">
-        <v>32430500</v>
+        <v>34635300</v>
       </c>
       <c r="I17" s="3">
-        <v>27919300</v>
+        <v>29817400</v>
       </c>
       <c r="J17" s="3">
-        <v>25605500</v>
+        <v>27346300</v>
       </c>
       <c r="K17" s="3">
         <v>24939600</v>
@@ -1009,25 +1011,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12486000</v>
+        <v>13334800</v>
       </c>
       <c r="E18" s="3">
-        <v>10939800</v>
+        <v>11683500</v>
       </c>
       <c r="F18" s="3">
-        <v>8986000</v>
+        <v>9596900</v>
       </c>
       <c r="G18" s="3">
-        <v>7646900</v>
+        <v>8166700</v>
       </c>
       <c r="H18" s="3">
-        <v>7070900</v>
+        <v>7551600</v>
       </c>
       <c r="I18" s="3">
-        <v>6015400</v>
+        <v>6424300</v>
       </c>
       <c r="J18" s="3">
-        <v>6532600</v>
+        <v>6976700</v>
       </c>
       <c r="K18" s="3">
         <v>6442500</v>
@@ -1057,25 +1059,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-125200</v>
+        <v>-133700</v>
       </c>
       <c r="E20" s="3">
-        <v>-254700</v>
+        <v>-272100</v>
       </c>
       <c r="F20" s="3">
-        <v>121800</v>
+        <v>130100</v>
       </c>
       <c r="G20" s="3">
-        <v>-177200</v>
+        <v>-189300</v>
       </c>
       <c r="H20" s="3">
-        <v>-335600</v>
+        <v>-358400</v>
       </c>
       <c r="I20" s="3">
-        <v>3423600</v>
+        <v>3656300</v>
       </c>
       <c r="J20" s="3">
-        <v>-66500</v>
+        <v>-71000</v>
       </c>
       <c r="K20" s="3">
         <v>168300</v>
@@ -1090,25 +1092,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17981100</v>
+        <v>19245500</v>
       </c>
       <c r="E21" s="3">
-        <v>13217900</v>
+        <v>14135400</v>
       </c>
       <c r="F21" s="3">
-        <v>11722100</v>
+        <v>12538500</v>
       </c>
       <c r="G21" s="3">
-        <v>9827600</v>
+        <v>10513300</v>
       </c>
       <c r="H21" s="3">
-        <v>9025000</v>
+        <v>9655700</v>
       </c>
       <c r="I21" s="3">
-        <v>11524000</v>
+        <v>12323000</v>
       </c>
       <c r="J21" s="3">
-        <v>8045100</v>
+        <v>8603800</v>
       </c>
       <c r="K21" s="3">
         <v>8060500</v>
@@ -1123,25 +1125,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>494000</v>
+        <v>527600</v>
       </c>
       <c r="E22" s="3">
-        <v>175000</v>
+        <v>186900</v>
       </c>
       <c r="F22" s="3">
-        <v>187200</v>
+        <v>199900</v>
       </c>
       <c r="G22" s="3">
-        <v>175000</v>
+        <v>186900</v>
       </c>
       <c r="H22" s="3">
-        <v>122900</v>
+        <v>131300</v>
       </c>
       <c r="I22" s="3">
-        <v>159500</v>
+        <v>170300</v>
       </c>
       <c r="J22" s="3">
-        <v>152800</v>
+        <v>163200</v>
       </c>
       <c r="K22" s="3">
         <v>181800</v>
@@ -1156,25 +1158,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11866800</v>
+        <v>12673600</v>
       </c>
       <c r="E23" s="3">
-        <v>10510000</v>
+        <v>11224500</v>
       </c>
       <c r="F23" s="3">
-        <v>8920600</v>
+        <v>9527100</v>
       </c>
       <c r="G23" s="3">
-        <v>7294700</v>
+        <v>7790600</v>
       </c>
       <c r="H23" s="3">
-        <v>6612400</v>
+        <v>7061900</v>
       </c>
       <c r="I23" s="3">
-        <v>9279500</v>
+        <v>9910300</v>
       </c>
       <c r="J23" s="3">
-        <v>6313300</v>
+        <v>6742500</v>
       </c>
       <c r="K23" s="3">
         <v>6429000</v>
@@ -1189,25 +1191,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3247500</v>
+        <v>3468300</v>
       </c>
       <c r="E24" s="3">
-        <v>2767900</v>
+        <v>2956100</v>
       </c>
       <c r="F24" s="3">
-        <v>2452200</v>
+        <v>2618900</v>
       </c>
       <c r="G24" s="3">
-        <v>2362500</v>
+        <v>2523100</v>
       </c>
       <c r="H24" s="3">
-        <v>2180900</v>
+        <v>2329100</v>
       </c>
       <c r="I24" s="3">
-        <v>2517600</v>
+        <v>2688700</v>
       </c>
       <c r="J24" s="3">
-        <v>1941600</v>
+        <v>2073600</v>
       </c>
       <c r="K24" s="3">
         <v>2043100</v>
@@ -1255,25 +1257,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8619300</v>
+        <v>9205300</v>
       </c>
       <c r="E26" s="3">
-        <v>7742100</v>
+        <v>8268500</v>
       </c>
       <c r="F26" s="3">
-        <v>6468400</v>
+        <v>6908100</v>
       </c>
       <c r="G26" s="3">
-        <v>4932100</v>
+        <v>5267500</v>
       </c>
       <c r="H26" s="3">
-        <v>4431500</v>
+        <v>4732800</v>
       </c>
       <c r="I26" s="3">
-        <v>6761900</v>
+        <v>7221600</v>
       </c>
       <c r="J26" s="3">
-        <v>4371700</v>
+        <v>4668900</v>
       </c>
       <c r="K26" s="3">
         <v>4385900</v>
@@ -1288,25 +1290,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7942600</v>
+        <v>8482600</v>
       </c>
       <c r="E27" s="3">
-        <v>7037700</v>
+        <v>7516100</v>
       </c>
       <c r="F27" s="3">
-        <v>5942300</v>
+        <v>6346300</v>
       </c>
       <c r="G27" s="3">
-        <v>4503500</v>
+        <v>4809700</v>
       </c>
       <c r="H27" s="3">
-        <v>3957500</v>
+        <v>4226500</v>
       </c>
       <c r="I27" s="3">
-        <v>6255700</v>
+        <v>6681000</v>
       </c>
       <c r="J27" s="3">
-        <v>3813500</v>
+        <v>4072700</v>
       </c>
       <c r="K27" s="3">
         <v>3847300</v>
@@ -1453,25 +1455,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>125200</v>
+        <v>133700</v>
       </c>
       <c r="E32" s="3">
-        <v>254700</v>
+        <v>272100</v>
       </c>
       <c r="F32" s="3">
-        <v>-121800</v>
+        <v>-130100</v>
       </c>
       <c r="G32" s="3">
-        <v>177200</v>
+        <v>189300</v>
       </c>
       <c r="H32" s="3">
-        <v>335600</v>
+        <v>358400</v>
       </c>
       <c r="I32" s="3">
-        <v>-3423600</v>
+        <v>-3656300</v>
       </c>
       <c r="J32" s="3">
-        <v>66500</v>
+        <v>71000</v>
       </c>
       <c r="K32" s="3">
         <v>-168300</v>
@@ -1486,25 +1488,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7942600</v>
+        <v>8482600</v>
       </c>
       <c r="E33" s="3">
-        <v>7037700</v>
+        <v>7516100</v>
       </c>
       <c r="F33" s="3">
-        <v>5942300</v>
+        <v>6346300</v>
       </c>
       <c r="G33" s="3">
-        <v>4503500</v>
+        <v>4809700</v>
       </c>
       <c r="H33" s="3">
-        <v>3957500</v>
+        <v>4226500</v>
       </c>
       <c r="I33" s="3">
-        <v>6255700</v>
+        <v>6681000</v>
       </c>
       <c r="J33" s="3">
-        <v>3813500</v>
+        <v>4072700</v>
       </c>
       <c r="K33" s="3">
         <v>3847300</v>
@@ -1552,25 +1554,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7942600</v>
+        <v>8482600</v>
       </c>
       <c r="E35" s="3">
-        <v>7037700</v>
+        <v>7516100</v>
       </c>
       <c r="F35" s="3">
-        <v>5942300</v>
+        <v>6346300</v>
       </c>
       <c r="G35" s="3">
-        <v>4503500</v>
+        <v>4809700</v>
       </c>
       <c r="H35" s="3">
-        <v>3957500</v>
+        <v>4226500</v>
       </c>
       <c r="I35" s="3">
-        <v>6255700</v>
+        <v>6681000</v>
       </c>
       <c r="J35" s="3">
-        <v>3813500</v>
+        <v>4072700</v>
       </c>
       <c r="K35" s="3">
         <v>3847300</v>
@@ -1653,25 +1655,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6295900</v>
+        <v>6710600</v>
       </c>
       <c r="E41" s="3">
-        <v>5116200</v>
+        <v>5453200</v>
       </c>
       <c r="F41" s="3">
-        <v>4148400</v>
+        <v>4421700</v>
       </c>
       <c r="G41" s="3">
-        <v>3933100</v>
+        <v>4192200</v>
       </c>
       <c r="H41" s="3">
-        <v>3988600</v>
+        <v>4251300</v>
       </c>
       <c r="I41" s="3">
-        <v>4540200</v>
+        <v>4839200</v>
       </c>
       <c r="J41" s="3">
-        <v>3580200</v>
+        <v>3816000</v>
       </c>
       <c r="K41" s="3">
         <v>4792000</v>
@@ -1686,25 +1688,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>813500</v>
+        <v>867100</v>
       </c>
       <c r="E42" s="3">
-        <v>739100</v>
+        <v>787800</v>
       </c>
       <c r="F42" s="3">
-        <v>571500</v>
+        <v>609200</v>
       </c>
       <c r="G42" s="3">
-        <v>415100</v>
+        <v>442400</v>
       </c>
       <c r="H42" s="3">
-        <v>427300</v>
+        <v>455400</v>
       </c>
       <c r="I42" s="3">
-        <v>280800</v>
+        <v>299300</v>
       </c>
       <c r="J42" s="3">
-        <v>189800</v>
+        <v>202300</v>
       </c>
       <c r="K42" s="3">
         <v>522800</v>
@@ -1719,25 +1721,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6103900</v>
+        <v>6506000</v>
       </c>
       <c r="E43" s="3">
-        <v>5572300</v>
+        <v>5939300</v>
       </c>
       <c r="F43" s="3">
-        <v>5354800</v>
+        <v>5707500</v>
       </c>
       <c r="G43" s="3">
-        <v>4552400</v>
+        <v>4852300</v>
       </c>
       <c r="H43" s="3">
-        <v>4508000</v>
+        <v>4804900</v>
       </c>
       <c r="I43" s="3">
-        <v>3897600</v>
+        <v>4154300</v>
       </c>
       <c r="J43" s="3">
-        <v>3475900</v>
+        <v>3704800</v>
       </c>
       <c r="K43" s="3">
         <v>6753300</v>
@@ -1752,25 +1754,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15223100</v>
+        <v>16225800</v>
       </c>
       <c r="E44" s="3">
-        <v>13855900</v>
+        <v>14768500</v>
       </c>
       <c r="F44" s="3">
-        <v>12083500</v>
+        <v>12879400</v>
       </c>
       <c r="G44" s="3">
-        <v>11704000</v>
+        <v>12474900</v>
       </c>
       <c r="H44" s="3">
-        <v>11204500</v>
+        <v>11942600</v>
       </c>
       <c r="I44" s="3">
-        <v>10515400</v>
+        <v>11208000</v>
       </c>
       <c r="J44" s="3">
-        <v>9424400</v>
+        <v>10045200</v>
       </c>
       <c r="K44" s="3">
         <v>18034900</v>
@@ -1785,25 +1787,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>984400</v>
+        <v>1049200</v>
       </c>
       <c r="E45" s="3">
-        <v>853400</v>
+        <v>909700</v>
       </c>
       <c r="F45" s="3">
-        <v>1215200</v>
+        <v>1295300</v>
       </c>
       <c r="G45" s="3">
-        <v>922200</v>
+        <v>983000</v>
       </c>
       <c r="H45" s="3">
-        <v>902300</v>
+        <v>961700</v>
       </c>
       <c r="I45" s="3">
-        <v>864500</v>
+        <v>921500</v>
       </c>
       <c r="J45" s="3">
-        <v>1054300</v>
+        <v>1123800</v>
       </c>
       <c r="K45" s="3">
         <v>1806400</v>
@@ -1818,25 +1820,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29420800</v>
+        <v>31358700</v>
       </c>
       <c r="E46" s="3">
-        <v>26136900</v>
+        <v>27858500</v>
       </c>
       <c r="F46" s="3">
-        <v>23373500</v>
+        <v>24913100</v>
       </c>
       <c r="G46" s="3">
-        <v>21526800</v>
+        <v>22944700</v>
       </c>
       <c r="H46" s="3">
-        <v>21030700</v>
+        <v>22416000</v>
       </c>
       <c r="I46" s="3">
-        <v>20098500</v>
+        <v>21422300</v>
       </c>
       <c r="J46" s="3">
-        <v>17724600</v>
+        <v>18892100</v>
       </c>
       <c r="K46" s="3">
         <v>15895200</v>
@@ -1851,25 +1853,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3006400</v>
+        <v>3204500</v>
       </c>
       <c r="E47" s="3">
-        <v>2685700</v>
+        <v>2862600</v>
       </c>
       <c r="F47" s="3">
-        <v>2232900</v>
+        <v>2380000</v>
       </c>
       <c r="G47" s="3">
-        <v>2327300</v>
+        <v>2480500</v>
       </c>
       <c r="H47" s="3">
-        <v>1956600</v>
+        <v>2085500</v>
       </c>
       <c r="I47" s="3">
-        <v>1654700</v>
+        <v>1763700</v>
       </c>
       <c r="J47" s="3">
-        <v>8805200</v>
+        <v>9385100</v>
       </c>
       <c r="K47" s="3">
         <v>14562300</v>
@@ -1884,25 +1886,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33937700</v>
+        <v>36173100</v>
       </c>
       <c r="E48" s="3">
-        <v>16771300</v>
+        <v>17876000</v>
       </c>
       <c r="F48" s="3">
-        <v>17661400</v>
+        <v>18824700</v>
       </c>
       <c r="G48" s="3">
-        <v>13471900</v>
+        <v>14359200</v>
       </c>
       <c r="H48" s="3">
-        <v>12382000</v>
+        <v>13197600</v>
       </c>
       <c r="I48" s="3">
-        <v>11527500</v>
+        <v>12286800</v>
       </c>
       <c r="J48" s="3">
-        <v>23866200</v>
+        <v>25438300</v>
       </c>
       <c r="K48" s="3">
         <v>19593300</v>
@@ -1917,25 +1919,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37298200</v>
+        <v>39754900</v>
       </c>
       <c r="E49" s="3">
-        <v>34382700</v>
+        <v>36647400</v>
       </c>
       <c r="F49" s="3">
-        <v>34175200</v>
+        <v>36426200</v>
       </c>
       <c r="G49" s="3">
-        <v>37885200</v>
+        <v>40380700</v>
       </c>
       <c r="H49" s="3">
-        <v>26295600</v>
+        <v>28027600</v>
       </c>
       <c r="I49" s="3">
-        <v>24239100</v>
+        <v>25835700</v>
       </c>
       <c r="J49" s="3">
-        <v>48085400</v>
+        <v>51252700</v>
       </c>
       <c r="K49" s="3">
         <v>55939100</v>
@@ -2016,25 +2018,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3440400</v>
+        <v>3667000</v>
       </c>
       <c r="E52" s="3">
-        <v>2481500</v>
+        <v>2645000</v>
       </c>
       <c r="F52" s="3">
-        <v>2248500</v>
+        <v>2396600</v>
       </c>
       <c r="G52" s="3">
-        <v>2493700</v>
+        <v>2658000</v>
       </c>
       <c r="H52" s="3">
-        <v>2260700</v>
+        <v>2409600</v>
       </c>
       <c r="I52" s="3">
-        <v>1701300</v>
+        <v>1813400</v>
       </c>
       <c r="J52" s="3">
-        <v>1584800</v>
+        <v>1689200</v>
       </c>
       <c r="K52" s="3">
         <v>3444500</v>
@@ -2082,25 +2084,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>107104000</v>
+        <v>114158000</v>
       </c>
       <c r="E54" s="3">
-        <v>82458100</v>
+        <v>87889500</v>
       </c>
       <c r="F54" s="3">
-        <v>77414100</v>
+        <v>82513200</v>
       </c>
       <c r="G54" s="3">
-        <v>66161800</v>
+        <v>70519800</v>
       </c>
       <c r="H54" s="3">
-        <v>63925600</v>
+        <v>68136200</v>
       </c>
       <c r="I54" s="3">
-        <v>59221100</v>
+        <v>63121900</v>
       </c>
       <c r="J54" s="3">
-        <v>62344100</v>
+        <v>66450600</v>
       </c>
       <c r="K54" s="3">
         <v>55931200</v>
@@ -2145,25 +2147,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6452400</v>
+        <v>6877400</v>
       </c>
       <c r="E57" s="3">
-        <v>5897500</v>
+        <v>6285900</v>
       </c>
       <c r="F57" s="3">
-        <v>5037400</v>
+        <v>5369200</v>
       </c>
       <c r="G57" s="3">
-        <v>4643400</v>
+        <v>4949300</v>
       </c>
       <c r="H57" s="3">
-        <v>4394800</v>
+        <v>4684300</v>
       </c>
       <c r="I57" s="3">
-        <v>4001900</v>
+        <v>4265500</v>
       </c>
       <c r="J57" s="3">
-        <v>3659000</v>
+        <v>3900000</v>
       </c>
       <c r="K57" s="3">
         <v>7014700</v>
@@ -2178,25 +2180,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10832800</v>
+        <v>11546300</v>
       </c>
       <c r="E58" s="3">
-        <v>5557900</v>
+        <v>5924000</v>
       </c>
       <c r="F58" s="3">
-        <v>5428000</v>
+        <v>5785600</v>
       </c>
       <c r="G58" s="3">
-        <v>3794400</v>
+        <v>4044300</v>
       </c>
       <c r="H58" s="3">
-        <v>4152900</v>
+        <v>4426400</v>
       </c>
       <c r="I58" s="3">
-        <v>4591200</v>
+        <v>4893700</v>
       </c>
       <c r="J58" s="3">
-        <v>6125000</v>
+        <v>6528400</v>
       </c>
       <c r="K58" s="3">
         <v>7427600</v>
@@ -2211,25 +2213,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7821900</v>
+        <v>8337100</v>
       </c>
       <c r="E59" s="3">
-        <v>7225900</v>
+        <v>7701900</v>
       </c>
       <c r="F59" s="3">
-        <v>6606600</v>
+        <v>7041800</v>
       </c>
       <c r="G59" s="3">
-        <v>5778700</v>
+        <v>6159400</v>
       </c>
       <c r="H59" s="3">
-        <v>5545700</v>
+        <v>5911000</v>
       </c>
       <c r="I59" s="3">
-        <v>4918600</v>
+        <v>5242600</v>
       </c>
       <c r="J59" s="3">
-        <v>4158400</v>
+        <v>4432300</v>
       </c>
       <c r="K59" s="3">
         <v>7611600</v>
@@ -2244,25 +2246,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25107000</v>
+        <v>26760700</v>
       </c>
       <c r="E60" s="3">
-        <v>18681300</v>
+        <v>19911800</v>
       </c>
       <c r="F60" s="3">
-        <v>16634800</v>
+        <v>17730500</v>
       </c>
       <c r="G60" s="3">
-        <v>14216500</v>
+        <v>15152900</v>
       </c>
       <c r="H60" s="3">
-        <v>14093400</v>
+        <v>15021600</v>
       </c>
       <c r="I60" s="3">
-        <v>13511800</v>
+        <v>14401800</v>
       </c>
       <c r="J60" s="3">
-        <v>12917000</v>
+        <v>13767800</v>
       </c>
       <c r="K60" s="3">
         <v>10552300</v>
@@ -2277,25 +2279,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17173000</v>
+        <v>18304200</v>
       </c>
       <c r="E61" s="3">
-        <v>6664300</v>
+        <v>7103300</v>
       </c>
       <c r="F61" s="3">
-        <v>7819700</v>
+        <v>8334700</v>
       </c>
       <c r="G61" s="3">
-        <v>4363700</v>
+        <v>4651200</v>
       </c>
       <c r="H61" s="3">
-        <v>5006300</v>
+        <v>5336100</v>
       </c>
       <c r="I61" s="3">
-        <v>5608900</v>
+        <v>5978400</v>
       </c>
       <c r="J61" s="3">
-        <v>4604600</v>
+        <v>4907900</v>
       </c>
       <c r="K61" s="3">
         <v>4291600</v>
@@ -2310,25 +2312,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22245900</v>
+        <v>23711200</v>
       </c>
       <c r="E62" s="3">
-        <v>19427000</v>
+        <v>20706700</v>
       </c>
       <c r="F62" s="3">
-        <v>19247300</v>
+        <v>20515000</v>
       </c>
       <c r="G62" s="3">
-        <v>16620400</v>
+        <v>17715100</v>
       </c>
       <c r="H62" s="3">
-        <v>16194200</v>
+        <v>17260900</v>
       </c>
       <c r="I62" s="3">
-        <v>14571700</v>
+        <v>15531500</v>
       </c>
       <c r="J62" s="3">
-        <v>20957500</v>
+        <v>22337900</v>
       </c>
       <c r="K62" s="3">
         <v>30870400</v>
@@ -2442,25 +2444,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>66500300</v>
+        <v>70880600</v>
       </c>
       <c r="E66" s="3">
-        <v>46619400</v>
+        <v>49690100</v>
       </c>
       <c r="F66" s="3">
-        <v>45264300</v>
+        <v>48245800</v>
       </c>
       <c r="G66" s="3">
-        <v>36876400</v>
+        <v>39305400</v>
       </c>
       <c r="H66" s="3">
-        <v>36914200</v>
+        <v>39345600</v>
       </c>
       <c r="I66" s="3">
-        <v>35068600</v>
+        <v>37378500</v>
       </c>
       <c r="J66" s="3">
-        <v>32513800</v>
+        <v>34655400</v>
       </c>
       <c r="K66" s="3">
         <v>28527700</v>
@@ -2622,25 +2624,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36449200</v>
+        <v>38850000</v>
       </c>
       <c r="E72" s="3">
-        <v>31980000</v>
+        <v>34086400</v>
       </c>
       <c r="F72" s="3">
-        <v>28042400</v>
+        <v>29889500</v>
       </c>
       <c r="G72" s="3">
-        <v>24627600</v>
+        <v>26249700</v>
       </c>
       <c r="H72" s="3">
-        <v>21931900</v>
+        <v>23376500</v>
       </c>
       <c r="I72" s="3">
-        <v>19775500</v>
+        <v>21078100</v>
       </c>
       <c r="J72" s="3">
-        <v>21571200</v>
+        <v>22992000</v>
       </c>
       <c r="K72" s="3">
         <v>39922600</v>
@@ -2754,25 +2756,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40603100</v>
+        <v>43277600</v>
       </c>
       <c r="E76" s="3">
-        <v>35838800</v>
+        <v>38199400</v>
       </c>
       <c r="F76" s="3">
-        <v>32149800</v>
+        <v>34267400</v>
       </c>
       <c r="G76" s="3">
-        <v>29285400</v>
+        <v>31214400</v>
       </c>
       <c r="H76" s="3">
-        <v>27011400</v>
+        <v>28790600</v>
       </c>
       <c r="I76" s="3">
-        <v>24152600</v>
+        <v>25743500</v>
       </c>
       <c r="J76" s="3">
-        <v>29830300</v>
+        <v>31795200</v>
       </c>
       <c r="K76" s="3">
         <v>27403500</v>
@@ -2858,25 +2860,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7942600</v>
+        <v>8482600</v>
       </c>
       <c r="E81" s="3">
-        <v>7037700</v>
+        <v>7516100</v>
       </c>
       <c r="F81" s="3">
-        <v>5942300</v>
+        <v>6346300</v>
       </c>
       <c r="G81" s="3">
-        <v>4503500</v>
+        <v>4809700</v>
       </c>
       <c r="H81" s="3">
-        <v>3957500</v>
+        <v>4226500</v>
       </c>
       <c r="I81" s="3">
-        <v>6255700</v>
+        <v>6681000</v>
       </c>
       <c r="J81" s="3">
-        <v>3813500</v>
+        <v>4072700</v>
       </c>
       <c r="K81" s="3">
         <v>3847300</v>
@@ -2906,25 +2908,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5657600</v>
+        <v>6042300</v>
       </c>
       <c r="E83" s="3">
-        <v>2549700</v>
+        <v>2723000</v>
       </c>
       <c r="F83" s="3">
-        <v>2631700</v>
+        <v>2810600</v>
       </c>
       <c r="G83" s="3">
-        <v>2373600</v>
+        <v>2535000</v>
       </c>
       <c r="H83" s="3">
-        <v>2304900</v>
+        <v>2461600</v>
       </c>
       <c r="I83" s="3">
-        <v>2098900</v>
+        <v>2241600</v>
       </c>
       <c r="J83" s="3">
-        <v>1589400</v>
+        <v>1697500</v>
       </c>
       <c r="K83" s="3">
         <v>1446200</v>
@@ -3104,25 +3106,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12901300</v>
+        <v>13778400</v>
       </c>
       <c r="E89" s="3">
-        <v>9403500</v>
+        <v>10042800</v>
       </c>
       <c r="F89" s="3">
-        <v>7722200</v>
+        <v>8247200</v>
       </c>
       <c r="G89" s="3">
-        <v>6840500</v>
+        <v>7305600</v>
       </c>
       <c r="H89" s="3">
-        <v>6240200</v>
+        <v>6664500</v>
       </c>
       <c r="I89" s="3">
-        <v>5102700</v>
+        <v>5449600</v>
       </c>
       <c r="J89" s="3">
-        <v>5221200</v>
+        <v>5576200</v>
       </c>
       <c r="K89" s="3">
         <v>4617000</v>
@@ -3152,25 +3154,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3167700</v>
+        <v>-3383100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2884200</v>
+        <v>-3080300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2092300</v>
+        <v>-2234500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2381300</v>
+        <v>-2543200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1926100</v>
+        <v>-2057100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1696800</v>
+        <v>-1812200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1751100</v>
+        <v>-1870200</v>
       </c>
       <c r="K91" s="3">
         <v>-1801900</v>
@@ -3251,25 +3253,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6500500</v>
+        <v>-6942400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3809000</v>
+        <v>-4068000</v>
       </c>
       <c r="F94" s="3">
-        <v>-9533100</v>
+        <v>-10181200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2545300</v>
+        <v>-2718300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2731300</v>
+        <v>-2917000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2223000</v>
+        <v>-2374100</v>
       </c>
       <c r="J94" s="3">
-        <v>-4338500</v>
+        <v>-4633400</v>
       </c>
       <c r="K94" s="3">
         <v>-1896200</v>
@@ -3299,25 +3301,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4073800</v>
+        <v>-4350700</v>
       </c>
       <c r="E96" s="3">
-        <v>-3007100</v>
+        <v>-3211600</v>
       </c>
       <c r="F96" s="3">
-        <v>-2337000</v>
+        <v>-2495900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2059000</v>
+        <v>-2199000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1850800</v>
+        <v>-1976600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1793200</v>
+        <v>-1915100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1662500</v>
+        <v>-1775500</v>
       </c>
       <c r="K96" s="3">
         <v>-1623500</v>
@@ -3431,25 +3433,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5243400</v>
+        <v>-5599800</v>
       </c>
       <c r="E100" s="3">
-        <v>-4788200</v>
+        <v>-5113700</v>
       </c>
       <c r="F100" s="3">
-        <v>2390200</v>
+        <v>2552700</v>
       </c>
       <c r="G100" s="3">
-        <v>-4413800</v>
+        <v>-4713900</v>
       </c>
       <c r="H100" s="3">
-        <v>-3907600</v>
+        <v>-4173300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1949400</v>
+        <v>-2081900</v>
       </c>
       <c r="J100" s="3">
-        <v>100800</v>
+        <v>107600</v>
       </c>
       <c r="K100" s="3">
         <v>-2765700</v>
@@ -3464,25 +3466,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>43200</v>
+        <v>46100</v>
       </c>
       <c r="E101" s="3">
-        <v>74200</v>
+        <v>79300</v>
       </c>
       <c r="F101" s="3">
-        <v>-268000</v>
+        <v>-286300</v>
       </c>
       <c r="G101" s="3">
-        <v>59800</v>
+        <v>63900</v>
       </c>
       <c r="H101" s="3">
-        <v>-36600</v>
+        <v>-39000</v>
       </c>
       <c r="I101" s="3">
-        <v>29900</v>
+        <v>31900</v>
       </c>
       <c r="J101" s="3">
-        <v>52100</v>
+        <v>55600</v>
       </c>
       <c r="K101" s="3">
         <v>-48200</v>
@@ -3497,25 +3499,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1200600</v>
+        <v>1282300</v>
       </c>
       <c r="E102" s="3">
-        <v>880500</v>
+        <v>940400</v>
       </c>
       <c r="F102" s="3">
-        <v>311200</v>
+        <v>332400</v>
       </c>
       <c r="G102" s="3">
-        <v>-58700</v>
+        <v>-62700</v>
       </c>
       <c r="H102" s="3">
-        <v>-435300</v>
+        <v>-464900</v>
       </c>
       <c r="I102" s="3">
-        <v>960300</v>
+        <v>1025600</v>
       </c>
       <c r="J102" s="3">
-        <v>1035600</v>
+        <v>1106000</v>
       </c>
       <c r="K102" s="3">
         <v>-93100</v>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>63486200</v>
+        <v>64200100</v>
       </c>
       <c r="E8" s="3">
-        <v>55390500</v>
+        <v>56013300</v>
       </c>
       <c r="F8" s="3">
-        <v>50434100</v>
+        <v>51001200</v>
       </c>
       <c r="G8" s="3">
-        <v>44477000</v>
+        <v>44977100</v>
       </c>
       <c r="H8" s="3">
-        <v>42186900</v>
+        <v>42661300</v>
       </c>
       <c r="I8" s="3">
-        <v>36241700</v>
+        <v>36649200</v>
       </c>
       <c r="J8" s="3">
-        <v>34323000</v>
+        <v>34708900</v>
       </c>
       <c r="K8" s="3">
         <v>31382100</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21437700</v>
+        <v>21678700</v>
       </c>
       <c r="E9" s="3">
-        <v>18482800</v>
+        <v>18690600</v>
       </c>
       <c r="F9" s="3">
-        <v>17486800</v>
+        <v>17683400</v>
       </c>
       <c r="G9" s="3">
-        <v>15423800</v>
+        <v>15597300</v>
       </c>
       <c r="H9" s="3">
-        <v>14848900</v>
+        <v>15015900</v>
       </c>
       <c r="I9" s="3">
-        <v>12776500</v>
+        <v>12920200</v>
       </c>
       <c r="J9" s="3">
-        <v>11825500</v>
+        <v>11958400</v>
       </c>
       <c r="K9" s="3">
         <v>11066200</v>
@@ -786,25 +786,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>42048500</v>
+        <v>42521300</v>
       </c>
       <c r="E10" s="3">
-        <v>36907700</v>
+        <v>37322600</v>
       </c>
       <c r="F10" s="3">
-        <v>32947300</v>
+        <v>33317800</v>
       </c>
       <c r="G10" s="3">
-        <v>29053200</v>
+        <v>29379900</v>
       </c>
       <c r="H10" s="3">
-        <v>27338000</v>
+        <v>27645400</v>
       </c>
       <c r="I10" s="3">
-        <v>23465200</v>
+        <v>23729000</v>
       </c>
       <c r="J10" s="3">
-        <v>22497600</v>
+        <v>22750500</v>
       </c>
       <c r="K10" s="3">
         <v>20315900</v>
@@ -900,25 +900,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>151400</v>
+        <v>153100</v>
       </c>
       <c r="E14" s="3">
-        <v>149000</v>
+        <v>150700</v>
       </c>
       <c r="F14" s="3">
-        <v>275600</v>
+        <v>278700</v>
       </c>
       <c r="G14" s="3">
-        <v>366700</v>
+        <v>370800</v>
       </c>
       <c r="H14" s="3">
-        <v>279200</v>
+        <v>282300</v>
       </c>
       <c r="I14" s="3">
-        <v>343000</v>
+        <v>346900</v>
       </c>
       <c r="J14" s="3">
-        <v>145500</v>
+        <v>147100</v>
       </c>
       <c r="K14" s="3">
         <v>190700</v>
@@ -978,25 +978,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>50151400</v>
+        <v>50715300</v>
       </c>
       <c r="E17" s="3">
-        <v>43707000</v>
+        <v>44198400</v>
       </c>
       <c r="F17" s="3">
-        <v>40837300</v>
+        <v>41296400</v>
       </c>
       <c r="G17" s="3">
-        <v>36310300</v>
+        <v>36718600</v>
       </c>
       <c r="H17" s="3">
-        <v>34635300</v>
+        <v>35024700</v>
       </c>
       <c r="I17" s="3">
-        <v>29817400</v>
+        <v>30152600</v>
       </c>
       <c r="J17" s="3">
-        <v>27346300</v>
+        <v>27653800</v>
       </c>
       <c r="K17" s="3">
         <v>24939600</v>
@@ -1011,25 +1011,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13334800</v>
+        <v>13484800</v>
       </c>
       <c r="E18" s="3">
-        <v>11683500</v>
+        <v>11814900</v>
       </c>
       <c r="F18" s="3">
-        <v>9596900</v>
+        <v>9704800</v>
       </c>
       <c r="G18" s="3">
-        <v>8166700</v>
+        <v>8258600</v>
       </c>
       <c r="H18" s="3">
-        <v>7551600</v>
+        <v>7636500</v>
       </c>
       <c r="I18" s="3">
-        <v>6424300</v>
+        <v>6496600</v>
       </c>
       <c r="J18" s="3">
-        <v>6976700</v>
+        <v>7055200</v>
       </c>
       <c r="K18" s="3">
         <v>6442500</v>
@@ -1059,25 +1059,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-133700</v>
+        <v>-135200</v>
       </c>
       <c r="E20" s="3">
-        <v>-272100</v>
+        <v>-275100</v>
       </c>
       <c r="F20" s="3">
-        <v>130100</v>
+        <v>131600</v>
       </c>
       <c r="G20" s="3">
-        <v>-189300</v>
+        <v>-191400</v>
       </c>
       <c r="H20" s="3">
-        <v>-358400</v>
+        <v>-362400</v>
       </c>
       <c r="I20" s="3">
-        <v>3656300</v>
+        <v>3697500</v>
       </c>
       <c r="J20" s="3">
-        <v>-71000</v>
+        <v>-71800</v>
       </c>
       <c r="K20" s="3">
         <v>168300</v>
@@ -1092,25 +1092,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19245500</v>
+        <v>19434800</v>
       </c>
       <c r="E21" s="3">
-        <v>14135400</v>
+        <v>14282100</v>
       </c>
       <c r="F21" s="3">
-        <v>12538500</v>
+        <v>12666900</v>
       </c>
       <c r="G21" s="3">
-        <v>10513300</v>
+        <v>10620100</v>
       </c>
       <c r="H21" s="3">
-        <v>9655700</v>
+        <v>9753200</v>
       </c>
       <c r="I21" s="3">
-        <v>12323000</v>
+        <v>12451500</v>
       </c>
       <c r="J21" s="3">
-        <v>8603800</v>
+        <v>8692900</v>
       </c>
       <c r="K21" s="3">
         <v>8060500</v>
@@ -1125,25 +1125,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>527600</v>
+        <v>533500</v>
       </c>
       <c r="E22" s="3">
-        <v>186900</v>
+        <v>189000</v>
       </c>
       <c r="F22" s="3">
-        <v>199900</v>
+        <v>202200</v>
       </c>
       <c r="G22" s="3">
-        <v>186900</v>
+        <v>189000</v>
       </c>
       <c r="H22" s="3">
-        <v>131300</v>
+        <v>132800</v>
       </c>
       <c r="I22" s="3">
-        <v>170300</v>
+        <v>172300</v>
       </c>
       <c r="J22" s="3">
-        <v>163200</v>
+        <v>165100</v>
       </c>
       <c r="K22" s="3">
         <v>181800</v>
@@ -1158,25 +1158,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12673600</v>
+        <v>12816100</v>
       </c>
       <c r="E23" s="3">
-        <v>11224500</v>
+        <v>11350700</v>
       </c>
       <c r="F23" s="3">
-        <v>9527100</v>
+        <v>9634200</v>
       </c>
       <c r="G23" s="3">
-        <v>7790600</v>
+        <v>7878200</v>
       </c>
       <c r="H23" s="3">
-        <v>7061900</v>
+        <v>7141300</v>
       </c>
       <c r="I23" s="3">
-        <v>9910300</v>
+        <v>10021800</v>
       </c>
       <c r="J23" s="3">
-        <v>6742500</v>
+        <v>6818300</v>
       </c>
       <c r="K23" s="3">
         <v>6429000</v>
@@ -1191,25 +1191,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3468300</v>
+        <v>3507300</v>
       </c>
       <c r="E24" s="3">
-        <v>2956100</v>
+        <v>2989300</v>
       </c>
       <c r="F24" s="3">
-        <v>2618900</v>
+        <v>2648400</v>
       </c>
       <c r="G24" s="3">
-        <v>2523100</v>
+        <v>2551500</v>
       </c>
       <c r="H24" s="3">
-        <v>2329100</v>
+        <v>2355300</v>
       </c>
       <c r="I24" s="3">
-        <v>2688700</v>
+        <v>2719000</v>
       </c>
       <c r="J24" s="3">
-        <v>2073600</v>
+        <v>2096900</v>
       </c>
       <c r="K24" s="3">
         <v>2043100</v>
@@ -1257,25 +1257,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9205300</v>
+        <v>9308800</v>
       </c>
       <c r="E26" s="3">
-        <v>8268500</v>
+        <v>8361400</v>
       </c>
       <c r="F26" s="3">
-        <v>6908100</v>
+        <v>6985800</v>
       </c>
       <c r="G26" s="3">
-        <v>5267500</v>
+        <v>5326700</v>
       </c>
       <c r="H26" s="3">
-        <v>4732800</v>
+        <v>4786000</v>
       </c>
       <c r="I26" s="3">
-        <v>7221600</v>
+        <v>7302800</v>
       </c>
       <c r="J26" s="3">
-        <v>4668900</v>
+        <v>4721400</v>
       </c>
       <c r="K26" s="3">
         <v>4385900</v>
@@ -1290,25 +1290,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8482600</v>
+        <v>8578000</v>
       </c>
       <c r="E27" s="3">
-        <v>7516100</v>
+        <v>7600700</v>
       </c>
       <c r="F27" s="3">
-        <v>6346300</v>
+        <v>6417600</v>
       </c>
       <c r="G27" s="3">
-        <v>4809700</v>
+        <v>4863700</v>
       </c>
       <c r="H27" s="3">
-        <v>4226500</v>
+        <v>4274000</v>
       </c>
       <c r="I27" s="3">
-        <v>6681000</v>
+        <v>6756100</v>
       </c>
       <c r="J27" s="3">
-        <v>4072700</v>
+        <v>4118500</v>
       </c>
       <c r="K27" s="3">
         <v>3847300</v>
@@ -1455,25 +1455,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>133700</v>
+        <v>135200</v>
       </c>
       <c r="E32" s="3">
-        <v>272100</v>
+        <v>275100</v>
       </c>
       <c r="F32" s="3">
-        <v>-130100</v>
+        <v>-131600</v>
       </c>
       <c r="G32" s="3">
-        <v>189300</v>
+        <v>191400</v>
       </c>
       <c r="H32" s="3">
-        <v>358400</v>
+        <v>362400</v>
       </c>
       <c r="I32" s="3">
-        <v>-3656300</v>
+        <v>-3697500</v>
       </c>
       <c r="J32" s="3">
-        <v>71000</v>
+        <v>71800</v>
       </c>
       <c r="K32" s="3">
         <v>-168300</v>
@@ -1488,25 +1488,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8482600</v>
+        <v>8578000</v>
       </c>
       <c r="E33" s="3">
-        <v>7516100</v>
+        <v>7600700</v>
       </c>
       <c r="F33" s="3">
-        <v>6346300</v>
+        <v>6417600</v>
       </c>
       <c r="G33" s="3">
-        <v>4809700</v>
+        <v>4863700</v>
       </c>
       <c r="H33" s="3">
-        <v>4226500</v>
+        <v>4274000</v>
       </c>
       <c r="I33" s="3">
-        <v>6681000</v>
+        <v>6756100</v>
       </c>
       <c r="J33" s="3">
-        <v>4072700</v>
+        <v>4118500</v>
       </c>
       <c r="K33" s="3">
         <v>3847300</v>
@@ -1554,25 +1554,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8482600</v>
+        <v>8578000</v>
       </c>
       <c r="E35" s="3">
-        <v>7516100</v>
+        <v>7600700</v>
       </c>
       <c r="F35" s="3">
-        <v>6346300</v>
+        <v>6417600</v>
       </c>
       <c r="G35" s="3">
-        <v>4809700</v>
+        <v>4863700</v>
       </c>
       <c r="H35" s="3">
-        <v>4226500</v>
+        <v>4274000</v>
       </c>
       <c r="I35" s="3">
-        <v>6681000</v>
+        <v>6756100</v>
       </c>
       <c r="J35" s="3">
-        <v>4072700</v>
+        <v>4118500</v>
       </c>
       <c r="K35" s="3">
         <v>3847300</v>
@@ -1655,25 +1655,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6710600</v>
+        <v>6786000</v>
       </c>
       <c r="E41" s="3">
-        <v>5453200</v>
+        <v>5514500</v>
       </c>
       <c r="F41" s="3">
-        <v>4421700</v>
+        <v>4471400</v>
       </c>
       <c r="G41" s="3">
-        <v>4192200</v>
+        <v>4239300</v>
       </c>
       <c r="H41" s="3">
-        <v>4251300</v>
+        <v>4299100</v>
       </c>
       <c r="I41" s="3">
-        <v>4839200</v>
+        <v>4893700</v>
       </c>
       <c r="J41" s="3">
-        <v>3816000</v>
+        <v>3858900</v>
       </c>
       <c r="K41" s="3">
         <v>4792000</v>
@@ -1688,25 +1688,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>867100</v>
+        <v>876800</v>
       </c>
       <c r="E42" s="3">
-        <v>787800</v>
+        <v>796700</v>
       </c>
       <c r="F42" s="3">
-        <v>609200</v>
+        <v>616000</v>
       </c>
       <c r="G42" s="3">
-        <v>442400</v>
+        <v>447400</v>
       </c>
       <c r="H42" s="3">
-        <v>455400</v>
+        <v>460500</v>
       </c>
       <c r="I42" s="3">
-        <v>299300</v>
+        <v>302600</v>
       </c>
       <c r="J42" s="3">
-        <v>202300</v>
+        <v>204600</v>
       </c>
       <c r="K42" s="3">
         <v>522800</v>
@@ -1721,25 +1721,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6506000</v>
+        <v>6579100</v>
       </c>
       <c r="E43" s="3">
-        <v>5939300</v>
+        <v>6006100</v>
       </c>
       <c r="F43" s="3">
-        <v>5707500</v>
+        <v>5771700</v>
       </c>
       <c r="G43" s="3">
-        <v>4852300</v>
+        <v>4906800</v>
       </c>
       <c r="H43" s="3">
-        <v>4804900</v>
+        <v>4859000</v>
       </c>
       <c r="I43" s="3">
-        <v>4154300</v>
+        <v>4201100</v>
       </c>
       <c r="J43" s="3">
-        <v>3704800</v>
+        <v>3746500</v>
       </c>
       <c r="K43" s="3">
         <v>6753300</v>
@@ -1754,25 +1754,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16225800</v>
+        <v>16408300</v>
       </c>
       <c r="E44" s="3">
-        <v>14768500</v>
+        <v>14934600</v>
       </c>
       <c r="F44" s="3">
-        <v>12879400</v>
+        <v>13024200</v>
       </c>
       <c r="G44" s="3">
-        <v>12474900</v>
+        <v>12615100</v>
       </c>
       <c r="H44" s="3">
-        <v>11942600</v>
+        <v>12076800</v>
       </c>
       <c r="I44" s="3">
-        <v>11208000</v>
+        <v>11334000</v>
       </c>
       <c r="J44" s="3">
-        <v>10045200</v>
+        <v>10158100</v>
       </c>
       <c r="K44" s="3">
         <v>18034900</v>
@@ -1787,25 +1787,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1049200</v>
+        <v>1061000</v>
       </c>
       <c r="E45" s="3">
-        <v>909700</v>
+        <v>919900</v>
       </c>
       <c r="F45" s="3">
-        <v>1295300</v>
+        <v>1309800</v>
       </c>
       <c r="G45" s="3">
-        <v>983000</v>
+        <v>994000</v>
       </c>
       <c r="H45" s="3">
-        <v>961700</v>
+        <v>972500</v>
       </c>
       <c r="I45" s="3">
-        <v>921500</v>
+        <v>931800</v>
       </c>
       <c r="J45" s="3">
-        <v>1123800</v>
+        <v>1136400</v>
       </c>
       <c r="K45" s="3">
         <v>1806400</v>
@@ -1820,25 +1820,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31358700</v>
+        <v>31711300</v>
       </c>
       <c r="E46" s="3">
-        <v>27858500</v>
+        <v>28171700</v>
       </c>
       <c r="F46" s="3">
-        <v>24913100</v>
+        <v>25193200</v>
       </c>
       <c r="G46" s="3">
-        <v>22944700</v>
+        <v>23202700</v>
       </c>
       <c r="H46" s="3">
-        <v>22416000</v>
+        <v>22668000</v>
       </c>
       <c r="I46" s="3">
-        <v>21422300</v>
+        <v>21663200</v>
       </c>
       <c r="J46" s="3">
-        <v>18892100</v>
+        <v>19104500</v>
       </c>
       <c r="K46" s="3">
         <v>15895200</v>
@@ -1853,25 +1853,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3204500</v>
+        <v>3240500</v>
       </c>
       <c r="E47" s="3">
-        <v>2862600</v>
+        <v>2894800</v>
       </c>
       <c r="F47" s="3">
-        <v>2380000</v>
+        <v>2406800</v>
       </c>
       <c r="G47" s="3">
-        <v>2480500</v>
+        <v>2508400</v>
       </c>
       <c r="H47" s="3">
-        <v>2085500</v>
+        <v>2108900</v>
       </c>
       <c r="I47" s="3">
-        <v>1763700</v>
+        <v>1783500</v>
       </c>
       <c r="J47" s="3">
-        <v>9385100</v>
+        <v>9490700</v>
       </c>
       <c r="K47" s="3">
         <v>14562300</v>
@@ -1886,25 +1886,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36173100</v>
+        <v>36579800</v>
       </c>
       <c r="E48" s="3">
-        <v>17876000</v>
+        <v>18077000</v>
       </c>
       <c r="F48" s="3">
-        <v>18824700</v>
+        <v>19036300</v>
       </c>
       <c r="G48" s="3">
-        <v>14359200</v>
+        <v>14520700</v>
       </c>
       <c r="H48" s="3">
-        <v>13197600</v>
+        <v>13346000</v>
       </c>
       <c r="I48" s="3">
-        <v>12286800</v>
+        <v>12424900</v>
       </c>
       <c r="J48" s="3">
-        <v>25438300</v>
+        <v>25724300</v>
       </c>
       <c r="K48" s="3">
         <v>19593300</v>
@@ -1919,25 +1919,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39754900</v>
+        <v>40201900</v>
       </c>
       <c r="E49" s="3">
-        <v>36647400</v>
+        <v>37059500</v>
       </c>
       <c r="F49" s="3">
-        <v>36426200</v>
+        <v>36835800</v>
       </c>
       <c r="G49" s="3">
-        <v>40380700</v>
+        <v>40834700</v>
       </c>
       <c r="H49" s="3">
-        <v>28027600</v>
+        <v>28342800</v>
       </c>
       <c r="I49" s="3">
-        <v>25835700</v>
+        <v>26126200</v>
       </c>
       <c r="J49" s="3">
-        <v>51252700</v>
+        <v>51829000</v>
       </c>
       <c r="K49" s="3">
         <v>55939100</v>
@@ -2018,25 +2018,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3667000</v>
+        <v>3708200</v>
       </c>
       <c r="E52" s="3">
-        <v>2645000</v>
+        <v>2674700</v>
       </c>
       <c r="F52" s="3">
-        <v>2396600</v>
+        <v>2423500</v>
       </c>
       <c r="G52" s="3">
-        <v>2658000</v>
+        <v>2687900</v>
       </c>
       <c r="H52" s="3">
-        <v>2409600</v>
+        <v>2436700</v>
       </c>
       <c r="I52" s="3">
-        <v>1813400</v>
+        <v>1833800</v>
       </c>
       <c r="J52" s="3">
-        <v>1689200</v>
+        <v>1708200</v>
       </c>
       <c r="K52" s="3">
         <v>3444500</v>
@@ -2084,25 +2084,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>114158000</v>
+        <v>115442000</v>
       </c>
       <c r="E54" s="3">
-        <v>87889500</v>
+        <v>88877700</v>
       </c>
       <c r="F54" s="3">
-        <v>82513200</v>
+        <v>83440900</v>
       </c>
       <c r="G54" s="3">
-        <v>70519800</v>
+        <v>71312700</v>
       </c>
       <c r="H54" s="3">
-        <v>68136200</v>
+        <v>68902300</v>
       </c>
       <c r="I54" s="3">
-        <v>63121900</v>
+        <v>63831600</v>
       </c>
       <c r="J54" s="3">
-        <v>66450600</v>
+        <v>67197700</v>
       </c>
       <c r="K54" s="3">
         <v>55931200</v>
@@ -2147,25 +2147,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6877400</v>
+        <v>6954700</v>
       </c>
       <c r="E57" s="3">
-        <v>6285900</v>
+        <v>6356600</v>
       </c>
       <c r="F57" s="3">
-        <v>5369200</v>
+        <v>5429600</v>
       </c>
       <c r="G57" s="3">
-        <v>4949300</v>
+        <v>5004900</v>
       </c>
       <c r="H57" s="3">
-        <v>4684300</v>
+        <v>4737000</v>
       </c>
       <c r="I57" s="3">
-        <v>4265500</v>
+        <v>4313500</v>
       </c>
       <c r="J57" s="3">
-        <v>3900000</v>
+        <v>3943900</v>
       </c>
       <c r="K57" s="3">
         <v>7014700</v>
@@ -2180,25 +2180,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11546300</v>
+        <v>11676100</v>
       </c>
       <c r="E58" s="3">
-        <v>5924000</v>
+        <v>5990600</v>
       </c>
       <c r="F58" s="3">
-        <v>5785600</v>
+        <v>5850600</v>
       </c>
       <c r="G58" s="3">
-        <v>4044300</v>
+        <v>4089800</v>
       </c>
       <c r="H58" s="3">
-        <v>4426400</v>
+        <v>4476200</v>
       </c>
       <c r="I58" s="3">
-        <v>4893700</v>
+        <v>4948700</v>
       </c>
       <c r="J58" s="3">
-        <v>6528400</v>
+        <v>6601800</v>
       </c>
       <c r="K58" s="3">
         <v>7427600</v>
@@ -2213,25 +2213,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8337100</v>
+        <v>8430800</v>
       </c>
       <c r="E59" s="3">
-        <v>7701900</v>
+        <v>7788500</v>
       </c>
       <c r="F59" s="3">
-        <v>7041800</v>
+        <v>7121000</v>
       </c>
       <c r="G59" s="3">
-        <v>6159400</v>
+        <v>6228600</v>
       </c>
       <c r="H59" s="3">
-        <v>5911000</v>
+        <v>5977400</v>
       </c>
       <c r="I59" s="3">
-        <v>5242600</v>
+        <v>5301600</v>
       </c>
       <c r="J59" s="3">
-        <v>4432300</v>
+        <v>4482200</v>
       </c>
       <c r="K59" s="3">
         <v>7611600</v>
@@ -2246,25 +2246,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>26760700</v>
+        <v>27061600</v>
       </c>
       <c r="E60" s="3">
-        <v>19911800</v>
+        <v>20135600</v>
       </c>
       <c r="F60" s="3">
-        <v>17730500</v>
+        <v>17929800</v>
       </c>
       <c r="G60" s="3">
-        <v>15152900</v>
+        <v>15323300</v>
       </c>
       <c r="H60" s="3">
-        <v>15021600</v>
+        <v>15190500</v>
       </c>
       <c r="I60" s="3">
-        <v>14401800</v>
+        <v>14563700</v>
       </c>
       <c r="J60" s="3">
-        <v>13767800</v>
+        <v>13922600</v>
       </c>
       <c r="K60" s="3">
         <v>10552300</v>
@@ -2279,25 +2279,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18304200</v>
+        <v>18510000</v>
       </c>
       <c r="E61" s="3">
-        <v>7103300</v>
+        <v>7183200</v>
       </c>
       <c r="F61" s="3">
-        <v>8334700</v>
+        <v>8428400</v>
       </c>
       <c r="G61" s="3">
-        <v>4651200</v>
+        <v>4703500</v>
       </c>
       <c r="H61" s="3">
-        <v>5336100</v>
+        <v>5396100</v>
       </c>
       <c r="I61" s="3">
-        <v>5978400</v>
+        <v>6045600</v>
       </c>
       <c r="J61" s="3">
-        <v>4907900</v>
+        <v>4963000</v>
       </c>
       <c r="K61" s="3">
         <v>4291600</v>
@@ -2312,25 +2312,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23711200</v>
+        <v>23977800</v>
       </c>
       <c r="E62" s="3">
-        <v>20706700</v>
+        <v>20939500</v>
       </c>
       <c r="F62" s="3">
-        <v>20515000</v>
+        <v>20745700</v>
       </c>
       <c r="G62" s="3">
-        <v>17715100</v>
+        <v>17914300</v>
       </c>
       <c r="H62" s="3">
-        <v>17260900</v>
+        <v>17455000</v>
       </c>
       <c r="I62" s="3">
-        <v>15531500</v>
+        <v>15706100</v>
       </c>
       <c r="J62" s="3">
-        <v>22337900</v>
+        <v>22589000</v>
       </c>
       <c r="K62" s="3">
         <v>30870400</v>
@@ -2444,25 +2444,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>70880600</v>
+        <v>71677500</v>
       </c>
       <c r="E66" s="3">
-        <v>49690100</v>
+        <v>50248800</v>
       </c>
       <c r="F66" s="3">
-        <v>48245800</v>
+        <v>48788200</v>
       </c>
       <c r="G66" s="3">
-        <v>39305400</v>
+        <v>39747300</v>
       </c>
       <c r="H66" s="3">
-        <v>39345600</v>
+        <v>39788000</v>
       </c>
       <c r="I66" s="3">
-        <v>37378500</v>
+        <v>37798700</v>
       </c>
       <c r="J66" s="3">
-        <v>34655400</v>
+        <v>35045100</v>
       </c>
       <c r="K66" s="3">
         <v>28527700</v>
@@ -2624,25 +2624,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>38850000</v>
+        <v>39286800</v>
       </c>
       <c r="E72" s="3">
-        <v>34086400</v>
+        <v>34469700</v>
       </c>
       <c r="F72" s="3">
-        <v>29889500</v>
+        <v>30225600</v>
       </c>
       <c r="G72" s="3">
-        <v>26249700</v>
+        <v>26544900</v>
       </c>
       <c r="H72" s="3">
-        <v>23376500</v>
+        <v>23639300</v>
       </c>
       <c r="I72" s="3">
-        <v>21078100</v>
+        <v>21315100</v>
       </c>
       <c r="J72" s="3">
-        <v>22992000</v>
+        <v>23250500</v>
       </c>
       <c r="K72" s="3">
         <v>39922600</v>
@@ -2756,25 +2756,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43277600</v>
+        <v>43764200</v>
       </c>
       <c r="E76" s="3">
-        <v>38199400</v>
+        <v>38628900</v>
       </c>
       <c r="F76" s="3">
-        <v>34267400</v>
+        <v>34652700</v>
       </c>
       <c r="G76" s="3">
-        <v>31214400</v>
+        <v>31565300</v>
       </c>
       <c r="H76" s="3">
-        <v>28790600</v>
+        <v>29114300</v>
       </c>
       <c r="I76" s="3">
-        <v>25743500</v>
+        <v>26032900</v>
       </c>
       <c r="J76" s="3">
-        <v>31795200</v>
+        <v>32152700</v>
       </c>
       <c r="K76" s="3">
         <v>27403500</v>
@@ -2860,25 +2860,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8482600</v>
+        <v>8578000</v>
       </c>
       <c r="E81" s="3">
-        <v>7516100</v>
+        <v>7600700</v>
       </c>
       <c r="F81" s="3">
-        <v>6346300</v>
+        <v>6417600</v>
       </c>
       <c r="G81" s="3">
-        <v>4809700</v>
+        <v>4863700</v>
       </c>
       <c r="H81" s="3">
-        <v>4226500</v>
+        <v>4274000</v>
       </c>
       <c r="I81" s="3">
-        <v>6681000</v>
+        <v>6756100</v>
       </c>
       <c r="J81" s="3">
-        <v>4072700</v>
+        <v>4118500</v>
       </c>
       <c r="K81" s="3">
         <v>3847300</v>
@@ -2908,25 +2908,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6042300</v>
+        <v>6110200</v>
       </c>
       <c r="E83" s="3">
-        <v>2723000</v>
+        <v>2753700</v>
       </c>
       <c r="F83" s="3">
-        <v>2810600</v>
+        <v>2842200</v>
       </c>
       <c r="G83" s="3">
-        <v>2535000</v>
+        <v>2563500</v>
       </c>
       <c r="H83" s="3">
-        <v>2461600</v>
+        <v>2489300</v>
       </c>
       <c r="I83" s="3">
-        <v>2241600</v>
+        <v>2266800</v>
       </c>
       <c r="J83" s="3">
-        <v>1697500</v>
+        <v>1716500</v>
       </c>
       <c r="K83" s="3">
         <v>1446200</v>
@@ -3106,25 +3106,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13778400</v>
+        <v>13933300</v>
       </c>
       <c r="E89" s="3">
-        <v>10042800</v>
+        <v>10155700</v>
       </c>
       <c r="F89" s="3">
-        <v>8247200</v>
+        <v>8339900</v>
       </c>
       <c r="G89" s="3">
-        <v>7305600</v>
+        <v>7387700</v>
       </c>
       <c r="H89" s="3">
-        <v>6664500</v>
+        <v>6739400</v>
       </c>
       <c r="I89" s="3">
-        <v>5449600</v>
+        <v>5510900</v>
       </c>
       <c r="J89" s="3">
-        <v>5576200</v>
+        <v>5638900</v>
       </c>
       <c r="K89" s="3">
         <v>4617000</v>
@@ -3154,25 +3154,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3383100</v>
+        <v>-3421100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3080300</v>
+        <v>-3114900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2234500</v>
+        <v>-2259600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2543200</v>
+        <v>-2571800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2057100</v>
+        <v>-2080200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1812200</v>
+        <v>-1832600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1870200</v>
+        <v>-1891200</v>
       </c>
       <c r="K91" s="3">
         <v>-1801900</v>
@@ -3253,25 +3253,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6942400</v>
+        <v>-7020500</v>
       </c>
       <c r="E94" s="3">
-        <v>-4068000</v>
+        <v>-4113700</v>
       </c>
       <c r="F94" s="3">
-        <v>-10181200</v>
+        <v>-10295700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2718300</v>
+        <v>-2748900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2917000</v>
+        <v>-2949800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2374100</v>
+        <v>-2400800</v>
       </c>
       <c r="J94" s="3">
-        <v>-4633400</v>
+        <v>-4685500</v>
       </c>
       <c r="K94" s="3">
         <v>-1896200</v>
@@ -3301,25 +3301,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4350700</v>
+        <v>-4399600</v>
       </c>
       <c r="E96" s="3">
-        <v>-3211600</v>
+        <v>-3247700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2495900</v>
+        <v>-2524000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2199000</v>
+        <v>-2223700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1976600</v>
+        <v>-1998900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1915100</v>
+        <v>-1936600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1775500</v>
+        <v>-1795500</v>
       </c>
       <c r="K96" s="3">
         <v>-1623500</v>
@@ -3433,25 +3433,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5599800</v>
+        <v>-5662800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5113700</v>
+        <v>-5171200</v>
       </c>
       <c r="F100" s="3">
-        <v>2552700</v>
+        <v>2581400</v>
       </c>
       <c r="G100" s="3">
-        <v>-4713900</v>
+        <v>-4766900</v>
       </c>
       <c r="H100" s="3">
-        <v>-4173300</v>
+        <v>-4220200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2081900</v>
+        <v>-2105300</v>
       </c>
       <c r="J100" s="3">
-        <v>107600</v>
+        <v>108900</v>
       </c>
       <c r="K100" s="3">
         <v>-2765700</v>
@@ -3466,25 +3466,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>46100</v>
+        <v>46700</v>
       </c>
       <c r="E101" s="3">
-        <v>79300</v>
+        <v>80100</v>
       </c>
       <c r="F101" s="3">
-        <v>-286300</v>
+        <v>-289500</v>
       </c>
       <c r="G101" s="3">
-        <v>63900</v>
+        <v>64600</v>
       </c>
       <c r="H101" s="3">
-        <v>-39000</v>
+        <v>-39500</v>
       </c>
       <c r="I101" s="3">
-        <v>31900</v>
+        <v>32300</v>
       </c>
       <c r="J101" s="3">
-        <v>55600</v>
+        <v>56200</v>
       </c>
       <c r="K101" s="3">
         <v>-48200</v>
@@ -3499,25 +3499,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1282300</v>
+        <v>1296700</v>
       </c>
       <c r="E102" s="3">
-        <v>940400</v>
+        <v>951000</v>
       </c>
       <c r="F102" s="3">
-        <v>332400</v>
+        <v>336100</v>
       </c>
       <c r="G102" s="3">
-        <v>-62700</v>
+        <v>-63400</v>
       </c>
       <c r="H102" s="3">
-        <v>-464900</v>
+        <v>-470100</v>
       </c>
       <c r="I102" s="3">
-        <v>1025600</v>
+        <v>1037100</v>
       </c>
       <c r="J102" s="3">
-        <v>1106000</v>
+        <v>1118400</v>
       </c>
       <c r="K102" s="3">
         <v>-93100</v>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,168 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>64200100</v>
+        <v>52527400</v>
       </c>
       <c r="E8" s="3">
-        <v>56013300</v>
+        <v>63137400</v>
       </c>
       <c r="F8" s="3">
-        <v>51001200</v>
+        <v>55086100</v>
       </c>
       <c r="G8" s="3">
-        <v>44977100</v>
+        <v>50157000</v>
       </c>
       <c r="H8" s="3">
-        <v>42661300</v>
+        <v>44232600</v>
       </c>
       <c r="I8" s="3">
-        <v>36649200</v>
+        <v>41955100</v>
       </c>
       <c r="J8" s="3">
+        <v>36042500</v>
+      </c>
+      <c r="K8" s="3">
         <v>34708900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>31382100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27771200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21678700</v>
+        <v>18670600</v>
       </c>
       <c r="E9" s="3">
-        <v>18690600</v>
+        <v>21319900</v>
       </c>
       <c r="F9" s="3">
-        <v>17683400</v>
+        <v>18381300</v>
       </c>
       <c r="G9" s="3">
-        <v>15597300</v>
+        <v>17390700</v>
       </c>
       <c r="H9" s="3">
-        <v>15015900</v>
+        <v>15339100</v>
       </c>
       <c r="I9" s="3">
-        <v>12920200</v>
+        <v>14767300</v>
       </c>
       <c r="J9" s="3">
+        <v>12706300</v>
+      </c>
+      <c r="K9" s="3">
         <v>11958400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11066200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9498500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>42521300</v>
+        <v>33856800</v>
       </c>
       <c r="E10" s="3">
-        <v>37322600</v>
+        <v>41817500</v>
       </c>
       <c r="F10" s="3">
-        <v>33317800</v>
+        <v>36704900</v>
       </c>
       <c r="G10" s="3">
-        <v>29379900</v>
+        <v>32766300</v>
       </c>
       <c r="H10" s="3">
-        <v>27645400</v>
+        <v>28893600</v>
       </c>
       <c r="I10" s="3">
-        <v>23729000</v>
+        <v>27187800</v>
       </c>
       <c r="J10" s="3">
+        <v>23336200</v>
+      </c>
+      <c r="K10" s="3">
         <v>22750500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20315900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18272700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,8 +840,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +873,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,42 +909,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>153100</v>
+        <v>324700</v>
       </c>
       <c r="E14" s="3">
-        <v>150700</v>
+        <v>150600</v>
       </c>
       <c r="F14" s="3">
-        <v>278700</v>
+        <v>148200</v>
       </c>
       <c r="G14" s="3">
-        <v>370800</v>
+        <v>274100</v>
       </c>
       <c r="H14" s="3">
-        <v>282300</v>
+        <v>364700</v>
       </c>
       <c r="I14" s="3">
-        <v>346900</v>
+        <v>277600</v>
       </c>
       <c r="J14" s="3">
+        <v>341200</v>
+      </c>
+      <c r="K14" s="3">
         <v>147100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>190700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>152600</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,12 +978,15 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +997,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>50715300</v>
+        <v>43149200</v>
       </c>
       <c r="E17" s="3">
-        <v>44198400</v>
+        <v>49875800</v>
       </c>
       <c r="F17" s="3">
-        <v>41296400</v>
+        <v>43466800</v>
       </c>
       <c r="G17" s="3">
-        <v>36718600</v>
+        <v>40612900</v>
       </c>
       <c r="H17" s="3">
-        <v>35024700</v>
+        <v>36110800</v>
       </c>
       <c r="I17" s="3">
-        <v>30152600</v>
+        <v>34445000</v>
       </c>
       <c r="J17" s="3">
+        <v>29653500</v>
+      </c>
+      <c r="K17" s="3">
         <v>27653800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24939600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21721400</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13484800</v>
+        <v>9378300</v>
       </c>
       <c r="E18" s="3">
-        <v>11814900</v>
+        <v>13261600</v>
       </c>
       <c r="F18" s="3">
-        <v>9704800</v>
+        <v>11619300</v>
       </c>
       <c r="G18" s="3">
-        <v>8258600</v>
+        <v>9544100</v>
       </c>
       <c r="H18" s="3">
-        <v>7636500</v>
+        <v>8121900</v>
       </c>
       <c r="I18" s="3">
-        <v>6496600</v>
+        <v>7510100</v>
       </c>
       <c r="J18" s="3">
+        <v>6389000</v>
+      </c>
+      <c r="K18" s="3">
         <v>7055200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6442500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6049800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,173 +1085,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-135200</v>
+        <v>-284700</v>
       </c>
       <c r="E20" s="3">
-        <v>-275100</v>
+        <v>-132900</v>
       </c>
       <c r="F20" s="3">
-        <v>131600</v>
+        <v>-270600</v>
       </c>
       <c r="G20" s="3">
-        <v>-191400</v>
+        <v>129400</v>
       </c>
       <c r="H20" s="3">
-        <v>-362400</v>
+        <v>-188200</v>
       </c>
       <c r="I20" s="3">
-        <v>3697500</v>
+        <v>-356400</v>
       </c>
       <c r="J20" s="3">
+        <v>3636300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-71800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>168300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-62200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19434800</v>
+        <v>16239800</v>
       </c>
       <c r="E21" s="3">
-        <v>14282100</v>
+        <v>19162200</v>
       </c>
       <c r="F21" s="3">
-        <v>12666900</v>
+        <v>14067900</v>
       </c>
       <c r="G21" s="3">
-        <v>10620100</v>
+        <v>12480100</v>
       </c>
       <c r="H21" s="3">
-        <v>9753200</v>
+        <v>10465000</v>
       </c>
       <c r="I21" s="3">
-        <v>12451500</v>
+        <v>9611800</v>
       </c>
       <c r="J21" s="3">
+        <v>12263700</v>
+      </c>
+      <c r="K21" s="3">
         <v>8692900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8060500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7161000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>533500</v>
+        <v>430600</v>
       </c>
       <c r="E22" s="3">
-        <v>189000</v>
+        <v>524700</v>
       </c>
       <c r="F22" s="3">
-        <v>202200</v>
+        <v>185900</v>
       </c>
       <c r="G22" s="3">
-        <v>189000</v>
+        <v>198800</v>
       </c>
       <c r="H22" s="3">
-        <v>132800</v>
+        <v>185900</v>
       </c>
       <c r="I22" s="3">
-        <v>172300</v>
+        <v>130600</v>
       </c>
       <c r="J22" s="3">
+        <v>169400</v>
+      </c>
+      <c r="K22" s="3">
         <v>165100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>181800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>221900</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12816100</v>
+        <v>8663000</v>
       </c>
       <c r="E23" s="3">
-        <v>11350700</v>
+        <v>12603900</v>
       </c>
       <c r="F23" s="3">
-        <v>9634200</v>
+        <v>11162900</v>
       </c>
       <c r="G23" s="3">
-        <v>7878200</v>
+        <v>9474700</v>
       </c>
       <c r="H23" s="3">
-        <v>7141300</v>
+        <v>7747800</v>
       </c>
       <c r="I23" s="3">
-        <v>10021800</v>
+        <v>7023100</v>
       </c>
       <c r="J23" s="3">
+        <v>9855900</v>
+      </c>
+      <c r="K23" s="3">
         <v>6818300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6429000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5765800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3507300</v>
+        <v>2833900</v>
       </c>
       <c r="E24" s="3">
-        <v>2989300</v>
+        <v>3449200</v>
       </c>
       <c r="F24" s="3">
-        <v>2648400</v>
+        <v>2939800</v>
       </c>
       <c r="G24" s="3">
-        <v>2551500</v>
+        <v>2604500</v>
       </c>
       <c r="H24" s="3">
-        <v>2355300</v>
+        <v>2509300</v>
       </c>
       <c r="I24" s="3">
-        <v>2719000</v>
+        <v>2316300</v>
       </c>
       <c r="J24" s="3">
+        <v>2674000</v>
+      </c>
+      <c r="K24" s="3">
         <v>2096900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2043100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1705500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,75 +1298,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9308800</v>
+        <v>5829100</v>
       </c>
       <c r="E26" s="3">
-        <v>8361400</v>
+        <v>9154700</v>
       </c>
       <c r="F26" s="3">
-        <v>6985800</v>
+        <v>8223000</v>
       </c>
       <c r="G26" s="3">
-        <v>5326700</v>
+        <v>6870200</v>
       </c>
       <c r="H26" s="3">
-        <v>4786000</v>
+        <v>5238500</v>
       </c>
       <c r="I26" s="3">
-        <v>7302800</v>
+        <v>4706800</v>
       </c>
       <c r="J26" s="3">
+        <v>7181900</v>
+      </c>
+      <c r="K26" s="3">
         <v>4721400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4385900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4060200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8578000</v>
+        <v>5531400</v>
       </c>
       <c r="E27" s="3">
-        <v>7600700</v>
+        <v>8436000</v>
       </c>
       <c r="F27" s="3">
-        <v>6417600</v>
+        <v>7474800</v>
       </c>
       <c r="G27" s="3">
-        <v>4863700</v>
+        <v>6311400</v>
       </c>
       <c r="H27" s="3">
-        <v>4274000</v>
+        <v>4783200</v>
       </c>
       <c r="I27" s="3">
-        <v>6756100</v>
+        <v>4203300</v>
       </c>
       <c r="J27" s="3">
+        <v>6644300</v>
+      </c>
+      <c r="K27" s="3">
         <v>4118500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3847300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3597700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,9 +1406,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1382,9 +1442,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,75 +1514,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>135200</v>
+        <v>284700</v>
       </c>
       <c r="E32" s="3">
-        <v>275100</v>
+        <v>132900</v>
       </c>
       <c r="F32" s="3">
-        <v>-131600</v>
+        <v>270600</v>
       </c>
       <c r="G32" s="3">
-        <v>191400</v>
+        <v>-129400</v>
       </c>
       <c r="H32" s="3">
-        <v>362400</v>
+        <v>188200</v>
       </c>
       <c r="I32" s="3">
-        <v>-3697500</v>
+        <v>356400</v>
       </c>
       <c r="J32" s="3">
+        <v>-3636300</v>
+      </c>
+      <c r="K32" s="3">
         <v>71800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-168300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>62200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8578000</v>
+        <v>5531400</v>
       </c>
       <c r="E33" s="3">
-        <v>7600700</v>
+        <v>8436000</v>
       </c>
       <c r="F33" s="3">
-        <v>6417600</v>
+        <v>7474800</v>
       </c>
       <c r="G33" s="3">
-        <v>4863700</v>
+        <v>6311400</v>
       </c>
       <c r="H33" s="3">
-        <v>4274000</v>
+        <v>4783200</v>
       </c>
       <c r="I33" s="3">
-        <v>6756100</v>
+        <v>4203300</v>
       </c>
       <c r="J33" s="3">
+        <v>6644300</v>
+      </c>
+      <c r="K33" s="3">
         <v>4118500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3847300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3597700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,80 +1622,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8578000</v>
+        <v>5531400</v>
       </c>
       <c r="E35" s="3">
-        <v>7600700</v>
+        <v>8436000</v>
       </c>
       <c r="F35" s="3">
-        <v>6417600</v>
+        <v>7474800</v>
       </c>
       <c r="G35" s="3">
-        <v>4863700</v>
+        <v>6311400</v>
       </c>
       <c r="H35" s="3">
-        <v>4274000</v>
+        <v>4783200</v>
       </c>
       <c r="I35" s="3">
-        <v>6756100</v>
+        <v>4203300</v>
       </c>
       <c r="J35" s="3">
+        <v>6644300</v>
+      </c>
+      <c r="K35" s="3">
         <v>4118500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3847300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3597700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,305 +1734,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6786000</v>
+        <v>23484500</v>
       </c>
       <c r="E41" s="3">
-        <v>5514500</v>
+        <v>6673700</v>
       </c>
       <c r="F41" s="3">
-        <v>4471400</v>
+        <v>5423200</v>
       </c>
       <c r="G41" s="3">
-        <v>4239300</v>
+        <v>4397400</v>
       </c>
       <c r="H41" s="3">
-        <v>4299100</v>
+        <v>4169200</v>
       </c>
       <c r="I41" s="3">
-        <v>4893700</v>
+        <v>4228000</v>
       </c>
       <c r="J41" s="3">
+        <v>4812700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3858900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4792000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5153000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>876800</v>
+        <v>884700</v>
       </c>
       <c r="E42" s="3">
-        <v>796700</v>
+        <v>862300</v>
       </c>
       <c r="F42" s="3">
-        <v>616000</v>
+        <v>783500</v>
       </c>
       <c r="G42" s="3">
-        <v>447400</v>
+        <v>605800</v>
       </c>
       <c r="H42" s="3">
-        <v>460500</v>
+        <v>440000</v>
       </c>
       <c r="I42" s="3">
-        <v>302600</v>
+        <v>452900</v>
       </c>
       <c r="J42" s="3">
+        <v>297600</v>
+      </c>
+      <c r="K42" s="3">
         <v>204600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>522800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>593900</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6579100</v>
+        <v>5503200</v>
       </c>
       <c r="E43" s="3">
-        <v>6006100</v>
+        <v>6470200</v>
       </c>
       <c r="F43" s="3">
-        <v>5771700</v>
+        <v>5906700</v>
       </c>
       <c r="G43" s="3">
-        <v>4906800</v>
+        <v>5676100</v>
       </c>
       <c r="H43" s="3">
-        <v>4859000</v>
+        <v>4825600</v>
       </c>
       <c r="I43" s="3">
-        <v>4201100</v>
+        <v>4778500</v>
       </c>
       <c r="J43" s="3">
+        <v>4131500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3746500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6753300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6647300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16408300</v>
+        <v>15312000</v>
       </c>
       <c r="E44" s="3">
-        <v>14934600</v>
+        <v>16136700</v>
       </c>
       <c r="F44" s="3">
-        <v>13024200</v>
+        <v>14687400</v>
       </c>
       <c r="G44" s="3">
-        <v>12615100</v>
+        <v>12808600</v>
       </c>
       <c r="H44" s="3">
-        <v>12076800</v>
+        <v>12406300</v>
       </c>
       <c r="I44" s="3">
-        <v>11334000</v>
+        <v>11876900</v>
       </c>
       <c r="J44" s="3">
+        <v>11146400</v>
+      </c>
+      <c r="K44" s="3">
         <v>10158100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18034900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17630600</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1061000</v>
+        <v>1839900</v>
       </c>
       <c r="E45" s="3">
-        <v>919900</v>
+        <v>1043500</v>
       </c>
       <c r="F45" s="3">
-        <v>1309800</v>
+        <v>904700</v>
       </c>
       <c r="G45" s="3">
-        <v>994000</v>
+        <v>1288200</v>
       </c>
       <c r="H45" s="3">
-        <v>972500</v>
+        <v>977600</v>
       </c>
       <c r="I45" s="3">
-        <v>931800</v>
+        <v>956400</v>
       </c>
       <c r="J45" s="3">
+        <v>916400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1136400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1806400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1121000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31711300</v>
+        <v>47024200</v>
       </c>
       <c r="E46" s="3">
-        <v>28171700</v>
+        <v>31186400</v>
       </c>
       <c r="F46" s="3">
-        <v>25193200</v>
+        <v>27705400</v>
       </c>
       <c r="G46" s="3">
-        <v>23202700</v>
+        <v>24776200</v>
       </c>
       <c r="H46" s="3">
-        <v>22668000</v>
+        <v>22818600</v>
       </c>
       <c r="I46" s="3">
-        <v>21663200</v>
+        <v>22292800</v>
       </c>
       <c r="J46" s="3">
+        <v>21304600</v>
+      </c>
+      <c r="K46" s="3">
         <v>19104500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15895200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15572900</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3240500</v>
+        <v>2844500</v>
       </c>
       <c r="E47" s="3">
-        <v>2894800</v>
+        <v>3186900</v>
       </c>
       <c r="F47" s="3">
-        <v>2406800</v>
+        <v>2846900</v>
       </c>
       <c r="G47" s="3">
-        <v>2508400</v>
+        <v>2366900</v>
       </c>
       <c r="H47" s="3">
-        <v>2108900</v>
+        <v>2466900</v>
       </c>
       <c r="I47" s="3">
-        <v>1783500</v>
+        <v>2074000</v>
       </c>
       <c r="J47" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="K47" s="3">
         <v>9490700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14562300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14442600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36579800</v>
+        <v>35799000</v>
       </c>
       <c r="E48" s="3">
-        <v>18077000</v>
+        <v>35974300</v>
       </c>
       <c r="F48" s="3">
-        <v>19036300</v>
+        <v>17777800</v>
       </c>
       <c r="G48" s="3">
-        <v>14520700</v>
+        <v>18721200</v>
       </c>
       <c r="H48" s="3">
-        <v>13346000</v>
+        <v>14280300</v>
       </c>
       <c r="I48" s="3">
-        <v>12424900</v>
+        <v>13125100</v>
       </c>
       <c r="J48" s="3">
+        <v>12219300</v>
+      </c>
+      <c r="K48" s="3">
         <v>25724300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19593300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18820900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40201900</v>
+        <v>39252900</v>
       </c>
       <c r="E49" s="3">
-        <v>37059500</v>
+        <v>39536500</v>
       </c>
       <c r="F49" s="3">
-        <v>36835800</v>
+        <v>36446000</v>
       </c>
       <c r="G49" s="3">
-        <v>40834700</v>
+        <v>36226100</v>
       </c>
       <c r="H49" s="3">
-        <v>28342800</v>
+        <v>40158800</v>
       </c>
       <c r="I49" s="3">
-        <v>26126200</v>
+        <v>27873600</v>
       </c>
       <c r="J49" s="3">
+        <v>25693800</v>
+      </c>
+      <c r="K49" s="3">
         <v>51829000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>55939100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>43287800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,42 +2127,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3708200</v>
+        <v>2919800</v>
       </c>
       <c r="E52" s="3">
-        <v>2674700</v>
+        <v>3646800</v>
       </c>
       <c r="F52" s="3">
-        <v>2423500</v>
+        <v>2630400</v>
       </c>
       <c r="G52" s="3">
-        <v>2687900</v>
+        <v>2383400</v>
       </c>
       <c r="H52" s="3">
-        <v>2436700</v>
+        <v>2643400</v>
       </c>
       <c r="I52" s="3">
-        <v>1833800</v>
+        <v>2396300</v>
       </c>
       <c r="J52" s="3">
+        <v>1803400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1708200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3444500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2854700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2199,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>115442000</v>
+        <v>127841000</v>
       </c>
       <c r="E54" s="3">
-        <v>88877700</v>
+        <v>113531000</v>
       </c>
       <c r="F54" s="3">
-        <v>83440900</v>
+        <v>87406500</v>
       </c>
       <c r="G54" s="3">
-        <v>71312700</v>
+        <v>82059800</v>
       </c>
       <c r="H54" s="3">
-        <v>68902300</v>
+        <v>70132300</v>
       </c>
       <c r="I54" s="3">
-        <v>63831600</v>
+        <v>67761800</v>
       </c>
       <c r="J54" s="3">
+        <v>62775100</v>
+      </c>
+      <c r="K54" s="3">
         <v>67197700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55931200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>55301700</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,206 +2270,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6954700</v>
+        <v>5997300</v>
       </c>
       <c r="E57" s="3">
-        <v>6356600</v>
+        <v>6839600</v>
       </c>
       <c r="F57" s="3">
-        <v>5429600</v>
+        <v>6251400</v>
       </c>
       <c r="G57" s="3">
-        <v>5004900</v>
+        <v>5339700</v>
       </c>
       <c r="H57" s="3">
-        <v>4737000</v>
+        <v>4922100</v>
       </c>
       <c r="I57" s="3">
-        <v>4313500</v>
+        <v>4658500</v>
       </c>
       <c r="J57" s="3">
+        <v>4242100</v>
+      </c>
+      <c r="K57" s="3">
         <v>3943900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7014700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6930200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11676100</v>
+        <v>15001500</v>
       </c>
       <c r="E58" s="3">
-        <v>5990600</v>
+        <v>11482800</v>
       </c>
       <c r="F58" s="3">
-        <v>5850600</v>
+        <v>5891400</v>
       </c>
       <c r="G58" s="3">
-        <v>4089800</v>
+        <v>5753800</v>
       </c>
       <c r="H58" s="3">
-        <v>4476200</v>
+        <v>4022100</v>
       </c>
       <c r="I58" s="3">
-        <v>4948700</v>
+        <v>4402100</v>
       </c>
       <c r="J58" s="3">
+        <v>4866800</v>
+      </c>
+      <c r="K58" s="3">
         <v>6601800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7427600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7251800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8430800</v>
+        <v>8785400</v>
       </c>
       <c r="E59" s="3">
-        <v>7788500</v>
+        <v>8291300</v>
       </c>
       <c r="F59" s="3">
-        <v>7121000</v>
+        <v>7659500</v>
       </c>
       <c r="G59" s="3">
-        <v>6228600</v>
+        <v>7003100</v>
       </c>
       <c r="H59" s="3">
-        <v>5977400</v>
+        <v>6125500</v>
       </c>
       <c r="I59" s="3">
-        <v>5301600</v>
+        <v>5878500</v>
       </c>
       <c r="J59" s="3">
+        <v>5213800</v>
+      </c>
+      <c r="K59" s="3">
         <v>4482200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7611600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8341100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27061600</v>
+        <v>29784100</v>
       </c>
       <c r="E60" s="3">
-        <v>20135600</v>
+        <v>26613700</v>
       </c>
       <c r="F60" s="3">
-        <v>17929800</v>
+        <v>19802300</v>
       </c>
       <c r="G60" s="3">
-        <v>15323300</v>
+        <v>17633100</v>
       </c>
       <c r="H60" s="3">
-        <v>15190500</v>
+        <v>15069700</v>
       </c>
       <c r="I60" s="3">
-        <v>14563700</v>
+        <v>14939100</v>
       </c>
       <c r="J60" s="3">
+        <v>14322700</v>
+      </c>
+      <c r="K60" s="3">
         <v>13922600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10552300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11261500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18510000</v>
+        <v>29092400</v>
       </c>
       <c r="E61" s="3">
-        <v>7183200</v>
+        <v>18203600</v>
       </c>
       <c r="F61" s="3">
-        <v>8428400</v>
+        <v>7064300</v>
       </c>
       <c r="G61" s="3">
-        <v>4703500</v>
+        <v>8288900</v>
       </c>
       <c r="H61" s="3">
-        <v>5396100</v>
+        <v>4625600</v>
       </c>
       <c r="I61" s="3">
-        <v>6045600</v>
+        <v>5306700</v>
       </c>
       <c r="J61" s="3">
+        <v>5945500</v>
+      </c>
+      <c r="K61" s="3">
         <v>4963000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4291600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4850200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23977800</v>
+        <v>23285700</v>
       </c>
       <c r="E62" s="3">
-        <v>20939500</v>
+        <v>23580900</v>
       </c>
       <c r="F62" s="3">
-        <v>20745700</v>
+        <v>20592900</v>
       </c>
       <c r="G62" s="3">
-        <v>17914300</v>
+        <v>20402300</v>
       </c>
       <c r="H62" s="3">
-        <v>17455000</v>
+        <v>17617800</v>
       </c>
       <c r="I62" s="3">
-        <v>15706100</v>
+        <v>17166000</v>
       </c>
       <c r="J62" s="3">
+        <v>15446100</v>
+      </c>
+      <c r="K62" s="3">
         <v>22589000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30870400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23232000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2591,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71677500</v>
+        <v>83829100</v>
       </c>
       <c r="E66" s="3">
-        <v>50248800</v>
+        <v>70491100</v>
       </c>
       <c r="F66" s="3">
-        <v>48788200</v>
+        <v>49417000</v>
       </c>
       <c r="G66" s="3">
-        <v>39747300</v>
+        <v>47980700</v>
       </c>
       <c r="H66" s="3">
-        <v>39788000</v>
+        <v>39089400</v>
       </c>
       <c r="I66" s="3">
-        <v>37798700</v>
+        <v>39129400</v>
       </c>
       <c r="J66" s="3">
+        <v>37173100</v>
+      </c>
+      <c r="K66" s="3">
         <v>35045100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28527700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29042400</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2751,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2787,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39286800</v>
+        <v>41601000</v>
       </c>
       <c r="E72" s="3">
-        <v>34469700</v>
+        <v>38636500</v>
       </c>
       <c r="F72" s="3">
-        <v>30225600</v>
+        <v>33899100</v>
       </c>
       <c r="G72" s="3">
-        <v>26544900</v>
+        <v>29725300</v>
       </c>
       <c r="H72" s="3">
-        <v>23639300</v>
+        <v>26105500</v>
       </c>
       <c r="I72" s="3">
-        <v>21315100</v>
+        <v>23248000</v>
       </c>
       <c r="J72" s="3">
+        <v>20962300</v>
+      </c>
+      <c r="K72" s="3">
         <v>23250500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39922600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>37207400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2931,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43764200</v>
+        <v>44011500</v>
       </c>
       <c r="E76" s="3">
-        <v>38628900</v>
+        <v>43039800</v>
       </c>
       <c r="F76" s="3">
-        <v>34652700</v>
+        <v>37989500</v>
       </c>
       <c r="G76" s="3">
-        <v>31565300</v>
+        <v>34079100</v>
       </c>
       <c r="H76" s="3">
-        <v>29114300</v>
+        <v>31042800</v>
       </c>
       <c r="I76" s="3">
-        <v>26032900</v>
+        <v>28632400</v>
       </c>
       <c r="J76" s="3">
+        <v>25602000</v>
+      </c>
+      <c r="K76" s="3">
         <v>32152700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27403500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26259300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3003,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8578000</v>
+        <v>5531400</v>
       </c>
       <c r="E81" s="3">
-        <v>7600700</v>
+        <v>8436000</v>
       </c>
       <c r="F81" s="3">
-        <v>6417600</v>
+        <v>7474800</v>
       </c>
       <c r="G81" s="3">
-        <v>4863700</v>
+        <v>6311400</v>
       </c>
       <c r="H81" s="3">
-        <v>4274000</v>
+        <v>4783200</v>
       </c>
       <c r="I81" s="3">
-        <v>6756100</v>
+        <v>4203300</v>
       </c>
       <c r="J81" s="3">
+        <v>6644300</v>
+      </c>
+      <c r="K81" s="3">
         <v>4118500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3847300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3597700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,41 +3099,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6110200</v>
+        <v>7117200</v>
       </c>
       <c r="E83" s="3">
-        <v>2753700</v>
+        <v>6009100</v>
       </c>
       <c r="F83" s="3">
-        <v>2842200</v>
+        <v>2708100</v>
       </c>
       <c r="G83" s="3">
-        <v>2563500</v>
+        <v>2795100</v>
       </c>
       <c r="H83" s="3">
-        <v>2489300</v>
+        <v>2521000</v>
       </c>
       <c r="I83" s="3">
-        <v>2266800</v>
+        <v>2448100</v>
       </c>
       <c r="J83" s="3">
+        <v>2229300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1716500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1446200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1172600</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3312,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13933300</v>
+        <v>12819200</v>
       </c>
       <c r="E89" s="3">
-        <v>10155700</v>
+        <v>13702700</v>
       </c>
       <c r="F89" s="3">
-        <v>8339900</v>
+        <v>9987600</v>
       </c>
       <c r="G89" s="3">
-        <v>7387700</v>
+        <v>8201900</v>
       </c>
       <c r="H89" s="3">
-        <v>6739400</v>
+        <v>7265400</v>
       </c>
       <c r="I89" s="3">
-        <v>5510900</v>
+        <v>6627800</v>
       </c>
       <c r="J89" s="3">
+        <v>5419700</v>
+      </c>
+      <c r="K89" s="3">
         <v>5638900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4617000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4586100</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,41 +3367,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3421100</v>
+        <v>-2915100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3114900</v>
+        <v>-3364500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2259600</v>
+        <v>-3063300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2571800</v>
+        <v>-2222200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2080200</v>
+        <v>-2529300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1832600</v>
+        <v>-2045800</v>
       </c>
       <c r="J91" s="3">
+        <v>-1802200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1891200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1801900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2053000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3472,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7020500</v>
+        <v>-3457400</v>
       </c>
       <c r="E94" s="3">
-        <v>-4113700</v>
+        <v>-6904300</v>
       </c>
       <c r="F94" s="3">
-        <v>-10295700</v>
+        <v>-4045600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2748900</v>
+        <v>-10125300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2949800</v>
+        <v>-2703400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2400800</v>
+        <v>-2901000</v>
       </c>
       <c r="J94" s="3">
+        <v>-2361000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4685500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1896200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3540200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,41 +3527,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4399600</v>
+        <v>-3292700</v>
       </c>
       <c r="E96" s="3">
-        <v>-3247700</v>
+        <v>-4326800</v>
       </c>
       <c r="F96" s="3">
-        <v>-2524000</v>
+        <v>-3193900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2223700</v>
+        <v>-2482200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1998900</v>
+        <v>-2186900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1936600</v>
+        <v>-1965800</v>
       </c>
       <c r="J96" s="3">
+        <v>-1904600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1795500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1623500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1254800</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,106 +3668,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5662800</v>
+        <v>8708900</v>
       </c>
       <c r="E100" s="3">
-        <v>-5171200</v>
+        <v>-5569100</v>
       </c>
       <c r="F100" s="3">
-        <v>2581400</v>
+        <v>-5085600</v>
       </c>
       <c r="G100" s="3">
-        <v>-4766900</v>
+        <v>2538700</v>
       </c>
       <c r="H100" s="3">
-        <v>-4220200</v>
+        <v>-4688000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2105300</v>
+        <v>-4150300</v>
       </c>
       <c r="J100" s="3">
+        <v>-2070500</v>
+      </c>
+      <c r="K100" s="3">
         <v>108900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2765700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1070500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>46700</v>
+        <v>-1237600</v>
       </c>
       <c r="E101" s="3">
-        <v>80100</v>
+        <v>45900</v>
       </c>
       <c r="F101" s="3">
-        <v>-289500</v>
+        <v>78800</v>
       </c>
       <c r="G101" s="3">
-        <v>64600</v>
+        <v>-284700</v>
       </c>
       <c r="H101" s="3">
-        <v>-39500</v>
+        <v>63500</v>
       </c>
       <c r="I101" s="3">
-        <v>32300</v>
+        <v>-38800</v>
       </c>
       <c r="J101" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K101" s="3">
         <v>56200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-48200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>70400</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1296700</v>
+        <v>16833100</v>
       </c>
       <c r="E102" s="3">
-        <v>951000</v>
+        <v>1275200</v>
       </c>
       <c r="F102" s="3">
-        <v>336100</v>
+        <v>935200</v>
       </c>
       <c r="G102" s="3">
-        <v>-63400</v>
+        <v>330600</v>
       </c>
       <c r="H102" s="3">
-        <v>-470100</v>
+        <v>-62300</v>
       </c>
       <c r="I102" s="3">
-        <v>1037100</v>
+        <v>-462300</v>
       </c>
       <c r="J102" s="3">
+        <v>1019900</v>
+      </c>
+      <c r="K102" s="3">
         <v>1118400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-93100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>45800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>52527400</v>
+        <v>54697000</v>
       </c>
       <c r="E8" s="3">
-        <v>63137400</v>
+        <v>65745200</v>
       </c>
       <c r="F8" s="3">
-        <v>55086100</v>
+        <v>57361400</v>
       </c>
       <c r="G8" s="3">
-        <v>50157000</v>
+        <v>52228700</v>
       </c>
       <c r="H8" s="3">
-        <v>44232600</v>
+        <v>46059600</v>
       </c>
       <c r="I8" s="3">
-        <v>41955100</v>
+        <v>43688000</v>
       </c>
       <c r="J8" s="3">
-        <v>36042500</v>
+        <v>37531200</v>
       </c>
       <c r="K8" s="3">
         <v>34708900</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18670600</v>
+        <v>19441800</v>
       </c>
       <c r="E9" s="3">
-        <v>21319900</v>
+        <v>22200500</v>
       </c>
       <c r="F9" s="3">
-        <v>18381300</v>
+        <v>19140500</v>
       </c>
       <c r="G9" s="3">
-        <v>17390700</v>
+        <v>18109000</v>
       </c>
       <c r="H9" s="3">
-        <v>15339100</v>
+        <v>15972600</v>
       </c>
       <c r="I9" s="3">
-        <v>14767300</v>
+        <v>15377300</v>
       </c>
       <c r="J9" s="3">
-        <v>12706300</v>
+        <v>13231100</v>
       </c>
       <c r="K9" s="3">
         <v>11958400</v>
@@ -795,25 +795,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33856800</v>
+        <v>35255200</v>
       </c>
       <c r="E10" s="3">
-        <v>41817500</v>
+        <v>43544700</v>
       </c>
       <c r="F10" s="3">
-        <v>36704900</v>
+        <v>38220900</v>
       </c>
       <c r="G10" s="3">
-        <v>32766300</v>
+        <v>34119600</v>
       </c>
       <c r="H10" s="3">
-        <v>28893600</v>
+        <v>30087000</v>
       </c>
       <c r="I10" s="3">
-        <v>27187800</v>
+        <v>28310700</v>
       </c>
       <c r="J10" s="3">
-        <v>23336200</v>
+        <v>24300100</v>
       </c>
       <c r="K10" s="3">
         <v>22750500</v>
@@ -919,25 +919,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>324700</v>
+        <v>338100</v>
       </c>
       <c r="E14" s="3">
-        <v>150600</v>
+        <v>156800</v>
       </c>
       <c r="F14" s="3">
-        <v>148200</v>
+        <v>154300</v>
       </c>
       <c r="G14" s="3">
-        <v>274100</v>
+        <v>285400</v>
       </c>
       <c r="H14" s="3">
-        <v>364700</v>
+        <v>379700</v>
       </c>
       <c r="I14" s="3">
-        <v>277600</v>
+        <v>289100</v>
       </c>
       <c r="J14" s="3">
-        <v>341200</v>
+        <v>355200</v>
       </c>
       <c r="K14" s="3">
         <v>147100</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43149200</v>
+        <v>44931400</v>
       </c>
       <c r="E17" s="3">
-        <v>49875800</v>
+        <v>51935900</v>
       </c>
       <c r="F17" s="3">
-        <v>43466800</v>
+        <v>45262200</v>
       </c>
       <c r="G17" s="3">
-        <v>40612900</v>
+        <v>42290300</v>
       </c>
       <c r="H17" s="3">
-        <v>36110800</v>
+        <v>37602300</v>
       </c>
       <c r="I17" s="3">
-        <v>34445000</v>
+        <v>35867700</v>
       </c>
       <c r="J17" s="3">
-        <v>29653500</v>
+        <v>30878300</v>
       </c>
       <c r="K17" s="3">
         <v>27653800</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9378300</v>
+        <v>9765600</v>
       </c>
       <c r="E18" s="3">
-        <v>13261600</v>
+        <v>13809300</v>
       </c>
       <c r="F18" s="3">
-        <v>11619300</v>
+        <v>12099200</v>
       </c>
       <c r="G18" s="3">
-        <v>9544100</v>
+        <v>9938300</v>
       </c>
       <c r="H18" s="3">
-        <v>8121900</v>
+        <v>8457300</v>
       </c>
       <c r="I18" s="3">
-        <v>7510100</v>
+        <v>7820300</v>
       </c>
       <c r="J18" s="3">
-        <v>6389000</v>
+        <v>6652900</v>
       </c>
       <c r="K18" s="3">
         <v>7055200</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-284700</v>
+        <v>-296400</v>
       </c>
       <c r="E20" s="3">
-        <v>-132900</v>
+        <v>-138400</v>
       </c>
       <c r="F20" s="3">
-        <v>-270600</v>
+        <v>-281700</v>
       </c>
       <c r="G20" s="3">
-        <v>129400</v>
+        <v>134700</v>
       </c>
       <c r="H20" s="3">
-        <v>-188200</v>
+        <v>-196000</v>
       </c>
       <c r="I20" s="3">
-        <v>-356400</v>
+        <v>-371200</v>
       </c>
       <c r="J20" s="3">
-        <v>3636300</v>
+        <v>3786400</v>
       </c>
       <c r="K20" s="3">
         <v>-71800</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16239800</v>
+        <v>16859200</v>
       </c>
       <c r="E21" s="3">
-        <v>19162200</v>
+        <v>19910300</v>
       </c>
       <c r="F21" s="3">
-        <v>14067900</v>
+        <v>14629300</v>
       </c>
       <c r="G21" s="3">
-        <v>12480100</v>
+        <v>12975400</v>
       </c>
       <c r="H21" s="3">
-        <v>10465000</v>
+        <v>10879000</v>
       </c>
       <c r="I21" s="3">
-        <v>9611800</v>
+        <v>9991100</v>
       </c>
       <c r="J21" s="3">
-        <v>12263700</v>
+        <v>12754100</v>
       </c>
       <c r="K21" s="3">
         <v>8692900</v>
@@ -1164,25 +1164,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>430600</v>
+        <v>448300</v>
       </c>
       <c r="E22" s="3">
-        <v>524700</v>
+        <v>546300</v>
       </c>
       <c r="F22" s="3">
-        <v>185900</v>
+        <v>193500</v>
       </c>
       <c r="G22" s="3">
-        <v>198800</v>
+        <v>207000</v>
       </c>
       <c r="H22" s="3">
-        <v>185900</v>
+        <v>193500</v>
       </c>
       <c r="I22" s="3">
-        <v>130600</v>
+        <v>136000</v>
       </c>
       <c r="J22" s="3">
-        <v>169400</v>
+        <v>176400</v>
       </c>
       <c r="K22" s="3">
         <v>165100</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8663000</v>
+        <v>9020800</v>
       </c>
       <c r="E23" s="3">
-        <v>12603900</v>
+        <v>13124500</v>
       </c>
       <c r="F23" s="3">
-        <v>11162900</v>
+        <v>11623900</v>
       </c>
       <c r="G23" s="3">
-        <v>9474700</v>
+        <v>9866100</v>
       </c>
       <c r="H23" s="3">
-        <v>7747800</v>
+        <v>8067800</v>
       </c>
       <c r="I23" s="3">
-        <v>7023100</v>
+        <v>7313200</v>
       </c>
       <c r="J23" s="3">
-        <v>9855900</v>
+        <v>10263000</v>
       </c>
       <c r="K23" s="3">
         <v>6818300</v>
@@ -1236,25 +1236,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2833900</v>
+        <v>2951000</v>
       </c>
       <c r="E24" s="3">
-        <v>3449200</v>
+        <v>3591700</v>
       </c>
       <c r="F24" s="3">
-        <v>2939800</v>
+        <v>3061300</v>
       </c>
       <c r="G24" s="3">
-        <v>2604500</v>
+        <v>2712100</v>
       </c>
       <c r="H24" s="3">
-        <v>2509300</v>
+        <v>2612900</v>
       </c>
       <c r="I24" s="3">
-        <v>2316300</v>
+        <v>2412000</v>
       </c>
       <c r="J24" s="3">
-        <v>2674000</v>
+        <v>2784400</v>
       </c>
       <c r="K24" s="3">
         <v>2096900</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5829100</v>
+        <v>6069800</v>
       </c>
       <c r="E26" s="3">
-        <v>9154700</v>
+        <v>9532900</v>
       </c>
       <c r="F26" s="3">
-        <v>8223000</v>
+        <v>8562700</v>
       </c>
       <c r="G26" s="3">
-        <v>6870200</v>
+        <v>7153900</v>
       </c>
       <c r="H26" s="3">
-        <v>5238500</v>
+        <v>5454900</v>
       </c>
       <c r="I26" s="3">
-        <v>4706800</v>
+        <v>4901200</v>
       </c>
       <c r="J26" s="3">
-        <v>7181900</v>
+        <v>7478600</v>
       </c>
       <c r="K26" s="3">
         <v>4721400</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5531400</v>
+        <v>5759900</v>
       </c>
       <c r="E27" s="3">
-        <v>8436000</v>
+        <v>8784400</v>
       </c>
       <c r="F27" s="3">
-        <v>7474800</v>
+        <v>7783600</v>
       </c>
       <c r="G27" s="3">
-        <v>6311400</v>
+        <v>6572100</v>
       </c>
       <c r="H27" s="3">
-        <v>4783200</v>
+        <v>4980800</v>
       </c>
       <c r="I27" s="3">
-        <v>4203300</v>
+        <v>4376900</v>
       </c>
       <c r="J27" s="3">
-        <v>6644300</v>
+        <v>6918700</v>
       </c>
       <c r="K27" s="3">
         <v>4118500</v>
@@ -1524,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>284700</v>
+        <v>296400</v>
       </c>
       <c r="E32" s="3">
-        <v>132900</v>
+        <v>138400</v>
       </c>
       <c r="F32" s="3">
-        <v>270600</v>
+        <v>281700</v>
       </c>
       <c r="G32" s="3">
-        <v>-129400</v>
+        <v>-134700</v>
       </c>
       <c r="H32" s="3">
-        <v>188200</v>
+        <v>196000</v>
       </c>
       <c r="I32" s="3">
-        <v>356400</v>
+        <v>371200</v>
       </c>
       <c r="J32" s="3">
-        <v>-3636300</v>
+        <v>-3786400</v>
       </c>
       <c r="K32" s="3">
         <v>71800</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5531400</v>
+        <v>5759900</v>
       </c>
       <c r="E33" s="3">
-        <v>8436000</v>
+        <v>8784400</v>
       </c>
       <c r="F33" s="3">
-        <v>7474800</v>
+        <v>7783600</v>
       </c>
       <c r="G33" s="3">
-        <v>6311400</v>
+        <v>6572100</v>
       </c>
       <c r="H33" s="3">
-        <v>4783200</v>
+        <v>4980800</v>
       </c>
       <c r="I33" s="3">
-        <v>4203300</v>
+        <v>4376900</v>
       </c>
       <c r="J33" s="3">
-        <v>6644300</v>
+        <v>6918700</v>
       </c>
       <c r="K33" s="3">
         <v>4118500</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5531400</v>
+        <v>5759900</v>
       </c>
       <c r="E35" s="3">
-        <v>8436000</v>
+        <v>8784400</v>
       </c>
       <c r="F35" s="3">
-        <v>7474800</v>
+        <v>7783600</v>
       </c>
       <c r="G35" s="3">
-        <v>6311400</v>
+        <v>6572100</v>
       </c>
       <c r="H35" s="3">
-        <v>4783200</v>
+        <v>4980800</v>
       </c>
       <c r="I35" s="3">
-        <v>4203300</v>
+        <v>4376900</v>
       </c>
       <c r="J35" s="3">
-        <v>6644300</v>
+        <v>6918700</v>
       </c>
       <c r="K35" s="3">
         <v>4118500</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23484500</v>
+        <v>24454500</v>
       </c>
       <c r="E41" s="3">
-        <v>6673700</v>
+        <v>6949400</v>
       </c>
       <c r="F41" s="3">
-        <v>5423200</v>
+        <v>5647200</v>
       </c>
       <c r="G41" s="3">
-        <v>4397400</v>
+        <v>4579000</v>
       </c>
       <c r="H41" s="3">
-        <v>4169200</v>
+        <v>4341400</v>
       </c>
       <c r="I41" s="3">
-        <v>4228000</v>
+        <v>4402600</v>
       </c>
       <c r="J41" s="3">
-        <v>4812700</v>
+        <v>5011400</v>
       </c>
       <c r="K41" s="3">
         <v>3858900</v>
@@ -1777,25 +1777,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>884700</v>
+        <v>921200</v>
       </c>
       <c r="E42" s="3">
-        <v>862300</v>
+        <v>897900</v>
       </c>
       <c r="F42" s="3">
-        <v>783500</v>
+        <v>815800</v>
       </c>
       <c r="G42" s="3">
-        <v>605800</v>
+        <v>630900</v>
       </c>
       <c r="H42" s="3">
-        <v>440000</v>
+        <v>458100</v>
       </c>
       <c r="I42" s="3">
-        <v>452900</v>
+        <v>471600</v>
       </c>
       <c r="J42" s="3">
-        <v>297600</v>
+        <v>309900</v>
       </c>
       <c r="K42" s="3">
         <v>204600</v>
@@ -1813,25 +1813,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5503200</v>
+        <v>5730500</v>
       </c>
       <c r="E43" s="3">
-        <v>6470200</v>
+        <v>6737400</v>
       </c>
       <c r="F43" s="3">
-        <v>5906700</v>
+        <v>6150700</v>
       </c>
       <c r="G43" s="3">
-        <v>5676100</v>
+        <v>5910600</v>
       </c>
       <c r="H43" s="3">
-        <v>4825600</v>
+        <v>5024900</v>
       </c>
       <c r="I43" s="3">
-        <v>4778500</v>
+        <v>4975900</v>
       </c>
       <c r="J43" s="3">
-        <v>4131500</v>
+        <v>4302200</v>
       </c>
       <c r="K43" s="3">
         <v>3746500</v>
@@ -1849,25 +1849,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15312000</v>
+        <v>15944500</v>
       </c>
       <c r="E44" s="3">
-        <v>16136700</v>
+        <v>16803200</v>
       </c>
       <c r="F44" s="3">
-        <v>14687400</v>
+        <v>15294000</v>
       </c>
       <c r="G44" s="3">
-        <v>12808600</v>
+        <v>13337700</v>
       </c>
       <c r="H44" s="3">
-        <v>12406300</v>
+        <v>12918700</v>
       </c>
       <c r="I44" s="3">
-        <v>11876900</v>
+        <v>12367500</v>
       </c>
       <c r="J44" s="3">
-        <v>11146400</v>
+        <v>11606800</v>
       </c>
       <c r="K44" s="3">
         <v>10158100</v>
@@ -1885,25 +1885,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1839900</v>
+        <v>1915900</v>
       </c>
       <c r="E45" s="3">
-        <v>1043500</v>
+        <v>1086600</v>
       </c>
       <c r="F45" s="3">
-        <v>904700</v>
+        <v>942000</v>
       </c>
       <c r="G45" s="3">
-        <v>1288200</v>
+        <v>1341400</v>
       </c>
       <c r="H45" s="3">
-        <v>977600</v>
+        <v>1018000</v>
       </c>
       <c r="I45" s="3">
-        <v>956400</v>
+        <v>995900</v>
       </c>
       <c r="J45" s="3">
-        <v>916400</v>
+        <v>954300</v>
       </c>
       <c r="K45" s="3">
         <v>1136400</v>
@@ -1921,25 +1921,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47024200</v>
+        <v>48966500</v>
       </c>
       <c r="E46" s="3">
-        <v>31186400</v>
+        <v>32474500</v>
       </c>
       <c r="F46" s="3">
-        <v>27705400</v>
+        <v>28849700</v>
       </c>
       <c r="G46" s="3">
-        <v>24776200</v>
+        <v>25799500</v>
       </c>
       <c r="H46" s="3">
-        <v>22818600</v>
+        <v>23761100</v>
       </c>
       <c r="I46" s="3">
-        <v>22292800</v>
+        <v>23213600</v>
       </c>
       <c r="J46" s="3">
-        <v>21304600</v>
+        <v>22184600</v>
       </c>
       <c r="K46" s="3">
         <v>19104500</v>
@@ -1957,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2844500</v>
+        <v>2962000</v>
       </c>
       <c r="E47" s="3">
-        <v>3186900</v>
+        <v>3318500</v>
       </c>
       <c r="F47" s="3">
-        <v>2846900</v>
+        <v>2964500</v>
       </c>
       <c r="G47" s="3">
-        <v>2366900</v>
+        <v>2464700</v>
       </c>
       <c r="H47" s="3">
-        <v>2466900</v>
+        <v>2568800</v>
       </c>
       <c r="I47" s="3">
-        <v>2074000</v>
+        <v>2159700</v>
       </c>
       <c r="J47" s="3">
-        <v>1754000</v>
+        <v>1826500</v>
       </c>
       <c r="K47" s="3">
         <v>9490700</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35799000</v>
+        <v>37277700</v>
       </c>
       <c r="E48" s="3">
-        <v>35974300</v>
+        <v>37460200</v>
       </c>
       <c r="F48" s="3">
-        <v>17777800</v>
+        <v>18512000</v>
       </c>
       <c r="G48" s="3">
-        <v>18721200</v>
+        <v>19494500</v>
       </c>
       <c r="H48" s="3">
-        <v>14280300</v>
+        <v>14870200</v>
       </c>
       <c r="I48" s="3">
-        <v>13125100</v>
+        <v>13667200</v>
       </c>
       <c r="J48" s="3">
-        <v>12219300</v>
+        <v>12724000</v>
       </c>
       <c r="K48" s="3">
         <v>25724300</v>
@@ -2029,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39252900</v>
+        <v>40874200</v>
       </c>
       <c r="E49" s="3">
-        <v>39536500</v>
+        <v>41169500</v>
       </c>
       <c r="F49" s="3">
-        <v>36446000</v>
+        <v>37951400</v>
       </c>
       <c r="G49" s="3">
-        <v>36226100</v>
+        <v>37722300</v>
       </c>
       <c r="H49" s="3">
-        <v>40158800</v>
+        <v>41817500</v>
       </c>
       <c r="I49" s="3">
-        <v>27873600</v>
+        <v>29024900</v>
       </c>
       <c r="J49" s="3">
-        <v>25693800</v>
+        <v>26755000</v>
       </c>
       <c r="K49" s="3">
         <v>51829000</v>
@@ -2137,25 +2137,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2919800</v>
+        <v>3040400</v>
       </c>
       <c r="E52" s="3">
-        <v>3646800</v>
+        <v>3797500</v>
       </c>
       <c r="F52" s="3">
-        <v>2630400</v>
+        <v>2739100</v>
       </c>
       <c r="G52" s="3">
-        <v>2383400</v>
+        <v>2481800</v>
       </c>
       <c r="H52" s="3">
-        <v>2643400</v>
+        <v>2752600</v>
       </c>
       <c r="I52" s="3">
-        <v>2396300</v>
+        <v>2495300</v>
       </c>
       <c r="J52" s="3">
-        <v>1803400</v>
+        <v>1877900</v>
       </c>
       <c r="K52" s="3">
         <v>1708200</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>127841000</v>
+        <v>133121000</v>
       </c>
       <c r="E54" s="3">
-        <v>113531000</v>
+        <v>118220000</v>
       </c>
       <c r="F54" s="3">
-        <v>87406500</v>
+        <v>91016800</v>
       </c>
       <c r="G54" s="3">
-        <v>82059800</v>
+        <v>85449200</v>
       </c>
       <c r="H54" s="3">
-        <v>70132300</v>
+        <v>73029000</v>
       </c>
       <c r="I54" s="3">
-        <v>67761800</v>
+        <v>70560600</v>
       </c>
       <c r="J54" s="3">
-        <v>62775100</v>
+        <v>65367900</v>
       </c>
       <c r="K54" s="3">
         <v>67197700</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5997300</v>
+        <v>6245000</v>
       </c>
       <c r="E57" s="3">
-        <v>6839600</v>
+        <v>7122100</v>
       </c>
       <c r="F57" s="3">
-        <v>6251400</v>
+        <v>6509600</v>
       </c>
       <c r="G57" s="3">
-        <v>5339700</v>
+        <v>5560200</v>
       </c>
       <c r="H57" s="3">
-        <v>4922100</v>
+        <v>5125400</v>
       </c>
       <c r="I57" s="3">
-        <v>4658500</v>
+        <v>4851000</v>
       </c>
       <c r="J57" s="3">
-        <v>4242100</v>
+        <v>4417300</v>
       </c>
       <c r="K57" s="3">
         <v>3943900</v>
@@ -2313,25 +2313,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15001500</v>
+        <v>15621100</v>
       </c>
       <c r="E58" s="3">
-        <v>11482800</v>
+        <v>11957100</v>
       </c>
       <c r="F58" s="3">
-        <v>5891400</v>
+        <v>6134700</v>
       </c>
       <c r="G58" s="3">
-        <v>5753800</v>
+        <v>5991400</v>
       </c>
       <c r="H58" s="3">
-        <v>4022100</v>
+        <v>4188200</v>
       </c>
       <c r="I58" s="3">
-        <v>4402100</v>
+        <v>4583900</v>
       </c>
       <c r="J58" s="3">
-        <v>4866800</v>
+        <v>5067800</v>
       </c>
       <c r="K58" s="3">
         <v>6601800</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8785400</v>
+        <v>9148200</v>
       </c>
       <c r="E59" s="3">
-        <v>8291300</v>
+        <v>8633700</v>
       </c>
       <c r="F59" s="3">
-        <v>7659500</v>
+        <v>7975900</v>
       </c>
       <c r="G59" s="3">
-        <v>7003100</v>
+        <v>7292400</v>
       </c>
       <c r="H59" s="3">
-        <v>6125500</v>
+        <v>6378500</v>
       </c>
       <c r="I59" s="3">
-        <v>5878500</v>
+        <v>6121300</v>
       </c>
       <c r="J59" s="3">
-        <v>5213800</v>
+        <v>5429200</v>
       </c>
       <c r="K59" s="3">
         <v>4482200</v>
@@ -2385,25 +2385,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29784100</v>
+        <v>31014300</v>
       </c>
       <c r="E60" s="3">
-        <v>26613700</v>
+        <v>27712900</v>
       </c>
       <c r="F60" s="3">
-        <v>19802300</v>
+        <v>20620300</v>
       </c>
       <c r="G60" s="3">
-        <v>17633100</v>
+        <v>18361400</v>
       </c>
       <c r="H60" s="3">
-        <v>15069700</v>
+        <v>15692100</v>
       </c>
       <c r="I60" s="3">
-        <v>14939100</v>
+        <v>15556100</v>
       </c>
       <c r="J60" s="3">
-        <v>14322700</v>
+        <v>14914300</v>
       </c>
       <c r="K60" s="3">
         <v>13922600</v>
@@ -2421,25 +2421,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29092400</v>
+        <v>30294000</v>
       </c>
       <c r="E61" s="3">
-        <v>18203600</v>
+        <v>18955500</v>
       </c>
       <c r="F61" s="3">
-        <v>7064300</v>
+        <v>7356100</v>
       </c>
       <c r="G61" s="3">
-        <v>8288900</v>
+        <v>8631300</v>
       </c>
       <c r="H61" s="3">
-        <v>4625600</v>
+        <v>4816700</v>
       </c>
       <c r="I61" s="3">
-        <v>5306700</v>
+        <v>5525900</v>
       </c>
       <c r="J61" s="3">
-        <v>5945500</v>
+        <v>6191100</v>
       </c>
       <c r="K61" s="3">
         <v>4963000</v>
@@ -2457,25 +2457,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23285700</v>
+        <v>24247500</v>
       </c>
       <c r="E62" s="3">
-        <v>23580900</v>
+        <v>24554900</v>
       </c>
       <c r="F62" s="3">
-        <v>20592900</v>
+        <v>21443400</v>
       </c>
       <c r="G62" s="3">
-        <v>20402300</v>
+        <v>21245000</v>
       </c>
       <c r="H62" s="3">
-        <v>17617800</v>
+        <v>18345500</v>
       </c>
       <c r="I62" s="3">
-        <v>17166000</v>
+        <v>17875100</v>
       </c>
       <c r="J62" s="3">
-        <v>15446100</v>
+        <v>16084100</v>
       </c>
       <c r="K62" s="3">
         <v>22589000</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>83829100</v>
+        <v>87291600</v>
       </c>
       <c r="E66" s="3">
-        <v>70491100</v>
+        <v>73402600</v>
       </c>
       <c r="F66" s="3">
-        <v>49417000</v>
+        <v>51458200</v>
       </c>
       <c r="G66" s="3">
-        <v>47980700</v>
+        <v>49962400</v>
       </c>
       <c r="H66" s="3">
-        <v>39089400</v>
+        <v>40704000</v>
       </c>
       <c r="I66" s="3">
-        <v>39129400</v>
+        <v>40745600</v>
       </c>
       <c r="J66" s="3">
-        <v>37173100</v>
+        <v>38708500</v>
       </c>
       <c r="K66" s="3">
         <v>35045100</v>
@@ -2797,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>41601000</v>
+        <v>43319300</v>
       </c>
       <c r="E72" s="3">
-        <v>38636500</v>
+        <v>40232300</v>
       </c>
       <c r="F72" s="3">
-        <v>33899100</v>
+        <v>35299300</v>
       </c>
       <c r="G72" s="3">
-        <v>29725300</v>
+        <v>30953000</v>
       </c>
       <c r="H72" s="3">
-        <v>26105500</v>
+        <v>27183800</v>
       </c>
       <c r="I72" s="3">
-        <v>23248000</v>
+        <v>24208300</v>
       </c>
       <c r="J72" s="3">
-        <v>20962300</v>
+        <v>21828100</v>
       </c>
       <c r="K72" s="3">
         <v>23250500</v>
@@ -2941,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44011500</v>
+        <v>45829300</v>
       </c>
       <c r="E76" s="3">
-        <v>43039800</v>
+        <v>44817500</v>
       </c>
       <c r="F76" s="3">
-        <v>37989500</v>
+        <v>39558600</v>
       </c>
       <c r="G76" s="3">
-        <v>34079100</v>
+        <v>35486700</v>
       </c>
       <c r="H76" s="3">
-        <v>31042800</v>
+        <v>32325000</v>
       </c>
       <c r="I76" s="3">
-        <v>28632400</v>
+        <v>29815000</v>
       </c>
       <c r="J76" s="3">
-        <v>25602000</v>
+        <v>26659500</v>
       </c>
       <c r="K76" s="3">
         <v>32152700</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5531400</v>
+        <v>5759900</v>
       </c>
       <c r="E81" s="3">
-        <v>8436000</v>
+        <v>8784400</v>
       </c>
       <c r="F81" s="3">
-        <v>7474800</v>
+        <v>7783600</v>
       </c>
       <c r="G81" s="3">
-        <v>6311400</v>
+        <v>6572100</v>
       </c>
       <c r="H81" s="3">
-        <v>4783200</v>
+        <v>4980800</v>
       </c>
       <c r="I81" s="3">
-        <v>4203300</v>
+        <v>4376900</v>
       </c>
       <c r="J81" s="3">
-        <v>6644300</v>
+        <v>6918700</v>
       </c>
       <c r="K81" s="3">
         <v>4118500</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7117200</v>
+        <v>7411200</v>
       </c>
       <c r="E83" s="3">
-        <v>6009100</v>
+        <v>6257200</v>
       </c>
       <c r="F83" s="3">
-        <v>2708100</v>
+        <v>2819900</v>
       </c>
       <c r="G83" s="3">
-        <v>2795100</v>
+        <v>2910600</v>
       </c>
       <c r="H83" s="3">
-        <v>2521000</v>
+        <v>2625200</v>
       </c>
       <c r="I83" s="3">
-        <v>2448100</v>
+        <v>2549200</v>
       </c>
       <c r="J83" s="3">
-        <v>2229300</v>
+        <v>2321400</v>
       </c>
       <c r="K83" s="3">
         <v>1716500</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12819200</v>
+        <v>13348700</v>
       </c>
       <c r="E89" s="3">
-        <v>13702700</v>
+        <v>14268700</v>
       </c>
       <c r="F89" s="3">
-        <v>9987600</v>
+        <v>10400200</v>
       </c>
       <c r="G89" s="3">
-        <v>8201900</v>
+        <v>8540600</v>
       </c>
       <c r="H89" s="3">
-        <v>7265400</v>
+        <v>7565500</v>
       </c>
       <c r="I89" s="3">
-        <v>6627800</v>
+        <v>6901600</v>
       </c>
       <c r="J89" s="3">
-        <v>5419700</v>
+        <v>5643500</v>
       </c>
       <c r="K89" s="3">
         <v>5638900</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2915100</v>
+        <v>-2430400</v>
       </c>
       <c r="E91" s="3">
-        <v>-3364500</v>
+        <v>-3503500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3063300</v>
+        <v>-3189900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2222200</v>
+        <v>-2314000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2529300</v>
+        <v>-2633700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2045800</v>
+        <v>-2130300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1802200</v>
+        <v>-1876700</v>
       </c>
       <c r="K91" s="3">
         <v>-1891200</v>
@@ -3482,25 +3482,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3457400</v>
+        <v>-3600200</v>
       </c>
       <c r="E94" s="3">
-        <v>-6904300</v>
+        <v>-7189500</v>
       </c>
       <c r="F94" s="3">
-        <v>-4045600</v>
+        <v>-4212700</v>
       </c>
       <c r="G94" s="3">
-        <v>-10125300</v>
+        <v>-10543500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2703400</v>
+        <v>-2815000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2901000</v>
+        <v>-3020800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2361000</v>
+        <v>-2458600</v>
       </c>
       <c r="K94" s="3">
         <v>-4685500</v>
@@ -3534,25 +3534,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3292700</v>
+        <v>-3428700</v>
       </c>
       <c r="E96" s="3">
-        <v>-4326800</v>
+        <v>-4505500</v>
       </c>
       <c r="F96" s="3">
-        <v>-3193900</v>
+        <v>-3325800</v>
       </c>
       <c r="G96" s="3">
-        <v>-2482200</v>
+        <v>-2584700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2186900</v>
+        <v>-2277300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1965800</v>
+        <v>-2047000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1904600</v>
+        <v>-1983300</v>
       </c>
       <c r="K96" s="3">
         <v>-1795500</v>
@@ -3678,25 +3678,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8708900</v>
+        <v>9068600</v>
       </c>
       <c r="E100" s="3">
-        <v>-5569100</v>
+        <v>-5799100</v>
       </c>
       <c r="F100" s="3">
-        <v>-5085600</v>
+        <v>-5295600</v>
       </c>
       <c r="G100" s="3">
-        <v>2538700</v>
+        <v>2643500</v>
       </c>
       <c r="H100" s="3">
-        <v>-4688000</v>
+        <v>-4881600</v>
       </c>
       <c r="I100" s="3">
-        <v>-4150300</v>
+        <v>-4321800</v>
       </c>
       <c r="J100" s="3">
-        <v>-2070500</v>
+        <v>-2156000</v>
       </c>
       <c r="K100" s="3">
         <v>108900</v>
@@ -3714,25 +3714,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1237600</v>
+        <v>-1288700</v>
       </c>
       <c r="E101" s="3">
-        <v>45900</v>
+        <v>47800</v>
       </c>
       <c r="F101" s="3">
-        <v>78800</v>
+        <v>82100</v>
       </c>
       <c r="G101" s="3">
-        <v>-284700</v>
+        <v>-296400</v>
       </c>
       <c r="H101" s="3">
-        <v>63500</v>
+        <v>66100</v>
       </c>
       <c r="I101" s="3">
-        <v>-38800</v>
+        <v>-40400</v>
       </c>
       <c r="J101" s="3">
-        <v>31800</v>
+        <v>33100</v>
       </c>
       <c r="K101" s="3">
         <v>56200</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16833100</v>
+        <v>17528400</v>
       </c>
       <c r="E102" s="3">
-        <v>1275200</v>
+        <v>1327900</v>
       </c>
       <c r="F102" s="3">
-        <v>935200</v>
+        <v>973900</v>
       </c>
       <c r="G102" s="3">
-        <v>330600</v>
+        <v>344200</v>
       </c>
       <c r="H102" s="3">
-        <v>-62300</v>
+        <v>-64900</v>
       </c>
       <c r="I102" s="3">
-        <v>-462300</v>
+        <v>-481400</v>
       </c>
       <c r="J102" s="3">
-        <v>1019900</v>
+        <v>1062100</v>
       </c>
       <c r="K102" s="3">
         <v>1118400</v>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54697000</v>
+        <v>52126000</v>
       </c>
       <c r="E8" s="3">
-        <v>65745200</v>
+        <v>62654900</v>
       </c>
       <c r="F8" s="3">
-        <v>57361400</v>
+        <v>54665100</v>
       </c>
       <c r="G8" s="3">
-        <v>52228700</v>
+        <v>49773700</v>
       </c>
       <c r="H8" s="3">
-        <v>46059600</v>
+        <v>43894600</v>
       </c>
       <c r="I8" s="3">
-        <v>43688000</v>
+        <v>41634500</v>
       </c>
       <c r="J8" s="3">
-        <v>37531200</v>
+        <v>35767100</v>
       </c>
       <c r="K8" s="3">
         <v>34708900</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19441800</v>
+        <v>18528000</v>
       </c>
       <c r="E9" s="3">
-        <v>22200500</v>
+        <v>21157000</v>
       </c>
       <c r="F9" s="3">
-        <v>19140500</v>
+        <v>18240800</v>
       </c>
       <c r="G9" s="3">
-        <v>18109000</v>
+        <v>17257800</v>
       </c>
       <c r="H9" s="3">
-        <v>15972600</v>
+        <v>15221900</v>
       </c>
       <c r="I9" s="3">
-        <v>15377300</v>
+        <v>14654500</v>
       </c>
       <c r="J9" s="3">
-        <v>13231100</v>
+        <v>12609200</v>
       </c>
       <c r="K9" s="3">
         <v>11958400</v>
@@ -795,25 +795,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>35255200</v>
+        <v>33598100</v>
       </c>
       <c r="E10" s="3">
-        <v>43544700</v>
+        <v>41497900</v>
       </c>
       <c r="F10" s="3">
-        <v>38220900</v>
+        <v>36424400</v>
       </c>
       <c r="G10" s="3">
-        <v>34119600</v>
+        <v>32515900</v>
       </c>
       <c r="H10" s="3">
-        <v>30087000</v>
+        <v>28672800</v>
       </c>
       <c r="I10" s="3">
-        <v>28310700</v>
+        <v>26980000</v>
       </c>
       <c r="J10" s="3">
-        <v>24300100</v>
+        <v>23157900</v>
       </c>
       <c r="K10" s="3">
         <v>22750500</v>
@@ -919,25 +919,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>338100</v>
+        <v>322200</v>
       </c>
       <c r="E14" s="3">
-        <v>156800</v>
+        <v>149400</v>
       </c>
       <c r="F14" s="3">
-        <v>154300</v>
+        <v>147100</v>
       </c>
       <c r="G14" s="3">
-        <v>285400</v>
+        <v>272000</v>
       </c>
       <c r="H14" s="3">
-        <v>379700</v>
+        <v>361900</v>
       </c>
       <c r="I14" s="3">
-        <v>289100</v>
+        <v>275500</v>
       </c>
       <c r="J14" s="3">
-        <v>355200</v>
+        <v>338500</v>
       </c>
       <c r="K14" s="3">
         <v>147100</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44931400</v>
+        <v>42819400</v>
       </c>
       <c r="E17" s="3">
-        <v>51935900</v>
+        <v>49494700</v>
       </c>
       <c r="F17" s="3">
-        <v>45262200</v>
+        <v>43134600</v>
       </c>
       <c r="G17" s="3">
-        <v>42290300</v>
+        <v>40302500</v>
       </c>
       <c r="H17" s="3">
-        <v>37602300</v>
+        <v>35834800</v>
       </c>
       <c r="I17" s="3">
-        <v>35867700</v>
+        <v>34181800</v>
       </c>
       <c r="J17" s="3">
-        <v>30878300</v>
+        <v>29426900</v>
       </c>
       <c r="K17" s="3">
         <v>27653800</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9765600</v>
+        <v>9306600</v>
       </c>
       <c r="E18" s="3">
-        <v>13809300</v>
+        <v>13160200</v>
       </c>
       <c r="F18" s="3">
-        <v>12099200</v>
+        <v>11530500</v>
       </c>
       <c r="G18" s="3">
-        <v>9938300</v>
+        <v>9471200</v>
       </c>
       <c r="H18" s="3">
-        <v>8457300</v>
+        <v>8059800</v>
       </c>
       <c r="I18" s="3">
-        <v>7820300</v>
+        <v>7452700</v>
       </c>
       <c r="J18" s="3">
-        <v>6652900</v>
+        <v>6340200</v>
       </c>
       <c r="K18" s="3">
         <v>7055200</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-296400</v>
+        <v>-282500</v>
       </c>
       <c r="E20" s="3">
-        <v>-138400</v>
+        <v>-131900</v>
       </c>
       <c r="F20" s="3">
-        <v>-281700</v>
+        <v>-268500</v>
       </c>
       <c r="G20" s="3">
-        <v>134700</v>
+        <v>128400</v>
       </c>
       <c r="H20" s="3">
-        <v>-196000</v>
+        <v>-186800</v>
       </c>
       <c r="I20" s="3">
-        <v>-371200</v>
+        <v>-353700</v>
       </c>
       <c r="J20" s="3">
-        <v>3786400</v>
+        <v>3608500</v>
       </c>
       <c r="K20" s="3">
         <v>-71800</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16859200</v>
+        <v>16108600</v>
       </c>
       <c r="E21" s="3">
-        <v>19910300</v>
+        <v>19009800</v>
       </c>
       <c r="F21" s="3">
-        <v>14629300</v>
+        <v>13957600</v>
       </c>
       <c r="G21" s="3">
-        <v>12975400</v>
+        <v>12381900</v>
       </c>
       <c r="H21" s="3">
-        <v>10879000</v>
+        <v>10382500</v>
       </c>
       <c r="I21" s="3">
-        <v>9991100</v>
+        <v>9535900</v>
       </c>
       <c r="J21" s="3">
-        <v>12754100</v>
+        <v>12167700</v>
       </c>
       <c r="K21" s="3">
         <v>8692900</v>
@@ -1164,25 +1164,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>448300</v>
+        <v>427300</v>
       </c>
       <c r="E22" s="3">
-        <v>546300</v>
+        <v>520700</v>
       </c>
       <c r="F22" s="3">
-        <v>193500</v>
+        <v>184500</v>
       </c>
       <c r="G22" s="3">
-        <v>207000</v>
+        <v>197300</v>
       </c>
       <c r="H22" s="3">
-        <v>193500</v>
+        <v>184500</v>
       </c>
       <c r="I22" s="3">
-        <v>136000</v>
+        <v>129600</v>
       </c>
       <c r="J22" s="3">
-        <v>176400</v>
+        <v>168100</v>
       </c>
       <c r="K22" s="3">
         <v>165100</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9020800</v>
+        <v>8596800</v>
       </c>
       <c r="E23" s="3">
-        <v>13124500</v>
+        <v>12507600</v>
       </c>
       <c r="F23" s="3">
-        <v>11623900</v>
+        <v>11077600</v>
       </c>
       <c r="G23" s="3">
-        <v>9866100</v>
+        <v>9402300</v>
       </c>
       <c r="H23" s="3">
-        <v>8067800</v>
+        <v>7688600</v>
       </c>
       <c r="I23" s="3">
-        <v>7313200</v>
+        <v>6969400</v>
       </c>
       <c r="J23" s="3">
-        <v>10263000</v>
+        <v>9780600</v>
       </c>
       <c r="K23" s="3">
         <v>6818300</v>
@@ -1236,25 +1236,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2951000</v>
+        <v>2812300</v>
       </c>
       <c r="E24" s="3">
-        <v>3591700</v>
+        <v>3422800</v>
       </c>
       <c r="F24" s="3">
-        <v>3061300</v>
+        <v>2917400</v>
       </c>
       <c r="G24" s="3">
-        <v>2712100</v>
+        <v>2584600</v>
       </c>
       <c r="H24" s="3">
-        <v>2612900</v>
+        <v>2490100</v>
       </c>
       <c r="I24" s="3">
-        <v>2412000</v>
+        <v>2298600</v>
       </c>
       <c r="J24" s="3">
-        <v>2784400</v>
+        <v>2653500</v>
       </c>
       <c r="K24" s="3">
         <v>2096900</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6069800</v>
+        <v>5784500</v>
       </c>
       <c r="E26" s="3">
-        <v>9532900</v>
+        <v>9084800</v>
       </c>
       <c r="F26" s="3">
-        <v>8562700</v>
+        <v>8160200</v>
       </c>
       <c r="G26" s="3">
-        <v>7153900</v>
+        <v>6817700</v>
       </c>
       <c r="H26" s="3">
-        <v>5454900</v>
+        <v>5198500</v>
       </c>
       <c r="I26" s="3">
-        <v>4901200</v>
+        <v>4670800</v>
       </c>
       <c r="J26" s="3">
-        <v>7478600</v>
+        <v>7127000</v>
       </c>
       <c r="K26" s="3">
         <v>4721400</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5759900</v>
+        <v>5489200</v>
       </c>
       <c r="E27" s="3">
-        <v>8784400</v>
+        <v>8371500</v>
       </c>
       <c r="F27" s="3">
-        <v>7783600</v>
+        <v>7417700</v>
       </c>
       <c r="G27" s="3">
-        <v>6572100</v>
+        <v>6263200</v>
       </c>
       <c r="H27" s="3">
-        <v>4980800</v>
+        <v>4746700</v>
       </c>
       <c r="I27" s="3">
-        <v>4376900</v>
+        <v>4171200</v>
       </c>
       <c r="J27" s="3">
-        <v>6918700</v>
+        <v>6593500</v>
       </c>
       <c r="K27" s="3">
         <v>4118500</v>
@@ -1524,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>296400</v>
+        <v>282500</v>
       </c>
       <c r="E32" s="3">
-        <v>138400</v>
+        <v>131900</v>
       </c>
       <c r="F32" s="3">
-        <v>281700</v>
+        <v>268500</v>
       </c>
       <c r="G32" s="3">
-        <v>-134700</v>
+        <v>-128400</v>
       </c>
       <c r="H32" s="3">
-        <v>196000</v>
+        <v>186800</v>
       </c>
       <c r="I32" s="3">
-        <v>371200</v>
+        <v>353700</v>
       </c>
       <c r="J32" s="3">
-        <v>-3786400</v>
+        <v>-3608500</v>
       </c>
       <c r="K32" s="3">
         <v>71800</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5759900</v>
+        <v>5489200</v>
       </c>
       <c r="E33" s="3">
-        <v>8784400</v>
+        <v>8371500</v>
       </c>
       <c r="F33" s="3">
-        <v>7783600</v>
+        <v>7417700</v>
       </c>
       <c r="G33" s="3">
-        <v>6572100</v>
+        <v>6263200</v>
       </c>
       <c r="H33" s="3">
-        <v>4980800</v>
+        <v>4746700</v>
       </c>
       <c r="I33" s="3">
-        <v>4376900</v>
+        <v>4171200</v>
       </c>
       <c r="J33" s="3">
-        <v>6918700</v>
+        <v>6593500</v>
       </c>
       <c r="K33" s="3">
         <v>4118500</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5759900</v>
+        <v>5489200</v>
       </c>
       <c r="E35" s="3">
-        <v>8784400</v>
+        <v>8371500</v>
       </c>
       <c r="F35" s="3">
-        <v>7783600</v>
+        <v>7417700</v>
       </c>
       <c r="G35" s="3">
-        <v>6572100</v>
+        <v>6263200</v>
       </c>
       <c r="H35" s="3">
-        <v>4980800</v>
+        <v>4746700</v>
       </c>
       <c r="I35" s="3">
-        <v>4376900</v>
+        <v>4171200</v>
       </c>
       <c r="J35" s="3">
-        <v>6918700</v>
+        <v>6593500</v>
       </c>
       <c r="K35" s="3">
         <v>4118500</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24454500</v>
+        <v>23305000</v>
       </c>
       <c r="E41" s="3">
-        <v>6949400</v>
+        <v>6622700</v>
       </c>
       <c r="F41" s="3">
-        <v>5647200</v>
+        <v>5381800</v>
       </c>
       <c r="G41" s="3">
-        <v>4579000</v>
+        <v>4363800</v>
       </c>
       <c r="H41" s="3">
-        <v>4341400</v>
+        <v>4137300</v>
       </c>
       <c r="I41" s="3">
-        <v>4402600</v>
+        <v>4195700</v>
       </c>
       <c r="J41" s="3">
-        <v>5011400</v>
+        <v>4775900</v>
       </c>
       <c r="K41" s="3">
         <v>3858900</v>
@@ -1777,25 +1777,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>921200</v>
+        <v>877900</v>
       </c>
       <c r="E42" s="3">
-        <v>897900</v>
+        <v>855700</v>
       </c>
       <c r="F42" s="3">
-        <v>815800</v>
+        <v>777500</v>
       </c>
       <c r="G42" s="3">
-        <v>630900</v>
+        <v>601200</v>
       </c>
       <c r="H42" s="3">
-        <v>458100</v>
+        <v>436600</v>
       </c>
       <c r="I42" s="3">
-        <v>471600</v>
+        <v>449500</v>
       </c>
       <c r="J42" s="3">
-        <v>309900</v>
+        <v>295400</v>
       </c>
       <c r="K42" s="3">
         <v>204600</v>
@@ -1813,25 +1813,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5730500</v>
+        <v>5461100</v>
       </c>
       <c r="E43" s="3">
-        <v>6737400</v>
+        <v>6420800</v>
       </c>
       <c r="F43" s="3">
-        <v>6150700</v>
+        <v>5861600</v>
       </c>
       <c r="G43" s="3">
-        <v>5910600</v>
+        <v>5632800</v>
       </c>
       <c r="H43" s="3">
-        <v>5024900</v>
+        <v>4788700</v>
       </c>
       <c r="I43" s="3">
-        <v>4975900</v>
+        <v>4742000</v>
       </c>
       <c r="J43" s="3">
-        <v>4302200</v>
+        <v>4099900</v>
       </c>
       <c r="K43" s="3">
         <v>3746500</v>
@@ -1849,25 +1849,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15944500</v>
+        <v>15195000</v>
       </c>
       <c r="E44" s="3">
-        <v>16803200</v>
+        <v>16013400</v>
       </c>
       <c r="F44" s="3">
-        <v>15294000</v>
+        <v>14575100</v>
       </c>
       <c r="G44" s="3">
-        <v>13337700</v>
+        <v>12710800</v>
       </c>
       <c r="H44" s="3">
-        <v>12918700</v>
+        <v>12311500</v>
       </c>
       <c r="I44" s="3">
-        <v>12367500</v>
+        <v>11786200</v>
       </c>
       <c r="J44" s="3">
-        <v>11606800</v>
+        <v>11061200</v>
       </c>
       <c r="K44" s="3">
         <v>10158100</v>
@@ -1885,25 +1885,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1915900</v>
+        <v>1825800</v>
       </c>
       <c r="E45" s="3">
-        <v>1086600</v>
+        <v>1035500</v>
       </c>
       <c r="F45" s="3">
-        <v>942000</v>
+        <v>897700</v>
       </c>
       <c r="G45" s="3">
-        <v>1341400</v>
+        <v>1278300</v>
       </c>
       <c r="H45" s="3">
-        <v>1018000</v>
+        <v>970100</v>
       </c>
       <c r="I45" s="3">
-        <v>995900</v>
+        <v>949100</v>
       </c>
       <c r="J45" s="3">
-        <v>954300</v>
+        <v>909400</v>
       </c>
       <c r="K45" s="3">
         <v>1136400</v>
@@ -1921,25 +1921,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>48966500</v>
+        <v>46664900</v>
       </c>
       <c r="E46" s="3">
-        <v>32474500</v>
+        <v>30948000</v>
       </c>
       <c r="F46" s="3">
-        <v>28849700</v>
+        <v>27493700</v>
       </c>
       <c r="G46" s="3">
-        <v>25799500</v>
+        <v>24586800</v>
       </c>
       <c r="H46" s="3">
-        <v>23761100</v>
+        <v>22644300</v>
       </c>
       <c r="I46" s="3">
-        <v>23213600</v>
+        <v>22122400</v>
       </c>
       <c r="J46" s="3">
-        <v>22184600</v>
+        <v>21141800</v>
       </c>
       <c r="K46" s="3">
         <v>19104500</v>
@@ -1957,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2962000</v>
+        <v>2822800</v>
       </c>
       <c r="E47" s="3">
-        <v>3318500</v>
+        <v>3162500</v>
       </c>
       <c r="F47" s="3">
-        <v>2964500</v>
+        <v>2825100</v>
       </c>
       <c r="G47" s="3">
-        <v>2464700</v>
+        <v>2348800</v>
       </c>
       <c r="H47" s="3">
-        <v>2568800</v>
+        <v>2448100</v>
       </c>
       <c r="I47" s="3">
-        <v>2159700</v>
+        <v>2058100</v>
       </c>
       <c r="J47" s="3">
-        <v>1826500</v>
+        <v>1740600</v>
       </c>
       <c r="K47" s="3">
         <v>9490700</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37277700</v>
+        <v>35525500</v>
       </c>
       <c r="E48" s="3">
-        <v>37460200</v>
+        <v>35699400</v>
       </c>
       <c r="F48" s="3">
-        <v>18512000</v>
+        <v>17641900</v>
       </c>
       <c r="G48" s="3">
-        <v>19494500</v>
+        <v>18578200</v>
       </c>
       <c r="H48" s="3">
-        <v>14870200</v>
+        <v>14171200</v>
       </c>
       <c r="I48" s="3">
-        <v>13667200</v>
+        <v>13024800</v>
       </c>
       <c r="J48" s="3">
-        <v>12724000</v>
+        <v>12125900</v>
       </c>
       <c r="K48" s="3">
         <v>25724300</v>
@@ -2029,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40874200</v>
+        <v>38953000</v>
       </c>
       <c r="E49" s="3">
-        <v>41169500</v>
+        <v>39234300</v>
       </c>
       <c r="F49" s="3">
-        <v>37951400</v>
+        <v>36167500</v>
       </c>
       <c r="G49" s="3">
-        <v>37722300</v>
+        <v>35949200</v>
       </c>
       <c r="H49" s="3">
-        <v>41817500</v>
+        <v>39851900</v>
       </c>
       <c r="I49" s="3">
-        <v>29024900</v>
+        <v>27660600</v>
       </c>
       <c r="J49" s="3">
-        <v>26755000</v>
+        <v>25497400</v>
       </c>
       <c r="K49" s="3">
         <v>51829000</v>
@@ -2137,25 +2137,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3040400</v>
+        <v>2897500</v>
       </c>
       <c r="E52" s="3">
-        <v>3797500</v>
+        <v>3619000</v>
       </c>
       <c r="F52" s="3">
-        <v>2739100</v>
+        <v>2610300</v>
       </c>
       <c r="G52" s="3">
-        <v>2481800</v>
+        <v>2365200</v>
       </c>
       <c r="H52" s="3">
-        <v>2752600</v>
+        <v>2623200</v>
       </c>
       <c r="I52" s="3">
-        <v>2495300</v>
+        <v>2378000</v>
       </c>
       <c r="J52" s="3">
-        <v>1877900</v>
+        <v>1789600</v>
       </c>
       <c r="K52" s="3">
         <v>1708200</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>133121000</v>
+        <v>126864000</v>
       </c>
       <c r="E54" s="3">
-        <v>118220000</v>
+        <v>112663000</v>
       </c>
       <c r="F54" s="3">
-        <v>91016800</v>
+        <v>86738600</v>
       </c>
       <c r="G54" s="3">
-        <v>85449200</v>
+        <v>81432700</v>
       </c>
       <c r="H54" s="3">
-        <v>73029000</v>
+        <v>69596300</v>
       </c>
       <c r="I54" s="3">
-        <v>70560600</v>
+        <v>67244000</v>
       </c>
       <c r="J54" s="3">
-        <v>65367900</v>
+        <v>62295300</v>
       </c>
       <c r="K54" s="3">
         <v>67197700</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6245000</v>
+        <v>5951500</v>
       </c>
       <c r="E57" s="3">
-        <v>7122100</v>
+        <v>6787300</v>
       </c>
       <c r="F57" s="3">
-        <v>6509600</v>
+        <v>6203600</v>
       </c>
       <c r="G57" s="3">
-        <v>5560200</v>
+        <v>5298900</v>
       </c>
       <c r="H57" s="3">
-        <v>5125400</v>
+        <v>4884400</v>
       </c>
       <c r="I57" s="3">
-        <v>4851000</v>
+        <v>4622900</v>
       </c>
       <c r="J57" s="3">
-        <v>4417300</v>
+        <v>4209700</v>
       </c>
       <c r="K57" s="3">
         <v>3943900</v>
@@ -2313,25 +2313,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15621100</v>
+        <v>14886800</v>
       </c>
       <c r="E58" s="3">
-        <v>11957100</v>
+        <v>11395100</v>
       </c>
       <c r="F58" s="3">
-        <v>6134700</v>
+        <v>5846400</v>
       </c>
       <c r="G58" s="3">
-        <v>5991400</v>
+        <v>5709800</v>
       </c>
       <c r="H58" s="3">
-        <v>4188200</v>
+        <v>3991400</v>
       </c>
       <c r="I58" s="3">
-        <v>4583900</v>
+        <v>4368400</v>
       </c>
       <c r="J58" s="3">
-        <v>5067800</v>
+        <v>4829600</v>
       </c>
       <c r="K58" s="3">
         <v>6601800</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9148200</v>
+        <v>8718200</v>
       </c>
       <c r="E59" s="3">
-        <v>8633700</v>
+        <v>8227900</v>
       </c>
       <c r="F59" s="3">
-        <v>7975900</v>
+        <v>7601000</v>
       </c>
       <c r="G59" s="3">
-        <v>7292400</v>
+        <v>6949600</v>
       </c>
       <c r="H59" s="3">
-        <v>6378500</v>
+        <v>6078700</v>
       </c>
       <c r="I59" s="3">
-        <v>6121300</v>
+        <v>5833500</v>
       </c>
       <c r="J59" s="3">
-        <v>5429200</v>
+        <v>5174000</v>
       </c>
       <c r="K59" s="3">
         <v>4482200</v>
@@ -2385,25 +2385,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31014300</v>
+        <v>29556500</v>
       </c>
       <c r="E60" s="3">
-        <v>27712900</v>
+        <v>26410300</v>
       </c>
       <c r="F60" s="3">
-        <v>20620300</v>
+        <v>19651000</v>
       </c>
       <c r="G60" s="3">
-        <v>18361400</v>
+        <v>17498300</v>
       </c>
       <c r="H60" s="3">
-        <v>15692100</v>
+        <v>14954500</v>
       </c>
       <c r="I60" s="3">
-        <v>15556100</v>
+        <v>14824900</v>
       </c>
       <c r="J60" s="3">
-        <v>14914300</v>
+        <v>14213200</v>
       </c>
       <c r="K60" s="3">
         <v>13922600</v>
@@ -2421,25 +2421,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30294000</v>
+        <v>28870000</v>
       </c>
       <c r="E61" s="3">
-        <v>18955500</v>
+        <v>18064500</v>
       </c>
       <c r="F61" s="3">
-        <v>7356100</v>
+        <v>7010300</v>
       </c>
       <c r="G61" s="3">
-        <v>8631300</v>
+        <v>8225600</v>
       </c>
       <c r="H61" s="3">
-        <v>4816700</v>
+        <v>4590300</v>
       </c>
       <c r="I61" s="3">
-        <v>5525900</v>
+        <v>5266200</v>
       </c>
       <c r="J61" s="3">
-        <v>6191100</v>
+        <v>5900100</v>
       </c>
       <c r="K61" s="3">
         <v>4963000</v>
@@ -2457,25 +2457,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24247500</v>
+        <v>23107700</v>
       </c>
       <c r="E62" s="3">
-        <v>24554900</v>
+        <v>23400700</v>
       </c>
       <c r="F62" s="3">
-        <v>21443400</v>
+        <v>20435500</v>
       </c>
       <c r="G62" s="3">
-        <v>21245000</v>
+        <v>20246400</v>
       </c>
       <c r="H62" s="3">
-        <v>18345500</v>
+        <v>17483100</v>
       </c>
       <c r="I62" s="3">
-        <v>17875100</v>
+        <v>17034800</v>
       </c>
       <c r="J62" s="3">
-        <v>16084100</v>
+        <v>15328100</v>
       </c>
       <c r="K62" s="3">
         <v>22589000</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>87291600</v>
+        <v>83188500</v>
       </c>
       <c r="E66" s="3">
-        <v>73402600</v>
+        <v>69952400</v>
       </c>
       <c r="F66" s="3">
-        <v>51458200</v>
+        <v>49039400</v>
       </c>
       <c r="G66" s="3">
-        <v>49962400</v>
+        <v>47614000</v>
       </c>
       <c r="H66" s="3">
-        <v>40704000</v>
+        <v>38790700</v>
       </c>
       <c r="I66" s="3">
-        <v>40745600</v>
+        <v>38830400</v>
       </c>
       <c r="J66" s="3">
-        <v>38708500</v>
+        <v>36889000</v>
       </c>
       <c r="K66" s="3">
         <v>35045100</v>
@@ -2797,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43319300</v>
+        <v>41283100</v>
       </c>
       <c r="E72" s="3">
-        <v>40232300</v>
+        <v>38341200</v>
       </c>
       <c r="F72" s="3">
-        <v>35299300</v>
+        <v>33640100</v>
       </c>
       <c r="G72" s="3">
-        <v>30953000</v>
+        <v>29498100</v>
       </c>
       <c r="H72" s="3">
-        <v>27183800</v>
+        <v>25906000</v>
       </c>
       <c r="I72" s="3">
-        <v>24208300</v>
+        <v>23070400</v>
       </c>
       <c r="J72" s="3">
-        <v>21828100</v>
+        <v>20802100</v>
       </c>
       <c r="K72" s="3">
         <v>23250500</v>
@@ -2941,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45829300</v>
+        <v>43675100</v>
       </c>
       <c r="E76" s="3">
-        <v>44817500</v>
+        <v>42710900</v>
       </c>
       <c r="F76" s="3">
-        <v>39558600</v>
+        <v>37699200</v>
       </c>
       <c r="G76" s="3">
-        <v>35486700</v>
+        <v>33818700</v>
       </c>
       <c r="H76" s="3">
-        <v>32325000</v>
+        <v>30805600</v>
       </c>
       <c r="I76" s="3">
-        <v>29815000</v>
+        <v>28413600</v>
       </c>
       <c r="J76" s="3">
-        <v>26659500</v>
+        <v>25406300</v>
       </c>
       <c r="K76" s="3">
         <v>32152700</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5759900</v>
+        <v>5489200</v>
       </c>
       <c r="E81" s="3">
-        <v>8784400</v>
+        <v>8371500</v>
       </c>
       <c r="F81" s="3">
-        <v>7783600</v>
+        <v>7417700</v>
       </c>
       <c r="G81" s="3">
-        <v>6572100</v>
+        <v>6263200</v>
       </c>
       <c r="H81" s="3">
-        <v>4980800</v>
+        <v>4746700</v>
       </c>
       <c r="I81" s="3">
-        <v>4376900</v>
+        <v>4171200</v>
       </c>
       <c r="J81" s="3">
-        <v>6918700</v>
+        <v>6593500</v>
       </c>
       <c r="K81" s="3">
         <v>4118500</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7411200</v>
+        <v>7062800</v>
       </c>
       <c r="E83" s="3">
-        <v>6257200</v>
+        <v>5963100</v>
       </c>
       <c r="F83" s="3">
-        <v>2819900</v>
+        <v>2687400</v>
       </c>
       <c r="G83" s="3">
-        <v>2910600</v>
+        <v>2773800</v>
       </c>
       <c r="H83" s="3">
-        <v>2625200</v>
+        <v>2501800</v>
       </c>
       <c r="I83" s="3">
-        <v>2549200</v>
+        <v>2429400</v>
       </c>
       <c r="J83" s="3">
-        <v>2321400</v>
+        <v>2212200</v>
       </c>
       <c r="K83" s="3">
         <v>1716500</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13348700</v>
+        <v>12721300</v>
       </c>
       <c r="E89" s="3">
-        <v>14268700</v>
+        <v>13598000</v>
       </c>
       <c r="F89" s="3">
-        <v>10400200</v>
+        <v>9911300</v>
       </c>
       <c r="G89" s="3">
-        <v>8540600</v>
+        <v>8139200</v>
       </c>
       <c r="H89" s="3">
-        <v>7565500</v>
+        <v>7209900</v>
       </c>
       <c r="I89" s="3">
-        <v>6901600</v>
+        <v>6577200</v>
       </c>
       <c r="J89" s="3">
-        <v>5643500</v>
+        <v>5378300</v>
       </c>
       <c r="K89" s="3">
         <v>5638900</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2430400</v>
+        <v>-2316100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3503500</v>
+        <v>-3338800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3189900</v>
+        <v>-3039900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2314000</v>
+        <v>-2205200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2633700</v>
+        <v>-2509900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2130300</v>
+        <v>-2030100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1876700</v>
+        <v>-1788500</v>
       </c>
       <c r="K91" s="3">
         <v>-1891200</v>
@@ -3482,25 +3482,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3600200</v>
+        <v>-3431000</v>
       </c>
       <c r="E94" s="3">
-        <v>-7189500</v>
+        <v>-6851500</v>
       </c>
       <c r="F94" s="3">
-        <v>-4212700</v>
+        <v>-4014700</v>
       </c>
       <c r="G94" s="3">
-        <v>-10543500</v>
+        <v>-10047900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2815000</v>
+        <v>-2682700</v>
       </c>
       <c r="I94" s="3">
-        <v>-3020800</v>
+        <v>-2878800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2458600</v>
+        <v>-2343000</v>
       </c>
       <c r="K94" s="3">
         <v>-4685500</v>
@@ -3534,25 +3534,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3428700</v>
+        <v>-2841500</v>
       </c>
       <c r="E96" s="3">
-        <v>-4505500</v>
+        <v>-3792900</v>
       </c>
       <c r="F96" s="3">
-        <v>-3325800</v>
+        <v>-3169500</v>
       </c>
       <c r="G96" s="3">
-        <v>-2584700</v>
+        <v>-2463200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2277300</v>
+        <v>-2170200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2047000</v>
+        <v>-1950700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1983300</v>
+        <v>-1890000</v>
       </c>
       <c r="K96" s="3">
         <v>-1795500</v>
@@ -3678,25 +3678,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9068600</v>
+        <v>8642300</v>
       </c>
       <c r="E100" s="3">
-        <v>-5799100</v>
+        <v>-5526500</v>
       </c>
       <c r="F100" s="3">
-        <v>-5295600</v>
+        <v>-5046700</v>
       </c>
       <c r="G100" s="3">
-        <v>2643500</v>
+        <v>2519300</v>
       </c>
       <c r="H100" s="3">
-        <v>-4881600</v>
+        <v>-4652100</v>
       </c>
       <c r="I100" s="3">
-        <v>-4321800</v>
+        <v>-4118600</v>
       </c>
       <c r="J100" s="3">
-        <v>-2156000</v>
+        <v>-2054600</v>
       </c>
       <c r="K100" s="3">
         <v>108900</v>
@@ -3714,25 +3714,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1288700</v>
+        <v>-1228100</v>
       </c>
       <c r="E101" s="3">
-        <v>47800</v>
+        <v>45500</v>
       </c>
       <c r="F101" s="3">
-        <v>82100</v>
+        <v>78200</v>
       </c>
       <c r="G101" s="3">
-        <v>-296400</v>
+        <v>-282500</v>
       </c>
       <c r="H101" s="3">
-        <v>66100</v>
+        <v>63000</v>
       </c>
       <c r="I101" s="3">
-        <v>-40400</v>
+        <v>-38500</v>
       </c>
       <c r="J101" s="3">
-        <v>33100</v>
+        <v>31500</v>
       </c>
       <c r="K101" s="3">
         <v>56200</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17528400</v>
+        <v>16704500</v>
       </c>
       <c r="E102" s="3">
-        <v>1327900</v>
+        <v>1265500</v>
       </c>
       <c r="F102" s="3">
-        <v>973900</v>
+        <v>928100</v>
       </c>
       <c r="G102" s="3">
-        <v>344200</v>
+        <v>328000</v>
       </c>
       <c r="H102" s="3">
-        <v>-64900</v>
+        <v>-61900</v>
       </c>
       <c r="I102" s="3">
-        <v>-481400</v>
+        <v>-458800</v>
       </c>
       <c r="J102" s="3">
-        <v>1062100</v>
+        <v>1012100</v>
       </c>
       <c r="K102" s="3">
         <v>1118400</v>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -666,9 +666,7 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -723,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>52126000</v>
+        <v>50415400</v>
       </c>
       <c r="E8" s="3">
-        <v>62654900</v>
+        <v>60598800</v>
       </c>
       <c r="F8" s="3">
-        <v>54665100</v>
+        <v>52871200</v>
       </c>
       <c r="G8" s="3">
-        <v>49773700</v>
+        <v>48140300</v>
       </c>
       <c r="H8" s="3">
-        <v>43894600</v>
+        <v>42454200</v>
       </c>
       <c r="I8" s="3">
-        <v>41634500</v>
+        <v>40268200</v>
       </c>
       <c r="J8" s="3">
-        <v>35767100</v>
+        <v>34593400</v>
       </c>
       <c r="K8" s="3">
         <v>34708900</v>
@@ -759,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18528000</v>
+        <v>17919900</v>
       </c>
       <c r="E9" s="3">
-        <v>21157000</v>
+        <v>20462700</v>
       </c>
       <c r="F9" s="3">
-        <v>18240800</v>
+        <v>17642200</v>
       </c>
       <c r="G9" s="3">
-        <v>17257800</v>
+        <v>16691500</v>
       </c>
       <c r="H9" s="3">
-        <v>15221900</v>
+        <v>14722300</v>
       </c>
       <c r="I9" s="3">
-        <v>14654500</v>
+        <v>14173600</v>
       </c>
       <c r="J9" s="3">
-        <v>12609200</v>
+        <v>12195400</v>
       </c>
       <c r="K9" s="3">
         <v>11958400</v>
@@ -795,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33598100</v>
+        <v>32495500</v>
       </c>
       <c r="E10" s="3">
-        <v>41497900</v>
+        <v>40136100</v>
       </c>
       <c r="F10" s="3">
-        <v>36424400</v>
+        <v>35229000</v>
       </c>
       <c r="G10" s="3">
-        <v>32515900</v>
+        <v>31448800</v>
       </c>
       <c r="H10" s="3">
-        <v>28672800</v>
+        <v>27731800</v>
       </c>
       <c r="I10" s="3">
-        <v>26980000</v>
+        <v>26094600</v>
       </c>
       <c r="J10" s="3">
-        <v>23157900</v>
+        <v>22398000</v>
       </c>
       <c r="K10" s="3">
         <v>22750500</v>
@@ -919,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>322200</v>
+        <v>311600</v>
       </c>
       <c r="E14" s="3">
-        <v>149400</v>
+        <v>144500</v>
       </c>
       <c r="F14" s="3">
-        <v>147100</v>
+        <v>142300</v>
       </c>
       <c r="G14" s="3">
-        <v>272000</v>
+        <v>263100</v>
       </c>
       <c r="H14" s="3">
-        <v>361900</v>
+        <v>350000</v>
       </c>
       <c r="I14" s="3">
-        <v>275500</v>
+        <v>266500</v>
       </c>
       <c r="J14" s="3">
-        <v>338500</v>
+        <v>327400</v>
       </c>
       <c r="K14" s="3">
         <v>147100</v>
@@ -1004,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42819400</v>
+        <v>41414300</v>
       </c>
       <c r="E17" s="3">
-        <v>49494700</v>
+        <v>47870500</v>
       </c>
       <c r="F17" s="3">
-        <v>43134600</v>
+        <v>41719100</v>
       </c>
       <c r="G17" s="3">
-        <v>40302500</v>
+        <v>38979900</v>
       </c>
       <c r="H17" s="3">
-        <v>35834800</v>
+        <v>34658900</v>
       </c>
       <c r="I17" s="3">
-        <v>34181800</v>
+        <v>33060000</v>
       </c>
       <c r="J17" s="3">
-        <v>29426900</v>
+        <v>28461200</v>
       </c>
       <c r="K17" s="3">
         <v>27653800</v>
@@ -1040,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9306600</v>
+        <v>9001200</v>
       </c>
       <c r="E18" s="3">
-        <v>13160200</v>
+        <v>12728300</v>
       </c>
       <c r="F18" s="3">
-        <v>11530500</v>
+        <v>11152100</v>
       </c>
       <c r="G18" s="3">
-        <v>9471200</v>
+        <v>9160400</v>
       </c>
       <c r="H18" s="3">
-        <v>8059800</v>
+        <v>7795300</v>
       </c>
       <c r="I18" s="3">
-        <v>7452700</v>
+        <v>7208200</v>
       </c>
       <c r="J18" s="3">
-        <v>6340200</v>
+        <v>6132100</v>
       </c>
       <c r="K18" s="3">
         <v>7055200</v>
@@ -1092,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-282500</v>
+        <v>-273200</v>
       </c>
       <c r="E20" s="3">
-        <v>-131900</v>
+        <v>-127600</v>
       </c>
       <c r="F20" s="3">
-        <v>-268500</v>
+        <v>-259700</v>
       </c>
       <c r="G20" s="3">
-        <v>128400</v>
+        <v>124200</v>
       </c>
       <c r="H20" s="3">
-        <v>-186800</v>
+        <v>-180700</v>
       </c>
       <c r="I20" s="3">
-        <v>-353700</v>
+        <v>-342100</v>
       </c>
       <c r="J20" s="3">
-        <v>3608500</v>
+        <v>3490000</v>
       </c>
       <c r="K20" s="3">
         <v>-71800</v>
@@ -1128,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16108600</v>
+        <v>15574700</v>
       </c>
       <c r="E21" s="3">
-        <v>19009800</v>
+        <v>18381500</v>
       </c>
       <c r="F21" s="3">
-        <v>13957600</v>
+        <v>13497600</v>
       </c>
       <c r="G21" s="3">
-        <v>12381900</v>
+        <v>11973500</v>
       </c>
       <c r="H21" s="3">
-        <v>10382500</v>
+        <v>10039900</v>
       </c>
       <c r="I21" s="3">
-        <v>9535900</v>
+        <v>9221100</v>
       </c>
       <c r="J21" s="3">
-        <v>12167700</v>
+        <v>11766800</v>
       </c>
       <c r="K21" s="3">
         <v>8692900</v>
@@ -1164,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>427300</v>
+        <v>413300</v>
       </c>
       <c r="E22" s="3">
-        <v>520700</v>
+        <v>503600</v>
       </c>
       <c r="F22" s="3">
-        <v>184500</v>
+        <v>178400</v>
       </c>
       <c r="G22" s="3">
-        <v>197300</v>
+        <v>190800</v>
       </c>
       <c r="H22" s="3">
-        <v>184500</v>
+        <v>178400</v>
       </c>
       <c r="I22" s="3">
-        <v>129600</v>
+        <v>125300</v>
       </c>
       <c r="J22" s="3">
-        <v>168100</v>
+        <v>162600</v>
       </c>
       <c r="K22" s="3">
         <v>165100</v>
@@ -1200,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8596800</v>
+        <v>8314700</v>
       </c>
       <c r="E23" s="3">
-        <v>12507600</v>
+        <v>12097200</v>
       </c>
       <c r="F23" s="3">
-        <v>11077600</v>
+        <v>10714000</v>
       </c>
       <c r="G23" s="3">
-        <v>9402300</v>
+        <v>9093800</v>
       </c>
       <c r="H23" s="3">
-        <v>7688600</v>
+        <v>7436300</v>
       </c>
       <c r="I23" s="3">
-        <v>6969400</v>
+        <v>6740700</v>
       </c>
       <c r="J23" s="3">
-        <v>9780600</v>
+        <v>9459600</v>
       </c>
       <c r="K23" s="3">
         <v>6818300</v>
@@ -1236,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2812300</v>
+        <v>2720000</v>
       </c>
       <c r="E24" s="3">
-        <v>3422800</v>
+        <v>3310500</v>
       </c>
       <c r="F24" s="3">
-        <v>2917400</v>
+        <v>2821600</v>
       </c>
       <c r="G24" s="3">
-        <v>2584600</v>
+        <v>2499800</v>
       </c>
       <c r="H24" s="3">
-        <v>2490100</v>
+        <v>2408400</v>
       </c>
       <c r="I24" s="3">
-        <v>2298600</v>
+        <v>2223200</v>
       </c>
       <c r="J24" s="3">
-        <v>2653500</v>
+        <v>2566400</v>
       </c>
       <c r="K24" s="3">
         <v>2096900</v>
@@ -1308,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5784500</v>
+        <v>5594700</v>
       </c>
       <c r="E26" s="3">
-        <v>9084800</v>
+        <v>8786700</v>
       </c>
       <c r="F26" s="3">
-        <v>8160200</v>
+        <v>7892400</v>
       </c>
       <c r="G26" s="3">
-        <v>6817700</v>
+        <v>6593900</v>
       </c>
       <c r="H26" s="3">
-        <v>5198500</v>
+        <v>5027900</v>
       </c>
       <c r="I26" s="3">
-        <v>4670800</v>
+        <v>4517500</v>
       </c>
       <c r="J26" s="3">
-        <v>7127000</v>
+        <v>6893200</v>
       </c>
       <c r="K26" s="3">
         <v>4721400</v>
@@ -1344,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5489200</v>
+        <v>5309000</v>
       </c>
       <c r="E27" s="3">
-        <v>8371500</v>
+        <v>8096800</v>
       </c>
       <c r="F27" s="3">
-        <v>7417700</v>
+        <v>7174300</v>
       </c>
       <c r="G27" s="3">
-        <v>6263200</v>
+        <v>6057600</v>
       </c>
       <c r="H27" s="3">
-        <v>4746700</v>
+        <v>4590900</v>
       </c>
       <c r="I27" s="3">
-        <v>4171200</v>
+        <v>4034300</v>
       </c>
       <c r="J27" s="3">
-        <v>6593500</v>
+        <v>6377200</v>
       </c>
       <c r="K27" s="3">
         <v>4118500</v>
@@ -1524,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>282500</v>
+        <v>273200</v>
       </c>
       <c r="E32" s="3">
-        <v>131900</v>
+        <v>127600</v>
       </c>
       <c r="F32" s="3">
-        <v>268500</v>
+        <v>259700</v>
       </c>
       <c r="G32" s="3">
-        <v>-128400</v>
+        <v>-124200</v>
       </c>
       <c r="H32" s="3">
-        <v>186800</v>
+        <v>180700</v>
       </c>
       <c r="I32" s="3">
-        <v>353700</v>
+        <v>342100</v>
       </c>
       <c r="J32" s="3">
-        <v>-3608500</v>
+        <v>-3490000</v>
       </c>
       <c r="K32" s="3">
         <v>71800</v>
@@ -1560,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5489200</v>
+        <v>5309000</v>
       </c>
       <c r="E33" s="3">
-        <v>8371500</v>
+        <v>8096800</v>
       </c>
       <c r="F33" s="3">
-        <v>7417700</v>
+        <v>7174300</v>
       </c>
       <c r="G33" s="3">
-        <v>6263200</v>
+        <v>6057600</v>
       </c>
       <c r="H33" s="3">
-        <v>4746700</v>
+        <v>4590900</v>
       </c>
       <c r="I33" s="3">
-        <v>4171200</v>
+        <v>4034300</v>
       </c>
       <c r="J33" s="3">
-        <v>6593500</v>
+        <v>6377200</v>
       </c>
       <c r="K33" s="3">
         <v>4118500</v>
@@ -1632,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5489200</v>
+        <v>5309000</v>
       </c>
       <c r="E35" s="3">
-        <v>8371500</v>
+        <v>8096800</v>
       </c>
       <c r="F35" s="3">
-        <v>7417700</v>
+        <v>7174300</v>
       </c>
       <c r="G35" s="3">
-        <v>6263200</v>
+        <v>6057600</v>
       </c>
       <c r="H35" s="3">
-        <v>4746700</v>
+        <v>4590900</v>
       </c>
       <c r="I35" s="3">
-        <v>4171200</v>
+        <v>4034300</v>
       </c>
       <c r="J35" s="3">
-        <v>6593500</v>
+        <v>6377200</v>
       </c>
       <c r="K35" s="3">
         <v>4118500</v>
@@ -1741,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23305000</v>
+        <v>22540200</v>
       </c>
       <c r="E41" s="3">
-        <v>6622700</v>
+        <v>6405400</v>
       </c>
       <c r="F41" s="3">
-        <v>5381800</v>
+        <v>5205200</v>
       </c>
       <c r="G41" s="3">
-        <v>4363800</v>
+        <v>4220600</v>
       </c>
       <c r="H41" s="3">
-        <v>4137300</v>
+        <v>4001500</v>
       </c>
       <c r="I41" s="3">
-        <v>4195700</v>
+        <v>4058000</v>
       </c>
       <c r="J41" s="3">
-        <v>4775900</v>
+        <v>4619100</v>
       </c>
       <c r="K41" s="3">
         <v>3858900</v>
@@ -1777,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>877900</v>
+        <v>849100</v>
       </c>
       <c r="E42" s="3">
-        <v>855700</v>
+        <v>827600</v>
       </c>
       <c r="F42" s="3">
-        <v>777500</v>
+        <v>752000</v>
       </c>
       <c r="G42" s="3">
-        <v>601200</v>
+        <v>581500</v>
       </c>
       <c r="H42" s="3">
-        <v>436600</v>
+        <v>422300</v>
       </c>
       <c r="I42" s="3">
-        <v>449500</v>
+        <v>434700</v>
       </c>
       <c r="J42" s="3">
-        <v>295400</v>
+        <v>285700</v>
       </c>
       <c r="K42" s="3">
         <v>204600</v>
@@ -1813,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5461100</v>
+        <v>5281900</v>
       </c>
       <c r="E43" s="3">
-        <v>6420800</v>
+        <v>6210100</v>
       </c>
       <c r="F43" s="3">
-        <v>5861600</v>
+        <v>5669200</v>
       </c>
       <c r="G43" s="3">
-        <v>5632800</v>
+        <v>5447900</v>
       </c>
       <c r="H43" s="3">
-        <v>4788700</v>
+        <v>4631600</v>
       </c>
       <c r="I43" s="3">
-        <v>4742000</v>
+        <v>4586400</v>
       </c>
       <c r="J43" s="3">
-        <v>4099900</v>
+        <v>3965400</v>
       </c>
       <c r="K43" s="3">
         <v>3746500</v>
@@ -1849,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15195000</v>
+        <v>14696400</v>
       </c>
       <c r="E44" s="3">
-        <v>16013400</v>
+        <v>15487900</v>
       </c>
       <c r="F44" s="3">
-        <v>14575100</v>
+        <v>14096800</v>
       </c>
       <c r="G44" s="3">
-        <v>12710800</v>
+        <v>12293600</v>
       </c>
       <c r="H44" s="3">
-        <v>12311500</v>
+        <v>11907500</v>
       </c>
       <c r="I44" s="3">
-        <v>11786200</v>
+        <v>11399400</v>
       </c>
       <c r="J44" s="3">
-        <v>11061200</v>
+        <v>10698200</v>
       </c>
       <c r="K44" s="3">
         <v>10158100</v>
@@ -1885,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1825800</v>
+        <v>1765900</v>
       </c>
       <c r="E45" s="3">
-        <v>1035500</v>
+        <v>1001500</v>
       </c>
       <c r="F45" s="3">
-        <v>897700</v>
+        <v>868300</v>
       </c>
       <c r="G45" s="3">
-        <v>1278300</v>
+        <v>1236400</v>
       </c>
       <c r="H45" s="3">
-        <v>970100</v>
+        <v>938300</v>
       </c>
       <c r="I45" s="3">
-        <v>949100</v>
+        <v>918000</v>
       </c>
       <c r="J45" s="3">
-        <v>909400</v>
+        <v>879600</v>
       </c>
       <c r="K45" s="3">
         <v>1136400</v>
@@ -1921,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>46664900</v>
+        <v>45133500</v>
       </c>
       <c r="E46" s="3">
-        <v>30948000</v>
+        <v>29932400</v>
       </c>
       <c r="F46" s="3">
-        <v>27493700</v>
+        <v>26591400</v>
       </c>
       <c r="G46" s="3">
-        <v>24586800</v>
+        <v>23780000</v>
       </c>
       <c r="H46" s="3">
-        <v>22644300</v>
+        <v>21901200</v>
       </c>
       <c r="I46" s="3">
-        <v>22122400</v>
+        <v>21396400</v>
       </c>
       <c r="J46" s="3">
-        <v>21141800</v>
+        <v>20448000</v>
       </c>
       <c r="K46" s="3">
         <v>19104500</v>
@@ -1957,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2822800</v>
+        <v>2730200</v>
       </c>
       <c r="E47" s="3">
-        <v>3162500</v>
+        <v>3058700</v>
       </c>
       <c r="F47" s="3">
-        <v>2825100</v>
+        <v>2732400</v>
       </c>
       <c r="G47" s="3">
-        <v>2348800</v>
+        <v>2271700</v>
       </c>
       <c r="H47" s="3">
-        <v>2448100</v>
+        <v>2367700</v>
       </c>
       <c r="I47" s="3">
-        <v>2058100</v>
+        <v>1990600</v>
       </c>
       <c r="J47" s="3">
-        <v>1740600</v>
+        <v>1683500</v>
       </c>
       <c r="K47" s="3">
         <v>9490700</v>
@@ -1993,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35525500</v>
+        <v>34359600</v>
       </c>
       <c r="E48" s="3">
-        <v>35699400</v>
+        <v>34527900</v>
       </c>
       <c r="F48" s="3">
-        <v>17641900</v>
+        <v>17063000</v>
       </c>
       <c r="G48" s="3">
-        <v>18578200</v>
+        <v>17968500</v>
       </c>
       <c r="H48" s="3">
-        <v>14171200</v>
+        <v>13706100</v>
       </c>
       <c r="I48" s="3">
-        <v>13024800</v>
+        <v>12597400</v>
       </c>
       <c r="J48" s="3">
-        <v>12125900</v>
+        <v>11728000</v>
       </c>
       <c r="K48" s="3">
         <v>25724300</v>
@@ -2029,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38953000</v>
+        <v>37674700</v>
       </c>
       <c r="E49" s="3">
-        <v>39234300</v>
+        <v>37946800</v>
       </c>
       <c r="F49" s="3">
-        <v>36167500</v>
+        <v>34980600</v>
       </c>
       <c r="G49" s="3">
-        <v>35949200</v>
+        <v>34769500</v>
       </c>
       <c r="H49" s="3">
-        <v>39851900</v>
+        <v>38544100</v>
       </c>
       <c r="I49" s="3">
-        <v>27660600</v>
+        <v>26752900</v>
       </c>
       <c r="J49" s="3">
-        <v>25497400</v>
+        <v>24660700</v>
       </c>
       <c r="K49" s="3">
         <v>51829000</v>
@@ -2137,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2897500</v>
+        <v>2802400</v>
       </c>
       <c r="E52" s="3">
-        <v>3619000</v>
+        <v>3500200</v>
       </c>
       <c r="F52" s="3">
-        <v>2610300</v>
+        <v>2524700</v>
       </c>
       <c r="G52" s="3">
-        <v>2365200</v>
+        <v>2287600</v>
       </c>
       <c r="H52" s="3">
-        <v>2623200</v>
+        <v>2537100</v>
       </c>
       <c r="I52" s="3">
-        <v>2378000</v>
+        <v>2300000</v>
       </c>
       <c r="J52" s="3">
-        <v>1789600</v>
+        <v>1730900</v>
       </c>
       <c r="K52" s="3">
         <v>1708200</v>
@@ -2209,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>126864000</v>
+        <v>122700000</v>
       </c>
       <c r="E54" s="3">
-        <v>112663000</v>
+        <v>108966000</v>
       </c>
       <c r="F54" s="3">
-        <v>86738600</v>
+        <v>83892100</v>
       </c>
       <c r="G54" s="3">
-        <v>81432700</v>
+        <v>78760400</v>
       </c>
       <c r="H54" s="3">
-        <v>69596300</v>
+        <v>67312400</v>
       </c>
       <c r="I54" s="3">
-        <v>67244000</v>
+        <v>65037300</v>
       </c>
       <c r="J54" s="3">
-        <v>62295300</v>
+        <v>60251000</v>
       </c>
       <c r="K54" s="3">
         <v>67197700</v>
@@ -2277,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5951500</v>
+        <v>5756200</v>
       </c>
       <c r="E57" s="3">
-        <v>6787300</v>
+        <v>6564600</v>
       </c>
       <c r="F57" s="3">
-        <v>6203600</v>
+        <v>6000000</v>
       </c>
       <c r="G57" s="3">
-        <v>5298900</v>
+        <v>5125000</v>
       </c>
       <c r="H57" s="3">
-        <v>4884400</v>
+        <v>4724200</v>
       </c>
       <c r="I57" s="3">
-        <v>4622900</v>
+        <v>4471200</v>
       </c>
       <c r="J57" s="3">
-        <v>4209700</v>
+        <v>4071500</v>
       </c>
       <c r="K57" s="3">
         <v>3943900</v>
@@ -2313,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14886800</v>
+        <v>14398300</v>
       </c>
       <c r="E58" s="3">
-        <v>11395100</v>
+        <v>11021100</v>
       </c>
       <c r="F58" s="3">
-        <v>5846400</v>
+        <v>5654500</v>
       </c>
       <c r="G58" s="3">
-        <v>5709800</v>
+        <v>5522400</v>
       </c>
       <c r="H58" s="3">
-        <v>3991400</v>
+        <v>3860400</v>
       </c>
       <c r="I58" s="3">
-        <v>4368400</v>
+        <v>4225100</v>
       </c>
       <c r="J58" s="3">
-        <v>4829600</v>
+        <v>4671100</v>
       </c>
       <c r="K58" s="3">
         <v>6601800</v>
@@ -2349,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8718200</v>
+        <v>8432100</v>
       </c>
       <c r="E59" s="3">
-        <v>8227900</v>
+        <v>7957900</v>
       </c>
       <c r="F59" s="3">
-        <v>7601000</v>
+        <v>7351600</v>
       </c>
       <c r="G59" s="3">
-        <v>6949600</v>
+        <v>6721500</v>
       </c>
       <c r="H59" s="3">
-        <v>6078700</v>
+        <v>5879200</v>
       </c>
       <c r="I59" s="3">
-        <v>5833500</v>
+        <v>5642100</v>
       </c>
       <c r="J59" s="3">
-        <v>5174000</v>
+        <v>5004200</v>
       </c>
       <c r="K59" s="3">
         <v>4482200</v>
@@ -2385,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29556500</v>
+        <v>28586600</v>
       </c>
       <c r="E60" s="3">
-        <v>26410300</v>
+        <v>25543600</v>
       </c>
       <c r="F60" s="3">
-        <v>19651000</v>
+        <v>19006100</v>
       </c>
       <c r="G60" s="3">
-        <v>17498300</v>
+        <v>16924100</v>
       </c>
       <c r="H60" s="3">
-        <v>14954500</v>
+        <v>14463800</v>
       </c>
       <c r="I60" s="3">
-        <v>14824900</v>
+        <v>14338400</v>
       </c>
       <c r="J60" s="3">
-        <v>14213200</v>
+        <v>13746800</v>
       </c>
       <c r="K60" s="3">
         <v>13922600</v>
@@ -2421,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28870000</v>
+        <v>27922600</v>
       </c>
       <c r="E61" s="3">
-        <v>18064500</v>
+        <v>17471700</v>
       </c>
       <c r="F61" s="3">
-        <v>7010300</v>
+        <v>6780200</v>
       </c>
       <c r="G61" s="3">
-        <v>8225600</v>
+        <v>7955600</v>
       </c>
       <c r="H61" s="3">
-        <v>4590300</v>
+        <v>4439600</v>
       </c>
       <c r="I61" s="3">
-        <v>5266200</v>
+        <v>5093400</v>
       </c>
       <c r="J61" s="3">
-        <v>5900100</v>
+        <v>5706500</v>
       </c>
       <c r="K61" s="3">
         <v>4963000</v>
@@ -2457,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23107700</v>
+        <v>22349400</v>
       </c>
       <c r="E62" s="3">
-        <v>23400700</v>
+        <v>22632800</v>
       </c>
       <c r="F62" s="3">
-        <v>20435500</v>
+        <v>19764900</v>
       </c>
       <c r="G62" s="3">
-        <v>20246400</v>
+        <v>19582000</v>
       </c>
       <c r="H62" s="3">
-        <v>17483100</v>
+        <v>16909400</v>
       </c>
       <c r="I62" s="3">
-        <v>17034800</v>
+        <v>16475800</v>
       </c>
       <c r="J62" s="3">
-        <v>15328100</v>
+        <v>14825100</v>
       </c>
       <c r="K62" s="3">
         <v>22589000</v>
@@ -2601,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>83188500</v>
+        <v>80458500</v>
       </c>
       <c r="E66" s="3">
-        <v>69952400</v>
+        <v>67656800</v>
       </c>
       <c r="F66" s="3">
-        <v>49039400</v>
+        <v>47430100</v>
       </c>
       <c r="G66" s="3">
-        <v>47614000</v>
+        <v>46051500</v>
       </c>
       <c r="H66" s="3">
-        <v>38790700</v>
+        <v>37517700</v>
       </c>
       <c r="I66" s="3">
-        <v>38830400</v>
+        <v>37556100</v>
       </c>
       <c r="J66" s="3">
-        <v>36889000</v>
+        <v>35678400</v>
       </c>
       <c r="K66" s="3">
         <v>35045100</v>
@@ -2797,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>41283100</v>
+        <v>39928400</v>
       </c>
       <c r="E72" s="3">
-        <v>38341200</v>
+        <v>37083000</v>
       </c>
       <c r="F72" s="3">
-        <v>33640100</v>
+        <v>32536100</v>
       </c>
       <c r="G72" s="3">
-        <v>29498100</v>
+        <v>28530100</v>
       </c>
       <c r="H72" s="3">
-        <v>25906000</v>
+        <v>25055900</v>
       </c>
       <c r="I72" s="3">
-        <v>23070400</v>
+        <v>22313300</v>
       </c>
       <c r="J72" s="3">
-        <v>20802100</v>
+        <v>20119400</v>
       </c>
       <c r="K72" s="3">
         <v>23250500</v>
@@ -2941,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43675100</v>
+        <v>42241900</v>
       </c>
       <c r="E76" s="3">
-        <v>42710900</v>
+        <v>41309300</v>
       </c>
       <c r="F76" s="3">
-        <v>37699200</v>
+        <v>36462000</v>
       </c>
       <c r="G76" s="3">
-        <v>33818700</v>
+        <v>32708900</v>
       </c>
       <c r="H76" s="3">
-        <v>30805600</v>
+        <v>29794700</v>
       </c>
       <c r="I76" s="3">
-        <v>28413600</v>
+        <v>27481200</v>
       </c>
       <c r="J76" s="3">
-        <v>25406300</v>
+        <v>24572600</v>
       </c>
       <c r="K76" s="3">
         <v>32152700</v>
@@ -3054,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5489200</v>
+        <v>5309000</v>
       </c>
       <c r="E81" s="3">
-        <v>8371500</v>
+        <v>8096800</v>
       </c>
       <c r="F81" s="3">
-        <v>7417700</v>
+        <v>7174300</v>
       </c>
       <c r="G81" s="3">
-        <v>6263200</v>
+        <v>6057600</v>
       </c>
       <c r="H81" s="3">
-        <v>4746700</v>
+        <v>4590900</v>
       </c>
       <c r="I81" s="3">
-        <v>4171200</v>
+        <v>4034300</v>
       </c>
       <c r="J81" s="3">
-        <v>6593500</v>
+        <v>6377200</v>
       </c>
       <c r="K81" s="3">
         <v>4118500</v>
@@ -3106,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7062800</v>
+        <v>6831100</v>
       </c>
       <c r="E83" s="3">
-        <v>5963100</v>
+        <v>5767400</v>
       </c>
       <c r="F83" s="3">
-        <v>2687400</v>
+        <v>2599200</v>
       </c>
       <c r="G83" s="3">
-        <v>2773800</v>
+        <v>2682700</v>
       </c>
       <c r="H83" s="3">
-        <v>2501800</v>
+        <v>2419700</v>
       </c>
       <c r="I83" s="3">
-        <v>2429400</v>
+        <v>2349700</v>
       </c>
       <c r="J83" s="3">
-        <v>2212200</v>
+        <v>2139600</v>
       </c>
       <c r="K83" s="3">
         <v>1716500</v>
@@ -3322,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12721300</v>
+        <v>12303800</v>
       </c>
       <c r="E89" s="3">
-        <v>13598000</v>
+        <v>13151800</v>
       </c>
       <c r="F89" s="3">
-        <v>9911300</v>
+        <v>9586100</v>
       </c>
       <c r="G89" s="3">
-        <v>8139200</v>
+        <v>7872100</v>
       </c>
       <c r="H89" s="3">
-        <v>7209900</v>
+        <v>6973300</v>
       </c>
       <c r="I89" s="3">
-        <v>6577200</v>
+        <v>6361300</v>
       </c>
       <c r="J89" s="3">
-        <v>5378300</v>
+        <v>5201800</v>
       </c>
       <c r="K89" s="3">
         <v>5638900</v>
@@ -3374,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2316100</v>
+        <v>-2240100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3338800</v>
+        <v>-3229200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3039900</v>
+        <v>-2940200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2205200</v>
+        <v>-2132900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2509900</v>
+        <v>-2427600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2030100</v>
+        <v>-1963500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1788500</v>
+        <v>-1729800</v>
       </c>
       <c r="K91" s="3">
         <v>-1891200</v>
@@ -3482,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3431000</v>
+        <v>-3318400</v>
       </c>
       <c r="E94" s="3">
-        <v>-6851500</v>
+        <v>-6626700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4014700</v>
+        <v>-3883000</v>
       </c>
       <c r="G94" s="3">
-        <v>-10047900</v>
+        <v>-9718200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2682700</v>
+        <v>-2594700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2878800</v>
+        <v>-2784400</v>
       </c>
       <c r="J94" s="3">
-        <v>-2343000</v>
+        <v>-2266100</v>
       </c>
       <c r="K94" s="3">
         <v>-4685500</v>
@@ -3534,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2841500</v>
+        <v>-2748200</v>
       </c>
       <c r="E96" s="3">
-        <v>-3792900</v>
+        <v>-3668400</v>
       </c>
       <c r="F96" s="3">
-        <v>-3169500</v>
+        <v>-3065500</v>
       </c>
       <c r="G96" s="3">
-        <v>-2463200</v>
+        <v>-2382400</v>
       </c>
       <c r="H96" s="3">
-        <v>-2170200</v>
+        <v>-2099000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1950700</v>
+        <v>-1886700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1890000</v>
+        <v>-1828000</v>
       </c>
       <c r="K96" s="3">
         <v>-1795500</v>
@@ -3678,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8642300</v>
+        <v>8358700</v>
       </c>
       <c r="E100" s="3">
-        <v>-5526500</v>
+        <v>-5345200</v>
       </c>
       <c r="F100" s="3">
-        <v>-5046700</v>
+        <v>-4881100</v>
       </c>
       <c r="G100" s="3">
-        <v>2519300</v>
+        <v>2436600</v>
       </c>
       <c r="H100" s="3">
-        <v>-4652100</v>
+        <v>-4499500</v>
       </c>
       <c r="I100" s="3">
-        <v>-4118600</v>
+        <v>-3983500</v>
       </c>
       <c r="J100" s="3">
-        <v>-2054600</v>
+        <v>-1987200</v>
       </c>
       <c r="K100" s="3">
         <v>108900</v>
@@ -3714,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1228100</v>
+        <v>-1187800</v>
       </c>
       <c r="E101" s="3">
-        <v>45500</v>
+        <v>44000</v>
       </c>
       <c r="F101" s="3">
-        <v>78200</v>
+        <v>75600</v>
       </c>
       <c r="G101" s="3">
-        <v>-282500</v>
+        <v>-273200</v>
       </c>
       <c r="H101" s="3">
-        <v>63000</v>
+        <v>61000</v>
       </c>
       <c r="I101" s="3">
-        <v>-38500</v>
+        <v>-37300</v>
       </c>
       <c r="J101" s="3">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="K101" s="3">
         <v>56200</v>
@@ -3750,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16704500</v>
+        <v>16156300</v>
       </c>
       <c r="E102" s="3">
-        <v>1265500</v>
+        <v>1223900</v>
       </c>
       <c r="F102" s="3">
-        <v>928100</v>
+        <v>897600</v>
       </c>
       <c r="G102" s="3">
-        <v>328000</v>
+        <v>317300</v>
       </c>
       <c r="H102" s="3">
-        <v>-61900</v>
+        <v>-59800</v>
       </c>
       <c r="I102" s="3">
-        <v>-458800</v>
+        <v>-443700</v>
       </c>
       <c r="J102" s="3">
-        <v>1012100</v>
+        <v>978900</v>
       </c>
       <c r="K102" s="3">
         <v>1118400</v>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>50415400</v>
+        <v>70052800</v>
       </c>
       <c r="E8" s="3">
-        <v>60598800</v>
+        <v>48710200</v>
       </c>
       <c r="F8" s="3">
-        <v>52871200</v>
+        <v>58549100</v>
       </c>
       <c r="G8" s="3">
-        <v>48140300</v>
+        <v>51083000</v>
       </c>
       <c r="H8" s="3">
-        <v>42454200</v>
+        <v>46512000</v>
       </c>
       <c r="I8" s="3">
-        <v>40268200</v>
+        <v>41018200</v>
       </c>
       <c r="J8" s="3">
+        <v>38906200</v>
+      </c>
+      <c r="K8" s="3">
         <v>34593400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34708900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31382100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27771200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17919900</v>
+        <v>22205500</v>
       </c>
       <c r="E9" s="3">
-        <v>20462700</v>
+        <v>17313800</v>
       </c>
       <c r="F9" s="3">
-        <v>17642200</v>
+        <v>19770600</v>
       </c>
       <c r="G9" s="3">
-        <v>16691500</v>
+        <v>17045500</v>
       </c>
       <c r="H9" s="3">
-        <v>14722300</v>
+        <v>16126900</v>
       </c>
       <c r="I9" s="3">
-        <v>14173600</v>
+        <v>14224400</v>
       </c>
       <c r="J9" s="3">
+        <v>13694200</v>
+      </c>
+      <c r="K9" s="3">
         <v>12195400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11958400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11066200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9498500</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>32495500</v>
+        <v>47847300</v>
       </c>
       <c r="E10" s="3">
-        <v>40136100</v>
+        <v>31396400</v>
       </c>
       <c r="F10" s="3">
-        <v>35229000</v>
+        <v>38778600</v>
       </c>
       <c r="G10" s="3">
-        <v>31448800</v>
+        <v>34037500</v>
       </c>
       <c r="H10" s="3">
-        <v>27731800</v>
+        <v>30385100</v>
       </c>
       <c r="I10" s="3">
-        <v>26094600</v>
+        <v>26793800</v>
       </c>
       <c r="J10" s="3">
+        <v>25212000</v>
+      </c>
+      <c r="K10" s="3">
         <v>22398000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22750500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20315900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18272700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,45 +926,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>311600</v>
+        <v>116700</v>
       </c>
       <c r="E14" s="3">
-        <v>144500</v>
+        <v>301100</v>
       </c>
       <c r="F14" s="3">
-        <v>142300</v>
+        <v>139600</v>
       </c>
       <c r="G14" s="3">
-        <v>263100</v>
+        <v>137500</v>
       </c>
       <c r="H14" s="3">
-        <v>350000</v>
+        <v>254200</v>
       </c>
       <c r="I14" s="3">
-        <v>266500</v>
+        <v>338200</v>
       </c>
       <c r="J14" s="3">
+        <v>257500</v>
+      </c>
+      <c r="K14" s="3">
         <v>327400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>147100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>190700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>152600</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,12 +1001,15 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41414300</v>
+        <v>51338200</v>
       </c>
       <c r="E17" s="3">
-        <v>47870500</v>
+        <v>40013500</v>
       </c>
       <c r="F17" s="3">
-        <v>41719100</v>
+        <v>46251300</v>
       </c>
       <c r="G17" s="3">
-        <v>38979900</v>
+        <v>40308000</v>
       </c>
       <c r="H17" s="3">
-        <v>34658900</v>
+        <v>37661500</v>
       </c>
       <c r="I17" s="3">
-        <v>33060000</v>
+        <v>33486600</v>
       </c>
       <c r="J17" s="3">
+        <v>31941800</v>
+      </c>
+      <c r="K17" s="3">
         <v>28461200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27653800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24939600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21721400</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9001200</v>
+        <v>18714600</v>
       </c>
       <c r="E18" s="3">
-        <v>12728300</v>
+        <v>8696700</v>
       </c>
       <c r="F18" s="3">
-        <v>11152100</v>
+        <v>12297800</v>
       </c>
       <c r="G18" s="3">
-        <v>9160400</v>
+        <v>10774900</v>
       </c>
       <c r="H18" s="3">
-        <v>7795300</v>
+        <v>8850600</v>
       </c>
       <c r="I18" s="3">
-        <v>7208200</v>
+        <v>7531600</v>
       </c>
       <c r="J18" s="3">
+        <v>6964400</v>
+      </c>
+      <c r="K18" s="3">
         <v>6132100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7055200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6442500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6049800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,188 +1116,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-273200</v>
+        <v>321800</v>
       </c>
       <c r="E20" s="3">
-        <v>-127600</v>
+        <v>-264000</v>
       </c>
       <c r="F20" s="3">
-        <v>-259700</v>
+        <v>-123300</v>
       </c>
       <c r="G20" s="3">
-        <v>124200</v>
+        <v>-250900</v>
       </c>
       <c r="H20" s="3">
-        <v>-180700</v>
+        <v>120000</v>
       </c>
       <c r="I20" s="3">
-        <v>-342100</v>
+        <v>-174500</v>
       </c>
       <c r="J20" s="3">
+        <v>-330500</v>
+      </c>
+      <c r="K20" s="3">
         <v>3490000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-71800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>168300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-62200</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15574700</v>
+        <v>25493200</v>
       </c>
       <c r="E21" s="3">
-        <v>18381500</v>
+        <v>15133200</v>
       </c>
       <c r="F21" s="3">
-        <v>13497600</v>
+        <v>17831700</v>
       </c>
       <c r="G21" s="3">
-        <v>11973500</v>
+        <v>13073500</v>
       </c>
       <c r="H21" s="3">
-        <v>10039900</v>
+        <v>11602000</v>
       </c>
       <c r="I21" s="3">
-        <v>9221100</v>
+        <v>9730500</v>
       </c>
       <c r="J21" s="3">
+        <v>8938600</v>
+      </c>
+      <c r="K21" s="3">
         <v>11766800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8692900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8060500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7161000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>413300</v>
+        <v>264000</v>
       </c>
       <c r="E22" s="3">
-        <v>503600</v>
+        <v>399300</v>
       </c>
       <c r="F22" s="3">
-        <v>178400</v>
+        <v>486500</v>
       </c>
       <c r="G22" s="3">
-        <v>190800</v>
+        <v>172400</v>
       </c>
       <c r="H22" s="3">
-        <v>178400</v>
+        <v>184400</v>
       </c>
       <c r="I22" s="3">
-        <v>125300</v>
+        <v>172400</v>
       </c>
       <c r="J22" s="3">
+        <v>121100</v>
+      </c>
+      <c r="K22" s="3">
         <v>162600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>165100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>181800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>221900</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8314700</v>
+        <v>18772400</v>
       </c>
       <c r="E23" s="3">
-        <v>12097200</v>
+        <v>8033500</v>
       </c>
       <c r="F23" s="3">
-        <v>10714000</v>
+        <v>11688000</v>
       </c>
       <c r="G23" s="3">
-        <v>9093800</v>
+        <v>10351600</v>
       </c>
       <c r="H23" s="3">
-        <v>7436300</v>
+        <v>8786200</v>
       </c>
       <c r="I23" s="3">
-        <v>6740700</v>
+        <v>7184700</v>
       </c>
       <c r="J23" s="3">
+        <v>6512700</v>
+      </c>
+      <c r="K23" s="3">
         <v>9459600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6818300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6429000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5765800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2720000</v>
+        <v>4920000</v>
       </c>
       <c r="E24" s="3">
-        <v>3310500</v>
+        <v>2628000</v>
       </c>
       <c r="F24" s="3">
-        <v>2821600</v>
+        <v>3198500</v>
       </c>
       <c r="G24" s="3">
-        <v>2499800</v>
+        <v>2726200</v>
       </c>
       <c r="H24" s="3">
-        <v>2408400</v>
+        <v>2415300</v>
       </c>
       <c r="I24" s="3">
-        <v>2223200</v>
+        <v>2326900</v>
       </c>
       <c r="J24" s="3">
+        <v>2148000</v>
+      </c>
+      <c r="K24" s="3">
         <v>2566400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2096900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2043100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1705500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5594700</v>
+        <v>13852400</v>
       </c>
       <c r="E26" s="3">
-        <v>8786700</v>
+        <v>5405500</v>
       </c>
       <c r="F26" s="3">
-        <v>7892400</v>
+        <v>8489500</v>
       </c>
       <c r="G26" s="3">
-        <v>6593900</v>
+        <v>7625500</v>
       </c>
       <c r="H26" s="3">
-        <v>5027900</v>
+        <v>6370900</v>
       </c>
       <c r="I26" s="3">
-        <v>4517500</v>
+        <v>4857800</v>
       </c>
       <c r="J26" s="3">
+        <v>4364700</v>
+      </c>
+      <c r="K26" s="3">
         <v>6893200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4721400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4385900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4060200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5309000</v>
+        <v>13130200</v>
       </c>
       <c r="E27" s="3">
-        <v>8096800</v>
+        <v>5129500</v>
       </c>
       <c r="F27" s="3">
-        <v>7174300</v>
+        <v>7822900</v>
       </c>
       <c r="G27" s="3">
-        <v>6057600</v>
+        <v>6931600</v>
       </c>
       <c r="H27" s="3">
-        <v>4590900</v>
+        <v>5852700</v>
       </c>
       <c r="I27" s="3">
-        <v>4034300</v>
+        <v>4435600</v>
       </c>
       <c r="J27" s="3">
+        <v>3897800</v>
+      </c>
+      <c r="K27" s="3">
         <v>6377200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4118500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3847300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3597700</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>273200</v>
+        <v>-321800</v>
       </c>
       <c r="E32" s="3">
-        <v>127600</v>
+        <v>264000</v>
       </c>
       <c r="F32" s="3">
-        <v>259700</v>
+        <v>123300</v>
       </c>
       <c r="G32" s="3">
-        <v>-124200</v>
+        <v>250900</v>
       </c>
       <c r="H32" s="3">
-        <v>180700</v>
+        <v>-120000</v>
       </c>
       <c r="I32" s="3">
-        <v>342100</v>
+        <v>174500</v>
       </c>
       <c r="J32" s="3">
+        <v>330500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3490000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>71800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-168300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>62200</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5309000</v>
+        <v>13130200</v>
       </c>
       <c r="E33" s="3">
-        <v>8096800</v>
+        <v>5129500</v>
       </c>
       <c r="F33" s="3">
-        <v>7174300</v>
+        <v>7822900</v>
       </c>
       <c r="G33" s="3">
-        <v>6057600</v>
+        <v>6931600</v>
       </c>
       <c r="H33" s="3">
-        <v>4590900</v>
+        <v>5852700</v>
       </c>
       <c r="I33" s="3">
-        <v>4034300</v>
+        <v>4435600</v>
       </c>
       <c r="J33" s="3">
+        <v>3897800</v>
+      </c>
+      <c r="K33" s="3">
         <v>6377200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4118500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3847300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3597700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5309000</v>
+        <v>13130200</v>
       </c>
       <c r="E35" s="3">
-        <v>8096800</v>
+        <v>5129500</v>
       </c>
       <c r="F35" s="3">
-        <v>7174300</v>
+        <v>7822900</v>
       </c>
       <c r="G35" s="3">
-        <v>6057600</v>
+        <v>6931600</v>
       </c>
       <c r="H35" s="3">
-        <v>4590900</v>
+        <v>5852700</v>
       </c>
       <c r="I35" s="3">
-        <v>4034300</v>
+        <v>4435600</v>
       </c>
       <c r="J35" s="3">
+        <v>3897800</v>
+      </c>
+      <c r="K35" s="3">
         <v>6377200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4118500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3847300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3597700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,332 +1818,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>22540200</v>
+        <v>8750200</v>
       </c>
       <c r="E41" s="3">
-        <v>6405400</v>
+        <v>21777800</v>
       </c>
       <c r="F41" s="3">
-        <v>5205200</v>
+        <v>6188700</v>
       </c>
       <c r="G41" s="3">
-        <v>4220600</v>
+        <v>5029100</v>
       </c>
       <c r="H41" s="3">
-        <v>4001500</v>
+        <v>4077800</v>
       </c>
       <c r="I41" s="3">
-        <v>4058000</v>
+        <v>3866200</v>
       </c>
       <c r="J41" s="3">
+        <v>3920700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4619100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3858900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4792000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5153000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>849100</v>
+        <v>2775300</v>
       </c>
       <c r="E42" s="3">
-        <v>827600</v>
+        <v>820400</v>
       </c>
       <c r="F42" s="3">
-        <v>752000</v>
+        <v>799600</v>
       </c>
       <c r="G42" s="3">
-        <v>581500</v>
+        <v>726500</v>
       </c>
       <c r="H42" s="3">
-        <v>422300</v>
+        <v>561800</v>
       </c>
       <c r="I42" s="3">
-        <v>434700</v>
+        <v>408000</v>
       </c>
       <c r="J42" s="3">
+        <v>420000</v>
+      </c>
+      <c r="K42" s="3">
         <v>285700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>204600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>522800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>593900</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5281900</v>
+        <v>6667600</v>
       </c>
       <c r="E43" s="3">
-        <v>6210100</v>
+        <v>5103300</v>
       </c>
       <c r="F43" s="3">
-        <v>5669200</v>
+        <v>6000000</v>
       </c>
       <c r="G43" s="3">
-        <v>5447900</v>
+        <v>5477500</v>
       </c>
       <c r="H43" s="3">
-        <v>4631600</v>
+        <v>5263600</v>
       </c>
       <c r="I43" s="3">
-        <v>4586400</v>
+        <v>4474900</v>
       </c>
       <c r="J43" s="3">
+        <v>4431300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3965400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3746500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6753300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6647300</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14696400</v>
+        <v>18053500</v>
       </c>
       <c r="E44" s="3">
-        <v>15487900</v>
+        <v>14199300</v>
       </c>
       <c r="F44" s="3">
-        <v>14096800</v>
+        <v>14964000</v>
       </c>
       <c r="G44" s="3">
-        <v>12293600</v>
+        <v>13620000</v>
       </c>
       <c r="H44" s="3">
-        <v>11907500</v>
+        <v>11877800</v>
       </c>
       <c r="I44" s="3">
-        <v>11399400</v>
+        <v>11504700</v>
       </c>
       <c r="J44" s="3">
+        <v>11013800</v>
+      </c>
+      <c r="K44" s="3">
         <v>10698200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10158100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18034900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17630600</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1765900</v>
+        <v>1172700</v>
       </c>
       <c r="E45" s="3">
-        <v>1001500</v>
+        <v>1706200</v>
       </c>
       <c r="F45" s="3">
-        <v>868300</v>
+        <v>967600</v>
       </c>
       <c r="G45" s="3">
-        <v>1236400</v>
+        <v>838900</v>
       </c>
       <c r="H45" s="3">
-        <v>938300</v>
+        <v>1194500</v>
       </c>
       <c r="I45" s="3">
-        <v>918000</v>
+        <v>906500</v>
       </c>
       <c r="J45" s="3">
+        <v>886900</v>
+      </c>
+      <c r="K45" s="3">
         <v>879600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1136400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1806400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1121000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>45133500</v>
+        <v>37419300</v>
       </c>
       <c r="E46" s="3">
-        <v>29932400</v>
+        <v>43606900</v>
       </c>
       <c r="F46" s="3">
-        <v>26591400</v>
+        <v>28920000</v>
       </c>
       <c r="G46" s="3">
-        <v>23780000</v>
+        <v>25692000</v>
       </c>
       <c r="H46" s="3">
-        <v>21901200</v>
+        <v>22975700</v>
       </c>
       <c r="I46" s="3">
-        <v>21396400</v>
+        <v>21160400</v>
       </c>
       <c r="J46" s="3">
+        <v>20672700</v>
+      </c>
+      <c r="K46" s="3">
         <v>20448000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19104500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15895200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15572900</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2730200</v>
+        <v>3645800</v>
       </c>
       <c r="E47" s="3">
-        <v>3058700</v>
+        <v>2637800</v>
       </c>
       <c r="F47" s="3">
-        <v>2732400</v>
+        <v>2955300</v>
       </c>
       <c r="G47" s="3">
-        <v>2271700</v>
+        <v>2640000</v>
       </c>
       <c r="H47" s="3">
-        <v>2367700</v>
+        <v>2194900</v>
       </c>
       <c r="I47" s="3">
-        <v>1990600</v>
+        <v>2287600</v>
       </c>
       <c r="J47" s="3">
+        <v>1923300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1683500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9490700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14562300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14442600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34359600</v>
+        <v>36644800</v>
       </c>
       <c r="E48" s="3">
-        <v>34527900</v>
+        <v>33197500</v>
       </c>
       <c r="F48" s="3">
-        <v>17063000</v>
+        <v>33360000</v>
       </c>
       <c r="G48" s="3">
-        <v>17968500</v>
+        <v>16485800</v>
       </c>
       <c r="H48" s="3">
-        <v>13706100</v>
+        <v>17360700</v>
       </c>
       <c r="I48" s="3">
-        <v>12597400</v>
+        <v>13242600</v>
       </c>
       <c r="J48" s="3">
+        <v>12171300</v>
+      </c>
+      <c r="K48" s="3">
         <v>11728000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25724300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19593300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18820900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37674700</v>
+        <v>55376800</v>
       </c>
       <c r="E49" s="3">
-        <v>37946800</v>
+        <v>36400400</v>
       </c>
       <c r="F49" s="3">
-        <v>34980600</v>
+        <v>36663300</v>
       </c>
       <c r="G49" s="3">
-        <v>34769500</v>
+        <v>33797500</v>
       </c>
       <c r="H49" s="3">
-        <v>38544100</v>
+        <v>33593500</v>
       </c>
       <c r="I49" s="3">
-        <v>26752900</v>
+        <v>37240400</v>
       </c>
       <c r="J49" s="3">
+        <v>25848000</v>
+      </c>
+      <c r="K49" s="3">
         <v>24660700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>51829000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>55939100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>43287800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2802400</v>
+        <v>3616400</v>
       </c>
       <c r="E52" s="3">
-        <v>3500200</v>
+        <v>2707600</v>
       </c>
       <c r="F52" s="3">
-        <v>2524700</v>
+        <v>3381800</v>
       </c>
       <c r="G52" s="3">
-        <v>2287600</v>
+        <v>2439300</v>
       </c>
       <c r="H52" s="3">
-        <v>2537100</v>
+        <v>2210200</v>
       </c>
       <c r="I52" s="3">
-        <v>2300000</v>
+        <v>2451300</v>
       </c>
       <c r="J52" s="3">
+        <v>2222200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1730900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1708200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3444500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2854700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>122700000</v>
+        <v>136703000</v>
       </c>
       <c r="E54" s="3">
-        <v>108966000</v>
+        <v>118550000</v>
       </c>
       <c r="F54" s="3">
-        <v>83892100</v>
+        <v>105281000</v>
       </c>
       <c r="G54" s="3">
-        <v>78760400</v>
+        <v>81054600</v>
       </c>
       <c r="H54" s="3">
-        <v>67312400</v>
+        <v>76096400</v>
       </c>
       <c r="I54" s="3">
-        <v>65037300</v>
+        <v>65035700</v>
       </c>
       <c r="J54" s="3">
+        <v>62837500</v>
+      </c>
+      <c r="K54" s="3">
         <v>60251000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67197700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>55931200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55301700</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5756200</v>
+        <v>7730200</v>
       </c>
       <c r="E57" s="3">
-        <v>6564600</v>
+        <v>5561500</v>
       </c>
       <c r="F57" s="3">
-        <v>6000000</v>
+        <v>6342600</v>
       </c>
       <c r="G57" s="3">
-        <v>5125000</v>
+        <v>5797100</v>
       </c>
       <c r="H57" s="3">
-        <v>4724200</v>
+        <v>4951600</v>
       </c>
       <c r="I57" s="3">
-        <v>4471200</v>
+        <v>4564400</v>
       </c>
       <c r="J57" s="3">
+        <v>4320000</v>
+      </c>
+      <c r="K57" s="3">
         <v>4071500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3943900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7014700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6930200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14398300</v>
+        <v>11346600</v>
       </c>
       <c r="E58" s="3">
-        <v>11021100</v>
+        <v>13911300</v>
       </c>
       <c r="F58" s="3">
-        <v>5654500</v>
+        <v>10648400</v>
       </c>
       <c r="G58" s="3">
-        <v>5522400</v>
+        <v>5463300</v>
       </c>
       <c r="H58" s="3">
-        <v>3860400</v>
+        <v>5335600</v>
       </c>
       <c r="I58" s="3">
-        <v>4225100</v>
+        <v>3729800</v>
       </c>
       <c r="J58" s="3">
+        <v>4082200</v>
+      </c>
+      <c r="K58" s="3">
         <v>4671100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6601800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7427600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7251800</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8432100</v>
+        <v>11456700</v>
       </c>
       <c r="E59" s="3">
-        <v>7957900</v>
+        <v>8146900</v>
       </c>
       <c r="F59" s="3">
-        <v>7351600</v>
+        <v>7688700</v>
       </c>
       <c r="G59" s="3">
-        <v>6721500</v>
+        <v>7102900</v>
       </c>
       <c r="H59" s="3">
-        <v>5879200</v>
+        <v>6494200</v>
       </c>
       <c r="I59" s="3">
-        <v>5642100</v>
+        <v>5680400</v>
       </c>
       <c r="J59" s="3">
+        <v>5451300</v>
+      </c>
+      <c r="K59" s="3">
         <v>5004200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4482200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7611600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8341100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28586600</v>
+        <v>30533500</v>
       </c>
       <c r="E60" s="3">
-        <v>25543600</v>
+        <v>27619700</v>
       </c>
       <c r="F60" s="3">
-        <v>19006100</v>
+        <v>24679700</v>
       </c>
       <c r="G60" s="3">
-        <v>16924100</v>
+        <v>18363300</v>
       </c>
       <c r="H60" s="3">
-        <v>14463800</v>
+        <v>16351600</v>
       </c>
       <c r="I60" s="3">
-        <v>14338400</v>
+        <v>13974600</v>
       </c>
       <c r="J60" s="3">
+        <v>13853500</v>
+      </c>
+      <c r="K60" s="3">
         <v>13746800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13922600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10552300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11261500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>27922600</v>
+        <v>26238600</v>
       </c>
       <c r="E61" s="3">
-        <v>17471700</v>
+        <v>26978200</v>
       </c>
       <c r="F61" s="3">
-        <v>6780200</v>
+        <v>16880700</v>
       </c>
       <c r="G61" s="3">
-        <v>7955600</v>
+        <v>6550900</v>
       </c>
       <c r="H61" s="3">
-        <v>4439600</v>
+        <v>7686600</v>
       </c>
       <c r="I61" s="3">
-        <v>5093400</v>
+        <v>4289500</v>
       </c>
       <c r="J61" s="3">
+        <v>4921100</v>
+      </c>
+      <c r="K61" s="3">
         <v>5706500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4963000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4291600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4850200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22349400</v>
+        <v>26575700</v>
       </c>
       <c r="E62" s="3">
-        <v>22632800</v>
+        <v>21593500</v>
       </c>
       <c r="F62" s="3">
-        <v>19764900</v>
+        <v>21867300</v>
       </c>
       <c r="G62" s="3">
-        <v>19582000</v>
+        <v>19096400</v>
       </c>
       <c r="H62" s="3">
-        <v>16909400</v>
+        <v>18919700</v>
       </c>
       <c r="I62" s="3">
-        <v>16475800</v>
+        <v>16337500</v>
       </c>
       <c r="J62" s="3">
+        <v>15918600</v>
+      </c>
+      <c r="K62" s="3">
         <v>14825100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22589000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30870400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23232000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>80458500</v>
+        <v>85300400</v>
       </c>
       <c r="E66" s="3">
-        <v>67656800</v>
+        <v>77737200</v>
       </c>
       <c r="F66" s="3">
-        <v>47430100</v>
+        <v>65368400</v>
       </c>
       <c r="G66" s="3">
-        <v>46051500</v>
+        <v>45825900</v>
       </c>
       <c r="H66" s="3">
-        <v>37517700</v>
+        <v>44493900</v>
       </c>
       <c r="I66" s="3">
-        <v>37556100</v>
+        <v>36248800</v>
       </c>
       <c r="J66" s="3">
+        <v>36285800</v>
+      </c>
+      <c r="K66" s="3">
         <v>35678400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35045100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28527700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29042400</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39928400</v>
+        <v>47344400</v>
       </c>
       <c r="E72" s="3">
-        <v>37083000</v>
+        <v>38577900</v>
       </c>
       <c r="F72" s="3">
-        <v>32536100</v>
+        <v>35828800</v>
       </c>
       <c r="G72" s="3">
-        <v>28530100</v>
+        <v>31435700</v>
       </c>
       <c r="H72" s="3">
-        <v>25055900</v>
+        <v>27565100</v>
       </c>
       <c r="I72" s="3">
-        <v>22313300</v>
+        <v>24208400</v>
       </c>
       <c r="J72" s="3">
+        <v>21558600</v>
+      </c>
+      <c r="K72" s="3">
         <v>20119400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23250500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39922600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>37207400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42241900</v>
+        <v>51402600</v>
       </c>
       <c r="E76" s="3">
-        <v>41309300</v>
+        <v>40813100</v>
       </c>
       <c r="F76" s="3">
-        <v>36462000</v>
+        <v>39912000</v>
       </c>
       <c r="G76" s="3">
-        <v>32708900</v>
+        <v>35228800</v>
       </c>
       <c r="H76" s="3">
-        <v>29794700</v>
+        <v>31602600</v>
       </c>
       <c r="I76" s="3">
-        <v>27481200</v>
+        <v>28786900</v>
       </c>
       <c r="J76" s="3">
+        <v>26551700</v>
+      </c>
+      <c r="K76" s="3">
         <v>24572600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32152700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27403500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26259300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5309000</v>
+        <v>13130200</v>
       </c>
       <c r="E81" s="3">
-        <v>8096800</v>
+        <v>5129500</v>
       </c>
       <c r="F81" s="3">
-        <v>7174300</v>
+        <v>7822900</v>
       </c>
       <c r="G81" s="3">
-        <v>6057600</v>
+        <v>6931600</v>
       </c>
       <c r="H81" s="3">
-        <v>4590900</v>
+        <v>5852700</v>
       </c>
       <c r="I81" s="3">
-        <v>4034300</v>
+        <v>4435600</v>
       </c>
       <c r="J81" s="3">
+        <v>3897800</v>
+      </c>
+      <c r="K81" s="3">
         <v>6377200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4118500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3847300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3597700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6831100</v>
+        <v>6360000</v>
       </c>
       <c r="E83" s="3">
-        <v>5767400</v>
+        <v>6600000</v>
       </c>
       <c r="F83" s="3">
-        <v>2599200</v>
+        <v>5572400</v>
       </c>
       <c r="G83" s="3">
-        <v>2682700</v>
+        <v>2511300</v>
       </c>
       <c r="H83" s="3">
-        <v>2419700</v>
+        <v>2592000</v>
       </c>
       <c r="I83" s="3">
-        <v>2349700</v>
+        <v>2337800</v>
       </c>
       <c r="J83" s="3">
+        <v>2270200</v>
+      </c>
+      <c r="K83" s="3">
         <v>2139600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1716500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1446200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1172600</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12303800</v>
+        <v>20343300</v>
       </c>
       <c r="E89" s="3">
-        <v>13151800</v>
+        <v>11887600</v>
       </c>
       <c r="F89" s="3">
-        <v>9586100</v>
+        <v>12706900</v>
       </c>
       <c r="G89" s="3">
-        <v>7872100</v>
+        <v>9261800</v>
       </c>
       <c r="H89" s="3">
-        <v>6973300</v>
+        <v>7605800</v>
       </c>
       <c r="I89" s="3">
-        <v>6361300</v>
+        <v>6737500</v>
       </c>
       <c r="J89" s="3">
+        <v>6146200</v>
+      </c>
+      <c r="K89" s="3">
         <v>5201800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5638900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4617000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4586100</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2240100</v>
+        <v>-2906200</v>
       </c>
       <c r="E91" s="3">
-        <v>-3229200</v>
+        <v>-2164400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2940200</v>
+        <v>-3120000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2132900</v>
+        <v>-2840700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2427600</v>
+        <v>-2060700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1963500</v>
+        <v>-2345500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1897100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1729800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1891200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1801900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2053000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3318400</v>
+        <v>-17431700</v>
       </c>
       <c r="E94" s="3">
-        <v>-6626700</v>
+        <v>-3206200</v>
       </c>
       <c r="F94" s="3">
-        <v>-3883000</v>
+        <v>-6402600</v>
       </c>
       <c r="G94" s="3">
-        <v>-9718200</v>
+        <v>-3751600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2594700</v>
+        <v>-9389500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2784400</v>
+        <v>-2506900</v>
       </c>
       <c r="J94" s="3">
+        <v>-2690200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2266100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4685500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1896200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3540200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3758,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2748200</v>
+        <v>-4539300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3668400</v>
+        <v>-2655300</v>
       </c>
       <c r="F96" s="3">
-        <v>-3065500</v>
+        <v>-3544400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2382400</v>
+        <v>-2961800</v>
       </c>
       <c r="H96" s="3">
-        <v>-2099000</v>
+        <v>-2301800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1886700</v>
+        <v>-2028000</v>
       </c>
       <c r="J96" s="3">
+        <v>-1822900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1828000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1795500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1623500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1254800</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8358700</v>
+        <v>-16533800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5345200</v>
+        <v>8076000</v>
       </c>
       <c r="F100" s="3">
-        <v>-4881100</v>
+        <v>-5164400</v>
       </c>
       <c r="G100" s="3">
-        <v>2436600</v>
+        <v>-4716000</v>
       </c>
       <c r="H100" s="3">
-        <v>-4499500</v>
+        <v>2354200</v>
       </c>
       <c r="I100" s="3">
-        <v>-3983500</v>
+        <v>-4347300</v>
       </c>
       <c r="J100" s="3">
+        <v>-3848700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1987200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>108900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2765700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1070500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1187800</v>
+        <v>543300</v>
       </c>
       <c r="E101" s="3">
-        <v>44000</v>
+        <v>-1147600</v>
       </c>
       <c r="F101" s="3">
-        <v>75600</v>
+        <v>42500</v>
       </c>
       <c r="G101" s="3">
-        <v>-273200</v>
+        <v>73100</v>
       </c>
       <c r="H101" s="3">
-        <v>61000</v>
+        <v>-264000</v>
       </c>
       <c r="I101" s="3">
-        <v>-37300</v>
+        <v>58900</v>
       </c>
       <c r="J101" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="K101" s="3">
         <v>30500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>56200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-48200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>70400</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16156300</v>
+        <v>-13078900</v>
       </c>
       <c r="E102" s="3">
-        <v>1223900</v>
+        <v>15609800</v>
       </c>
       <c r="F102" s="3">
-        <v>897600</v>
+        <v>1182500</v>
       </c>
       <c r="G102" s="3">
-        <v>317300</v>
+        <v>867300</v>
       </c>
       <c r="H102" s="3">
-        <v>-59800</v>
+        <v>306500</v>
       </c>
       <c r="I102" s="3">
-        <v>-443700</v>
+        <v>-57800</v>
       </c>
       <c r="J102" s="3">
+        <v>-428700</v>
+      </c>
+      <c r="K102" s="3">
         <v>978900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1118400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-93100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>45800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>70052800</v>
+        <v>66648700</v>
       </c>
       <c r="E8" s="3">
-        <v>48710200</v>
+        <v>46343300</v>
       </c>
       <c r="F8" s="3">
-        <v>58549100</v>
+        <v>55704100</v>
       </c>
       <c r="G8" s="3">
-        <v>51083000</v>
+        <v>48600700</v>
       </c>
       <c r="H8" s="3">
-        <v>46512000</v>
+        <v>44251900</v>
       </c>
       <c r="I8" s="3">
-        <v>41018200</v>
+        <v>39025000</v>
       </c>
       <c r="J8" s="3">
-        <v>38906200</v>
+        <v>37015700</v>
       </c>
       <c r="K8" s="3">
         <v>34593400</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22205500</v>
+        <v>21126500</v>
       </c>
       <c r="E9" s="3">
-        <v>17313800</v>
+        <v>16472500</v>
       </c>
       <c r="F9" s="3">
-        <v>19770600</v>
+        <v>18809900</v>
       </c>
       <c r="G9" s="3">
-        <v>17045500</v>
+        <v>16217200</v>
       </c>
       <c r="H9" s="3">
-        <v>16126900</v>
+        <v>15343300</v>
       </c>
       <c r="I9" s="3">
-        <v>14224400</v>
+        <v>13533200</v>
       </c>
       <c r="J9" s="3">
-        <v>13694200</v>
+        <v>13028800</v>
       </c>
       <c r="K9" s="3">
         <v>12195400</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>47847300</v>
+        <v>45522300</v>
       </c>
       <c r="E10" s="3">
-        <v>31396400</v>
+        <v>29870800</v>
       </c>
       <c r="F10" s="3">
-        <v>38778600</v>
+        <v>36894200</v>
       </c>
       <c r="G10" s="3">
-        <v>34037500</v>
+        <v>32383500</v>
       </c>
       <c r="H10" s="3">
-        <v>30385100</v>
+        <v>28908600</v>
       </c>
       <c r="I10" s="3">
-        <v>26793800</v>
+        <v>25491900</v>
       </c>
       <c r="J10" s="3">
-        <v>25212000</v>
+        <v>23986900</v>
       </c>
       <c r="K10" s="3">
         <v>22398000</v>
@@ -936,25 +936,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>116700</v>
+        <v>111100</v>
       </c>
       <c r="E14" s="3">
-        <v>301100</v>
+        <v>286500</v>
       </c>
       <c r="F14" s="3">
-        <v>139600</v>
+        <v>132900</v>
       </c>
       <c r="G14" s="3">
-        <v>137500</v>
+        <v>130800</v>
       </c>
       <c r="H14" s="3">
-        <v>254200</v>
+        <v>241800</v>
       </c>
       <c r="I14" s="3">
-        <v>338200</v>
+        <v>321700</v>
       </c>
       <c r="J14" s="3">
-        <v>257500</v>
+        <v>244900</v>
       </c>
       <c r="K14" s="3">
         <v>327400</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>51338200</v>
+        <v>48843600</v>
       </c>
       <c r="E17" s="3">
-        <v>40013500</v>
+        <v>38069100</v>
       </c>
       <c r="F17" s="3">
-        <v>46251300</v>
+        <v>44003800</v>
       </c>
       <c r="G17" s="3">
-        <v>40308000</v>
+        <v>38349400</v>
       </c>
       <c r="H17" s="3">
-        <v>37661500</v>
+        <v>35831400</v>
       </c>
       <c r="I17" s="3">
-        <v>33486600</v>
+        <v>31859400</v>
       </c>
       <c r="J17" s="3">
-        <v>31941800</v>
+        <v>30389700</v>
       </c>
       <c r="K17" s="3">
         <v>28461200</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>18714600</v>
+        <v>17805200</v>
       </c>
       <c r="E18" s="3">
-        <v>8696700</v>
+        <v>8274100</v>
       </c>
       <c r="F18" s="3">
-        <v>12297800</v>
+        <v>11700200</v>
       </c>
       <c r="G18" s="3">
-        <v>10774900</v>
+        <v>10251300</v>
       </c>
       <c r="H18" s="3">
-        <v>8850600</v>
+        <v>8420500</v>
       </c>
       <c r="I18" s="3">
-        <v>7531600</v>
+        <v>7165700</v>
       </c>
       <c r="J18" s="3">
-        <v>6964400</v>
+        <v>6626000</v>
       </c>
       <c r="K18" s="3">
         <v>6132100</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>321800</v>
+        <v>306200</v>
       </c>
       <c r="E20" s="3">
-        <v>-264000</v>
+        <v>-251200</v>
       </c>
       <c r="F20" s="3">
-        <v>-123300</v>
+        <v>-117300</v>
       </c>
       <c r="G20" s="3">
-        <v>-250900</v>
+        <v>-238700</v>
       </c>
       <c r="H20" s="3">
-        <v>120000</v>
+        <v>114200</v>
       </c>
       <c r="I20" s="3">
-        <v>-174500</v>
+        <v>-166100</v>
       </c>
       <c r="J20" s="3">
-        <v>-330500</v>
+        <v>-314500</v>
       </c>
       <c r="K20" s="3">
         <v>3490000</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>25493200</v>
+        <v>24239300</v>
       </c>
       <c r="E21" s="3">
-        <v>15133200</v>
+        <v>14382100</v>
       </c>
       <c r="F21" s="3">
-        <v>17831700</v>
+        <v>16952000</v>
       </c>
       <c r="G21" s="3">
-        <v>13073500</v>
+        <v>12432300</v>
       </c>
       <c r="H21" s="3">
-        <v>11602000</v>
+        <v>11032100</v>
       </c>
       <c r="I21" s="3">
-        <v>9730500</v>
+        <v>9252100</v>
       </c>
       <c r="J21" s="3">
-        <v>8938600</v>
+        <v>8498800</v>
       </c>
       <c r="K21" s="3">
         <v>11766800</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>264000</v>
+        <v>251200</v>
       </c>
       <c r="E22" s="3">
-        <v>399300</v>
+        <v>379900</v>
       </c>
       <c r="F22" s="3">
-        <v>486500</v>
+        <v>462900</v>
       </c>
       <c r="G22" s="3">
-        <v>172400</v>
+        <v>164000</v>
       </c>
       <c r="H22" s="3">
-        <v>184400</v>
+        <v>175400</v>
       </c>
       <c r="I22" s="3">
-        <v>172400</v>
+        <v>164000</v>
       </c>
       <c r="J22" s="3">
-        <v>121100</v>
+        <v>115200</v>
       </c>
       <c r="K22" s="3">
         <v>162600</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>18772400</v>
+        <v>17860200</v>
       </c>
       <c r="E23" s="3">
-        <v>8033500</v>
+        <v>7643100</v>
       </c>
       <c r="F23" s="3">
-        <v>11688000</v>
+        <v>11120100</v>
       </c>
       <c r="G23" s="3">
-        <v>10351600</v>
+        <v>9848600</v>
       </c>
       <c r="H23" s="3">
-        <v>8786200</v>
+        <v>8359200</v>
       </c>
       <c r="I23" s="3">
-        <v>7184700</v>
+        <v>6835600</v>
       </c>
       <c r="J23" s="3">
-        <v>6512700</v>
+        <v>6196300</v>
       </c>
       <c r="K23" s="3">
         <v>9459600</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4920000</v>
+        <v>4680900</v>
       </c>
       <c r="E24" s="3">
-        <v>2628000</v>
+        <v>2500300</v>
       </c>
       <c r="F24" s="3">
-        <v>3198500</v>
+        <v>3043100</v>
       </c>
       <c r="G24" s="3">
-        <v>2726200</v>
+        <v>2593700</v>
       </c>
       <c r="H24" s="3">
-        <v>2415300</v>
+        <v>2297900</v>
       </c>
       <c r="I24" s="3">
-        <v>2326900</v>
+        <v>2213800</v>
       </c>
       <c r="J24" s="3">
-        <v>2148000</v>
+        <v>2043600</v>
       </c>
       <c r="K24" s="3">
         <v>2566400</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13852400</v>
+        <v>13179300</v>
       </c>
       <c r="E26" s="3">
-        <v>5405500</v>
+        <v>5142800</v>
       </c>
       <c r="F26" s="3">
-        <v>8489500</v>
+        <v>8076900</v>
       </c>
       <c r="G26" s="3">
-        <v>7625500</v>
+        <v>7254900</v>
       </c>
       <c r="H26" s="3">
-        <v>6370900</v>
+        <v>6061300</v>
       </c>
       <c r="I26" s="3">
-        <v>4857800</v>
+        <v>4621800</v>
       </c>
       <c r="J26" s="3">
-        <v>4364700</v>
+        <v>4152600</v>
       </c>
       <c r="K26" s="3">
         <v>6893200</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13130200</v>
+        <v>12492200</v>
       </c>
       <c r="E27" s="3">
-        <v>5129500</v>
+        <v>4880200</v>
       </c>
       <c r="F27" s="3">
-        <v>7822900</v>
+        <v>7442800</v>
       </c>
       <c r="G27" s="3">
-        <v>6931600</v>
+        <v>6594800</v>
       </c>
       <c r="H27" s="3">
-        <v>5852700</v>
+        <v>5568300</v>
       </c>
       <c r="I27" s="3">
-        <v>4435600</v>
+        <v>4220100</v>
       </c>
       <c r="J27" s="3">
-        <v>3897800</v>
+        <v>3708400</v>
       </c>
       <c r="K27" s="3">
         <v>6377200</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-321800</v>
+        <v>-306200</v>
       </c>
       <c r="E32" s="3">
-        <v>264000</v>
+        <v>251200</v>
       </c>
       <c r="F32" s="3">
-        <v>123300</v>
+        <v>117300</v>
       </c>
       <c r="G32" s="3">
-        <v>250900</v>
+        <v>238700</v>
       </c>
       <c r="H32" s="3">
-        <v>-120000</v>
+        <v>-114200</v>
       </c>
       <c r="I32" s="3">
-        <v>174500</v>
+        <v>166100</v>
       </c>
       <c r="J32" s="3">
-        <v>330500</v>
+        <v>314500</v>
       </c>
       <c r="K32" s="3">
         <v>-3490000</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13130200</v>
+        <v>12492200</v>
       </c>
       <c r="E33" s="3">
-        <v>5129500</v>
+        <v>4880200</v>
       </c>
       <c r="F33" s="3">
-        <v>7822900</v>
+        <v>7442800</v>
       </c>
       <c r="G33" s="3">
-        <v>6931600</v>
+        <v>6594800</v>
       </c>
       <c r="H33" s="3">
-        <v>5852700</v>
+        <v>5568300</v>
       </c>
       <c r="I33" s="3">
-        <v>4435600</v>
+        <v>4220100</v>
       </c>
       <c r="J33" s="3">
-        <v>3897800</v>
+        <v>3708400</v>
       </c>
       <c r="K33" s="3">
         <v>6377200</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13130200</v>
+        <v>12492200</v>
       </c>
       <c r="E35" s="3">
-        <v>5129500</v>
+        <v>4880200</v>
       </c>
       <c r="F35" s="3">
-        <v>7822900</v>
+        <v>7442800</v>
       </c>
       <c r="G35" s="3">
-        <v>6931600</v>
+        <v>6594800</v>
       </c>
       <c r="H35" s="3">
-        <v>5852700</v>
+        <v>5568300</v>
       </c>
       <c r="I35" s="3">
-        <v>4435600</v>
+        <v>4220100</v>
       </c>
       <c r="J35" s="3">
-        <v>3897800</v>
+        <v>3708400</v>
       </c>
       <c r="K35" s="3">
         <v>6377200</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8750200</v>
+        <v>8325000</v>
       </c>
       <c r="E41" s="3">
-        <v>21777800</v>
+        <v>20719600</v>
       </c>
       <c r="F41" s="3">
-        <v>6188700</v>
+        <v>5888000</v>
       </c>
       <c r="G41" s="3">
-        <v>5029100</v>
+        <v>4784700</v>
       </c>
       <c r="H41" s="3">
-        <v>4077800</v>
+        <v>3879700</v>
       </c>
       <c r="I41" s="3">
-        <v>3866200</v>
+        <v>3678300</v>
       </c>
       <c r="J41" s="3">
-        <v>3920700</v>
+        <v>3730200</v>
       </c>
       <c r="K41" s="3">
         <v>4619100</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2775300</v>
+        <v>2640400</v>
       </c>
       <c r="E42" s="3">
-        <v>820400</v>
+        <v>780500</v>
       </c>
       <c r="F42" s="3">
-        <v>799600</v>
+        <v>760800</v>
       </c>
       <c r="G42" s="3">
-        <v>726500</v>
+        <v>691200</v>
       </c>
       <c r="H42" s="3">
-        <v>561800</v>
+        <v>534500</v>
       </c>
       <c r="I42" s="3">
-        <v>408000</v>
+        <v>388200</v>
       </c>
       <c r="J42" s="3">
-        <v>420000</v>
+        <v>399600</v>
       </c>
       <c r="K42" s="3">
         <v>285700</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6667600</v>
+        <v>6343600</v>
       </c>
       <c r="E43" s="3">
-        <v>5103300</v>
+        <v>4855300</v>
       </c>
       <c r="F43" s="3">
-        <v>6000000</v>
+        <v>5708400</v>
       </c>
       <c r="G43" s="3">
-        <v>5477500</v>
+        <v>5211300</v>
       </c>
       <c r="H43" s="3">
-        <v>5263600</v>
+        <v>5007900</v>
       </c>
       <c r="I43" s="3">
-        <v>4474900</v>
+        <v>4257500</v>
       </c>
       <c r="J43" s="3">
-        <v>4431300</v>
+        <v>4215900</v>
       </c>
       <c r="K43" s="3">
         <v>3965400</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18053500</v>
+        <v>17176200</v>
       </c>
       <c r="E44" s="3">
-        <v>14199300</v>
+        <v>13509300</v>
       </c>
       <c r="F44" s="3">
-        <v>14964000</v>
+        <v>14236900</v>
       </c>
       <c r="G44" s="3">
-        <v>13620000</v>
+        <v>12958200</v>
       </c>
       <c r="H44" s="3">
-        <v>11877800</v>
+        <v>11300700</v>
       </c>
       <c r="I44" s="3">
-        <v>11504700</v>
+        <v>10945700</v>
       </c>
       <c r="J44" s="3">
-        <v>11013800</v>
+        <v>10478600</v>
       </c>
       <c r="K44" s="3">
         <v>10698200</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1172700</v>
+        <v>1115700</v>
       </c>
       <c r="E45" s="3">
-        <v>1706200</v>
+        <v>1623300</v>
       </c>
       <c r="F45" s="3">
-        <v>967600</v>
+        <v>920600</v>
       </c>
       <c r="G45" s="3">
-        <v>838900</v>
+        <v>798100</v>
       </c>
       <c r="H45" s="3">
-        <v>1194500</v>
+        <v>1136500</v>
       </c>
       <c r="I45" s="3">
-        <v>906500</v>
+        <v>862500</v>
       </c>
       <c r="J45" s="3">
-        <v>886900</v>
+        <v>843800</v>
       </c>
       <c r="K45" s="3">
         <v>879600</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>37419300</v>
+        <v>35601000</v>
       </c>
       <c r="E46" s="3">
-        <v>43606900</v>
+        <v>41488000</v>
       </c>
       <c r="F46" s="3">
-        <v>28920000</v>
+        <v>27514700</v>
       </c>
       <c r="G46" s="3">
-        <v>25692000</v>
+        <v>24443600</v>
       </c>
       <c r="H46" s="3">
-        <v>22975700</v>
+        <v>21859200</v>
       </c>
       <c r="I46" s="3">
-        <v>21160400</v>
+        <v>20132100</v>
       </c>
       <c r="J46" s="3">
-        <v>20672700</v>
+        <v>19668200</v>
       </c>
       <c r="K46" s="3">
         <v>20448000</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3645800</v>
+        <v>3468700</v>
       </c>
       <c r="E47" s="3">
-        <v>2637800</v>
+        <v>2509600</v>
       </c>
       <c r="F47" s="3">
-        <v>2955300</v>
+        <v>2811700</v>
       </c>
       <c r="G47" s="3">
-        <v>2640000</v>
+        <v>2511700</v>
       </c>
       <c r="H47" s="3">
-        <v>2194900</v>
+        <v>2088300</v>
       </c>
       <c r="I47" s="3">
-        <v>2287600</v>
+        <v>2176500</v>
       </c>
       <c r="J47" s="3">
-        <v>1923300</v>
+        <v>1829800</v>
       </c>
       <c r="K47" s="3">
         <v>1683500</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36644800</v>
+        <v>34864100</v>
       </c>
       <c r="E48" s="3">
-        <v>33197500</v>
+        <v>31584300</v>
       </c>
       <c r="F48" s="3">
-        <v>33360000</v>
+        <v>31739000</v>
       </c>
       <c r="G48" s="3">
-        <v>16485800</v>
+        <v>15684700</v>
       </c>
       <c r="H48" s="3">
-        <v>17360700</v>
+        <v>16517100</v>
       </c>
       <c r="I48" s="3">
-        <v>13242600</v>
+        <v>12599100</v>
       </c>
       <c r="J48" s="3">
-        <v>12171300</v>
+        <v>11579900</v>
       </c>
       <c r="K48" s="3">
         <v>11728000</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55376800</v>
+        <v>52685900</v>
       </c>
       <c r="E49" s="3">
-        <v>36400400</v>
+        <v>34631600</v>
       </c>
       <c r="F49" s="3">
-        <v>36663300</v>
+        <v>34881700</v>
       </c>
       <c r="G49" s="3">
-        <v>33797500</v>
+        <v>32155200</v>
       </c>
       <c r="H49" s="3">
-        <v>33593500</v>
+        <v>31961100</v>
       </c>
       <c r="I49" s="3">
-        <v>37240400</v>
+        <v>35430800</v>
       </c>
       <c r="J49" s="3">
-        <v>25848000</v>
+        <v>24592000</v>
       </c>
       <c r="K49" s="3">
         <v>24660700</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3616400</v>
+        <v>3440600</v>
       </c>
       <c r="E52" s="3">
-        <v>2707600</v>
+        <v>2576100</v>
       </c>
       <c r="F52" s="3">
-        <v>3381800</v>
+        <v>3217500</v>
       </c>
       <c r="G52" s="3">
-        <v>2439300</v>
+        <v>2320700</v>
       </c>
       <c r="H52" s="3">
-        <v>2210200</v>
+        <v>2102800</v>
       </c>
       <c r="I52" s="3">
-        <v>2451300</v>
+        <v>2332200</v>
       </c>
       <c r="J52" s="3">
-        <v>2222200</v>
+        <v>2114200</v>
       </c>
       <c r="K52" s="3">
         <v>1730900</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>136703000</v>
+        <v>130060000</v>
       </c>
       <c r="E54" s="3">
-        <v>118550000</v>
+        <v>112790000</v>
       </c>
       <c r="F54" s="3">
-        <v>105281000</v>
+        <v>100165000</v>
       </c>
       <c r="G54" s="3">
-        <v>81054600</v>
+        <v>77116000</v>
       </c>
       <c r="H54" s="3">
-        <v>76096400</v>
+        <v>72398700</v>
       </c>
       <c r="I54" s="3">
-        <v>65035700</v>
+        <v>61875400</v>
       </c>
       <c r="J54" s="3">
-        <v>62837500</v>
+        <v>59784100</v>
       </c>
       <c r="K54" s="3">
         <v>60251000</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7730200</v>
+        <v>7354600</v>
       </c>
       <c r="E57" s="3">
-        <v>5561500</v>
+        <v>5291200</v>
       </c>
       <c r="F57" s="3">
-        <v>6342600</v>
+        <v>6034400</v>
       </c>
       <c r="G57" s="3">
-        <v>5797100</v>
+        <v>5515400</v>
       </c>
       <c r="H57" s="3">
-        <v>4951600</v>
+        <v>4711000</v>
       </c>
       <c r="I57" s="3">
-        <v>4564400</v>
+        <v>4342600</v>
       </c>
       <c r="J57" s="3">
-        <v>4320000</v>
+        <v>4110100</v>
       </c>
       <c r="K57" s="3">
         <v>4071500</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11346600</v>
+        <v>10795200</v>
       </c>
       <c r="E58" s="3">
-        <v>13911300</v>
+        <v>13235300</v>
       </c>
       <c r="F58" s="3">
-        <v>10648400</v>
+        <v>10130900</v>
       </c>
       <c r="G58" s="3">
-        <v>5463300</v>
+        <v>5197800</v>
       </c>
       <c r="H58" s="3">
-        <v>5335600</v>
+        <v>5076400</v>
       </c>
       <c r="I58" s="3">
-        <v>3729800</v>
+        <v>3548600</v>
       </c>
       <c r="J58" s="3">
-        <v>4082200</v>
+        <v>3883800</v>
       </c>
       <c r="K58" s="3">
         <v>4671100</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11456700</v>
+        <v>10900000</v>
       </c>
       <c r="E59" s="3">
-        <v>8146900</v>
+        <v>7751000</v>
       </c>
       <c r="F59" s="3">
-        <v>7688700</v>
+        <v>7315100</v>
       </c>
       <c r="G59" s="3">
-        <v>7102900</v>
+        <v>6757800</v>
       </c>
       <c r="H59" s="3">
-        <v>6494200</v>
+        <v>6178600</v>
       </c>
       <c r="I59" s="3">
-        <v>5680400</v>
+        <v>5404300</v>
       </c>
       <c r="J59" s="3">
-        <v>5451300</v>
+        <v>5186400</v>
       </c>
       <c r="K59" s="3">
         <v>5004200</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30533500</v>
+        <v>29049800</v>
       </c>
       <c r="E60" s="3">
-        <v>27619700</v>
+        <v>26277600</v>
       </c>
       <c r="F60" s="3">
-        <v>24679700</v>
+        <v>23480400</v>
       </c>
       <c r="G60" s="3">
-        <v>18363300</v>
+        <v>17471000</v>
       </c>
       <c r="H60" s="3">
-        <v>16351600</v>
+        <v>15557100</v>
       </c>
       <c r="I60" s="3">
-        <v>13974600</v>
+        <v>13295500</v>
       </c>
       <c r="J60" s="3">
-        <v>13853500</v>
+        <v>13180300</v>
       </c>
       <c r="K60" s="3">
         <v>13746800</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26238600</v>
+        <v>24963600</v>
       </c>
       <c r="E61" s="3">
-        <v>26978200</v>
+        <v>25667300</v>
       </c>
       <c r="F61" s="3">
-        <v>16880700</v>
+        <v>16060500</v>
       </c>
       <c r="G61" s="3">
-        <v>6550900</v>
+        <v>6232600</v>
       </c>
       <c r="H61" s="3">
-        <v>7686600</v>
+        <v>7313000</v>
       </c>
       <c r="I61" s="3">
-        <v>4289500</v>
+        <v>4081000</v>
       </c>
       <c r="J61" s="3">
-        <v>4921100</v>
+        <v>4682000</v>
       </c>
       <c r="K61" s="3">
         <v>5706500</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26575700</v>
+        <v>25284300</v>
       </c>
       <c r="E62" s="3">
-        <v>21593500</v>
+        <v>20544200</v>
       </c>
       <c r="F62" s="3">
-        <v>21867300</v>
+        <v>20804700</v>
       </c>
       <c r="G62" s="3">
-        <v>19096400</v>
+        <v>18168400</v>
       </c>
       <c r="H62" s="3">
-        <v>18919700</v>
+        <v>18000300</v>
       </c>
       <c r="I62" s="3">
-        <v>16337500</v>
+        <v>15543600</v>
       </c>
       <c r="J62" s="3">
-        <v>15918600</v>
+        <v>15145000</v>
       </c>
       <c r="K62" s="3">
         <v>14825100</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>85300400</v>
+        <v>81155500</v>
       </c>
       <c r="E66" s="3">
-        <v>77737200</v>
+        <v>73959700</v>
       </c>
       <c r="F66" s="3">
-        <v>65368400</v>
+        <v>62192000</v>
       </c>
       <c r="G66" s="3">
-        <v>45825900</v>
+        <v>43599100</v>
       </c>
       <c r="H66" s="3">
-        <v>44493900</v>
+        <v>42331800</v>
       </c>
       <c r="I66" s="3">
-        <v>36248800</v>
+        <v>34487300</v>
       </c>
       <c r="J66" s="3">
-        <v>36285800</v>
+        <v>34522600</v>
       </c>
       <c r="K66" s="3">
         <v>35678400</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>47344400</v>
+        <v>45043800</v>
       </c>
       <c r="E72" s="3">
-        <v>38577900</v>
+        <v>36703300</v>
       </c>
       <c r="F72" s="3">
-        <v>35828800</v>
+        <v>34087700</v>
       </c>
       <c r="G72" s="3">
-        <v>31435700</v>
+        <v>29908100</v>
       </c>
       <c r="H72" s="3">
-        <v>27565100</v>
+        <v>26225700</v>
       </c>
       <c r="I72" s="3">
-        <v>24208400</v>
+        <v>23032000</v>
       </c>
       <c r="J72" s="3">
-        <v>21558600</v>
+        <v>20511000</v>
       </c>
       <c r="K72" s="3">
         <v>20119400</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51402600</v>
+        <v>48904800</v>
       </c>
       <c r="E76" s="3">
-        <v>40813100</v>
+        <v>38829900</v>
       </c>
       <c r="F76" s="3">
-        <v>39912000</v>
+        <v>37972600</v>
       </c>
       <c r="G76" s="3">
-        <v>35228800</v>
+        <v>33516900</v>
       </c>
       <c r="H76" s="3">
-        <v>31602600</v>
+        <v>30066900</v>
       </c>
       <c r="I76" s="3">
-        <v>28786900</v>
+        <v>27388100</v>
       </c>
       <c r="J76" s="3">
-        <v>26551700</v>
+        <v>25261400</v>
       </c>
       <c r="K76" s="3">
         <v>24572600</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13130200</v>
+        <v>12492200</v>
       </c>
       <c r="E81" s="3">
-        <v>5129500</v>
+        <v>4880200</v>
       </c>
       <c r="F81" s="3">
-        <v>7822900</v>
+        <v>7442800</v>
       </c>
       <c r="G81" s="3">
-        <v>6931600</v>
+        <v>6594800</v>
       </c>
       <c r="H81" s="3">
-        <v>5852700</v>
+        <v>5568300</v>
       </c>
       <c r="I81" s="3">
-        <v>4435600</v>
+        <v>4220100</v>
       </c>
       <c r="J81" s="3">
-        <v>3897800</v>
+        <v>3708400</v>
       </c>
       <c r="K81" s="3">
         <v>6377200</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6360000</v>
+        <v>6051000</v>
       </c>
       <c r="E83" s="3">
-        <v>6600000</v>
+        <v>6279300</v>
       </c>
       <c r="F83" s="3">
-        <v>5572400</v>
+        <v>5301600</v>
       </c>
       <c r="G83" s="3">
-        <v>2511300</v>
+        <v>2389200</v>
       </c>
       <c r="H83" s="3">
-        <v>2592000</v>
+        <v>2466100</v>
       </c>
       <c r="I83" s="3">
-        <v>2337800</v>
+        <v>2224200</v>
       </c>
       <c r="J83" s="3">
-        <v>2270200</v>
+        <v>2159900</v>
       </c>
       <c r="K83" s="3">
         <v>2139600</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20343300</v>
+        <v>19354800</v>
       </c>
       <c r="E89" s="3">
-        <v>11887600</v>
+        <v>11310000</v>
       </c>
       <c r="F89" s="3">
-        <v>12706900</v>
+        <v>12089500</v>
       </c>
       <c r="G89" s="3">
-        <v>9261800</v>
+        <v>8811800</v>
       </c>
       <c r="H89" s="3">
-        <v>7605800</v>
+        <v>7236200</v>
       </c>
       <c r="I89" s="3">
-        <v>6737500</v>
+        <v>6410100</v>
       </c>
       <c r="J89" s="3">
-        <v>6146200</v>
+        <v>5847500</v>
       </c>
       <c r="K89" s="3">
         <v>5201800</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2906200</v>
+        <v>-2765000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2164400</v>
+        <v>-2059200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3120000</v>
+        <v>-2968400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2840700</v>
+        <v>-2702700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2060700</v>
+        <v>-1960600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2345500</v>
+        <v>-2231500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1897100</v>
+        <v>-1804900</v>
       </c>
       <c r="K91" s="3">
         <v>-1729800</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17431700</v>
+        <v>-16584600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3206200</v>
+        <v>-3050400</v>
       </c>
       <c r="F94" s="3">
-        <v>-6402600</v>
+        <v>-6091400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3751600</v>
+        <v>-3569300</v>
       </c>
       <c r="H94" s="3">
-        <v>-9389500</v>
+        <v>-8933200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2506900</v>
+        <v>-2385100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2690200</v>
+        <v>-2559500</v>
       </c>
       <c r="K94" s="3">
         <v>-2266100</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4539300</v>
+        <v>-4318700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2655300</v>
+        <v>-2526200</v>
       </c>
       <c r="F96" s="3">
-        <v>-3544400</v>
+        <v>-3372100</v>
       </c>
       <c r="G96" s="3">
-        <v>-2961800</v>
+        <v>-2817900</v>
       </c>
       <c r="H96" s="3">
-        <v>-2301800</v>
+        <v>-2190000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2028000</v>
+        <v>-1929500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1822900</v>
+        <v>-1734300</v>
       </c>
       <c r="K96" s="3">
         <v>-1828000</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16533800</v>
+        <v>-15730400</v>
       </c>
       <c r="E100" s="3">
-        <v>8076000</v>
+        <v>7683600</v>
       </c>
       <c r="F100" s="3">
-        <v>-5164400</v>
+        <v>-4913400</v>
       </c>
       <c r="G100" s="3">
-        <v>-4716000</v>
+        <v>-4486800</v>
       </c>
       <c r="H100" s="3">
-        <v>2354200</v>
+        <v>2239800</v>
       </c>
       <c r="I100" s="3">
-        <v>-4347300</v>
+        <v>-4136000</v>
       </c>
       <c r="J100" s="3">
-        <v>-3848700</v>
+        <v>-3661700</v>
       </c>
       <c r="K100" s="3">
         <v>-1987200</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>543300</v>
+        <v>516900</v>
       </c>
       <c r="E101" s="3">
-        <v>-1147600</v>
+        <v>-1091900</v>
       </c>
       <c r="F101" s="3">
-        <v>42500</v>
+        <v>40500</v>
       </c>
       <c r="G101" s="3">
-        <v>73100</v>
+        <v>69500</v>
       </c>
       <c r="H101" s="3">
-        <v>-264000</v>
+        <v>-251200</v>
       </c>
       <c r="I101" s="3">
-        <v>58900</v>
+        <v>56000</v>
       </c>
       <c r="J101" s="3">
-        <v>-36000</v>
+        <v>-34300</v>
       </c>
       <c r="K101" s="3">
         <v>30500</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13078900</v>
+        <v>-12443400</v>
       </c>
       <c r="E102" s="3">
-        <v>15609800</v>
+        <v>14851300</v>
       </c>
       <c r="F102" s="3">
-        <v>1182500</v>
+        <v>1125100</v>
       </c>
       <c r="G102" s="3">
-        <v>867300</v>
+        <v>825100</v>
       </c>
       <c r="H102" s="3">
-        <v>306500</v>
+        <v>291600</v>
       </c>
       <c r="I102" s="3">
-        <v>-57800</v>
+        <v>-55000</v>
       </c>
       <c r="J102" s="3">
-        <v>-428700</v>
+        <v>-407900</v>
       </c>
       <c r="K102" s="3">
         <v>978900</v>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>66648700</v>
+        <v>64048000</v>
       </c>
       <c r="E8" s="3">
-        <v>46343300</v>
+        <v>44534900</v>
       </c>
       <c r="F8" s="3">
-        <v>55704100</v>
+        <v>53530500</v>
       </c>
       <c r="G8" s="3">
-        <v>48600700</v>
+        <v>46704300</v>
       </c>
       <c r="H8" s="3">
-        <v>44251900</v>
+        <v>42525100</v>
       </c>
       <c r="I8" s="3">
-        <v>39025000</v>
+        <v>37502200</v>
       </c>
       <c r="J8" s="3">
-        <v>37015700</v>
+        <v>35571300</v>
       </c>
       <c r="K8" s="3">
         <v>34593400</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21126500</v>
+        <v>20302100</v>
       </c>
       <c r="E9" s="3">
-        <v>16472500</v>
+        <v>15829700</v>
       </c>
       <c r="F9" s="3">
-        <v>18809900</v>
+        <v>18075900</v>
       </c>
       <c r="G9" s="3">
-        <v>16217200</v>
+        <v>15584400</v>
       </c>
       <c r="H9" s="3">
-        <v>15343300</v>
+        <v>14744600</v>
       </c>
       <c r="I9" s="3">
-        <v>13533200</v>
+        <v>13005100</v>
       </c>
       <c r="J9" s="3">
-        <v>13028800</v>
+        <v>12520400</v>
       </c>
       <c r="K9" s="3">
         <v>12195400</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>45522300</v>
+        <v>43746000</v>
       </c>
       <c r="E10" s="3">
-        <v>29870800</v>
+        <v>28705200</v>
       </c>
       <c r="F10" s="3">
-        <v>36894200</v>
+        <v>35454600</v>
       </c>
       <c r="G10" s="3">
-        <v>32383500</v>
+        <v>31119900</v>
       </c>
       <c r="H10" s="3">
-        <v>28908600</v>
+        <v>27780600</v>
       </c>
       <c r="I10" s="3">
-        <v>25491900</v>
+        <v>24497100</v>
       </c>
       <c r="J10" s="3">
-        <v>23986900</v>
+        <v>23050900</v>
       </c>
       <c r="K10" s="3">
         <v>22398000</v>
@@ -936,25 +936,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>111100</v>
+        <v>106700</v>
       </c>
       <c r="E14" s="3">
-        <v>286500</v>
+        <v>275300</v>
       </c>
       <c r="F14" s="3">
-        <v>132900</v>
+        <v>127700</v>
       </c>
       <c r="G14" s="3">
-        <v>130800</v>
+        <v>125700</v>
       </c>
       <c r="H14" s="3">
-        <v>241800</v>
+        <v>232400</v>
       </c>
       <c r="I14" s="3">
-        <v>321700</v>
+        <v>309200</v>
       </c>
       <c r="J14" s="3">
-        <v>244900</v>
+        <v>235400</v>
       </c>
       <c r="K14" s="3">
         <v>327400</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>48843600</v>
+        <v>46937600</v>
       </c>
       <c r="E17" s="3">
-        <v>38069100</v>
+        <v>36583600</v>
       </c>
       <c r="F17" s="3">
-        <v>44003800</v>
+        <v>42286800</v>
       </c>
       <c r="G17" s="3">
-        <v>38349400</v>
+        <v>36852900</v>
       </c>
       <c r="H17" s="3">
-        <v>35831400</v>
+        <v>34433200</v>
       </c>
       <c r="I17" s="3">
-        <v>31859400</v>
+        <v>30616200</v>
       </c>
       <c r="J17" s="3">
-        <v>30389700</v>
+        <v>29203900</v>
       </c>
       <c r="K17" s="3">
         <v>28461200</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17805200</v>
+        <v>17110400</v>
       </c>
       <c r="E18" s="3">
-        <v>8274100</v>
+        <v>7951300</v>
       </c>
       <c r="F18" s="3">
-        <v>11700200</v>
+        <v>11243700</v>
       </c>
       <c r="G18" s="3">
-        <v>10251300</v>
+        <v>9851300</v>
       </c>
       <c r="H18" s="3">
-        <v>8420500</v>
+        <v>8091900</v>
       </c>
       <c r="I18" s="3">
-        <v>7165700</v>
+        <v>6886000</v>
       </c>
       <c r="J18" s="3">
-        <v>6626000</v>
+        <v>6367400</v>
       </c>
       <c r="K18" s="3">
         <v>6132100</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>306200</v>
+        <v>294200</v>
       </c>
       <c r="E20" s="3">
-        <v>-251200</v>
+        <v>-241400</v>
       </c>
       <c r="F20" s="3">
-        <v>-117300</v>
+        <v>-112700</v>
       </c>
       <c r="G20" s="3">
-        <v>-238700</v>
+        <v>-229400</v>
       </c>
       <c r="H20" s="3">
-        <v>114200</v>
+        <v>109700</v>
       </c>
       <c r="I20" s="3">
-        <v>-166100</v>
+        <v>-159600</v>
       </c>
       <c r="J20" s="3">
-        <v>-314500</v>
+        <v>-302200</v>
       </c>
       <c r="K20" s="3">
         <v>3490000</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>24239300</v>
+        <v>23214200</v>
       </c>
       <c r="E21" s="3">
-        <v>14382100</v>
+        <v>13738700</v>
       </c>
       <c r="F21" s="3">
-        <v>16952000</v>
+        <v>16221100</v>
       </c>
       <c r="G21" s="3">
-        <v>12432300</v>
+        <v>11915900</v>
       </c>
       <c r="H21" s="3">
-        <v>11032100</v>
+        <v>10569300</v>
       </c>
       <c r="I21" s="3">
-        <v>9252100</v>
+        <v>8862000</v>
       </c>
       <c r="J21" s="3">
-        <v>8498800</v>
+        <v>8138900</v>
       </c>
       <c r="K21" s="3">
         <v>11766800</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>251200</v>
+        <v>241400</v>
       </c>
       <c r="E22" s="3">
-        <v>379900</v>
+        <v>365000</v>
       </c>
       <c r="F22" s="3">
-        <v>462900</v>
+        <v>444800</v>
       </c>
       <c r="G22" s="3">
-        <v>164000</v>
+        <v>157600</v>
       </c>
       <c r="H22" s="3">
-        <v>175400</v>
+        <v>168600</v>
       </c>
       <c r="I22" s="3">
-        <v>164000</v>
+        <v>157600</v>
       </c>
       <c r="J22" s="3">
-        <v>115200</v>
+        <v>110700</v>
       </c>
       <c r="K22" s="3">
         <v>162600</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>17860200</v>
+        <v>17163300</v>
       </c>
       <c r="E23" s="3">
-        <v>7643100</v>
+        <v>7344900</v>
       </c>
       <c r="F23" s="3">
-        <v>11120100</v>
+        <v>10686100</v>
       </c>
       <c r="G23" s="3">
-        <v>9848600</v>
+        <v>9464300</v>
       </c>
       <c r="H23" s="3">
-        <v>8359200</v>
+        <v>8033100</v>
       </c>
       <c r="I23" s="3">
-        <v>6835600</v>
+        <v>6568900</v>
       </c>
       <c r="J23" s="3">
-        <v>6196300</v>
+        <v>5954500</v>
       </c>
       <c r="K23" s="3">
         <v>9459600</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4680900</v>
+        <v>4498300</v>
       </c>
       <c r="E24" s="3">
-        <v>2500300</v>
+        <v>2402700</v>
       </c>
       <c r="F24" s="3">
-        <v>3043100</v>
+        <v>2924400</v>
       </c>
       <c r="G24" s="3">
-        <v>2593700</v>
+        <v>2492500</v>
       </c>
       <c r="H24" s="3">
-        <v>2297900</v>
+        <v>2208200</v>
       </c>
       <c r="I24" s="3">
-        <v>2213800</v>
+        <v>2127500</v>
       </c>
       <c r="J24" s="3">
-        <v>2043600</v>
+        <v>1963900</v>
       </c>
       <c r="K24" s="3">
         <v>2566400</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13179300</v>
+        <v>12665000</v>
       </c>
       <c r="E26" s="3">
-        <v>5142800</v>
+        <v>4942100</v>
       </c>
       <c r="F26" s="3">
-        <v>8076900</v>
+        <v>7761800</v>
       </c>
       <c r="G26" s="3">
-        <v>7254900</v>
+        <v>6971800</v>
       </c>
       <c r="H26" s="3">
-        <v>6061300</v>
+        <v>5824800</v>
       </c>
       <c r="I26" s="3">
-        <v>4621800</v>
+        <v>4441400</v>
       </c>
       <c r="J26" s="3">
-        <v>4152600</v>
+        <v>3990600</v>
       </c>
       <c r="K26" s="3">
         <v>6893200</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12492200</v>
+        <v>12004700</v>
       </c>
       <c r="E27" s="3">
-        <v>4880200</v>
+        <v>4689800</v>
       </c>
       <c r="F27" s="3">
-        <v>7442800</v>
+        <v>7152400</v>
       </c>
       <c r="G27" s="3">
-        <v>6594800</v>
+        <v>6337500</v>
       </c>
       <c r="H27" s="3">
-        <v>5568300</v>
+        <v>5351100</v>
       </c>
       <c r="I27" s="3">
-        <v>4220100</v>
+        <v>4055400</v>
       </c>
       <c r="J27" s="3">
-        <v>3708400</v>
+        <v>3563700</v>
       </c>
       <c r="K27" s="3">
         <v>6377200</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-306200</v>
+        <v>-294200</v>
       </c>
       <c r="E32" s="3">
-        <v>251200</v>
+        <v>241400</v>
       </c>
       <c r="F32" s="3">
-        <v>117300</v>
+        <v>112700</v>
       </c>
       <c r="G32" s="3">
-        <v>238700</v>
+        <v>229400</v>
       </c>
       <c r="H32" s="3">
-        <v>-114200</v>
+        <v>-109700</v>
       </c>
       <c r="I32" s="3">
-        <v>166100</v>
+        <v>159600</v>
       </c>
       <c r="J32" s="3">
-        <v>314500</v>
+        <v>302200</v>
       </c>
       <c r="K32" s="3">
         <v>-3490000</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12492200</v>
+        <v>12004700</v>
       </c>
       <c r="E33" s="3">
-        <v>4880200</v>
+        <v>4689800</v>
       </c>
       <c r="F33" s="3">
-        <v>7442800</v>
+        <v>7152400</v>
       </c>
       <c r="G33" s="3">
-        <v>6594800</v>
+        <v>6337500</v>
       </c>
       <c r="H33" s="3">
-        <v>5568300</v>
+        <v>5351100</v>
       </c>
       <c r="I33" s="3">
-        <v>4220100</v>
+        <v>4055400</v>
       </c>
       <c r="J33" s="3">
-        <v>3708400</v>
+        <v>3563700</v>
       </c>
       <c r="K33" s="3">
         <v>6377200</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12492200</v>
+        <v>12004700</v>
       </c>
       <c r="E35" s="3">
-        <v>4880200</v>
+        <v>4689800</v>
       </c>
       <c r="F35" s="3">
-        <v>7442800</v>
+        <v>7152400</v>
       </c>
       <c r="G35" s="3">
-        <v>6594800</v>
+        <v>6337500</v>
       </c>
       <c r="H35" s="3">
-        <v>5568300</v>
+        <v>5351100</v>
       </c>
       <c r="I35" s="3">
-        <v>4220100</v>
+        <v>4055400</v>
       </c>
       <c r="J35" s="3">
-        <v>3708400</v>
+        <v>3563700</v>
       </c>
       <c r="K35" s="3">
         <v>6377200</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8325000</v>
+        <v>8000100</v>
       </c>
       <c r="E41" s="3">
-        <v>20719600</v>
+        <v>19911100</v>
       </c>
       <c r="F41" s="3">
-        <v>5888000</v>
+        <v>5658300</v>
       </c>
       <c r="G41" s="3">
-        <v>4784700</v>
+        <v>4598000</v>
       </c>
       <c r="H41" s="3">
-        <v>3879700</v>
+        <v>3728300</v>
       </c>
       <c r="I41" s="3">
-        <v>3678300</v>
+        <v>3534800</v>
       </c>
       <c r="J41" s="3">
-        <v>3730200</v>
+        <v>3584700</v>
       </c>
       <c r="K41" s="3">
         <v>4619100</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2640400</v>
+        <v>2537400</v>
       </c>
       <c r="E42" s="3">
-        <v>780500</v>
+        <v>750000</v>
       </c>
       <c r="F42" s="3">
-        <v>760800</v>
+        <v>731100</v>
       </c>
       <c r="G42" s="3">
-        <v>691200</v>
+        <v>664300</v>
       </c>
       <c r="H42" s="3">
-        <v>534500</v>
+        <v>513700</v>
       </c>
       <c r="I42" s="3">
-        <v>388200</v>
+        <v>373000</v>
       </c>
       <c r="J42" s="3">
-        <v>399600</v>
+        <v>384000</v>
       </c>
       <c r="K42" s="3">
         <v>285700</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6343600</v>
+        <v>6096100</v>
       </c>
       <c r="E43" s="3">
-        <v>4855300</v>
+        <v>4665800</v>
       </c>
       <c r="F43" s="3">
-        <v>5708400</v>
+        <v>5485700</v>
       </c>
       <c r="G43" s="3">
-        <v>5211300</v>
+        <v>5007900</v>
       </c>
       <c r="H43" s="3">
-        <v>5007900</v>
+        <v>4812500</v>
       </c>
       <c r="I43" s="3">
-        <v>4257500</v>
+        <v>4091300</v>
       </c>
       <c r="J43" s="3">
-        <v>4215900</v>
+        <v>4051400</v>
       </c>
       <c r="K43" s="3">
         <v>3965400</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17176200</v>
+        <v>16506000</v>
       </c>
       <c r="E44" s="3">
-        <v>13509300</v>
+        <v>12982200</v>
       </c>
       <c r="F44" s="3">
-        <v>14236900</v>
+        <v>13681300</v>
       </c>
       <c r="G44" s="3">
-        <v>12958200</v>
+        <v>12452500</v>
       </c>
       <c r="H44" s="3">
-        <v>11300700</v>
+        <v>10859700</v>
       </c>
       <c r="I44" s="3">
-        <v>10945700</v>
+        <v>10518600</v>
       </c>
       <c r="J44" s="3">
-        <v>10478600</v>
+        <v>10069800</v>
       </c>
       <c r="K44" s="3">
         <v>10698200</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1115700</v>
+        <v>1072200</v>
       </c>
       <c r="E45" s="3">
-        <v>1623300</v>
+        <v>1559900</v>
       </c>
       <c r="F45" s="3">
-        <v>920600</v>
+        <v>884700</v>
       </c>
       <c r="G45" s="3">
-        <v>798100</v>
+        <v>767000</v>
       </c>
       <c r="H45" s="3">
-        <v>1136500</v>
+        <v>1092200</v>
       </c>
       <c r="I45" s="3">
-        <v>862500</v>
+        <v>828800</v>
       </c>
       <c r="J45" s="3">
-        <v>843800</v>
+        <v>810900</v>
       </c>
       <c r="K45" s="3">
         <v>879600</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>35601000</v>
+        <v>34211800</v>
       </c>
       <c r="E46" s="3">
-        <v>41488000</v>
+        <v>39869100</v>
       </c>
       <c r="F46" s="3">
-        <v>27514700</v>
+        <v>26441100</v>
       </c>
       <c r="G46" s="3">
-        <v>24443600</v>
+        <v>23489800</v>
       </c>
       <c r="H46" s="3">
-        <v>21859200</v>
+        <v>21006200</v>
       </c>
       <c r="I46" s="3">
-        <v>20132100</v>
+        <v>19346600</v>
       </c>
       <c r="J46" s="3">
-        <v>19668200</v>
+        <v>18900700</v>
       </c>
       <c r="K46" s="3">
         <v>20448000</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3468700</v>
+        <v>3333300</v>
       </c>
       <c r="E47" s="3">
-        <v>2509600</v>
+        <v>2411700</v>
       </c>
       <c r="F47" s="3">
-        <v>2811700</v>
+        <v>2702000</v>
       </c>
       <c r="G47" s="3">
-        <v>2511700</v>
+        <v>2413700</v>
       </c>
       <c r="H47" s="3">
-        <v>2088300</v>
+        <v>2006800</v>
       </c>
       <c r="I47" s="3">
-        <v>2176500</v>
+        <v>2091500</v>
       </c>
       <c r="J47" s="3">
-        <v>1829800</v>
+        <v>1758400</v>
       </c>
       <c r="K47" s="3">
         <v>1683500</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34864100</v>
+        <v>33503700</v>
       </c>
       <c r="E48" s="3">
-        <v>31584300</v>
+        <v>30351900</v>
       </c>
       <c r="F48" s="3">
-        <v>31739000</v>
+        <v>30500500</v>
       </c>
       <c r="G48" s="3">
-        <v>15684700</v>
+        <v>15072700</v>
       </c>
       <c r="H48" s="3">
-        <v>16517100</v>
+        <v>15872600</v>
       </c>
       <c r="I48" s="3">
-        <v>12599100</v>
+        <v>12107400</v>
       </c>
       <c r="J48" s="3">
-        <v>11579900</v>
+        <v>11128000</v>
       </c>
       <c r="K48" s="3">
         <v>11728000</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>52685900</v>
+        <v>50630000</v>
       </c>
       <c r="E49" s="3">
-        <v>34631600</v>
+        <v>33280200</v>
       </c>
       <c r="F49" s="3">
-        <v>34881700</v>
+        <v>33520600</v>
       </c>
       <c r="G49" s="3">
-        <v>32155200</v>
+        <v>30900400</v>
       </c>
       <c r="H49" s="3">
-        <v>31961100</v>
+        <v>30713900</v>
       </c>
       <c r="I49" s="3">
-        <v>35430800</v>
+        <v>34048200</v>
       </c>
       <c r="J49" s="3">
-        <v>24592000</v>
+        <v>23632400</v>
       </c>
       <c r="K49" s="3">
         <v>24660700</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3440600</v>
+        <v>3306400</v>
       </c>
       <c r="E52" s="3">
-        <v>2576100</v>
+        <v>2475500</v>
       </c>
       <c r="F52" s="3">
-        <v>3217500</v>
+        <v>3091900</v>
       </c>
       <c r="G52" s="3">
-        <v>2320700</v>
+        <v>2230200</v>
       </c>
       <c r="H52" s="3">
-        <v>2102800</v>
+        <v>2020700</v>
       </c>
       <c r="I52" s="3">
-        <v>2332200</v>
+        <v>2241200</v>
       </c>
       <c r="J52" s="3">
-        <v>2114200</v>
+        <v>2031700</v>
       </c>
       <c r="K52" s="3">
         <v>1730900</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>130060000</v>
+        <v>124985000</v>
       </c>
       <c r="E54" s="3">
-        <v>112790000</v>
+        <v>108389000</v>
       </c>
       <c r="F54" s="3">
-        <v>100165000</v>
+        <v>96256100</v>
       </c>
       <c r="G54" s="3">
-        <v>77116000</v>
+        <v>74106800</v>
       </c>
       <c r="H54" s="3">
-        <v>72398700</v>
+        <v>69573600</v>
       </c>
       <c r="I54" s="3">
-        <v>61875400</v>
+        <v>59461000</v>
       </c>
       <c r="J54" s="3">
-        <v>59784100</v>
+        <v>57451200</v>
       </c>
       <c r="K54" s="3">
         <v>60251000</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7354600</v>
+        <v>7067600</v>
       </c>
       <c r="E57" s="3">
-        <v>5291200</v>
+        <v>5084700</v>
       </c>
       <c r="F57" s="3">
-        <v>6034400</v>
+        <v>5798900</v>
       </c>
       <c r="G57" s="3">
-        <v>5515400</v>
+        <v>5300200</v>
       </c>
       <c r="H57" s="3">
-        <v>4711000</v>
+        <v>4527200</v>
       </c>
       <c r="I57" s="3">
-        <v>4342600</v>
+        <v>4173100</v>
       </c>
       <c r="J57" s="3">
-        <v>4110100</v>
+        <v>3949700</v>
       </c>
       <c r="K57" s="3">
         <v>4071500</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10795200</v>
+        <v>10374000</v>
       </c>
       <c r="E58" s="3">
-        <v>13235300</v>
+        <v>12718800</v>
       </c>
       <c r="F58" s="3">
-        <v>10130900</v>
+        <v>9735600</v>
       </c>
       <c r="G58" s="3">
-        <v>5197800</v>
+        <v>4995000</v>
       </c>
       <c r="H58" s="3">
-        <v>5076400</v>
+        <v>4878300</v>
       </c>
       <c r="I58" s="3">
-        <v>3548600</v>
+        <v>3410100</v>
       </c>
       <c r="J58" s="3">
-        <v>3883800</v>
+        <v>3732300</v>
       </c>
       <c r="K58" s="3">
         <v>4671100</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10900000</v>
+        <v>10474700</v>
       </c>
       <c r="E59" s="3">
-        <v>7751000</v>
+        <v>7448600</v>
       </c>
       <c r="F59" s="3">
-        <v>7315100</v>
+        <v>7029700</v>
       </c>
       <c r="G59" s="3">
-        <v>6757800</v>
+        <v>6494100</v>
       </c>
       <c r="H59" s="3">
-        <v>6178600</v>
+        <v>5937500</v>
       </c>
       <c r="I59" s="3">
-        <v>5404300</v>
+        <v>5193500</v>
       </c>
       <c r="J59" s="3">
-        <v>5186400</v>
+        <v>4984000</v>
       </c>
       <c r="K59" s="3">
         <v>5004200</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29049800</v>
+        <v>27916200</v>
       </c>
       <c r="E60" s="3">
-        <v>26277600</v>
+        <v>25252200</v>
       </c>
       <c r="F60" s="3">
-        <v>23480400</v>
+        <v>22564200</v>
       </c>
       <c r="G60" s="3">
-        <v>17471000</v>
+        <v>16789200</v>
       </c>
       <c r="H60" s="3">
-        <v>15557100</v>
+        <v>14950000</v>
       </c>
       <c r="I60" s="3">
-        <v>13295500</v>
+        <v>12776700</v>
       </c>
       <c r="J60" s="3">
-        <v>13180300</v>
+        <v>12666000</v>
       </c>
       <c r="K60" s="3">
         <v>13746800</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24963600</v>
+        <v>23989500</v>
       </c>
       <c r="E61" s="3">
-        <v>25667300</v>
+        <v>24665700</v>
       </c>
       <c r="F61" s="3">
-        <v>16060500</v>
+        <v>15433800</v>
       </c>
       <c r="G61" s="3">
-        <v>6232600</v>
+        <v>5989400</v>
       </c>
       <c r="H61" s="3">
-        <v>7313000</v>
+        <v>7027700</v>
       </c>
       <c r="I61" s="3">
-        <v>4081000</v>
+        <v>3921800</v>
       </c>
       <c r="J61" s="3">
-        <v>4682000</v>
+        <v>4499300</v>
       </c>
       <c r="K61" s="3">
         <v>5706500</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25284300</v>
+        <v>24297700</v>
       </c>
       <c r="E62" s="3">
-        <v>20544200</v>
+        <v>19742500</v>
       </c>
       <c r="F62" s="3">
-        <v>20804700</v>
+        <v>19992900</v>
       </c>
       <c r="G62" s="3">
-        <v>18168400</v>
+        <v>17459500</v>
       </c>
       <c r="H62" s="3">
-        <v>18000300</v>
+        <v>17297900</v>
       </c>
       <c r="I62" s="3">
-        <v>15543600</v>
+        <v>14937100</v>
       </c>
       <c r="J62" s="3">
-        <v>15145000</v>
+        <v>14554100</v>
       </c>
       <c r="K62" s="3">
         <v>14825100</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>81155500</v>
+        <v>77988700</v>
       </c>
       <c r="E66" s="3">
-        <v>73959700</v>
+        <v>71073700</v>
       </c>
       <c r="F66" s="3">
-        <v>62192000</v>
+        <v>59765200</v>
       </c>
       <c r="G66" s="3">
-        <v>43599100</v>
+        <v>41897800</v>
       </c>
       <c r="H66" s="3">
-        <v>42331800</v>
+        <v>40680000</v>
       </c>
       <c r="I66" s="3">
-        <v>34487300</v>
+        <v>33141600</v>
       </c>
       <c r="J66" s="3">
-        <v>34522600</v>
+        <v>33175500</v>
       </c>
       <c r="K66" s="3">
         <v>35678400</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>45043800</v>
+        <v>43286200</v>
       </c>
       <c r="E72" s="3">
-        <v>36703300</v>
+        <v>35271100</v>
       </c>
       <c r="F72" s="3">
-        <v>34087700</v>
+        <v>32757600</v>
       </c>
       <c r="G72" s="3">
-        <v>29908100</v>
+        <v>28741100</v>
       </c>
       <c r="H72" s="3">
-        <v>26225700</v>
+        <v>25202300</v>
       </c>
       <c r="I72" s="3">
-        <v>23032000</v>
+        <v>22133300</v>
       </c>
       <c r="J72" s="3">
-        <v>20511000</v>
+        <v>19710600</v>
       </c>
       <c r="K72" s="3">
         <v>20119400</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48904800</v>
+        <v>46996500</v>
       </c>
       <c r="E76" s="3">
-        <v>38829900</v>
+        <v>37314700</v>
       </c>
       <c r="F76" s="3">
-        <v>37972600</v>
+        <v>36490900</v>
       </c>
       <c r="G76" s="3">
-        <v>33516900</v>
+        <v>32209000</v>
       </c>
       <c r="H76" s="3">
-        <v>30066900</v>
+        <v>28893700</v>
       </c>
       <c r="I76" s="3">
-        <v>27388100</v>
+        <v>26319400</v>
       </c>
       <c r="J76" s="3">
-        <v>25261400</v>
+        <v>24275700</v>
       </c>
       <c r="K76" s="3">
         <v>24572600</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12492200</v>
+        <v>12004700</v>
       </c>
       <c r="E81" s="3">
-        <v>4880200</v>
+        <v>4689800</v>
       </c>
       <c r="F81" s="3">
-        <v>7442800</v>
+        <v>7152400</v>
       </c>
       <c r="G81" s="3">
-        <v>6594800</v>
+        <v>6337500</v>
       </c>
       <c r="H81" s="3">
-        <v>5568300</v>
+        <v>5351100</v>
       </c>
       <c r="I81" s="3">
-        <v>4220100</v>
+        <v>4055400</v>
       </c>
       <c r="J81" s="3">
-        <v>3708400</v>
+        <v>3563700</v>
       </c>
       <c r="K81" s="3">
         <v>6377200</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6051000</v>
+        <v>5814800</v>
       </c>
       <c r="E83" s="3">
-        <v>6279300</v>
+        <v>6034300</v>
       </c>
       <c r="F83" s="3">
-        <v>5301600</v>
+        <v>5094700</v>
       </c>
       <c r="G83" s="3">
-        <v>2389200</v>
+        <v>2296000</v>
       </c>
       <c r="H83" s="3">
-        <v>2466100</v>
+        <v>2369800</v>
       </c>
       <c r="I83" s="3">
-        <v>2224200</v>
+        <v>2137400</v>
       </c>
       <c r="J83" s="3">
-        <v>2159900</v>
+        <v>2075600</v>
       </c>
       <c r="K83" s="3">
         <v>2139600</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19354800</v>
+        <v>18599500</v>
       </c>
       <c r="E89" s="3">
-        <v>11310000</v>
+        <v>10868700</v>
       </c>
       <c r="F89" s="3">
-        <v>12089500</v>
+        <v>11617700</v>
       </c>
       <c r="G89" s="3">
-        <v>8811800</v>
+        <v>8467900</v>
       </c>
       <c r="H89" s="3">
-        <v>7236200</v>
+        <v>6953900</v>
       </c>
       <c r="I89" s="3">
-        <v>6410100</v>
+        <v>6159900</v>
       </c>
       <c r="J89" s="3">
-        <v>5847500</v>
+        <v>5619400</v>
       </c>
       <c r="K89" s="3">
         <v>5201800</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2765000</v>
+        <v>-2657100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2059200</v>
+        <v>-1978800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2968400</v>
+        <v>-2852600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2702700</v>
+        <v>-2597200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1960600</v>
+        <v>-1884100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2231500</v>
+        <v>-2144400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1804900</v>
+        <v>-1734500</v>
       </c>
       <c r="K91" s="3">
         <v>-1729800</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16584600</v>
+        <v>-15937500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3050400</v>
+        <v>-2931400</v>
       </c>
       <c r="F94" s="3">
-        <v>-6091400</v>
+        <v>-5853700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3569300</v>
+        <v>-3430100</v>
       </c>
       <c r="H94" s="3">
-        <v>-8933200</v>
+        <v>-8584600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2385100</v>
+        <v>-2292000</v>
       </c>
       <c r="J94" s="3">
-        <v>-2559500</v>
+        <v>-2459600</v>
       </c>
       <c r="K94" s="3">
         <v>-2266100</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4318700</v>
+        <v>-4150200</v>
       </c>
       <c r="E96" s="3">
-        <v>-2526200</v>
+        <v>-2427700</v>
       </c>
       <c r="F96" s="3">
-        <v>-3372100</v>
+        <v>-3240600</v>
       </c>
       <c r="G96" s="3">
-        <v>-2817900</v>
+        <v>-2707900</v>
       </c>
       <c r="H96" s="3">
-        <v>-2190000</v>
+        <v>-2104500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1929500</v>
+        <v>-1854200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1734300</v>
+        <v>-1666700</v>
       </c>
       <c r="K96" s="3">
         <v>-1828000</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15730400</v>
+        <v>-15116600</v>
       </c>
       <c r="E100" s="3">
-        <v>7683600</v>
+        <v>7383800</v>
       </c>
       <c r="F100" s="3">
-        <v>-4913400</v>
+        <v>-4721700</v>
       </c>
       <c r="G100" s="3">
-        <v>-4486800</v>
+        <v>-4311800</v>
       </c>
       <c r="H100" s="3">
-        <v>2239800</v>
+        <v>2152400</v>
       </c>
       <c r="I100" s="3">
-        <v>-4136000</v>
+        <v>-3974600</v>
       </c>
       <c r="J100" s="3">
-        <v>-3661700</v>
+        <v>-3518800</v>
       </c>
       <c r="K100" s="3">
         <v>-1987200</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>516900</v>
+        <v>496700</v>
       </c>
       <c r="E101" s="3">
-        <v>-1091900</v>
+        <v>-1049300</v>
       </c>
       <c r="F101" s="3">
-        <v>40500</v>
+        <v>38900</v>
       </c>
       <c r="G101" s="3">
-        <v>69500</v>
+        <v>66800</v>
       </c>
       <c r="H101" s="3">
-        <v>-251200</v>
+        <v>-241400</v>
       </c>
       <c r="I101" s="3">
-        <v>56000</v>
+        <v>53900</v>
       </c>
       <c r="J101" s="3">
-        <v>-34300</v>
+        <v>-32900</v>
       </c>
       <c r="K101" s="3">
         <v>30500</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12443400</v>
+        <v>-11957800</v>
       </c>
       <c r="E102" s="3">
-        <v>14851300</v>
+        <v>14271800</v>
       </c>
       <c r="F102" s="3">
-        <v>1125100</v>
+        <v>1081200</v>
       </c>
       <c r="G102" s="3">
-        <v>825100</v>
+        <v>792900</v>
       </c>
       <c r="H102" s="3">
-        <v>291600</v>
+        <v>280300</v>
       </c>
       <c r="I102" s="3">
-        <v>-55000</v>
+        <v>-52900</v>
       </c>
       <c r="J102" s="3">
-        <v>-407900</v>
+        <v>-392000</v>
       </c>
       <c r="K102" s="3">
         <v>978900</v>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>64048000</v>
+        <v>65550700</v>
       </c>
       <c r="E8" s="3">
-        <v>44534900</v>
+        <v>45579700</v>
       </c>
       <c r="F8" s="3">
-        <v>53530500</v>
+        <v>54786300</v>
       </c>
       <c r="G8" s="3">
-        <v>46704300</v>
+        <v>47800000</v>
       </c>
       <c r="H8" s="3">
-        <v>42525100</v>
+        <v>43522800</v>
       </c>
       <c r="I8" s="3">
-        <v>37502200</v>
+        <v>38382100</v>
       </c>
       <c r="J8" s="3">
-        <v>35571300</v>
+        <v>36405800</v>
       </c>
       <c r="K8" s="3">
         <v>34593400</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20302100</v>
+        <v>20778400</v>
       </c>
       <c r="E9" s="3">
-        <v>15829700</v>
+        <v>16201100</v>
       </c>
       <c r="F9" s="3">
-        <v>18075900</v>
+        <v>18500000</v>
       </c>
       <c r="G9" s="3">
-        <v>15584400</v>
+        <v>15950000</v>
       </c>
       <c r="H9" s="3">
-        <v>14744600</v>
+        <v>15090500</v>
       </c>
       <c r="I9" s="3">
-        <v>13005100</v>
+        <v>13310200</v>
       </c>
       <c r="J9" s="3">
-        <v>12520400</v>
+        <v>12814100</v>
       </c>
       <c r="K9" s="3">
         <v>12195400</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>43746000</v>
+        <v>44772300</v>
       </c>
       <c r="E10" s="3">
-        <v>28705200</v>
+        <v>29378600</v>
       </c>
       <c r="F10" s="3">
-        <v>35454600</v>
+        <v>36286400</v>
       </c>
       <c r="G10" s="3">
-        <v>31119900</v>
+        <v>31850000</v>
       </c>
       <c r="H10" s="3">
-        <v>27780600</v>
+        <v>28432300</v>
       </c>
       <c r="I10" s="3">
-        <v>24497100</v>
+        <v>25071900</v>
       </c>
       <c r="J10" s="3">
-        <v>23050900</v>
+        <v>23591700</v>
       </c>
       <c r="K10" s="3">
         <v>22398000</v>
@@ -936,25 +936,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>106700</v>
+        <v>109200</v>
       </c>
       <c r="E14" s="3">
-        <v>275300</v>
+        <v>281700</v>
       </c>
       <c r="F14" s="3">
-        <v>127700</v>
+        <v>130700</v>
       </c>
       <c r="G14" s="3">
-        <v>125700</v>
+        <v>128600</v>
       </c>
       <c r="H14" s="3">
-        <v>232400</v>
+        <v>237800</v>
       </c>
       <c r="I14" s="3">
-        <v>309200</v>
+        <v>316400</v>
       </c>
       <c r="J14" s="3">
-        <v>235400</v>
+        <v>240900</v>
       </c>
       <c r="K14" s="3">
         <v>327400</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46937600</v>
+        <v>48038800</v>
       </c>
       <c r="E17" s="3">
-        <v>36583600</v>
+        <v>37441900</v>
       </c>
       <c r="F17" s="3">
-        <v>42286800</v>
+        <v>43278900</v>
       </c>
       <c r="G17" s="3">
-        <v>36852900</v>
+        <v>37717500</v>
       </c>
       <c r="H17" s="3">
-        <v>34433200</v>
+        <v>35241100</v>
       </c>
       <c r="I17" s="3">
-        <v>30616200</v>
+        <v>31334500</v>
       </c>
       <c r="J17" s="3">
-        <v>29203900</v>
+        <v>29889000</v>
       </c>
       <c r="K17" s="3">
         <v>28461200</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17110400</v>
+        <v>17511800</v>
       </c>
       <c r="E18" s="3">
-        <v>7951300</v>
+        <v>8137800</v>
       </c>
       <c r="F18" s="3">
-        <v>11243700</v>
+        <v>11507500</v>
       </c>
       <c r="G18" s="3">
-        <v>9851300</v>
+        <v>10082400</v>
       </c>
       <c r="H18" s="3">
-        <v>8091900</v>
+        <v>8281800</v>
       </c>
       <c r="I18" s="3">
-        <v>6886000</v>
+        <v>7047600</v>
       </c>
       <c r="J18" s="3">
-        <v>6367400</v>
+        <v>6516800</v>
       </c>
       <c r="K18" s="3">
         <v>6132100</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>294200</v>
+        <v>301100</v>
       </c>
       <c r="E20" s="3">
-        <v>-241400</v>
+        <v>-247000</v>
       </c>
       <c r="F20" s="3">
-        <v>-112700</v>
+        <v>-115400</v>
       </c>
       <c r="G20" s="3">
-        <v>-229400</v>
+        <v>-234800</v>
       </c>
       <c r="H20" s="3">
-        <v>109700</v>
+        <v>112300</v>
       </c>
       <c r="I20" s="3">
-        <v>-159600</v>
+        <v>-163300</v>
       </c>
       <c r="J20" s="3">
-        <v>-302200</v>
+        <v>-309300</v>
       </c>
       <c r="K20" s="3">
         <v>3490000</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>23214200</v>
+        <v>23649400</v>
       </c>
       <c r="E21" s="3">
-        <v>13738700</v>
+        <v>13947400</v>
       </c>
       <c r="F21" s="3">
-        <v>16221100</v>
+        <v>16505700</v>
       </c>
       <c r="G21" s="3">
-        <v>11915900</v>
+        <v>12152200</v>
       </c>
       <c r="H21" s="3">
-        <v>10569300</v>
+        <v>10772700</v>
       </c>
       <c r="I21" s="3">
-        <v>8862000</v>
+        <v>9029600</v>
       </c>
       <c r="J21" s="3">
-        <v>8138900</v>
+        <v>8290800</v>
       </c>
       <c r="K21" s="3">
         <v>11766800</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>241400</v>
+        <v>247000</v>
       </c>
       <c r="E22" s="3">
-        <v>365000</v>
+        <v>373600</v>
       </c>
       <c r="F22" s="3">
-        <v>444800</v>
+        <v>455300</v>
       </c>
       <c r="G22" s="3">
-        <v>157600</v>
+        <v>161300</v>
       </c>
       <c r="H22" s="3">
-        <v>168600</v>
+        <v>172500</v>
       </c>
       <c r="I22" s="3">
-        <v>157600</v>
+        <v>161300</v>
       </c>
       <c r="J22" s="3">
-        <v>110700</v>
+        <v>113300</v>
       </c>
       <c r="K22" s="3">
         <v>162600</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>17163300</v>
+        <v>17565900</v>
       </c>
       <c r="E23" s="3">
-        <v>7344900</v>
+        <v>7517200</v>
       </c>
       <c r="F23" s="3">
-        <v>10686100</v>
+        <v>10936900</v>
       </c>
       <c r="G23" s="3">
-        <v>9464300</v>
+        <v>9686400</v>
       </c>
       <c r="H23" s="3">
-        <v>8033100</v>
+        <v>8221500</v>
       </c>
       <c r="I23" s="3">
-        <v>6568900</v>
+        <v>6723000</v>
       </c>
       <c r="J23" s="3">
-        <v>5954500</v>
+        <v>6094200</v>
       </c>
       <c r="K23" s="3">
         <v>9459600</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4498300</v>
+        <v>4603800</v>
       </c>
       <c r="E24" s="3">
-        <v>2402700</v>
+        <v>2459100</v>
       </c>
       <c r="F24" s="3">
-        <v>2924400</v>
+        <v>2993000</v>
       </c>
       <c r="G24" s="3">
-        <v>2492500</v>
+        <v>2551000</v>
       </c>
       <c r="H24" s="3">
-        <v>2208200</v>
+        <v>2260100</v>
       </c>
       <c r="I24" s="3">
-        <v>2127500</v>
+        <v>2177400</v>
       </c>
       <c r="J24" s="3">
-        <v>1963900</v>
+        <v>2010000</v>
       </c>
       <c r="K24" s="3">
         <v>2566400</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12665000</v>
+        <v>12962100</v>
       </c>
       <c r="E26" s="3">
-        <v>4942100</v>
+        <v>5058100</v>
       </c>
       <c r="F26" s="3">
-        <v>7761800</v>
+        <v>7943900</v>
       </c>
       <c r="G26" s="3">
-        <v>6971800</v>
+        <v>7135400</v>
       </c>
       <c r="H26" s="3">
-        <v>5824800</v>
+        <v>5961500</v>
       </c>
       <c r="I26" s="3">
-        <v>4441400</v>
+        <v>4545600</v>
       </c>
       <c r="J26" s="3">
-        <v>3990600</v>
+        <v>4084200</v>
       </c>
       <c r="K26" s="3">
         <v>6893200</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12004700</v>
+        <v>12286300</v>
       </c>
       <c r="E27" s="3">
-        <v>4689800</v>
+        <v>4799800</v>
       </c>
       <c r="F27" s="3">
-        <v>7152400</v>
+        <v>7320200</v>
       </c>
       <c r="G27" s="3">
-        <v>6337500</v>
+        <v>6486200</v>
       </c>
       <c r="H27" s="3">
-        <v>5351100</v>
+        <v>5476600</v>
       </c>
       <c r="I27" s="3">
-        <v>4055400</v>
+        <v>4150600</v>
       </c>
       <c r="J27" s="3">
-        <v>3563700</v>
+        <v>3647300</v>
       </c>
       <c r="K27" s="3">
         <v>6377200</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-294200</v>
+        <v>-301100</v>
       </c>
       <c r="E32" s="3">
-        <v>241400</v>
+        <v>247000</v>
       </c>
       <c r="F32" s="3">
-        <v>112700</v>
+        <v>115400</v>
       </c>
       <c r="G32" s="3">
-        <v>229400</v>
+        <v>234800</v>
       </c>
       <c r="H32" s="3">
-        <v>-109700</v>
+        <v>-112300</v>
       </c>
       <c r="I32" s="3">
-        <v>159600</v>
+        <v>163300</v>
       </c>
       <c r="J32" s="3">
-        <v>302200</v>
+        <v>309300</v>
       </c>
       <c r="K32" s="3">
         <v>-3490000</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12004700</v>
+        <v>12286300</v>
       </c>
       <c r="E33" s="3">
-        <v>4689800</v>
+        <v>4799800</v>
       </c>
       <c r="F33" s="3">
-        <v>7152400</v>
+        <v>7320200</v>
       </c>
       <c r="G33" s="3">
-        <v>6337500</v>
+        <v>6486200</v>
       </c>
       <c r="H33" s="3">
-        <v>5351100</v>
+        <v>5476600</v>
       </c>
       <c r="I33" s="3">
-        <v>4055400</v>
+        <v>4150600</v>
       </c>
       <c r="J33" s="3">
-        <v>3563700</v>
+        <v>3647300</v>
       </c>
       <c r="K33" s="3">
         <v>6377200</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12004700</v>
+        <v>12286300</v>
       </c>
       <c r="E35" s="3">
-        <v>4689800</v>
+        <v>4799800</v>
       </c>
       <c r="F35" s="3">
-        <v>7152400</v>
+        <v>7320200</v>
       </c>
       <c r="G35" s="3">
-        <v>6337500</v>
+        <v>6486200</v>
       </c>
       <c r="H35" s="3">
-        <v>5351100</v>
+        <v>5476600</v>
       </c>
       <c r="I35" s="3">
-        <v>4055400</v>
+        <v>4150600</v>
       </c>
       <c r="J35" s="3">
-        <v>3563700</v>
+        <v>3647300</v>
       </c>
       <c r="K35" s="3">
         <v>6377200</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8000100</v>
+        <v>8187800</v>
       </c>
       <c r="E41" s="3">
-        <v>19911100</v>
+        <v>20378200</v>
       </c>
       <c r="F41" s="3">
-        <v>5658300</v>
+        <v>5791000</v>
       </c>
       <c r="G41" s="3">
-        <v>4598000</v>
+        <v>4705900</v>
       </c>
       <c r="H41" s="3">
-        <v>3728300</v>
+        <v>3815800</v>
       </c>
       <c r="I41" s="3">
-        <v>3534800</v>
+        <v>3617700</v>
       </c>
       <c r="J41" s="3">
-        <v>3584700</v>
+        <v>3668800</v>
       </c>
       <c r="K41" s="3">
         <v>4619100</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2537400</v>
+        <v>2596900</v>
       </c>
       <c r="E42" s="3">
-        <v>750000</v>
+        <v>767600</v>
       </c>
       <c r="F42" s="3">
-        <v>731100</v>
+        <v>748200</v>
       </c>
       <c r="G42" s="3">
-        <v>664300</v>
+        <v>679900</v>
       </c>
       <c r="H42" s="3">
-        <v>513700</v>
+        <v>525700</v>
       </c>
       <c r="I42" s="3">
-        <v>373000</v>
+        <v>381800</v>
       </c>
       <c r="J42" s="3">
-        <v>384000</v>
+        <v>393000</v>
       </c>
       <c r="K42" s="3">
         <v>285700</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6096100</v>
+        <v>6239100</v>
       </c>
       <c r="E43" s="3">
-        <v>4665800</v>
+        <v>4775300</v>
       </c>
       <c r="F43" s="3">
-        <v>5485700</v>
+        <v>5614400</v>
       </c>
       <c r="G43" s="3">
-        <v>5007900</v>
+        <v>5125400</v>
       </c>
       <c r="H43" s="3">
-        <v>4812500</v>
+        <v>4925400</v>
       </c>
       <c r="I43" s="3">
-        <v>4091300</v>
+        <v>4187300</v>
       </c>
       <c r="J43" s="3">
-        <v>4051400</v>
+        <v>4146500</v>
       </c>
       <c r="K43" s="3">
         <v>3965400</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16506000</v>
+        <v>16893200</v>
       </c>
       <c r="E44" s="3">
-        <v>12982200</v>
+        <v>13286700</v>
       </c>
       <c r="F44" s="3">
-        <v>13681300</v>
+        <v>14002300</v>
       </c>
       <c r="G44" s="3">
-        <v>12452500</v>
+        <v>12744700</v>
       </c>
       <c r="H44" s="3">
-        <v>10859700</v>
+        <v>11114500</v>
       </c>
       <c r="I44" s="3">
-        <v>10518600</v>
+        <v>10765400</v>
       </c>
       <c r="J44" s="3">
-        <v>10069800</v>
+        <v>10306000</v>
       </c>
       <c r="K44" s="3">
         <v>10698200</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1072200</v>
+        <v>1097400</v>
       </c>
       <c r="E45" s="3">
-        <v>1559900</v>
+        <v>1596500</v>
       </c>
       <c r="F45" s="3">
-        <v>884700</v>
+        <v>905400</v>
       </c>
       <c r="G45" s="3">
-        <v>767000</v>
+        <v>785000</v>
       </c>
       <c r="H45" s="3">
-        <v>1092200</v>
+        <v>1117800</v>
       </c>
       <c r="I45" s="3">
-        <v>828800</v>
+        <v>848300</v>
       </c>
       <c r="J45" s="3">
-        <v>810900</v>
+        <v>829900</v>
       </c>
       <c r="K45" s="3">
         <v>879600</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>34211800</v>
+        <v>35014500</v>
       </c>
       <c r="E46" s="3">
-        <v>39869100</v>
+        <v>40804400</v>
       </c>
       <c r="F46" s="3">
-        <v>26441100</v>
+        <v>27061400</v>
       </c>
       <c r="G46" s="3">
-        <v>23489800</v>
+        <v>24040900</v>
       </c>
       <c r="H46" s="3">
-        <v>21006200</v>
+        <v>21499100</v>
       </c>
       <c r="I46" s="3">
-        <v>19346600</v>
+        <v>19800500</v>
       </c>
       <c r="J46" s="3">
-        <v>18900700</v>
+        <v>19344200</v>
       </c>
       <c r="K46" s="3">
         <v>20448000</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3333300</v>
+        <v>3411500</v>
       </c>
       <c r="E47" s="3">
-        <v>2411700</v>
+        <v>2468300</v>
       </c>
       <c r="F47" s="3">
-        <v>2702000</v>
+        <v>2765300</v>
       </c>
       <c r="G47" s="3">
-        <v>2413700</v>
+        <v>2470300</v>
       </c>
       <c r="H47" s="3">
-        <v>2006800</v>
+        <v>2053800</v>
       </c>
       <c r="I47" s="3">
-        <v>2091500</v>
+        <v>2140600</v>
       </c>
       <c r="J47" s="3">
-        <v>1758400</v>
+        <v>1799700</v>
       </c>
       <c r="K47" s="3">
         <v>1683500</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33503700</v>
+        <v>34289700</v>
       </c>
       <c r="E48" s="3">
-        <v>30351900</v>
+        <v>31064000</v>
       </c>
       <c r="F48" s="3">
-        <v>30500500</v>
+        <v>31216100</v>
       </c>
       <c r="G48" s="3">
-        <v>15072700</v>
+        <v>15426300</v>
       </c>
       <c r="H48" s="3">
-        <v>15872600</v>
+        <v>16245000</v>
       </c>
       <c r="I48" s="3">
-        <v>12107400</v>
+        <v>12391500</v>
       </c>
       <c r="J48" s="3">
-        <v>11128000</v>
+        <v>11389100</v>
       </c>
       <c r="K48" s="3">
         <v>11728000</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50630000</v>
+        <v>51817800</v>
       </c>
       <c r="E49" s="3">
-        <v>33280200</v>
+        <v>34061000</v>
       </c>
       <c r="F49" s="3">
-        <v>33520600</v>
+        <v>34307000</v>
       </c>
       <c r="G49" s="3">
-        <v>30900400</v>
+        <v>31625400</v>
       </c>
       <c r="H49" s="3">
-        <v>30713900</v>
+        <v>31434500</v>
       </c>
       <c r="I49" s="3">
-        <v>34048200</v>
+        <v>34847000</v>
       </c>
       <c r="J49" s="3">
-        <v>23632400</v>
+        <v>24186800</v>
       </c>
       <c r="K49" s="3">
         <v>24660700</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3306400</v>
+        <v>3384000</v>
       </c>
       <c r="E52" s="3">
-        <v>2475500</v>
+        <v>2533600</v>
       </c>
       <c r="F52" s="3">
-        <v>3091900</v>
+        <v>3164500</v>
       </c>
       <c r="G52" s="3">
-        <v>2230200</v>
+        <v>2282500</v>
       </c>
       <c r="H52" s="3">
-        <v>2020700</v>
+        <v>2068100</v>
       </c>
       <c r="I52" s="3">
-        <v>2241200</v>
+        <v>2293700</v>
       </c>
       <c r="J52" s="3">
-        <v>2031700</v>
+        <v>2079400</v>
       </c>
       <c r="K52" s="3">
         <v>1730900</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>124985000</v>
+        <v>127918000</v>
       </c>
       <c r="E54" s="3">
-        <v>108389000</v>
+        <v>110931000</v>
       </c>
       <c r="F54" s="3">
-        <v>96256100</v>
+        <v>98514300</v>
       </c>
       <c r="G54" s="3">
-        <v>74106800</v>
+        <v>75845400</v>
       </c>
       <c r="H54" s="3">
-        <v>69573600</v>
+        <v>71205900</v>
       </c>
       <c r="I54" s="3">
-        <v>59461000</v>
+        <v>60856000</v>
       </c>
       <c r="J54" s="3">
-        <v>57451200</v>
+        <v>58799100</v>
       </c>
       <c r="K54" s="3">
         <v>60251000</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7067600</v>
+        <v>7233400</v>
       </c>
       <c r="E57" s="3">
-        <v>5084700</v>
+        <v>5204000</v>
       </c>
       <c r="F57" s="3">
-        <v>5798900</v>
+        <v>5934900</v>
       </c>
       <c r="G57" s="3">
-        <v>5300200</v>
+        <v>5424500</v>
       </c>
       <c r="H57" s="3">
-        <v>4527200</v>
+        <v>4633400</v>
       </c>
       <c r="I57" s="3">
-        <v>4173100</v>
+        <v>4271000</v>
       </c>
       <c r="J57" s="3">
-        <v>3949700</v>
+        <v>4042400</v>
       </c>
       <c r="K57" s="3">
         <v>4071500</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10374000</v>
+        <v>10617300</v>
       </c>
       <c r="E58" s="3">
-        <v>12718800</v>
+        <v>13017200</v>
       </c>
       <c r="F58" s="3">
-        <v>9735600</v>
+        <v>9964000</v>
       </c>
       <c r="G58" s="3">
-        <v>4995000</v>
+        <v>5112200</v>
       </c>
       <c r="H58" s="3">
-        <v>4878300</v>
+        <v>4992700</v>
       </c>
       <c r="I58" s="3">
-        <v>3410100</v>
+        <v>3490100</v>
       </c>
       <c r="J58" s="3">
-        <v>3732300</v>
+        <v>3819800</v>
       </c>
       <c r="K58" s="3">
         <v>4671100</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10474700</v>
+        <v>10720400</v>
       </c>
       <c r="E59" s="3">
-        <v>7448600</v>
+        <v>7623300</v>
       </c>
       <c r="F59" s="3">
-        <v>7029700</v>
+        <v>7194600</v>
       </c>
       <c r="G59" s="3">
-        <v>6494100</v>
+        <v>6646400</v>
       </c>
       <c r="H59" s="3">
-        <v>5937500</v>
+        <v>6076800</v>
       </c>
       <c r="I59" s="3">
-        <v>5193500</v>
+        <v>5315300</v>
       </c>
       <c r="J59" s="3">
-        <v>4984000</v>
+        <v>5100900</v>
       </c>
       <c r="K59" s="3">
         <v>5004200</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27916200</v>
+        <v>28571200</v>
       </c>
       <c r="E60" s="3">
-        <v>25252200</v>
+        <v>25844600</v>
       </c>
       <c r="F60" s="3">
-        <v>22564200</v>
+        <v>23093600</v>
       </c>
       <c r="G60" s="3">
-        <v>16789200</v>
+        <v>17183100</v>
       </c>
       <c r="H60" s="3">
-        <v>14950000</v>
+        <v>15300800</v>
       </c>
       <c r="I60" s="3">
-        <v>12776700</v>
+        <v>13076400</v>
       </c>
       <c r="J60" s="3">
-        <v>12666000</v>
+        <v>12963100</v>
       </c>
       <c r="K60" s="3">
         <v>13746800</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23989500</v>
+        <v>24552300</v>
       </c>
       <c r="E61" s="3">
-        <v>24665700</v>
+        <v>25244400</v>
       </c>
       <c r="F61" s="3">
-        <v>15433800</v>
+        <v>15795900</v>
       </c>
       <c r="G61" s="3">
-        <v>5989400</v>
+        <v>6129900</v>
       </c>
       <c r="H61" s="3">
-        <v>7027700</v>
+        <v>7192600</v>
       </c>
       <c r="I61" s="3">
-        <v>3921800</v>
+        <v>4013800</v>
       </c>
       <c r="J61" s="3">
-        <v>4499300</v>
+        <v>4604800</v>
       </c>
       <c r="K61" s="3">
         <v>5706500</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24297700</v>
+        <v>24867700</v>
       </c>
       <c r="E62" s="3">
-        <v>19742500</v>
+        <v>20205700</v>
       </c>
       <c r="F62" s="3">
-        <v>19992900</v>
+        <v>20461900</v>
       </c>
       <c r="G62" s="3">
-        <v>17459500</v>
+        <v>17869100</v>
       </c>
       <c r="H62" s="3">
-        <v>17297900</v>
+        <v>17703700</v>
       </c>
       <c r="I62" s="3">
-        <v>14937100</v>
+        <v>15287500</v>
       </c>
       <c r="J62" s="3">
-        <v>14554100</v>
+        <v>14895500</v>
       </c>
       <c r="K62" s="3">
         <v>14825100</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>77988700</v>
+        <v>79818400</v>
       </c>
       <c r="E66" s="3">
-        <v>71073700</v>
+        <v>72741200</v>
       </c>
       <c r="F66" s="3">
-        <v>59765200</v>
+        <v>61167400</v>
       </c>
       <c r="G66" s="3">
-        <v>41897800</v>
+        <v>42880700</v>
       </c>
       <c r="H66" s="3">
-        <v>40680000</v>
+        <v>41634300</v>
       </c>
       <c r="I66" s="3">
-        <v>33141600</v>
+        <v>33919100</v>
       </c>
       <c r="J66" s="3">
-        <v>33175500</v>
+        <v>33953800</v>
       </c>
       <c r="K66" s="3">
         <v>35678400</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43286200</v>
+        <v>44301700</v>
       </c>
       <c r="E72" s="3">
-        <v>35271100</v>
+        <v>36098600</v>
       </c>
       <c r="F72" s="3">
-        <v>32757600</v>
+        <v>33526100</v>
       </c>
       <c r="G72" s="3">
-        <v>28741100</v>
+        <v>29415400</v>
       </c>
       <c r="H72" s="3">
-        <v>25202300</v>
+        <v>25793600</v>
       </c>
       <c r="I72" s="3">
-        <v>22133300</v>
+        <v>22652600</v>
       </c>
       <c r="J72" s="3">
-        <v>19710600</v>
+        <v>20173000</v>
       </c>
       <c r="K72" s="3">
         <v>20119400</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46996500</v>
+        <v>48099100</v>
       </c>
       <c r="E76" s="3">
-        <v>37314700</v>
+        <v>38190200</v>
       </c>
       <c r="F76" s="3">
-        <v>36490900</v>
+        <v>37347000</v>
       </c>
       <c r="G76" s="3">
-        <v>32209000</v>
+        <v>32964700</v>
       </c>
       <c r="H76" s="3">
-        <v>28893700</v>
+        <v>29571600</v>
       </c>
       <c r="I76" s="3">
-        <v>26319400</v>
+        <v>26936900</v>
       </c>
       <c r="J76" s="3">
-        <v>24275700</v>
+        <v>24845300</v>
       </c>
       <c r="K76" s="3">
         <v>24572600</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12004700</v>
+        <v>12286300</v>
       </c>
       <c r="E81" s="3">
-        <v>4689800</v>
+        <v>4799800</v>
       </c>
       <c r="F81" s="3">
-        <v>7152400</v>
+        <v>7320200</v>
       </c>
       <c r="G81" s="3">
-        <v>6337500</v>
+        <v>6486200</v>
       </c>
       <c r="H81" s="3">
-        <v>5351100</v>
+        <v>5476600</v>
       </c>
       <c r="I81" s="3">
-        <v>4055400</v>
+        <v>4150600</v>
       </c>
       <c r="J81" s="3">
-        <v>3563700</v>
+        <v>3647300</v>
       </c>
       <c r="K81" s="3">
         <v>6377200</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5814800</v>
+        <v>5951300</v>
       </c>
       <c r="E83" s="3">
-        <v>6034300</v>
+        <v>6175800</v>
       </c>
       <c r="F83" s="3">
-        <v>5094700</v>
+        <v>5214200</v>
       </c>
       <c r="G83" s="3">
-        <v>2296000</v>
+        <v>2349900</v>
       </c>
       <c r="H83" s="3">
-        <v>2369800</v>
+        <v>2425400</v>
       </c>
       <c r="I83" s="3">
-        <v>2137400</v>
+        <v>2187600</v>
       </c>
       <c r="J83" s="3">
-        <v>2075600</v>
+        <v>2124300</v>
       </c>
       <c r="K83" s="3">
         <v>2139600</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18599500</v>
+        <v>19035900</v>
       </c>
       <c r="E89" s="3">
-        <v>10868700</v>
+        <v>11123700</v>
       </c>
       <c r="F89" s="3">
-        <v>11617700</v>
+        <v>11890300</v>
       </c>
       <c r="G89" s="3">
-        <v>8467900</v>
+        <v>8666600</v>
       </c>
       <c r="H89" s="3">
-        <v>6953900</v>
+        <v>7117000</v>
       </c>
       <c r="I89" s="3">
-        <v>6159900</v>
+        <v>6304500</v>
       </c>
       <c r="J89" s="3">
-        <v>5619400</v>
+        <v>5751200</v>
       </c>
       <c r="K89" s="3">
         <v>5201800</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2657100</v>
+        <v>-2719400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1978800</v>
+        <v>-2025300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2852600</v>
+        <v>-2919500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2597200</v>
+        <v>-2658200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1884100</v>
+        <v>-1928300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2144400</v>
+        <v>-2194700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1734500</v>
+        <v>-1775200</v>
       </c>
       <c r="K91" s="3">
         <v>-1729800</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15937500</v>
+        <v>-16311400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2931400</v>
+        <v>-3000100</v>
       </c>
       <c r="F94" s="3">
-        <v>-5853700</v>
+        <v>-5991100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3430100</v>
+        <v>-3510500</v>
       </c>
       <c r="H94" s="3">
-        <v>-8584600</v>
+        <v>-8786000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2292000</v>
+        <v>-2345800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2459600</v>
+        <v>-2517300</v>
       </c>
       <c r="K94" s="3">
         <v>-2266100</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4150200</v>
+        <v>-4247500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2427700</v>
+        <v>-2484600</v>
       </c>
       <c r="F96" s="3">
-        <v>-3240600</v>
+        <v>-3316600</v>
       </c>
       <c r="G96" s="3">
-        <v>-2707900</v>
+        <v>-2771500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2104500</v>
+        <v>-2153900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1854200</v>
+        <v>-1897700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1666700</v>
+        <v>-1705800</v>
       </c>
       <c r="K96" s="3">
         <v>-1828000</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15116600</v>
+        <v>-15471200</v>
       </c>
       <c r="E100" s="3">
-        <v>7383800</v>
+        <v>7557000</v>
       </c>
       <c r="F100" s="3">
-        <v>-4721700</v>
+        <v>-4832500</v>
       </c>
       <c r="G100" s="3">
-        <v>-4311800</v>
+        <v>-4412900</v>
       </c>
       <c r="H100" s="3">
-        <v>2152400</v>
+        <v>2202900</v>
       </c>
       <c r="I100" s="3">
-        <v>-3974600</v>
+        <v>-4067900</v>
       </c>
       <c r="J100" s="3">
-        <v>-3518800</v>
+        <v>-3601400</v>
       </c>
       <c r="K100" s="3">
         <v>-1987200</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>496700</v>
+        <v>508400</v>
       </c>
       <c r="E101" s="3">
-        <v>-1049300</v>
+        <v>-1073900</v>
       </c>
       <c r="F101" s="3">
-        <v>38900</v>
+        <v>39800</v>
       </c>
       <c r="G101" s="3">
-        <v>66800</v>
+        <v>68400</v>
       </c>
       <c r="H101" s="3">
-        <v>-241400</v>
+        <v>-247000</v>
       </c>
       <c r="I101" s="3">
-        <v>53900</v>
+        <v>55100</v>
       </c>
       <c r="J101" s="3">
-        <v>-32900</v>
+        <v>-33700</v>
       </c>
       <c r="K101" s="3">
         <v>30500</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11957800</v>
+        <v>-12238400</v>
       </c>
       <c r="E102" s="3">
-        <v>14271800</v>
+        <v>14606600</v>
       </c>
       <c r="F102" s="3">
-        <v>1081200</v>
+        <v>1106500</v>
       </c>
       <c r="G102" s="3">
-        <v>792900</v>
+        <v>811500</v>
       </c>
       <c r="H102" s="3">
-        <v>280300</v>
+        <v>286800</v>
       </c>
       <c r="I102" s="3">
-        <v>-52900</v>
+        <v>-54100</v>
       </c>
       <c r="J102" s="3">
-        <v>-392000</v>
+        <v>-401200</v>
       </c>
       <c r="K102" s="3">
         <v>978900</v>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>65550700</v>
+        <v>83776700</v>
       </c>
       <c r="E8" s="3">
-        <v>45579700</v>
+        <v>67939500</v>
       </c>
       <c r="F8" s="3">
-        <v>54786300</v>
+        <v>47240800</v>
       </c>
       <c r="G8" s="3">
-        <v>47800000</v>
+        <v>56782900</v>
       </c>
       <c r="H8" s="3">
-        <v>43522800</v>
+        <v>49541900</v>
       </c>
       <c r="I8" s="3">
-        <v>38382100</v>
+        <v>45108900</v>
       </c>
       <c r="J8" s="3">
+        <v>39780800</v>
+      </c>
+      <c r="K8" s="3">
         <v>36405800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34593400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34708900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31382100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27771200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20778400</v>
+        <v>26437300</v>
       </c>
       <c r="E9" s="3">
-        <v>16201100</v>
+        <v>21535600</v>
       </c>
       <c r="F9" s="3">
-        <v>18500000</v>
+        <v>16791500</v>
       </c>
       <c r="G9" s="3">
-        <v>15950000</v>
+        <v>19174100</v>
       </c>
       <c r="H9" s="3">
-        <v>15090500</v>
+        <v>16531300</v>
       </c>
       <c r="I9" s="3">
-        <v>13310200</v>
+        <v>15640400</v>
       </c>
       <c r="J9" s="3">
+        <v>13795300</v>
+      </c>
+      <c r="K9" s="3">
         <v>12814100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12195400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11958400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11066200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9498500</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>44772300</v>
+        <v>57339400</v>
       </c>
       <c r="E10" s="3">
-        <v>29378600</v>
+        <v>46403900</v>
       </c>
       <c r="F10" s="3">
-        <v>36286400</v>
+        <v>30449200</v>
       </c>
       <c r="G10" s="3">
-        <v>31850000</v>
+        <v>37608700</v>
       </c>
       <c r="H10" s="3">
-        <v>28432300</v>
+        <v>33010700</v>
       </c>
       <c r="I10" s="3">
-        <v>25071900</v>
+        <v>29468500</v>
       </c>
       <c r="J10" s="3">
+        <v>25985500</v>
+      </c>
+      <c r="K10" s="3">
         <v>23591700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22398000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22750500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20315900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18272700</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,48 +945,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>109200</v>
+        <v>76200</v>
       </c>
       <c r="E14" s="3">
-        <v>281700</v>
+        <v>113200</v>
       </c>
       <c r="F14" s="3">
-        <v>130700</v>
+        <v>292000</v>
       </c>
       <c r="G14" s="3">
-        <v>128600</v>
+        <v>135400</v>
       </c>
       <c r="H14" s="3">
-        <v>237800</v>
+        <v>133300</v>
       </c>
       <c r="I14" s="3">
-        <v>316400</v>
+        <v>246500</v>
       </c>
       <c r="J14" s="3">
+        <v>328000</v>
+      </c>
+      <c r="K14" s="3">
         <v>240900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>327400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>147100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>190700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>152600</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,12 +1026,15 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>48038800</v>
+        <v>61557600</v>
       </c>
       <c r="E17" s="3">
-        <v>37441900</v>
+        <v>49789500</v>
       </c>
       <c r="F17" s="3">
-        <v>43278900</v>
+        <v>38806400</v>
       </c>
       <c r="G17" s="3">
-        <v>37717500</v>
+        <v>44856000</v>
       </c>
       <c r="H17" s="3">
-        <v>35241100</v>
+        <v>39092000</v>
       </c>
       <c r="I17" s="3">
-        <v>31334500</v>
+        <v>36525300</v>
       </c>
       <c r="J17" s="3">
+        <v>32476400</v>
+      </c>
+      <c r="K17" s="3">
         <v>29889000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28461200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27653800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24939600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21721400</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17511800</v>
+        <v>22219100</v>
       </c>
       <c r="E18" s="3">
-        <v>8137800</v>
+        <v>18150000</v>
       </c>
       <c r="F18" s="3">
-        <v>11507500</v>
+        <v>8434400</v>
       </c>
       <c r="G18" s="3">
-        <v>10082400</v>
+        <v>11926800</v>
       </c>
       <c r="H18" s="3">
-        <v>8281800</v>
+        <v>10449900</v>
       </c>
       <c r="I18" s="3">
-        <v>7047600</v>
+        <v>8583600</v>
       </c>
       <c r="J18" s="3">
+        <v>7304400</v>
+      </c>
+      <c r="K18" s="3">
         <v>6516800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6132100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7055200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6442500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6049800</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,203 +1149,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>301100</v>
+        <v>-535300</v>
       </c>
       <c r="E20" s="3">
-        <v>-247000</v>
+        <v>312100</v>
       </c>
       <c r="F20" s="3">
-        <v>-115400</v>
+        <v>-256000</v>
       </c>
       <c r="G20" s="3">
-        <v>-234800</v>
+        <v>-119600</v>
       </c>
       <c r="H20" s="3">
-        <v>112300</v>
+        <v>-243300</v>
       </c>
       <c r="I20" s="3">
-        <v>-163300</v>
+        <v>116400</v>
       </c>
       <c r="J20" s="3">
+        <v>-169300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-309300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3490000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-71800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>168300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-62200</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>23649400</v>
+        <v>28248400</v>
       </c>
       <c r="E21" s="3">
-        <v>13947400</v>
+        <v>24609300</v>
       </c>
       <c r="F21" s="3">
-        <v>16505700</v>
+        <v>14557500</v>
       </c>
       <c r="G21" s="3">
-        <v>12152200</v>
+        <v>17193200</v>
       </c>
       <c r="H21" s="3">
-        <v>10772700</v>
+        <v>12633800</v>
       </c>
       <c r="I21" s="3">
-        <v>9029600</v>
+        <v>11205200</v>
       </c>
       <c r="J21" s="3">
+        <v>9394700</v>
+      </c>
+      <c r="K21" s="3">
         <v>8290800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11766800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8692900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8060500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7161000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>247000</v>
+        <v>404200</v>
       </c>
       <c r="E22" s="3">
-        <v>373600</v>
+        <v>256000</v>
       </c>
       <c r="F22" s="3">
-        <v>455300</v>
+        <v>387200</v>
       </c>
       <c r="G22" s="3">
-        <v>161300</v>
+        <v>471900</v>
       </c>
       <c r="H22" s="3">
-        <v>172500</v>
+        <v>167200</v>
       </c>
       <c r="I22" s="3">
-        <v>161300</v>
+        <v>178800</v>
       </c>
       <c r="J22" s="3">
+        <v>167200</v>
+      </c>
+      <c r="K22" s="3">
         <v>113300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>162600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>165100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>181800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>221900</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>17565900</v>
+        <v>21279600</v>
       </c>
       <c r="E23" s="3">
-        <v>7517200</v>
+        <v>18206100</v>
       </c>
       <c r="F23" s="3">
-        <v>10936900</v>
+        <v>7791100</v>
       </c>
       <c r="G23" s="3">
-        <v>9686400</v>
+        <v>11335400</v>
       </c>
       <c r="H23" s="3">
-        <v>8221500</v>
+        <v>10039400</v>
       </c>
       <c r="I23" s="3">
-        <v>6723000</v>
+        <v>8521100</v>
       </c>
       <c r="J23" s="3">
+        <v>6968000</v>
+      </c>
+      <c r="K23" s="3">
         <v>6094200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9459600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6818300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6429000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5765800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4603800</v>
+        <v>5673000</v>
       </c>
       <c r="E24" s="3">
-        <v>2459100</v>
+        <v>4771600</v>
       </c>
       <c r="F24" s="3">
-        <v>2993000</v>
+        <v>2548700</v>
       </c>
       <c r="G24" s="3">
-        <v>2551000</v>
+        <v>3102100</v>
       </c>
       <c r="H24" s="3">
-        <v>2260100</v>
+        <v>2643900</v>
       </c>
       <c r="I24" s="3">
-        <v>2177400</v>
+        <v>2342400</v>
       </c>
       <c r="J24" s="3">
+        <v>2256700</v>
+      </c>
+      <c r="K24" s="3">
         <v>2010000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2566400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2096900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2043100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1705500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12962100</v>
+        <v>15606600</v>
       </c>
       <c r="E26" s="3">
-        <v>5058100</v>
+        <v>13434500</v>
       </c>
       <c r="F26" s="3">
-        <v>7943900</v>
+        <v>5242400</v>
       </c>
       <c r="G26" s="3">
-        <v>7135400</v>
+        <v>8233400</v>
       </c>
       <c r="H26" s="3">
-        <v>5961500</v>
+        <v>7395400</v>
       </c>
       <c r="I26" s="3">
-        <v>4545600</v>
+        <v>6178700</v>
       </c>
       <c r="J26" s="3">
+        <v>4711300</v>
+      </c>
+      <c r="K26" s="3">
         <v>4084200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6893200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4721400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4385900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4060200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12286300</v>
+        <v>14900900</v>
       </c>
       <c r="E27" s="3">
-        <v>4799800</v>
+        <v>12734100</v>
       </c>
       <c r="F27" s="3">
-        <v>7320200</v>
+        <v>4974700</v>
       </c>
       <c r="G27" s="3">
-        <v>6486200</v>
+        <v>7586900</v>
       </c>
       <c r="H27" s="3">
-        <v>5476600</v>
+        <v>6722500</v>
       </c>
       <c r="I27" s="3">
-        <v>4150600</v>
+        <v>5676200</v>
       </c>
       <c r="J27" s="3">
+        <v>4301800</v>
+      </c>
+      <c r="K27" s="3">
         <v>3647300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6377200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4118500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3847300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3597700</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-301100</v>
+        <v>535300</v>
       </c>
       <c r="E32" s="3">
-        <v>247000</v>
+        <v>-312100</v>
       </c>
       <c r="F32" s="3">
-        <v>115400</v>
+        <v>256000</v>
       </c>
       <c r="G32" s="3">
-        <v>234800</v>
+        <v>119600</v>
       </c>
       <c r="H32" s="3">
-        <v>-112300</v>
+        <v>243300</v>
       </c>
       <c r="I32" s="3">
-        <v>163300</v>
+        <v>-116400</v>
       </c>
       <c r="J32" s="3">
+        <v>169300</v>
+      </c>
+      <c r="K32" s="3">
         <v>309300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3490000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>71800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-168300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>62200</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12286300</v>
+        <v>14900900</v>
       </c>
       <c r="E33" s="3">
-        <v>4799800</v>
+        <v>12734100</v>
       </c>
       <c r="F33" s="3">
-        <v>7320200</v>
+        <v>4974700</v>
       </c>
       <c r="G33" s="3">
-        <v>6486200</v>
+        <v>7586900</v>
       </c>
       <c r="H33" s="3">
-        <v>5476600</v>
+        <v>6722500</v>
       </c>
       <c r="I33" s="3">
-        <v>4150600</v>
+        <v>5676200</v>
       </c>
       <c r="J33" s="3">
+        <v>4301800</v>
+      </c>
+      <c r="K33" s="3">
         <v>3647300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6377200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4118500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3847300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3597700</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12286300</v>
+        <v>14900900</v>
       </c>
       <c r="E35" s="3">
-        <v>4799800</v>
+        <v>12734100</v>
       </c>
       <c r="F35" s="3">
-        <v>7320200</v>
+        <v>4974700</v>
       </c>
       <c r="G35" s="3">
-        <v>6486200</v>
+        <v>7586900</v>
       </c>
       <c r="H35" s="3">
-        <v>5476600</v>
+        <v>6722500</v>
       </c>
       <c r="I35" s="3">
-        <v>4150600</v>
+        <v>5676200</v>
       </c>
       <c r="J35" s="3">
+        <v>4301800</v>
+      </c>
+      <c r="K35" s="3">
         <v>3647300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6377200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4118500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3847300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3597700</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,359 +1904,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8187800</v>
+        <v>7723400</v>
       </c>
       <c r="E41" s="3">
-        <v>20378200</v>
+        <v>8486200</v>
       </c>
       <c r="F41" s="3">
-        <v>5791000</v>
+        <v>21120900</v>
       </c>
       <c r="G41" s="3">
-        <v>4705900</v>
+        <v>6002000</v>
       </c>
       <c r="H41" s="3">
-        <v>3815800</v>
+        <v>4877400</v>
       </c>
       <c r="I41" s="3">
-        <v>3617700</v>
+        <v>3954800</v>
       </c>
       <c r="J41" s="3">
+        <v>3749600</v>
+      </c>
+      <c r="K41" s="3">
         <v>3668800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4619100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3858900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4792000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5153000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2596900</v>
+        <v>3758000</v>
       </c>
       <c r="E42" s="3">
-        <v>767600</v>
+        <v>2691600</v>
       </c>
       <c r="F42" s="3">
-        <v>748200</v>
+        <v>795600</v>
       </c>
       <c r="G42" s="3">
-        <v>679900</v>
+        <v>775500</v>
       </c>
       <c r="H42" s="3">
-        <v>525700</v>
+        <v>704600</v>
       </c>
       <c r="I42" s="3">
-        <v>381800</v>
+        <v>544900</v>
       </c>
       <c r="J42" s="3">
+        <v>395700</v>
+      </c>
+      <c r="K42" s="3">
         <v>393000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>285700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>204600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>522800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>593900</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6239100</v>
+        <v>7522400</v>
       </c>
       <c r="E43" s="3">
-        <v>4775300</v>
+        <v>6466500</v>
       </c>
       <c r="F43" s="3">
-        <v>5614400</v>
+        <v>4949300</v>
       </c>
       <c r="G43" s="3">
-        <v>5125400</v>
+        <v>5819000</v>
       </c>
       <c r="H43" s="3">
-        <v>4925400</v>
+        <v>5312200</v>
       </c>
       <c r="I43" s="3">
-        <v>4187300</v>
+        <v>5104900</v>
       </c>
       <c r="J43" s="3">
+        <v>4339900</v>
+      </c>
+      <c r="K43" s="3">
         <v>4146500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3965400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3746500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6753300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6647300</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16893200</v>
+        <v>21497500</v>
       </c>
       <c r="E44" s="3">
-        <v>13286700</v>
+        <v>17508800</v>
       </c>
       <c r="F44" s="3">
-        <v>14002300</v>
+        <v>13770900</v>
       </c>
       <c r="G44" s="3">
-        <v>12744700</v>
+        <v>14512600</v>
       </c>
       <c r="H44" s="3">
-        <v>11114500</v>
+        <v>13209100</v>
       </c>
       <c r="I44" s="3">
-        <v>10765400</v>
+        <v>11519500</v>
       </c>
       <c r="J44" s="3">
+        <v>11157700</v>
+      </c>
+      <c r="K44" s="3">
         <v>10306000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10698200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10158100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18034900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17630600</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1097400</v>
+        <v>1543600</v>
       </c>
       <c r="E45" s="3">
-        <v>1596500</v>
+        <v>1137400</v>
       </c>
       <c r="F45" s="3">
-        <v>905400</v>
+        <v>1654700</v>
       </c>
       <c r="G45" s="3">
-        <v>785000</v>
+        <v>938400</v>
       </c>
       <c r="H45" s="3">
-        <v>1117800</v>
+        <v>813600</v>
       </c>
       <c r="I45" s="3">
-        <v>848300</v>
+        <v>1158500</v>
       </c>
       <c r="J45" s="3">
+        <v>879200</v>
+      </c>
+      <c r="K45" s="3">
         <v>829900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>879600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1136400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1806400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1121000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>35014500</v>
+        <v>42044900</v>
       </c>
       <c r="E46" s="3">
-        <v>40804400</v>
+        <v>36290500</v>
       </c>
       <c r="F46" s="3">
-        <v>27061400</v>
+        <v>42291400</v>
       </c>
       <c r="G46" s="3">
-        <v>24040900</v>
+        <v>28047600</v>
       </c>
       <c r="H46" s="3">
-        <v>21499100</v>
+        <v>24917000</v>
       </c>
       <c r="I46" s="3">
-        <v>19800500</v>
+        <v>22282500</v>
       </c>
       <c r="J46" s="3">
+        <v>20522000</v>
+      </c>
+      <c r="K46" s="3">
         <v>19344200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20448000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19104500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15895200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15572900</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3411500</v>
+        <v>3357000</v>
       </c>
       <c r="E47" s="3">
-        <v>2468300</v>
+        <v>3535800</v>
       </c>
       <c r="F47" s="3">
-        <v>2765300</v>
+        <v>2558200</v>
       </c>
       <c r="G47" s="3">
-        <v>2470300</v>
+        <v>2866100</v>
       </c>
       <c r="H47" s="3">
-        <v>2053800</v>
+        <v>2560400</v>
       </c>
       <c r="I47" s="3">
-        <v>2140600</v>
+        <v>2128700</v>
       </c>
       <c r="J47" s="3">
+        <v>2218600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1799700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1683500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9490700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14562300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>14442600</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34289700</v>
+        <v>39555400</v>
       </c>
       <c r="E48" s="3">
-        <v>31064000</v>
+        <v>35539300</v>
       </c>
       <c r="F48" s="3">
-        <v>31216100</v>
+        <v>32196000</v>
       </c>
       <c r="G48" s="3">
-        <v>15426300</v>
+        <v>32353600</v>
       </c>
       <c r="H48" s="3">
-        <v>16245000</v>
+        <v>15988500</v>
       </c>
       <c r="I48" s="3">
-        <v>12391500</v>
+        <v>16837000</v>
       </c>
       <c r="J48" s="3">
+        <v>12843100</v>
+      </c>
+      <c r="K48" s="3">
         <v>11389100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11728000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25724300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19593300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18820900</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>51817800</v>
+        <v>53425800</v>
       </c>
       <c r="E49" s="3">
-        <v>34061000</v>
+        <v>53706200</v>
       </c>
       <c r="F49" s="3">
-        <v>34307000</v>
+        <v>35302300</v>
       </c>
       <c r="G49" s="3">
-        <v>31625400</v>
+        <v>35557300</v>
       </c>
       <c r="H49" s="3">
-        <v>31434500</v>
+        <v>32777900</v>
       </c>
       <c r="I49" s="3">
-        <v>34847000</v>
+        <v>32580100</v>
       </c>
       <c r="J49" s="3">
+        <v>36116900</v>
+      </c>
+      <c r="K49" s="3">
         <v>24186800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24660700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>51829000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>55939100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>43287800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3384000</v>
+        <v>4072200</v>
       </c>
       <c r="E52" s="3">
-        <v>2533600</v>
+        <v>3507300</v>
       </c>
       <c r="F52" s="3">
-        <v>3164500</v>
+        <v>2626000</v>
       </c>
       <c r="G52" s="3">
-        <v>2282500</v>
+        <v>3279800</v>
       </c>
       <c r="H52" s="3">
-        <v>2068100</v>
+        <v>2365700</v>
       </c>
       <c r="I52" s="3">
-        <v>2293700</v>
+        <v>2143500</v>
       </c>
       <c r="J52" s="3">
+        <v>2377300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2079400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1730900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1708200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3444500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2854700</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>127918000</v>
+        <v>142456000</v>
       </c>
       <c r="E54" s="3">
-        <v>110931000</v>
+        <v>132579000</v>
       </c>
       <c r="F54" s="3">
-        <v>98514300</v>
+        <v>114974000</v>
       </c>
       <c r="G54" s="3">
-        <v>75845400</v>
+        <v>102104000</v>
       </c>
       <c r="H54" s="3">
-        <v>71205900</v>
+        <v>78609400</v>
       </c>
       <c r="I54" s="3">
-        <v>60856000</v>
+        <v>73800800</v>
       </c>
       <c r="J54" s="3">
+        <v>63073700</v>
+      </c>
+      <c r="K54" s="3">
         <v>58799100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60251000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>67197700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55931200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55301700</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,242 +2528,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7233400</v>
+        <v>9297700</v>
       </c>
       <c r="E57" s="3">
-        <v>5204000</v>
+        <v>7497000</v>
       </c>
       <c r="F57" s="3">
-        <v>5934900</v>
+        <v>5393700</v>
       </c>
       <c r="G57" s="3">
-        <v>5424500</v>
+        <v>6151200</v>
       </c>
       <c r="H57" s="3">
-        <v>4633400</v>
+        <v>5622200</v>
       </c>
       <c r="I57" s="3">
-        <v>4271000</v>
+        <v>4802300</v>
       </c>
       <c r="J57" s="3">
+        <v>4426700</v>
+      </c>
+      <c r="K57" s="3">
         <v>4042400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4071500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3943900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7014700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6930200</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10617300</v>
+        <v>12623000</v>
       </c>
       <c r="E58" s="3">
-        <v>13017200</v>
+        <v>11004300</v>
       </c>
       <c r="F58" s="3">
-        <v>9964000</v>
+        <v>13491600</v>
       </c>
       <c r="G58" s="3">
-        <v>5112200</v>
+        <v>10327100</v>
       </c>
       <c r="H58" s="3">
-        <v>4992700</v>
+        <v>5298500</v>
       </c>
       <c r="I58" s="3">
-        <v>3490100</v>
+        <v>5174700</v>
       </c>
       <c r="J58" s="3">
+        <v>3617300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3819800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4671100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6601800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7427600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7251800</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10720400</v>
+        <v>11451800</v>
       </c>
       <c r="E59" s="3">
-        <v>7623300</v>
+        <v>11111100</v>
       </c>
       <c r="F59" s="3">
-        <v>7194600</v>
+        <v>7901100</v>
       </c>
       <c r="G59" s="3">
-        <v>6646400</v>
+        <v>7456800</v>
       </c>
       <c r="H59" s="3">
-        <v>6076800</v>
+        <v>6888600</v>
       </c>
       <c r="I59" s="3">
-        <v>5315300</v>
+        <v>6298300</v>
       </c>
       <c r="J59" s="3">
+        <v>5509000</v>
+      </c>
+      <c r="K59" s="3">
         <v>5100900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5004200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4482200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7611600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8341100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28571200</v>
+        <v>33372500</v>
       </c>
       <c r="E60" s="3">
-        <v>25844600</v>
+        <v>29612400</v>
       </c>
       <c r="F60" s="3">
-        <v>23093600</v>
+        <v>26786400</v>
       </c>
       <c r="G60" s="3">
-        <v>17183100</v>
+        <v>23935100</v>
       </c>
       <c r="H60" s="3">
-        <v>15300800</v>
+        <v>17809300</v>
       </c>
       <c r="I60" s="3">
-        <v>13076400</v>
+        <v>15858400</v>
       </c>
       <c r="J60" s="3">
+        <v>13553000</v>
+      </c>
+      <c r="K60" s="3">
         <v>12963100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13746800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13922600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10552300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11261500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24552300</v>
+        <v>24499000</v>
       </c>
       <c r="E61" s="3">
-        <v>25244400</v>
+        <v>25447000</v>
       </c>
       <c r="F61" s="3">
-        <v>15795900</v>
+        <v>26164300</v>
       </c>
       <c r="G61" s="3">
-        <v>6129900</v>
+        <v>16371500</v>
       </c>
       <c r="H61" s="3">
-        <v>7192600</v>
+        <v>6353300</v>
       </c>
       <c r="I61" s="3">
-        <v>4013800</v>
+        <v>7454700</v>
       </c>
       <c r="J61" s="3">
+        <v>4160100</v>
+      </c>
+      <c r="K61" s="3">
         <v>4604800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5706500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4963000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4291600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4850200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24867700</v>
+        <v>24696900</v>
       </c>
       <c r="E62" s="3">
-        <v>20205700</v>
+        <v>25773900</v>
       </c>
       <c r="F62" s="3">
-        <v>20461900</v>
+        <v>20942100</v>
       </c>
       <c r="G62" s="3">
-        <v>17869100</v>
+        <v>21207600</v>
       </c>
       <c r="H62" s="3">
-        <v>17703700</v>
+        <v>18520300</v>
       </c>
       <c r="I62" s="3">
-        <v>15287500</v>
+        <v>18348900</v>
       </c>
       <c r="J62" s="3">
+        <v>15844600</v>
+      </c>
+      <c r="K62" s="3">
         <v>14895500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14825100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22589000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30870400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23232000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>79818400</v>
+        <v>84148000</v>
       </c>
       <c r="E66" s="3">
-        <v>72741200</v>
+        <v>82727100</v>
       </c>
       <c r="F66" s="3">
-        <v>61167400</v>
+        <v>75392000</v>
       </c>
       <c r="G66" s="3">
-        <v>42880700</v>
+        <v>63396400</v>
       </c>
       <c r="H66" s="3">
-        <v>41634300</v>
+        <v>44443400</v>
       </c>
       <c r="I66" s="3">
-        <v>33919100</v>
+        <v>43151600</v>
       </c>
       <c r="J66" s="3">
+        <v>35155200</v>
+      </c>
+      <c r="K66" s="3">
         <v>33953800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35678400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35045100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28527700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29042400</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44301700</v>
+        <v>54055300</v>
       </c>
       <c r="E72" s="3">
-        <v>36098600</v>
+        <v>45916100</v>
       </c>
       <c r="F72" s="3">
-        <v>33526100</v>
+        <v>37414100</v>
       </c>
       <c r="G72" s="3">
-        <v>29415400</v>
+        <v>34747900</v>
       </c>
       <c r="H72" s="3">
-        <v>25793600</v>
+        <v>30487300</v>
       </c>
       <c r="I72" s="3">
-        <v>22652600</v>
+        <v>26733500</v>
       </c>
       <c r="J72" s="3">
+        <v>23478100</v>
+      </c>
+      <c r="K72" s="3">
         <v>20173000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20119400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23250500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>39922600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>37207400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48099100</v>
+        <v>58307400</v>
       </c>
       <c r="E76" s="3">
-        <v>38190200</v>
+        <v>49851900</v>
       </c>
       <c r="F76" s="3">
-        <v>37347000</v>
+        <v>39581900</v>
       </c>
       <c r="G76" s="3">
-        <v>32964700</v>
+        <v>38708000</v>
       </c>
       <c r="H76" s="3">
-        <v>29571600</v>
+        <v>34166000</v>
       </c>
       <c r="I76" s="3">
-        <v>26936900</v>
+        <v>30649200</v>
       </c>
       <c r="J76" s="3">
+        <v>27918500</v>
+      </c>
+      <c r="K76" s="3">
         <v>24845300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24572600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32152700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27403500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26259300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12286300</v>
+        <v>14900900</v>
       </c>
       <c r="E81" s="3">
-        <v>4799800</v>
+        <v>12734100</v>
       </c>
       <c r="F81" s="3">
-        <v>7320200</v>
+        <v>4974700</v>
       </c>
       <c r="G81" s="3">
-        <v>6486200</v>
+        <v>7586900</v>
       </c>
       <c r="H81" s="3">
-        <v>5476600</v>
+        <v>6722500</v>
       </c>
       <c r="I81" s="3">
-        <v>4150600</v>
+        <v>5676200</v>
       </c>
       <c r="J81" s="3">
+        <v>4301800</v>
+      </c>
+      <c r="K81" s="3">
         <v>3647300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6377200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4118500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3847300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3597700</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5951300</v>
+        <v>6587100</v>
       </c>
       <c r="E83" s="3">
-        <v>6175800</v>
+        <v>6168100</v>
       </c>
       <c r="F83" s="3">
-        <v>5214200</v>
+        <v>6400900</v>
       </c>
       <c r="G83" s="3">
-        <v>2349900</v>
+        <v>5404300</v>
       </c>
       <c r="H83" s="3">
-        <v>2425400</v>
+        <v>2435500</v>
       </c>
       <c r="I83" s="3">
-        <v>2187600</v>
+        <v>2513800</v>
       </c>
       <c r="J83" s="3">
+        <v>2267300</v>
+      </c>
+      <c r="K83" s="3">
         <v>2124300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2139600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1716500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1446200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1172600</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19035900</v>
+        <v>18867300</v>
       </c>
       <c r="E89" s="3">
-        <v>11123700</v>
+        <v>19729600</v>
       </c>
       <c r="F89" s="3">
-        <v>11890300</v>
+        <v>11529000</v>
       </c>
       <c r="G89" s="3">
-        <v>8666600</v>
+        <v>12323600</v>
       </c>
       <c r="H89" s="3">
-        <v>7117000</v>
+        <v>8982400</v>
       </c>
       <c r="I89" s="3">
-        <v>6304500</v>
+        <v>7376400</v>
       </c>
       <c r="J89" s="3">
+        <v>6534200</v>
+      </c>
+      <c r="K89" s="3">
         <v>5751200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5201800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5638900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4617000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4586100</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2719400</v>
+        <v>-4652000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2025300</v>
+        <v>-2818500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2919500</v>
+        <v>-2099100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2658200</v>
+        <v>-3025900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1928300</v>
+        <v>-2755000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2194700</v>
+        <v>-1998600</v>
       </c>
       <c r="J91" s="3">
+        <v>-2274700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1775200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1729800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1891200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1801900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2053000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16311400</v>
+        <v>-6263400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3000100</v>
+        <v>-16905800</v>
       </c>
       <c r="F94" s="3">
-        <v>-5991100</v>
+        <v>-3109500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3510500</v>
+        <v>-6209400</v>
       </c>
       <c r="H94" s="3">
-        <v>-8786000</v>
+        <v>-3638500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2345800</v>
+        <v>-9106200</v>
       </c>
       <c r="J94" s="3">
+        <v>-2431300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2517300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2266100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4685500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1896200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3540200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,47 +3991,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4247500</v>
+        <v>-6721500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2484600</v>
+        <v>-4402300</v>
       </c>
       <c r="F96" s="3">
-        <v>-3316600</v>
+        <v>-2575200</v>
       </c>
       <c r="G96" s="3">
-        <v>-2771500</v>
+        <v>-3437400</v>
       </c>
       <c r="H96" s="3">
-        <v>-2153900</v>
+        <v>-2872500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1897700</v>
+        <v>-2232400</v>
       </c>
       <c r="J96" s="3">
+        <v>-1966800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1705800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1828000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1795500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1623500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1254800</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15471200</v>
+        <v>-13420700</v>
       </c>
       <c r="E100" s="3">
-        <v>7557000</v>
+        <v>-16035000</v>
       </c>
       <c r="F100" s="3">
-        <v>-4832500</v>
+        <v>7832400</v>
       </c>
       <c r="G100" s="3">
-        <v>-4412900</v>
+        <v>-5008600</v>
       </c>
       <c r="H100" s="3">
-        <v>2202900</v>
+        <v>-4573700</v>
       </c>
       <c r="I100" s="3">
-        <v>-4067900</v>
+        <v>2283200</v>
       </c>
       <c r="J100" s="3">
+        <v>-4216100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3601400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1987200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>108900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2765700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1070500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>508400</v>
+        <v>58200</v>
       </c>
       <c r="E101" s="3">
-        <v>-1073900</v>
+        <v>526900</v>
       </c>
       <c r="F101" s="3">
-        <v>39800</v>
+        <v>-1113000</v>
       </c>
       <c r="G101" s="3">
-        <v>68400</v>
+        <v>41300</v>
       </c>
       <c r="H101" s="3">
-        <v>-247000</v>
+        <v>70900</v>
       </c>
       <c r="I101" s="3">
-        <v>55100</v>
+        <v>-256000</v>
       </c>
       <c r="J101" s="3">
+        <v>57100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-33700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>30500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>56200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-48200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>70400</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12238400</v>
+        <v>-758600</v>
       </c>
       <c r="E102" s="3">
-        <v>14606600</v>
+        <v>-12684400</v>
       </c>
       <c r="F102" s="3">
-        <v>1106500</v>
+        <v>15138900</v>
       </c>
       <c r="G102" s="3">
-        <v>811500</v>
+        <v>1146900</v>
       </c>
       <c r="H102" s="3">
-        <v>286800</v>
+        <v>841100</v>
       </c>
       <c r="I102" s="3">
-        <v>-54100</v>
+        <v>297300</v>
       </c>
       <c r="J102" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-401200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>978900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1118400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-93100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>45800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>83776700</v>
+        <v>85273200</v>
       </c>
       <c r="E8" s="3">
-        <v>67939500</v>
+        <v>69153100</v>
       </c>
       <c r="F8" s="3">
-        <v>47240800</v>
+        <v>48084700</v>
       </c>
       <c r="G8" s="3">
-        <v>56782900</v>
+        <v>57797200</v>
       </c>
       <c r="H8" s="3">
-        <v>49541900</v>
+        <v>50426900</v>
       </c>
       <c r="I8" s="3">
-        <v>45108900</v>
+        <v>45914700</v>
       </c>
       <c r="J8" s="3">
-        <v>39780800</v>
+        <v>40491400</v>
       </c>
       <c r="K8" s="3">
         <v>36405800</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26437300</v>
+        <v>26909600</v>
       </c>
       <c r="E9" s="3">
-        <v>21535600</v>
+        <v>21920300</v>
       </c>
       <c r="F9" s="3">
-        <v>16791500</v>
+        <v>17091500</v>
       </c>
       <c r="G9" s="3">
-        <v>19174100</v>
+        <v>19516700</v>
       </c>
       <c r="H9" s="3">
-        <v>16531300</v>
+        <v>16826600</v>
       </c>
       <c r="I9" s="3">
-        <v>15640400</v>
+        <v>15919800</v>
       </c>
       <c r="J9" s="3">
-        <v>13795300</v>
+        <v>14041700</v>
       </c>
       <c r="K9" s="3">
         <v>12814100</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>57339400</v>
+        <v>58363700</v>
       </c>
       <c r="E10" s="3">
-        <v>46403900</v>
+        <v>47232800</v>
       </c>
       <c r="F10" s="3">
-        <v>30449200</v>
+        <v>30993200</v>
       </c>
       <c r="G10" s="3">
-        <v>37608700</v>
+        <v>38280600</v>
       </c>
       <c r="H10" s="3">
-        <v>33010700</v>
+        <v>33600400</v>
       </c>
       <c r="I10" s="3">
-        <v>29468500</v>
+        <v>29994900</v>
       </c>
       <c r="J10" s="3">
-        <v>25985500</v>
+        <v>26449700</v>
       </c>
       <c r="K10" s="3">
         <v>23591700</v>
@@ -955,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>76200</v>
+        <v>303700</v>
       </c>
       <c r="E14" s="3">
-        <v>113200</v>
+        <v>115200</v>
       </c>
       <c r="F14" s="3">
-        <v>292000</v>
+        <v>297200</v>
       </c>
       <c r="G14" s="3">
-        <v>135400</v>
+        <v>137800</v>
       </c>
       <c r="H14" s="3">
-        <v>133300</v>
+        <v>135700</v>
       </c>
       <c r="I14" s="3">
-        <v>246500</v>
+        <v>250900</v>
       </c>
       <c r="J14" s="3">
-        <v>328000</v>
+        <v>333800</v>
       </c>
       <c r="K14" s="3">
         <v>240900</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>61557600</v>
+        <v>62657300</v>
       </c>
       <c r="E17" s="3">
-        <v>49789500</v>
+        <v>50678900</v>
       </c>
       <c r="F17" s="3">
-        <v>38806400</v>
+        <v>39499600</v>
       </c>
       <c r="G17" s="3">
-        <v>44856000</v>
+        <v>45657300</v>
       </c>
       <c r="H17" s="3">
-        <v>39092000</v>
+        <v>39790400</v>
       </c>
       <c r="I17" s="3">
-        <v>36525300</v>
+        <v>37177800</v>
       </c>
       <c r="J17" s="3">
-        <v>32476400</v>
+        <v>33056500</v>
       </c>
       <c r="K17" s="3">
         <v>29889000</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22219100</v>
+        <v>22616000</v>
       </c>
       <c r="E18" s="3">
-        <v>18150000</v>
+        <v>18474200</v>
       </c>
       <c r="F18" s="3">
-        <v>8434400</v>
+        <v>8585000</v>
       </c>
       <c r="G18" s="3">
-        <v>11926800</v>
+        <v>12139900</v>
       </c>
       <c r="H18" s="3">
-        <v>10449900</v>
+        <v>10636500</v>
       </c>
       <c r="I18" s="3">
-        <v>8583600</v>
+        <v>8736900</v>
       </c>
       <c r="J18" s="3">
-        <v>7304400</v>
+        <v>7434900</v>
       </c>
       <c r="K18" s="3">
         <v>6516800</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-535300</v>
+        <v>-544900</v>
       </c>
       <c r="E20" s="3">
-        <v>312100</v>
+        <v>317700</v>
       </c>
       <c r="F20" s="3">
-        <v>-256000</v>
+        <v>-260600</v>
       </c>
       <c r="G20" s="3">
-        <v>-119600</v>
+        <v>-121700</v>
       </c>
       <c r="H20" s="3">
-        <v>-243300</v>
+        <v>-247700</v>
       </c>
       <c r="I20" s="3">
-        <v>116400</v>
+        <v>118500</v>
       </c>
       <c r="J20" s="3">
-        <v>-169300</v>
+        <v>-172300</v>
       </c>
       <c r="K20" s="3">
         <v>-309300</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>28248400</v>
+        <v>28819500</v>
       </c>
       <c r="E21" s="3">
-        <v>24609300</v>
+        <v>25111100</v>
       </c>
       <c r="F21" s="3">
-        <v>14557500</v>
+        <v>14882100</v>
       </c>
       <c r="G21" s="3">
-        <v>17193200</v>
+        <v>17554800</v>
       </c>
       <c r="H21" s="3">
-        <v>12633800</v>
+        <v>12884000</v>
       </c>
       <c r="I21" s="3">
-        <v>11205200</v>
+        <v>11430700</v>
       </c>
       <c r="J21" s="3">
-        <v>9394700</v>
+        <v>9585400</v>
       </c>
       <c r="K21" s="3">
         <v>8290800</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>404200</v>
+        <v>411400</v>
       </c>
       <c r="E22" s="3">
-        <v>256000</v>
+        <v>260600</v>
       </c>
       <c r="F22" s="3">
-        <v>387200</v>
+        <v>394100</v>
       </c>
       <c r="G22" s="3">
-        <v>471900</v>
+        <v>480300</v>
       </c>
       <c r="H22" s="3">
-        <v>167200</v>
+        <v>170200</v>
       </c>
       <c r="I22" s="3">
-        <v>178800</v>
+        <v>182000</v>
       </c>
       <c r="J22" s="3">
-        <v>167200</v>
+        <v>170200</v>
       </c>
       <c r="K22" s="3">
         <v>113300</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>21279600</v>
+        <v>21659700</v>
       </c>
       <c r="E23" s="3">
-        <v>18206100</v>
+        <v>18531300</v>
       </c>
       <c r="F23" s="3">
-        <v>7791100</v>
+        <v>7930300</v>
       </c>
       <c r="G23" s="3">
-        <v>11335400</v>
+        <v>11537900</v>
       </c>
       <c r="H23" s="3">
-        <v>10039400</v>
+        <v>10218700</v>
       </c>
       <c r="I23" s="3">
-        <v>8521100</v>
+        <v>8673400</v>
       </c>
       <c r="J23" s="3">
-        <v>6968000</v>
+        <v>7092500</v>
       </c>
       <c r="K23" s="3">
         <v>6094200</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5673000</v>
+        <v>5774300</v>
       </c>
       <c r="E24" s="3">
-        <v>4771600</v>
+        <v>4856800</v>
       </c>
       <c r="F24" s="3">
-        <v>2548700</v>
+        <v>2594300</v>
       </c>
       <c r="G24" s="3">
-        <v>3102100</v>
+        <v>3157500</v>
       </c>
       <c r="H24" s="3">
-        <v>2643900</v>
+        <v>2691200</v>
       </c>
       <c r="I24" s="3">
-        <v>2342400</v>
+        <v>2384300</v>
       </c>
       <c r="J24" s="3">
-        <v>2256700</v>
+        <v>2297000</v>
       </c>
       <c r="K24" s="3">
         <v>2010000</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15606600</v>
+        <v>15885400</v>
       </c>
       <c r="E26" s="3">
-        <v>13434500</v>
+        <v>13674500</v>
       </c>
       <c r="F26" s="3">
-        <v>5242400</v>
+        <v>5336000</v>
       </c>
       <c r="G26" s="3">
-        <v>8233400</v>
+        <v>8380400</v>
       </c>
       <c r="H26" s="3">
-        <v>7395400</v>
+        <v>7527500</v>
       </c>
       <c r="I26" s="3">
-        <v>6178700</v>
+        <v>6289100</v>
       </c>
       <c r="J26" s="3">
-        <v>4711300</v>
+        <v>4795400</v>
       </c>
       <c r="K26" s="3">
         <v>4084200</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>14900900</v>
+        <v>15167100</v>
       </c>
       <c r="E27" s="3">
-        <v>12734100</v>
+        <v>12961600</v>
       </c>
       <c r="F27" s="3">
-        <v>4974700</v>
+        <v>5063600</v>
       </c>
       <c r="G27" s="3">
-        <v>7586900</v>
+        <v>7722400</v>
       </c>
       <c r="H27" s="3">
-        <v>6722500</v>
+        <v>6842600</v>
       </c>
       <c r="I27" s="3">
-        <v>5676200</v>
+        <v>5777600</v>
       </c>
       <c r="J27" s="3">
-        <v>4301800</v>
+        <v>4378700</v>
       </c>
       <c r="K27" s="3">
         <v>3647300</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>535300</v>
+        <v>544900</v>
       </c>
       <c r="E32" s="3">
-        <v>-312100</v>
+        <v>-317700</v>
       </c>
       <c r="F32" s="3">
-        <v>256000</v>
+        <v>260600</v>
       </c>
       <c r="G32" s="3">
-        <v>119600</v>
+        <v>121700</v>
       </c>
       <c r="H32" s="3">
-        <v>243300</v>
+        <v>247700</v>
       </c>
       <c r="I32" s="3">
-        <v>-116400</v>
+        <v>-118500</v>
       </c>
       <c r="J32" s="3">
-        <v>169300</v>
+        <v>172300</v>
       </c>
       <c r="K32" s="3">
         <v>309300</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>14900900</v>
+        <v>15167100</v>
       </c>
       <c r="E33" s="3">
-        <v>12734100</v>
+        <v>12961600</v>
       </c>
       <c r="F33" s="3">
-        <v>4974700</v>
+        <v>5063600</v>
       </c>
       <c r="G33" s="3">
-        <v>7586900</v>
+        <v>7722400</v>
       </c>
       <c r="H33" s="3">
-        <v>6722500</v>
+        <v>6842600</v>
       </c>
       <c r="I33" s="3">
-        <v>5676200</v>
+        <v>5777600</v>
       </c>
       <c r="J33" s="3">
-        <v>4301800</v>
+        <v>4378700</v>
       </c>
       <c r="K33" s="3">
         <v>3647300</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>14900900</v>
+        <v>15167100</v>
       </c>
       <c r="E35" s="3">
-        <v>12734100</v>
+        <v>12961600</v>
       </c>
       <c r="F35" s="3">
-        <v>4974700</v>
+        <v>5063600</v>
       </c>
       <c r="G35" s="3">
-        <v>7586900</v>
+        <v>7722400</v>
       </c>
       <c r="H35" s="3">
-        <v>6722500</v>
+        <v>6842600</v>
       </c>
       <c r="I35" s="3">
-        <v>5676200</v>
+        <v>5777600</v>
       </c>
       <c r="J35" s="3">
-        <v>4301800</v>
+        <v>4378700</v>
       </c>
       <c r="K35" s="3">
         <v>3647300</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7723400</v>
+        <v>7861400</v>
       </c>
       <c r="E41" s="3">
-        <v>8486200</v>
+        <v>8637800</v>
       </c>
       <c r="F41" s="3">
-        <v>21120900</v>
+        <v>21498200</v>
       </c>
       <c r="G41" s="3">
-        <v>6002000</v>
+        <v>6109300</v>
       </c>
       <c r="H41" s="3">
-        <v>4877400</v>
+        <v>4964500</v>
       </c>
       <c r="I41" s="3">
-        <v>3954800</v>
+        <v>4025500</v>
       </c>
       <c r="J41" s="3">
-        <v>3749600</v>
+        <v>3816500</v>
       </c>
       <c r="K41" s="3">
         <v>3668800</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3758000</v>
+        <v>3825100</v>
       </c>
       <c r="E42" s="3">
-        <v>2691600</v>
+        <v>2739600</v>
       </c>
       <c r="F42" s="3">
-        <v>795600</v>
+        <v>809800</v>
       </c>
       <c r="G42" s="3">
-        <v>775500</v>
+        <v>789400</v>
       </c>
       <c r="H42" s="3">
-        <v>704600</v>
+        <v>717200</v>
       </c>
       <c r="I42" s="3">
-        <v>544900</v>
+        <v>554600</v>
       </c>
       <c r="J42" s="3">
-        <v>395700</v>
+        <v>402800</v>
       </c>
       <c r="K42" s="3">
         <v>393000</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7522400</v>
+        <v>7656800</v>
       </c>
       <c r="E43" s="3">
-        <v>6466500</v>
+        <v>6582000</v>
       </c>
       <c r="F43" s="3">
-        <v>4949300</v>
+        <v>5037700</v>
       </c>
       <c r="G43" s="3">
-        <v>5819000</v>
+        <v>5922900</v>
       </c>
       <c r="H43" s="3">
-        <v>5312200</v>
+        <v>5407100</v>
       </c>
       <c r="I43" s="3">
-        <v>5104900</v>
+        <v>5196000</v>
       </c>
       <c r="J43" s="3">
-        <v>4339900</v>
+        <v>4417400</v>
       </c>
       <c r="K43" s="3">
         <v>4146500</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21497500</v>
+        <v>21881500</v>
       </c>
       <c r="E44" s="3">
-        <v>17508800</v>
+        <v>17821600</v>
       </c>
       <c r="F44" s="3">
-        <v>13770900</v>
+        <v>14016900</v>
       </c>
       <c r="G44" s="3">
-        <v>14512600</v>
+        <v>14771800</v>
       </c>
       <c r="H44" s="3">
-        <v>13209100</v>
+        <v>13445100</v>
       </c>
       <c r="I44" s="3">
-        <v>11519500</v>
+        <v>11725300</v>
       </c>
       <c r="J44" s="3">
-        <v>11157700</v>
+        <v>11357000</v>
       </c>
       <c r="K44" s="3">
         <v>10306000</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1543600</v>
+        <v>1571200</v>
       </c>
       <c r="E45" s="3">
-        <v>1137400</v>
+        <v>1157700</v>
       </c>
       <c r="F45" s="3">
-        <v>1654700</v>
+        <v>1684300</v>
       </c>
       <c r="G45" s="3">
-        <v>938400</v>
+        <v>955200</v>
       </c>
       <c r="H45" s="3">
-        <v>813600</v>
+        <v>828100</v>
       </c>
       <c r="I45" s="3">
-        <v>1158500</v>
+        <v>1179200</v>
       </c>
       <c r="J45" s="3">
-        <v>879200</v>
+        <v>894900</v>
       </c>
       <c r="K45" s="3">
         <v>829900</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>42044900</v>
+        <v>42796000</v>
       </c>
       <c r="E46" s="3">
-        <v>36290500</v>
+        <v>36938700</v>
       </c>
       <c r="F46" s="3">
-        <v>42291400</v>
+        <v>43046900</v>
       </c>
       <c r="G46" s="3">
-        <v>28047600</v>
+        <v>28548600</v>
       </c>
       <c r="H46" s="3">
-        <v>24917000</v>
+        <v>25362100</v>
       </c>
       <c r="I46" s="3">
-        <v>22282500</v>
+        <v>22680600</v>
       </c>
       <c r="J46" s="3">
-        <v>20522000</v>
+        <v>20888600</v>
       </c>
       <c r="K46" s="3">
         <v>19344200</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3357000</v>
+        <v>3417000</v>
       </c>
       <c r="E47" s="3">
-        <v>3535800</v>
+        <v>3599000</v>
       </c>
       <c r="F47" s="3">
-        <v>2558200</v>
+        <v>2603900</v>
       </c>
       <c r="G47" s="3">
-        <v>2866100</v>
+        <v>2917300</v>
       </c>
       <c r="H47" s="3">
-        <v>2560400</v>
+        <v>2606100</v>
       </c>
       <c r="I47" s="3">
-        <v>2128700</v>
+        <v>2166700</v>
       </c>
       <c r="J47" s="3">
-        <v>2218600</v>
+        <v>2258300</v>
       </c>
       <c r="K47" s="3">
         <v>1799700</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39555400</v>
+        <v>40262100</v>
       </c>
       <c r="E48" s="3">
-        <v>35539300</v>
+        <v>36174100</v>
       </c>
       <c r="F48" s="3">
-        <v>32196000</v>
+        <v>32771100</v>
       </c>
       <c r="G48" s="3">
-        <v>32353600</v>
+        <v>32931600</v>
       </c>
       <c r="H48" s="3">
-        <v>15988500</v>
+        <v>16274100</v>
       </c>
       <c r="I48" s="3">
-        <v>16837000</v>
+        <v>17137800</v>
       </c>
       <c r="J48" s="3">
-        <v>12843100</v>
+        <v>13072500</v>
       </c>
       <c r="K48" s="3">
         <v>11389100</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>53425800</v>
+        <v>54380200</v>
       </c>
       <c r="E49" s="3">
-        <v>53706200</v>
+        <v>54665600</v>
       </c>
       <c r="F49" s="3">
-        <v>35302300</v>
+        <v>35932900</v>
       </c>
       <c r="G49" s="3">
-        <v>35557300</v>
+        <v>36192500</v>
       </c>
       <c r="H49" s="3">
-        <v>32777900</v>
+        <v>33363400</v>
       </c>
       <c r="I49" s="3">
-        <v>32580100</v>
+        <v>33162100</v>
       </c>
       <c r="J49" s="3">
-        <v>36116900</v>
+        <v>36762100</v>
       </c>
       <c r="K49" s="3">
         <v>24186800</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4072200</v>
+        <v>4145000</v>
       </c>
       <c r="E52" s="3">
-        <v>3507300</v>
+        <v>3569900</v>
       </c>
       <c r="F52" s="3">
-        <v>2626000</v>
+        <v>2672900</v>
       </c>
       <c r="G52" s="3">
-        <v>3279800</v>
+        <v>3338400</v>
       </c>
       <c r="H52" s="3">
-        <v>2365700</v>
+        <v>2407900</v>
       </c>
       <c r="I52" s="3">
-        <v>2143500</v>
+        <v>2181800</v>
       </c>
       <c r="J52" s="3">
-        <v>2377300</v>
+        <v>2419800</v>
       </c>
       <c r="K52" s="3">
         <v>2079400</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>142456000</v>
+        <v>145000000</v>
       </c>
       <c r="E54" s="3">
-        <v>132579000</v>
+        <v>134947000</v>
       </c>
       <c r="F54" s="3">
-        <v>114974000</v>
+        <v>117028000</v>
       </c>
       <c r="G54" s="3">
-        <v>102104000</v>
+        <v>103928000</v>
       </c>
       <c r="H54" s="3">
-        <v>78609400</v>
+        <v>80013700</v>
       </c>
       <c r="I54" s="3">
-        <v>73800800</v>
+        <v>75119200</v>
       </c>
       <c r="J54" s="3">
-        <v>63073700</v>
+        <v>64200500</v>
       </c>
       <c r="K54" s="3">
         <v>58799100</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9297700</v>
+        <v>9463800</v>
       </c>
       <c r="E57" s="3">
-        <v>7497000</v>
+        <v>7630900</v>
       </c>
       <c r="F57" s="3">
-        <v>5393700</v>
+        <v>5490000</v>
       </c>
       <c r="G57" s="3">
-        <v>6151200</v>
+        <v>6261100</v>
       </c>
       <c r="H57" s="3">
-        <v>5622200</v>
+        <v>5722600</v>
       </c>
       <c r="I57" s="3">
-        <v>4802300</v>
+        <v>4888000</v>
       </c>
       <c r="J57" s="3">
-        <v>4426700</v>
+        <v>4505700</v>
       </c>
       <c r="K57" s="3">
         <v>4042400</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12623000</v>
+        <v>12848500</v>
       </c>
       <c r="E58" s="3">
-        <v>11004300</v>
+        <v>11200800</v>
       </c>
       <c r="F58" s="3">
-        <v>13491600</v>
+        <v>13732600</v>
       </c>
       <c r="G58" s="3">
-        <v>10327100</v>
+        <v>10511600</v>
       </c>
       <c r="H58" s="3">
-        <v>5298500</v>
+        <v>5393100</v>
       </c>
       <c r="I58" s="3">
-        <v>5174700</v>
+        <v>5267100</v>
       </c>
       <c r="J58" s="3">
-        <v>3617300</v>
+        <v>3681900</v>
       </c>
       <c r="K58" s="3">
         <v>3819800</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11451800</v>
+        <v>11656400</v>
       </c>
       <c r="E59" s="3">
-        <v>11111100</v>
+        <v>11309600</v>
       </c>
       <c r="F59" s="3">
-        <v>7901100</v>
+        <v>8042300</v>
       </c>
       <c r="G59" s="3">
-        <v>7456800</v>
+        <v>7590000</v>
       </c>
       <c r="H59" s="3">
-        <v>6888600</v>
+        <v>7011700</v>
       </c>
       <c r="I59" s="3">
-        <v>6298300</v>
+        <v>6410800</v>
       </c>
       <c r="J59" s="3">
-        <v>5509000</v>
+        <v>5607400</v>
       </c>
       <c r="K59" s="3">
         <v>5100900</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33372500</v>
+        <v>33968700</v>
       </c>
       <c r="E60" s="3">
-        <v>29612400</v>
+        <v>30141400</v>
       </c>
       <c r="F60" s="3">
-        <v>26786400</v>
+        <v>27265000</v>
       </c>
       <c r="G60" s="3">
-        <v>23935100</v>
+        <v>24362700</v>
       </c>
       <c r="H60" s="3">
-        <v>17809300</v>
+        <v>18127500</v>
       </c>
       <c r="I60" s="3">
-        <v>15858400</v>
+        <v>16141700</v>
       </c>
       <c r="J60" s="3">
-        <v>13553000</v>
+        <v>13795100</v>
       </c>
       <c r="K60" s="3">
         <v>12963100</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24499000</v>
+        <v>24936700</v>
       </c>
       <c r="E61" s="3">
-        <v>25447000</v>
+        <v>25901600</v>
       </c>
       <c r="F61" s="3">
-        <v>26164300</v>
+        <v>26631700</v>
       </c>
       <c r="G61" s="3">
-        <v>16371500</v>
+        <v>16664000</v>
       </c>
       <c r="H61" s="3">
-        <v>6353300</v>
+        <v>6466800</v>
       </c>
       <c r="I61" s="3">
-        <v>7454700</v>
+        <v>7587800</v>
       </c>
       <c r="J61" s="3">
-        <v>4160100</v>
+        <v>4234400</v>
       </c>
       <c r="K61" s="3">
         <v>4604800</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24696900</v>
+        <v>25138100</v>
       </c>
       <c r="E62" s="3">
-        <v>25773900</v>
+        <v>26234400</v>
       </c>
       <c r="F62" s="3">
-        <v>20942100</v>
+        <v>21316200</v>
       </c>
       <c r="G62" s="3">
-        <v>21207600</v>
+        <v>21586500</v>
       </c>
       <c r="H62" s="3">
-        <v>18520300</v>
+        <v>18851100</v>
       </c>
       <c r="I62" s="3">
-        <v>18348900</v>
+        <v>18676700</v>
       </c>
       <c r="J62" s="3">
-        <v>15844600</v>
+        <v>16127700</v>
       </c>
       <c r="K62" s="3">
         <v>14895500</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>84148000</v>
+        <v>85651200</v>
       </c>
       <c r="E66" s="3">
-        <v>82727100</v>
+        <v>84205000</v>
       </c>
       <c r="F66" s="3">
-        <v>75392000</v>
+        <v>76738800</v>
       </c>
       <c r="G66" s="3">
-        <v>63396400</v>
+        <v>64528900</v>
       </c>
       <c r="H66" s="3">
-        <v>44443400</v>
+        <v>45237300</v>
       </c>
       <c r="I66" s="3">
-        <v>43151600</v>
+        <v>43922400</v>
       </c>
       <c r="J66" s="3">
-        <v>35155200</v>
+        <v>35783200</v>
       </c>
       <c r="K66" s="3">
         <v>33953800</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>54055300</v>
+        <v>55021000</v>
       </c>
       <c r="E72" s="3">
-        <v>45916100</v>
+        <v>46736400</v>
       </c>
       <c r="F72" s="3">
-        <v>37414100</v>
+        <v>38082400</v>
       </c>
       <c r="G72" s="3">
-        <v>34747900</v>
+        <v>35368600</v>
       </c>
       <c r="H72" s="3">
-        <v>30487300</v>
+        <v>31032000</v>
       </c>
       <c r="I72" s="3">
-        <v>26733500</v>
+        <v>27211100</v>
       </c>
       <c r="J72" s="3">
-        <v>23478100</v>
+        <v>23897500</v>
       </c>
       <c r="K72" s="3">
         <v>20173000</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58307400</v>
+        <v>59349000</v>
       </c>
       <c r="E76" s="3">
-        <v>49851900</v>
+        <v>50742500</v>
       </c>
       <c r="F76" s="3">
-        <v>39581900</v>
+        <v>40289000</v>
       </c>
       <c r="G76" s="3">
-        <v>38708000</v>
+        <v>39399500</v>
       </c>
       <c r="H76" s="3">
-        <v>34166000</v>
+        <v>34776300</v>
       </c>
       <c r="I76" s="3">
-        <v>30649200</v>
+        <v>31196700</v>
       </c>
       <c r="J76" s="3">
-        <v>27918500</v>
+        <v>28417200</v>
       </c>
       <c r="K76" s="3">
         <v>24845300</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>14900900</v>
+        <v>15167100</v>
       </c>
       <c r="E81" s="3">
-        <v>12734100</v>
+        <v>12961600</v>
       </c>
       <c r="F81" s="3">
-        <v>4974700</v>
+        <v>5063600</v>
       </c>
       <c r="G81" s="3">
-        <v>7586900</v>
+        <v>7722400</v>
       </c>
       <c r="H81" s="3">
-        <v>6722500</v>
+        <v>6842600</v>
       </c>
       <c r="I81" s="3">
-        <v>5676200</v>
+        <v>5777600</v>
       </c>
       <c r="J81" s="3">
-        <v>4301800</v>
+        <v>4378700</v>
       </c>
       <c r="K81" s="3">
         <v>3647300</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6587100</v>
+        <v>6704800</v>
       </c>
       <c r="E83" s="3">
-        <v>6168100</v>
+        <v>6278300</v>
       </c>
       <c r="F83" s="3">
-        <v>6400900</v>
+        <v>6515200</v>
       </c>
       <c r="G83" s="3">
-        <v>5404300</v>
+        <v>5500800</v>
       </c>
       <c r="H83" s="3">
-        <v>2435500</v>
+        <v>2479000</v>
       </c>
       <c r="I83" s="3">
-        <v>2513800</v>
+        <v>2558700</v>
       </c>
       <c r="J83" s="3">
-        <v>2267300</v>
+        <v>2307800</v>
       </c>
       <c r="K83" s="3">
         <v>2124300</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18867300</v>
+        <v>19204400</v>
       </c>
       <c r="E89" s="3">
-        <v>19729600</v>
+        <v>20082000</v>
       </c>
       <c r="F89" s="3">
-        <v>11529000</v>
+        <v>11735000</v>
       </c>
       <c r="G89" s="3">
-        <v>12323600</v>
+        <v>12543700</v>
       </c>
       <c r="H89" s="3">
-        <v>8982400</v>
+        <v>9142900</v>
       </c>
       <c r="I89" s="3">
-        <v>7376400</v>
+        <v>7508100</v>
       </c>
       <c r="J89" s="3">
-        <v>6534200</v>
+        <v>6650900</v>
       </c>
       <c r="K89" s="3">
         <v>5751200</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4652000</v>
+        <v>-4735100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2818500</v>
+        <v>-2868900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2099100</v>
+        <v>-2136600</v>
       </c>
       <c r="G91" s="3">
-        <v>-3025900</v>
+        <v>-3079900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2755000</v>
+        <v>-2804200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1998600</v>
+        <v>-2034300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2274700</v>
+        <v>-2315300</v>
       </c>
       <c r="K91" s="3">
         <v>-1775200</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6263400</v>
+        <v>-6375200</v>
       </c>
       <c r="E94" s="3">
-        <v>-16905800</v>
+        <v>-17207800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3109500</v>
+        <v>-3165000</v>
       </c>
       <c r="G94" s="3">
-        <v>-6209400</v>
+        <v>-6320300</v>
       </c>
       <c r="H94" s="3">
-        <v>-3638500</v>
+        <v>-3703500</v>
       </c>
       <c r="I94" s="3">
-        <v>-9106200</v>
+        <v>-9268900</v>
       </c>
       <c r="J94" s="3">
-        <v>-2431300</v>
+        <v>-2474700</v>
       </c>
       <c r="K94" s="3">
         <v>-2517300</v>
@@ -3998,25 +3998,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6721500</v>
+        <v>-6841500</v>
       </c>
       <c r="E96" s="3">
-        <v>-4402300</v>
+        <v>-4481000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2575200</v>
+        <v>-2621200</v>
       </c>
       <c r="G96" s="3">
-        <v>-3437400</v>
+        <v>-3498800</v>
       </c>
       <c r="H96" s="3">
-        <v>-2872500</v>
+        <v>-2923800</v>
       </c>
       <c r="I96" s="3">
-        <v>-2232400</v>
+        <v>-2272300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1966800</v>
+        <v>-2002000</v>
       </c>
       <c r="K96" s="3">
         <v>-1705800</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-13420700</v>
+        <v>-13660500</v>
       </c>
       <c r="E100" s="3">
-        <v>-16035000</v>
+        <v>-16321500</v>
       </c>
       <c r="F100" s="3">
-        <v>7832400</v>
+        <v>7972300</v>
       </c>
       <c r="G100" s="3">
-        <v>-5008600</v>
+        <v>-5098000</v>
       </c>
       <c r="H100" s="3">
-        <v>-4573700</v>
+        <v>-4655400</v>
       </c>
       <c r="I100" s="3">
-        <v>2283200</v>
+        <v>2324000</v>
       </c>
       <c r="J100" s="3">
-        <v>-4216100</v>
+        <v>-4291400</v>
       </c>
       <c r="K100" s="3">
         <v>-3601400</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>536300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1132900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>42000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>72200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-260600</v>
+      </c>
+      <c r="J101" s="3">
         <v>58200</v>
-      </c>
-      <c r="E101" s="3">
-        <v>526900</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-1113000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>41300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>70900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-256000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>57100</v>
       </c>
       <c r="K101" s="3">
         <v>-33700</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-758600</v>
+        <v>-772100</v>
       </c>
       <c r="E102" s="3">
-        <v>-12684400</v>
+        <v>-12911000</v>
       </c>
       <c r="F102" s="3">
-        <v>15138900</v>
+        <v>15409400</v>
       </c>
       <c r="G102" s="3">
-        <v>1146900</v>
+        <v>1167400</v>
       </c>
       <c r="H102" s="3">
-        <v>841100</v>
+        <v>856100</v>
       </c>
       <c r="I102" s="3">
-        <v>297300</v>
+        <v>302600</v>
       </c>
       <c r="J102" s="3">
-        <v>-56100</v>
+        <v>-57100</v>
       </c>
       <c r="K102" s="3">
         <v>-401200</v>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>85273200</v>
+        <v>85843400</v>
       </c>
       <c r="E8" s="3">
-        <v>69153100</v>
+        <v>69615500</v>
       </c>
       <c r="F8" s="3">
-        <v>48084700</v>
+        <v>48406100</v>
       </c>
       <c r="G8" s="3">
-        <v>57797200</v>
+        <v>58183600</v>
       </c>
       <c r="H8" s="3">
-        <v>50426900</v>
+        <v>50764100</v>
       </c>
       <c r="I8" s="3">
-        <v>45914700</v>
+        <v>46221700</v>
       </c>
       <c r="J8" s="3">
-        <v>40491400</v>
+        <v>40762200</v>
       </c>
       <c r="K8" s="3">
         <v>36405800</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26909600</v>
+        <v>27089500</v>
       </c>
       <c r="E9" s="3">
-        <v>21920300</v>
+        <v>22066900</v>
       </c>
       <c r="F9" s="3">
-        <v>17091500</v>
+        <v>17205800</v>
       </c>
       <c r="G9" s="3">
-        <v>19516700</v>
+        <v>19647100</v>
       </c>
       <c r="H9" s="3">
-        <v>16826600</v>
+        <v>16939100</v>
       </c>
       <c r="I9" s="3">
-        <v>15919800</v>
+        <v>16026300</v>
       </c>
       <c r="J9" s="3">
-        <v>14041700</v>
+        <v>14135600</v>
       </c>
       <c r="K9" s="3">
         <v>12814100</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>58363700</v>
+        <v>58753900</v>
       </c>
       <c r="E10" s="3">
-        <v>47232800</v>
+        <v>47548600</v>
       </c>
       <c r="F10" s="3">
-        <v>30993200</v>
+        <v>31200400</v>
       </c>
       <c r="G10" s="3">
-        <v>38280600</v>
+        <v>38536500</v>
       </c>
       <c r="H10" s="3">
-        <v>33600400</v>
+        <v>33825000</v>
       </c>
       <c r="I10" s="3">
-        <v>29994900</v>
+        <v>30195400</v>
       </c>
       <c r="J10" s="3">
-        <v>26449700</v>
+        <v>26626600</v>
       </c>
       <c r="K10" s="3">
         <v>23591700</v>
@@ -955,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>303700</v>
+        <v>305700</v>
       </c>
       <c r="E14" s="3">
-        <v>115200</v>
+        <v>116000</v>
       </c>
       <c r="F14" s="3">
-        <v>297200</v>
+        <v>299200</v>
       </c>
       <c r="G14" s="3">
-        <v>137800</v>
+        <v>138800</v>
       </c>
       <c r="H14" s="3">
-        <v>135700</v>
+        <v>136600</v>
       </c>
       <c r="I14" s="3">
-        <v>250900</v>
+        <v>252600</v>
       </c>
       <c r="J14" s="3">
-        <v>333800</v>
+        <v>336100</v>
       </c>
       <c r="K14" s="3">
         <v>240900</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>62657300</v>
+        <v>63076200</v>
       </c>
       <c r="E17" s="3">
-        <v>50678900</v>
+        <v>51017700</v>
       </c>
       <c r="F17" s="3">
-        <v>39499600</v>
+        <v>39763700</v>
       </c>
       <c r="G17" s="3">
-        <v>45657300</v>
+        <v>45962600</v>
       </c>
       <c r="H17" s="3">
-        <v>39790400</v>
+        <v>40056400</v>
       </c>
       <c r="I17" s="3">
-        <v>37177800</v>
+        <v>37426400</v>
       </c>
       <c r="J17" s="3">
-        <v>33056500</v>
+        <v>33277500</v>
       </c>
       <c r="K17" s="3">
         <v>29889000</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22616000</v>
+        <v>22767200</v>
       </c>
       <c r="E18" s="3">
-        <v>18474200</v>
+        <v>18597700</v>
       </c>
       <c r="F18" s="3">
-        <v>8585000</v>
+        <v>8642400</v>
       </c>
       <c r="G18" s="3">
-        <v>12139900</v>
+        <v>12221100</v>
       </c>
       <c r="H18" s="3">
-        <v>10636500</v>
+        <v>10707700</v>
       </c>
       <c r="I18" s="3">
-        <v>8736900</v>
+        <v>8795300</v>
       </c>
       <c r="J18" s="3">
-        <v>7434900</v>
+        <v>7484600</v>
       </c>
       <c r="K18" s="3">
         <v>6516800</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-544900</v>
+        <v>-548600</v>
       </c>
       <c r="E20" s="3">
-        <v>317700</v>
+        <v>319800</v>
       </c>
       <c r="F20" s="3">
-        <v>-260600</v>
+        <v>-262400</v>
       </c>
       <c r="G20" s="3">
-        <v>-121700</v>
+        <v>-122500</v>
       </c>
       <c r="H20" s="3">
-        <v>-247700</v>
+        <v>-249300</v>
       </c>
       <c r="I20" s="3">
-        <v>118500</v>
+        <v>119300</v>
       </c>
       <c r="J20" s="3">
-        <v>-172300</v>
+        <v>-173500</v>
       </c>
       <c r="K20" s="3">
         <v>-309300</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>28819500</v>
+        <v>28968200</v>
       </c>
       <c r="E21" s="3">
-        <v>25111100</v>
+        <v>25237800</v>
       </c>
       <c r="F21" s="3">
-        <v>14882100</v>
+        <v>14938900</v>
       </c>
       <c r="G21" s="3">
-        <v>17554800</v>
+        <v>17636100</v>
       </c>
       <c r="H21" s="3">
-        <v>12884000</v>
+        <v>12953900</v>
       </c>
       <c r="I21" s="3">
-        <v>11430700</v>
+        <v>11490400</v>
       </c>
       <c r="J21" s="3">
-        <v>9585400</v>
+        <v>9634400</v>
       </c>
       <c r="K21" s="3">
         <v>8290800</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>411400</v>
+        <v>414100</v>
       </c>
       <c r="E22" s="3">
-        <v>260600</v>
+        <v>262400</v>
       </c>
       <c r="F22" s="3">
-        <v>394100</v>
+        <v>396800</v>
       </c>
       <c r="G22" s="3">
-        <v>480300</v>
+        <v>483500</v>
       </c>
       <c r="H22" s="3">
-        <v>170200</v>
+        <v>171300</v>
       </c>
       <c r="I22" s="3">
-        <v>182000</v>
+        <v>183200</v>
       </c>
       <c r="J22" s="3">
-        <v>170200</v>
+        <v>171300</v>
       </c>
       <c r="K22" s="3">
         <v>113300</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>21659700</v>
+        <v>21804500</v>
       </c>
       <c r="E23" s="3">
-        <v>18531300</v>
+        <v>18655200</v>
       </c>
       <c r="F23" s="3">
-        <v>7930300</v>
+        <v>7983300</v>
       </c>
       <c r="G23" s="3">
-        <v>11537900</v>
+        <v>11615000</v>
       </c>
       <c r="H23" s="3">
-        <v>10218700</v>
+        <v>10287000</v>
       </c>
       <c r="I23" s="3">
-        <v>8673400</v>
+        <v>8731300</v>
       </c>
       <c r="J23" s="3">
-        <v>7092500</v>
+        <v>7139900</v>
       </c>
       <c r="K23" s="3">
         <v>6094200</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5774300</v>
+        <v>5812900</v>
       </c>
       <c r="E24" s="3">
-        <v>4856800</v>
+        <v>4889300</v>
       </c>
       <c r="F24" s="3">
-        <v>2594300</v>
+        <v>2611600</v>
       </c>
       <c r="G24" s="3">
-        <v>3157500</v>
+        <v>3178600</v>
       </c>
       <c r="H24" s="3">
-        <v>2691200</v>
+        <v>2709200</v>
       </c>
       <c r="I24" s="3">
-        <v>2384300</v>
+        <v>2400200</v>
       </c>
       <c r="J24" s="3">
-        <v>2297000</v>
+        <v>2312400</v>
       </c>
       <c r="K24" s="3">
         <v>2010000</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15885400</v>
+        <v>15991600</v>
       </c>
       <c r="E26" s="3">
-        <v>13674500</v>
+        <v>13765900</v>
       </c>
       <c r="F26" s="3">
-        <v>5336000</v>
+        <v>5371700</v>
       </c>
       <c r="G26" s="3">
-        <v>8380400</v>
+        <v>8436500</v>
       </c>
       <c r="H26" s="3">
-        <v>7527500</v>
+        <v>7577900</v>
       </c>
       <c r="I26" s="3">
-        <v>6289100</v>
+        <v>6331100</v>
       </c>
       <c r="J26" s="3">
-        <v>4795400</v>
+        <v>4827500</v>
       </c>
       <c r="K26" s="3">
         <v>4084200</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15167100</v>
+        <v>15268500</v>
       </c>
       <c r="E27" s="3">
-        <v>12961600</v>
+        <v>13048200</v>
       </c>
       <c r="F27" s="3">
-        <v>5063600</v>
+        <v>5097400</v>
       </c>
       <c r="G27" s="3">
-        <v>7722400</v>
+        <v>7774100</v>
       </c>
       <c r="H27" s="3">
-        <v>6842600</v>
+        <v>6888400</v>
       </c>
       <c r="I27" s="3">
-        <v>5777600</v>
+        <v>5816200</v>
       </c>
       <c r="J27" s="3">
-        <v>4378700</v>
+        <v>4408000</v>
       </c>
       <c r="K27" s="3">
         <v>3647300</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>544900</v>
+        <v>548600</v>
       </c>
       <c r="E32" s="3">
-        <v>-317700</v>
+        <v>-319800</v>
       </c>
       <c r="F32" s="3">
-        <v>260600</v>
+        <v>262400</v>
       </c>
       <c r="G32" s="3">
-        <v>121700</v>
+        <v>122500</v>
       </c>
       <c r="H32" s="3">
-        <v>247700</v>
+        <v>249300</v>
       </c>
       <c r="I32" s="3">
-        <v>-118500</v>
+        <v>-119300</v>
       </c>
       <c r="J32" s="3">
-        <v>172300</v>
+        <v>173500</v>
       </c>
       <c r="K32" s="3">
         <v>309300</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15167100</v>
+        <v>15268500</v>
       </c>
       <c r="E33" s="3">
-        <v>12961600</v>
+        <v>13048200</v>
       </c>
       <c r="F33" s="3">
-        <v>5063600</v>
+        <v>5097400</v>
       </c>
       <c r="G33" s="3">
-        <v>7722400</v>
+        <v>7774100</v>
       </c>
       <c r="H33" s="3">
-        <v>6842600</v>
+        <v>6888400</v>
       </c>
       <c r="I33" s="3">
-        <v>5777600</v>
+        <v>5816200</v>
       </c>
       <c r="J33" s="3">
-        <v>4378700</v>
+        <v>4408000</v>
       </c>
       <c r="K33" s="3">
         <v>3647300</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15167100</v>
+        <v>15268500</v>
       </c>
       <c r="E35" s="3">
-        <v>12961600</v>
+        <v>13048200</v>
       </c>
       <c r="F35" s="3">
-        <v>5063600</v>
+        <v>5097400</v>
       </c>
       <c r="G35" s="3">
-        <v>7722400</v>
+        <v>7774100</v>
       </c>
       <c r="H35" s="3">
-        <v>6842600</v>
+        <v>6888400</v>
       </c>
       <c r="I35" s="3">
-        <v>5777600</v>
+        <v>5816200</v>
       </c>
       <c r="J35" s="3">
-        <v>4378700</v>
+        <v>4408000</v>
       </c>
       <c r="K35" s="3">
         <v>3647300</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7861400</v>
+        <v>7913900</v>
       </c>
       <c r="E41" s="3">
-        <v>8637800</v>
+        <v>8695600</v>
       </c>
       <c r="F41" s="3">
-        <v>21498200</v>
+        <v>21641900</v>
       </c>
       <c r="G41" s="3">
-        <v>6109300</v>
+        <v>6150100</v>
       </c>
       <c r="H41" s="3">
-        <v>4964500</v>
+        <v>4997700</v>
       </c>
       <c r="I41" s="3">
-        <v>4025500</v>
+        <v>4052400</v>
       </c>
       <c r="J41" s="3">
-        <v>3816500</v>
+        <v>3842100</v>
       </c>
       <c r="K41" s="3">
         <v>3668800</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3825100</v>
+        <v>3850700</v>
       </c>
       <c r="E42" s="3">
-        <v>2739600</v>
+        <v>2758000</v>
       </c>
       <c r="F42" s="3">
-        <v>809800</v>
+        <v>815200</v>
       </c>
       <c r="G42" s="3">
-        <v>789400</v>
+        <v>794600</v>
       </c>
       <c r="H42" s="3">
-        <v>717200</v>
+        <v>722000</v>
       </c>
       <c r="I42" s="3">
-        <v>554600</v>
+        <v>558300</v>
       </c>
       <c r="J42" s="3">
-        <v>402800</v>
+        <v>405500</v>
       </c>
       <c r="K42" s="3">
         <v>393000</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7656800</v>
+        <v>7708000</v>
       </c>
       <c r="E43" s="3">
-        <v>6582000</v>
+        <v>6626000</v>
       </c>
       <c r="F43" s="3">
-        <v>5037700</v>
+        <v>5071400</v>
       </c>
       <c r="G43" s="3">
-        <v>5922900</v>
+        <v>5962600</v>
       </c>
       <c r="H43" s="3">
-        <v>5407100</v>
+        <v>5443300</v>
       </c>
       <c r="I43" s="3">
-        <v>5196000</v>
+        <v>5230800</v>
       </c>
       <c r="J43" s="3">
-        <v>4417400</v>
+        <v>4447000</v>
       </c>
       <c r="K43" s="3">
         <v>4146500</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21881500</v>
+        <v>22027800</v>
       </c>
       <c r="E44" s="3">
-        <v>17821600</v>
+        <v>17940800</v>
       </c>
       <c r="F44" s="3">
-        <v>14016900</v>
+        <v>14110600</v>
       </c>
       <c r="G44" s="3">
-        <v>14771800</v>
+        <v>14870600</v>
       </c>
       <c r="H44" s="3">
-        <v>13445100</v>
+        <v>13535000</v>
       </c>
       <c r="I44" s="3">
-        <v>11725300</v>
+        <v>11803700</v>
       </c>
       <c r="J44" s="3">
-        <v>11357000</v>
+        <v>11432900</v>
       </c>
       <c r="K44" s="3">
         <v>10306000</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1571200</v>
+        <v>1581700</v>
       </c>
       <c r="E45" s="3">
-        <v>1157700</v>
+        <v>1165400</v>
       </c>
       <c r="F45" s="3">
-        <v>1684300</v>
+        <v>1695500</v>
       </c>
       <c r="G45" s="3">
-        <v>955200</v>
+        <v>961600</v>
       </c>
       <c r="H45" s="3">
-        <v>828100</v>
+        <v>833700</v>
       </c>
       <c r="I45" s="3">
-        <v>1179200</v>
+        <v>1187100</v>
       </c>
       <c r="J45" s="3">
-        <v>894900</v>
+        <v>900900</v>
       </c>
       <c r="K45" s="3">
         <v>829900</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>42796000</v>
+        <v>43082100</v>
       </c>
       <c r="E46" s="3">
-        <v>36938700</v>
+        <v>37185700</v>
       </c>
       <c r="F46" s="3">
-        <v>43046900</v>
+        <v>43334700</v>
       </c>
       <c r="G46" s="3">
-        <v>28548600</v>
+        <v>28739500</v>
       </c>
       <c r="H46" s="3">
-        <v>25362100</v>
+        <v>25531600</v>
       </c>
       <c r="I46" s="3">
-        <v>22680600</v>
+        <v>22832200</v>
       </c>
       <c r="J46" s="3">
-        <v>20888600</v>
+        <v>21028300</v>
       </c>
       <c r="K46" s="3">
         <v>19344200</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3417000</v>
+        <v>3439800</v>
       </c>
       <c r="E47" s="3">
-        <v>3599000</v>
+        <v>3623100</v>
       </c>
       <c r="F47" s="3">
-        <v>2603900</v>
+        <v>2621400</v>
       </c>
       <c r="G47" s="3">
-        <v>2917300</v>
+        <v>2936800</v>
       </c>
       <c r="H47" s="3">
-        <v>2606100</v>
+        <v>2623500</v>
       </c>
       <c r="I47" s="3">
-        <v>2166700</v>
+        <v>2181200</v>
       </c>
       <c r="J47" s="3">
-        <v>2258300</v>
+        <v>2273400</v>
       </c>
       <c r="K47" s="3">
         <v>1799700</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40262100</v>
+        <v>40531200</v>
       </c>
       <c r="E48" s="3">
-        <v>36174100</v>
+        <v>36416000</v>
       </c>
       <c r="F48" s="3">
-        <v>32771100</v>
+        <v>32990200</v>
       </c>
       <c r="G48" s="3">
-        <v>32931600</v>
+        <v>33151800</v>
       </c>
       <c r="H48" s="3">
-        <v>16274100</v>
+        <v>16382900</v>
       </c>
       <c r="I48" s="3">
-        <v>17137800</v>
+        <v>17252400</v>
       </c>
       <c r="J48" s="3">
-        <v>13072500</v>
+        <v>13159900</v>
       </c>
       <c r="K48" s="3">
         <v>11389100</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54380200</v>
+        <v>54743800</v>
       </c>
       <c r="E49" s="3">
-        <v>54665600</v>
+        <v>55031100</v>
       </c>
       <c r="F49" s="3">
-        <v>35932900</v>
+        <v>36173200</v>
       </c>
       <c r="G49" s="3">
-        <v>36192500</v>
+        <v>36434400</v>
       </c>
       <c r="H49" s="3">
-        <v>33363400</v>
+        <v>33586500</v>
       </c>
       <c r="I49" s="3">
-        <v>33162100</v>
+        <v>33383800</v>
       </c>
       <c r="J49" s="3">
-        <v>36762100</v>
+        <v>37007900</v>
       </c>
       <c r="K49" s="3">
         <v>24186800</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4145000</v>
+        <v>4172700</v>
       </c>
       <c r="E52" s="3">
-        <v>3569900</v>
+        <v>3593800</v>
       </c>
       <c r="F52" s="3">
-        <v>2672900</v>
+        <v>2690700</v>
       </c>
       <c r="G52" s="3">
-        <v>3338400</v>
+        <v>3360700</v>
       </c>
       <c r="H52" s="3">
-        <v>2407900</v>
+        <v>2424000</v>
       </c>
       <c r="I52" s="3">
-        <v>2181800</v>
+        <v>2196400</v>
       </c>
       <c r="J52" s="3">
-        <v>2419800</v>
+        <v>2436000</v>
       </c>
       <c r="K52" s="3">
         <v>2079400</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>145000000</v>
+        <v>145970000</v>
       </c>
       <c r="E54" s="3">
-        <v>134947000</v>
+        <v>135850000</v>
       </c>
       <c r="F54" s="3">
-        <v>117028000</v>
+        <v>117810000</v>
       </c>
       <c r="G54" s="3">
-        <v>103928000</v>
+        <v>104623000</v>
       </c>
       <c r="H54" s="3">
-        <v>80013700</v>
+        <v>80548600</v>
       </c>
       <c r="I54" s="3">
-        <v>75119200</v>
+        <v>75621400</v>
       </c>
       <c r="J54" s="3">
-        <v>64200500</v>
+        <v>64629700</v>
       </c>
       <c r="K54" s="3">
         <v>58799100</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9463800</v>
+        <v>9527100</v>
       </c>
       <c r="E57" s="3">
-        <v>7630900</v>
+        <v>7681900</v>
       </c>
       <c r="F57" s="3">
-        <v>5490000</v>
+        <v>5526700</v>
       </c>
       <c r="G57" s="3">
-        <v>6261100</v>
+        <v>6303000</v>
       </c>
       <c r="H57" s="3">
-        <v>5722600</v>
+        <v>5760900</v>
       </c>
       <c r="I57" s="3">
-        <v>4888000</v>
+        <v>4920700</v>
       </c>
       <c r="J57" s="3">
-        <v>4505700</v>
+        <v>4535900</v>
       </c>
       <c r="K57" s="3">
         <v>4042400</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12848500</v>
+        <v>12934400</v>
       </c>
       <c r="E58" s="3">
-        <v>11200800</v>
+        <v>11275700</v>
       </c>
       <c r="F58" s="3">
-        <v>13732600</v>
+        <v>13824400</v>
       </c>
       <c r="G58" s="3">
-        <v>10511600</v>
+        <v>10581900</v>
       </c>
       <c r="H58" s="3">
-        <v>5393100</v>
+        <v>5429200</v>
       </c>
       <c r="I58" s="3">
-        <v>5267100</v>
+        <v>5302300</v>
       </c>
       <c r="J58" s="3">
-        <v>3681900</v>
+        <v>3706500</v>
       </c>
       <c r="K58" s="3">
         <v>3819800</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11656400</v>
+        <v>11734300</v>
       </c>
       <c r="E59" s="3">
-        <v>11309600</v>
+        <v>11385200</v>
       </c>
       <c r="F59" s="3">
-        <v>8042300</v>
+        <v>8096100</v>
       </c>
       <c r="G59" s="3">
-        <v>7590000</v>
+        <v>7640700</v>
       </c>
       <c r="H59" s="3">
-        <v>7011700</v>
+        <v>7058600</v>
       </c>
       <c r="I59" s="3">
-        <v>6410800</v>
+        <v>6453600</v>
       </c>
       <c r="J59" s="3">
-        <v>5607400</v>
+        <v>5644900</v>
       </c>
       <c r="K59" s="3">
         <v>5100900</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33968700</v>
+        <v>34195800</v>
       </c>
       <c r="E60" s="3">
-        <v>30141400</v>
+        <v>30342900</v>
       </c>
       <c r="F60" s="3">
-        <v>27265000</v>
+        <v>27447200</v>
       </c>
       <c r="G60" s="3">
-        <v>24362700</v>
+        <v>24525600</v>
       </c>
       <c r="H60" s="3">
-        <v>18127500</v>
+        <v>18248700</v>
       </c>
       <c r="I60" s="3">
-        <v>16141700</v>
+        <v>16249600</v>
       </c>
       <c r="J60" s="3">
-        <v>13795100</v>
+        <v>13887300</v>
       </c>
       <c r="K60" s="3">
         <v>12963100</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24936700</v>
+        <v>25103400</v>
       </c>
       <c r="E61" s="3">
-        <v>25901600</v>
+        <v>26074800</v>
       </c>
       <c r="F61" s="3">
-        <v>26631700</v>
+        <v>26809800</v>
       </c>
       <c r="G61" s="3">
-        <v>16664000</v>
+        <v>16775400</v>
       </c>
       <c r="H61" s="3">
-        <v>6466800</v>
+        <v>6510000</v>
       </c>
       <c r="I61" s="3">
-        <v>7587800</v>
+        <v>7638600</v>
       </c>
       <c r="J61" s="3">
-        <v>4234400</v>
+        <v>4262700</v>
       </c>
       <c r="K61" s="3">
         <v>4604800</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25138100</v>
+        <v>25306100</v>
       </c>
       <c r="E62" s="3">
-        <v>26234400</v>
+        <v>26409800</v>
       </c>
       <c r="F62" s="3">
-        <v>21316200</v>
+        <v>21458700</v>
       </c>
       <c r="G62" s="3">
-        <v>21586500</v>
+        <v>21730800</v>
       </c>
       <c r="H62" s="3">
-        <v>18851100</v>
+        <v>18977200</v>
       </c>
       <c r="I62" s="3">
-        <v>18676700</v>
+        <v>18801500</v>
       </c>
       <c r="J62" s="3">
-        <v>16127700</v>
+        <v>16235500</v>
       </c>
       <c r="K62" s="3">
         <v>14895500</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>85651200</v>
+        <v>86223900</v>
       </c>
       <c r="E66" s="3">
-        <v>84205000</v>
+        <v>84767900</v>
       </c>
       <c r="F66" s="3">
-        <v>76738800</v>
+        <v>77251900</v>
       </c>
       <c r="G66" s="3">
-        <v>64528900</v>
+        <v>64960400</v>
       </c>
       <c r="H66" s="3">
-        <v>45237300</v>
+        <v>45539800</v>
       </c>
       <c r="I66" s="3">
-        <v>43922400</v>
+        <v>44216100</v>
       </c>
       <c r="J66" s="3">
-        <v>35783200</v>
+        <v>36022500</v>
       </c>
       <c r="K66" s="3">
         <v>33953800</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55021000</v>
+        <v>55388800</v>
       </c>
       <c r="E72" s="3">
-        <v>46736400</v>
+        <v>47048900</v>
       </c>
       <c r="F72" s="3">
-        <v>38082400</v>
+        <v>38337000</v>
       </c>
       <c r="G72" s="3">
-        <v>35368600</v>
+        <v>35605100</v>
       </c>
       <c r="H72" s="3">
-        <v>31032000</v>
+        <v>31239400</v>
       </c>
       <c r="I72" s="3">
-        <v>27211100</v>
+        <v>27393000</v>
       </c>
       <c r="J72" s="3">
-        <v>23897500</v>
+        <v>24057300</v>
       </c>
       <c r="K72" s="3">
         <v>20173000</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>59349000</v>
+        <v>59745800</v>
       </c>
       <c r="E76" s="3">
-        <v>50742500</v>
+        <v>51081700</v>
       </c>
       <c r="F76" s="3">
-        <v>40289000</v>
+        <v>40558300</v>
       </c>
       <c r="G76" s="3">
-        <v>39399500</v>
+        <v>39662900</v>
       </c>
       <c r="H76" s="3">
-        <v>34776300</v>
+        <v>35008800</v>
       </c>
       <c r="I76" s="3">
-        <v>31196700</v>
+        <v>31405300</v>
       </c>
       <c r="J76" s="3">
-        <v>28417200</v>
+        <v>28607200</v>
       </c>
       <c r="K76" s="3">
         <v>24845300</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15167100</v>
+        <v>15268500</v>
       </c>
       <c r="E81" s="3">
-        <v>12961600</v>
+        <v>13048200</v>
       </c>
       <c r="F81" s="3">
-        <v>5063600</v>
+        <v>5097400</v>
       </c>
       <c r="G81" s="3">
-        <v>7722400</v>
+        <v>7774100</v>
       </c>
       <c r="H81" s="3">
-        <v>6842600</v>
+        <v>6888400</v>
       </c>
       <c r="I81" s="3">
-        <v>5777600</v>
+        <v>5816200</v>
       </c>
       <c r="J81" s="3">
-        <v>4378700</v>
+        <v>4408000</v>
       </c>
       <c r="K81" s="3">
         <v>3647300</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6704800</v>
+        <v>6749600</v>
       </c>
       <c r="E83" s="3">
-        <v>6278300</v>
+        <v>6320300</v>
       </c>
       <c r="F83" s="3">
-        <v>6515200</v>
+        <v>6558800</v>
       </c>
       <c r="G83" s="3">
-        <v>5500800</v>
+        <v>5537600</v>
       </c>
       <c r="H83" s="3">
-        <v>2479000</v>
+        <v>2495600</v>
       </c>
       <c r="I83" s="3">
-        <v>2558700</v>
+        <v>2575800</v>
       </c>
       <c r="J83" s="3">
-        <v>2307800</v>
+        <v>2323200</v>
       </c>
       <c r="K83" s="3">
         <v>2124300</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19204400</v>
+        <v>19332800</v>
       </c>
       <c r="E89" s="3">
-        <v>20082000</v>
+        <v>20216300</v>
       </c>
       <c r="F89" s="3">
-        <v>11735000</v>
+        <v>11813400</v>
       </c>
       <c r="G89" s="3">
-        <v>12543700</v>
+        <v>12627600</v>
       </c>
       <c r="H89" s="3">
-        <v>9142900</v>
+        <v>9204000</v>
       </c>
       <c r="I89" s="3">
-        <v>7508100</v>
+        <v>7558300</v>
       </c>
       <c r="J89" s="3">
-        <v>6650900</v>
+        <v>6695400</v>
       </c>
       <c r="K89" s="3">
         <v>5751200</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4735100</v>
+        <v>-4766800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2868900</v>
+        <v>-2888000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2136600</v>
+        <v>-2150900</v>
       </c>
       <c r="G91" s="3">
-        <v>-3079900</v>
+        <v>-3100500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2804200</v>
+        <v>-2823000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2034300</v>
+        <v>-2047900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2315300</v>
+        <v>-2330800</v>
       </c>
       <c r="K91" s="3">
         <v>-1775200</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6375200</v>
+        <v>-6417900</v>
       </c>
       <c r="E94" s="3">
-        <v>-17207800</v>
+        <v>-17322800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3165000</v>
+        <v>-3186200</v>
       </c>
       <c r="G94" s="3">
-        <v>-6320300</v>
+        <v>-6362600</v>
       </c>
       <c r="H94" s="3">
-        <v>-3703500</v>
+        <v>-3728200</v>
       </c>
       <c r="I94" s="3">
-        <v>-9268900</v>
+        <v>-9330800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2474700</v>
+        <v>-2491300</v>
       </c>
       <c r="K94" s="3">
         <v>-2517300</v>
@@ -3998,25 +3998,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6841500</v>
+        <v>-6887300</v>
       </c>
       <c r="E96" s="3">
-        <v>-4481000</v>
+        <v>-4510900</v>
       </c>
       <c r="F96" s="3">
-        <v>-2621200</v>
+        <v>-2638700</v>
       </c>
       <c r="G96" s="3">
-        <v>-3498800</v>
+        <v>-3522200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2923800</v>
+        <v>-2943300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2272300</v>
+        <v>-2287500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2002000</v>
+        <v>-2015300</v>
       </c>
       <c r="K96" s="3">
         <v>-1705800</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-13660500</v>
+        <v>-13751800</v>
       </c>
       <c r="E100" s="3">
-        <v>-16321500</v>
+        <v>-16430600</v>
       </c>
       <c r="F100" s="3">
-        <v>7972300</v>
+        <v>8025600</v>
       </c>
       <c r="G100" s="3">
-        <v>-5098000</v>
+        <v>-5132100</v>
       </c>
       <c r="H100" s="3">
-        <v>-4655400</v>
+        <v>-4686600</v>
       </c>
       <c r="I100" s="3">
-        <v>2324000</v>
+        <v>2339500</v>
       </c>
       <c r="J100" s="3">
-        <v>-4291400</v>
+        <v>-4320100</v>
       </c>
       <c r="K100" s="3">
         <v>-3601400</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>59200</v>
+        <v>59600</v>
       </c>
       <c r="E101" s="3">
-        <v>536300</v>
+        <v>539900</v>
       </c>
       <c r="F101" s="3">
-        <v>-1132900</v>
+        <v>-1140500</v>
       </c>
       <c r="G101" s="3">
-        <v>42000</v>
+        <v>42300</v>
       </c>
       <c r="H101" s="3">
-        <v>72200</v>
+        <v>72600</v>
       </c>
       <c r="I101" s="3">
-        <v>-260600</v>
+        <v>-262400</v>
       </c>
       <c r="J101" s="3">
-        <v>58200</v>
+        <v>58500</v>
       </c>
       <c r="K101" s="3">
         <v>-33700</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-772100</v>
+        <v>-777300</v>
       </c>
       <c r="E102" s="3">
-        <v>-12911000</v>
+        <v>-12997300</v>
       </c>
       <c r="F102" s="3">
-        <v>15409400</v>
+        <v>15512400</v>
       </c>
       <c r="G102" s="3">
-        <v>1167400</v>
+        <v>1175200</v>
       </c>
       <c r="H102" s="3">
-        <v>856100</v>
+        <v>861900</v>
       </c>
       <c r="I102" s="3">
-        <v>302600</v>
+        <v>304600</v>
       </c>
       <c r="J102" s="3">
-        <v>-57100</v>
+        <v>-57500</v>
       </c>
       <c r="K102" s="3">
         <v>-401200</v>

--- a/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LVMUY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>85843400</v>
+        <v>85914600</v>
       </c>
       <c r="E8" s="3">
-        <v>69615500</v>
+        <v>69673300</v>
       </c>
       <c r="F8" s="3">
-        <v>48406100</v>
+        <v>48446300</v>
       </c>
       <c r="G8" s="3">
-        <v>58183600</v>
+        <v>58232000</v>
       </c>
       <c r="H8" s="3">
-        <v>50764100</v>
+        <v>50806200</v>
       </c>
       <c r="I8" s="3">
-        <v>46221700</v>
+        <v>46260100</v>
       </c>
       <c r="J8" s="3">
-        <v>40762200</v>
+        <v>40796000</v>
       </c>
       <c r="K8" s="3">
         <v>36405800</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27089500</v>
+        <v>27112000</v>
       </c>
       <c r="E9" s="3">
-        <v>22066900</v>
+        <v>22085200</v>
       </c>
       <c r="F9" s="3">
-        <v>17205800</v>
+        <v>17220000</v>
       </c>
       <c r="G9" s="3">
-        <v>19647100</v>
+        <v>19663500</v>
       </c>
       <c r="H9" s="3">
-        <v>16939100</v>
+        <v>16953100</v>
       </c>
       <c r="I9" s="3">
-        <v>16026300</v>
+        <v>16039600</v>
       </c>
       <c r="J9" s="3">
-        <v>14135600</v>
+        <v>14147300</v>
       </c>
       <c r="K9" s="3">
         <v>12814100</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>58753900</v>
+        <v>58802700</v>
       </c>
       <c r="E10" s="3">
-        <v>47548600</v>
+        <v>47588100</v>
       </c>
       <c r="F10" s="3">
-        <v>31200400</v>
+        <v>31226300</v>
       </c>
       <c r="G10" s="3">
-        <v>38536500</v>
+        <v>38568500</v>
       </c>
       <c r="H10" s="3">
-        <v>33825000</v>
+        <v>33853100</v>
       </c>
       <c r="I10" s="3">
-        <v>30195400</v>
+        <v>30220500</v>
       </c>
       <c r="J10" s="3">
-        <v>26626600</v>
+        <v>26648700</v>
       </c>
       <c r="K10" s="3">
         <v>23591700</v>
@@ -955,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>305700</v>
+        <v>306000</v>
       </c>
       <c r="E14" s="3">
-        <v>116000</v>
+        <v>116100</v>
       </c>
       <c r="F14" s="3">
-        <v>299200</v>
+        <v>299500</v>
       </c>
       <c r="G14" s="3">
-        <v>138800</v>
+        <v>138900</v>
       </c>
       <c r="H14" s="3">
-        <v>136600</v>
+        <v>136700</v>
       </c>
       <c r="I14" s="3">
-        <v>252600</v>
+        <v>252800</v>
       </c>
       <c r="J14" s="3">
-        <v>336100</v>
+        <v>336400</v>
       </c>
       <c r="K14" s="3">
         <v>240900</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>63076200</v>
+        <v>63128600</v>
       </c>
       <c r="E17" s="3">
-        <v>51017700</v>
+        <v>51060100</v>
       </c>
       <c r="F17" s="3">
-        <v>39763700</v>
+        <v>39796700</v>
       </c>
       <c r="G17" s="3">
-        <v>45962600</v>
+        <v>46000700</v>
       </c>
       <c r="H17" s="3">
-        <v>40056400</v>
+        <v>40089700</v>
       </c>
       <c r="I17" s="3">
-        <v>37426400</v>
+        <v>37457500</v>
       </c>
       <c r="J17" s="3">
-        <v>33277500</v>
+        <v>33305200</v>
       </c>
       <c r="K17" s="3">
         <v>29889000</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22767200</v>
+        <v>22786100</v>
       </c>
       <c r="E18" s="3">
-        <v>18597700</v>
+        <v>18613200</v>
       </c>
       <c r="F18" s="3">
-        <v>8642400</v>
+        <v>8649600</v>
       </c>
       <c r="G18" s="3">
-        <v>12221100</v>
+        <v>12231200</v>
       </c>
       <c r="H18" s="3">
-        <v>10707700</v>
+        <v>10716500</v>
       </c>
       <c r="I18" s="3">
-        <v>8795300</v>
+        <v>8802600</v>
       </c>
       <c r="J18" s="3">
-        <v>7484600</v>
+        <v>7490800</v>
       </c>
       <c r="K18" s="3">
         <v>6516800</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-548600</v>
+        <v>-549000</v>
       </c>
       <c r="E20" s="3">
-        <v>319800</v>
+        <v>320100</v>
       </c>
       <c r="F20" s="3">
-        <v>-262400</v>
+        <v>-262600</v>
       </c>
       <c r="G20" s="3">
-        <v>-122500</v>
+        <v>-122600</v>
       </c>
       <c r="H20" s="3">
-        <v>-249300</v>
+        <v>-249500</v>
       </c>
       <c r="I20" s="3">
-        <v>119300</v>
+        <v>119400</v>
       </c>
       <c r="J20" s="3">
-        <v>-173500</v>
+        <v>-173600</v>
       </c>
       <c r="K20" s="3">
         <v>-309300</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>28968200</v>
+        <v>28989800</v>
       </c>
       <c r="E21" s="3">
-        <v>25237800</v>
+        <v>25256500</v>
       </c>
       <c r="F21" s="3">
-        <v>14938900</v>
+        <v>14948900</v>
       </c>
       <c r="G21" s="3">
-        <v>17636100</v>
+        <v>17648700</v>
       </c>
       <c r="H21" s="3">
-        <v>12953900</v>
+        <v>12963700</v>
       </c>
       <c r="I21" s="3">
-        <v>11490400</v>
+        <v>11499000</v>
       </c>
       <c r="J21" s="3">
-        <v>9634400</v>
+        <v>9641500</v>
       </c>
       <c r="K21" s="3">
         <v>8290800</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>414100</v>
+        <v>414500</v>
       </c>
       <c r="E22" s="3">
-        <v>262400</v>
+        <v>262600</v>
       </c>
       <c r="F22" s="3">
-        <v>396800</v>
+        <v>397100</v>
       </c>
       <c r="G22" s="3">
-        <v>483500</v>
+        <v>483900</v>
       </c>
       <c r="H22" s="3">
-        <v>171300</v>
+        <v>171400</v>
       </c>
       <c r="I22" s="3">
-        <v>183200</v>
+        <v>183400</v>
       </c>
       <c r="J22" s="3">
-        <v>171300</v>
+        <v>171400</v>
       </c>
       <c r="K22" s="3">
         <v>113300</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>21804500</v>
+        <v>21822600</v>
       </c>
       <c r="E23" s="3">
-        <v>18655200</v>
+        <v>18670700</v>
       </c>
       <c r="F23" s="3">
-        <v>7983300</v>
+        <v>7989900</v>
       </c>
       <c r="G23" s="3">
-        <v>11615000</v>
+        <v>11624700</v>
       </c>
       <c r="H23" s="3">
-        <v>10287000</v>
+        <v>10295600</v>
       </c>
       <c r="I23" s="3">
-        <v>8731300</v>
+        <v>8738600</v>
       </c>
       <c r="J23" s="3">
-        <v>7139900</v>
+        <v>7145800</v>
       </c>
       <c r="K23" s="3">
         <v>6094200</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5812900</v>
+        <v>5817800</v>
       </c>
       <c r="E24" s="3">
-        <v>4889300</v>
+        <v>4893400</v>
       </c>
       <c r="F24" s="3">
-        <v>2611600</v>
+        <v>2613800</v>
       </c>
       <c r="G24" s="3">
-        <v>3178600</v>
+        <v>3181200</v>
       </c>
       <c r="H24" s="3">
-        <v>2709200</v>
+        <v>2711400</v>
       </c>
       <c r="I24" s="3">
-        <v>2400200</v>
+        <v>2402200</v>
       </c>
       <c r="J24" s="3">
-        <v>2312400</v>
+        <v>2314300</v>
       </c>
       <c r="K24" s="3">
         <v>2010000</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15991600</v>
+        <v>16004800</v>
       </c>
       <c r="E26" s="3">
-        <v>13765900</v>
+        <v>13777300</v>
       </c>
       <c r="F26" s="3">
-        <v>5371700</v>
+        <v>5376200</v>
       </c>
       <c r="G26" s="3">
-        <v>8436500</v>
+        <v>8443500</v>
       </c>
       <c r="H26" s="3">
-        <v>7577900</v>
+        <v>7584200</v>
       </c>
       <c r="I26" s="3">
-        <v>6331100</v>
+        <v>6336400</v>
       </c>
       <c r="J26" s="3">
-        <v>4827500</v>
+        <v>4831500</v>
       </c>
       <c r="K26" s="3">
         <v>4084200</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15268500</v>
+        <v>15281100</v>
       </c>
       <c r="E27" s="3">
-        <v>13048200</v>
+        <v>13059100</v>
       </c>
       <c r="F27" s="3">
-        <v>5097400</v>
+        <v>5101700</v>
       </c>
       <c r="G27" s="3">
-        <v>7774100</v>
+        <v>7780500</v>
       </c>
       <c r="H27" s="3">
-        <v>6888400</v>
+        <v>6894100</v>
       </c>
       <c r="I27" s="3">
-        <v>5816200</v>
+        <v>5821000</v>
       </c>
       <c r="J27" s="3">
-        <v>4408000</v>
+        <v>4411600</v>
       </c>
       <c r="K27" s="3">
         <v>3647300</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>548600</v>
+        <v>549000</v>
       </c>
       <c r="E32" s="3">
-        <v>-319800</v>
+        <v>-320100</v>
       </c>
       <c r="F32" s="3">
-        <v>262400</v>
+        <v>262600</v>
       </c>
       <c r="G32" s="3">
-        <v>122500</v>
+        <v>122600</v>
       </c>
       <c r="H32" s="3">
-        <v>249300</v>
+        <v>249500</v>
       </c>
       <c r="I32" s="3">
-        <v>-119300</v>
+        <v>-119400</v>
       </c>
       <c r="J32" s="3">
-        <v>173500</v>
+        <v>173600</v>
       </c>
       <c r="K32" s="3">
         <v>309300</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15268500</v>
+        <v>15281100</v>
       </c>
       <c r="E33" s="3">
-        <v>13048200</v>
+        <v>13059100</v>
       </c>
       <c r="F33" s="3">
-        <v>5097400</v>
+        <v>5101700</v>
       </c>
       <c r="G33" s="3">
-        <v>7774100</v>
+        <v>7780500</v>
       </c>
       <c r="H33" s="3">
-        <v>6888400</v>
+        <v>6894100</v>
       </c>
       <c r="I33" s="3">
-        <v>5816200</v>
+        <v>5821000</v>
       </c>
       <c r="J33" s="3">
-        <v>4408000</v>
+        <v>4411600</v>
       </c>
       <c r="K33" s="3">
         <v>3647300</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15268500</v>
+        <v>15281100</v>
       </c>
       <c r="E35" s="3">
-        <v>13048200</v>
+        <v>13059100</v>
       </c>
       <c r="F35" s="3">
-        <v>5097400</v>
+        <v>5101700</v>
       </c>
       <c r="G35" s="3">
-        <v>7774100</v>
+        <v>7780500</v>
       </c>
       <c r="H35" s="3">
-        <v>6888400</v>
+        <v>6894100</v>
       </c>
       <c r="I35" s="3">
-        <v>5816200</v>
+        <v>5821000</v>
       </c>
       <c r="J35" s="3">
-        <v>4408000</v>
+        <v>4411600</v>
       </c>
       <c r="K35" s="3">
         <v>3647300</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7913900</v>
+        <v>7920500</v>
       </c>
       <c r="E41" s="3">
-        <v>8695600</v>
+        <v>8702800</v>
       </c>
       <c r="F41" s="3">
-        <v>21641900</v>
+        <v>21659900</v>
       </c>
       <c r="G41" s="3">
-        <v>6150100</v>
+        <v>6155200</v>
       </c>
       <c r="H41" s="3">
-        <v>4997700</v>
+        <v>5001800</v>
       </c>
       <c r="I41" s="3">
-        <v>4052400</v>
+        <v>4055700</v>
       </c>
       <c r="J41" s="3">
-        <v>3842100</v>
+        <v>3845200</v>
       </c>
       <c r="K41" s="3">
         <v>3668800</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3850700</v>
+        <v>3853900</v>
       </c>
       <c r="E42" s="3">
-        <v>2758000</v>
+        <v>2760200</v>
       </c>
       <c r="F42" s="3">
-        <v>815200</v>
+        <v>815900</v>
       </c>
       <c r="G42" s="3">
-        <v>794600</v>
+        <v>795300</v>
       </c>
       <c r="H42" s="3">
-        <v>722000</v>
+        <v>722600</v>
       </c>
       <c r="I42" s="3">
-        <v>558300</v>
+        <v>558800</v>
       </c>
       <c r="J42" s="3">
-        <v>405500</v>
+        <v>405800</v>
       </c>
       <c r="K42" s="3">
         <v>393000</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7708000</v>
+        <v>7714300</v>
       </c>
       <c r="E43" s="3">
-        <v>6626000</v>
+        <v>6631500</v>
       </c>
       <c r="F43" s="3">
-        <v>5071400</v>
+        <v>5075600</v>
       </c>
       <c r="G43" s="3">
-        <v>5962600</v>
+        <v>5967500</v>
       </c>
       <c r="H43" s="3">
-        <v>5443300</v>
+        <v>5447800</v>
       </c>
       <c r="I43" s="3">
-        <v>5230800</v>
+        <v>5235100</v>
       </c>
       <c r="J43" s="3">
-        <v>4447000</v>
+        <v>4450700</v>
       </c>
       <c r="K43" s="3">
         <v>4146500</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22027800</v>
+        <v>22046100</v>
       </c>
       <c r="E44" s="3">
-        <v>17940800</v>
+        <v>17955700</v>
       </c>
       <c r="F44" s="3">
-        <v>14110600</v>
+        <v>14122400</v>
       </c>
       <c r="G44" s="3">
-        <v>14870600</v>
+        <v>14882900</v>
       </c>
       <c r="H44" s="3">
-        <v>13535000</v>
+        <v>13546200</v>
       </c>
       <c r="I44" s="3">
-        <v>11803700</v>
+        <v>11813500</v>
       </c>
       <c r="J44" s="3">
-        <v>11432900</v>
+        <v>11442400</v>
       </c>
       <c r="K44" s="3">
         <v>10306000</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1581700</v>
+        <v>1583000</v>
       </c>
       <c r="E45" s="3">
-        <v>1165400</v>
+        <v>1166400</v>
       </c>
       <c r="F45" s="3">
-        <v>1695500</v>
+        <v>1696900</v>
       </c>
       <c r="G45" s="3">
-        <v>961600</v>
+        <v>962400</v>
       </c>
       <c r="H45" s="3">
-        <v>833700</v>
+        <v>834400</v>
       </c>
       <c r="I45" s="3">
-        <v>1187100</v>
+        <v>1188100</v>
       </c>
       <c r="J45" s="3">
-        <v>900900</v>
+        <v>901600</v>
       </c>
       <c r="K45" s="3">
         <v>829900</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>43082100</v>
+        <v>43117900</v>
       </c>
       <c r="E46" s="3">
-        <v>37185700</v>
+        <v>37216600</v>
       </c>
       <c r="F46" s="3">
-        <v>43334700</v>
+        <v>43370700</v>
       </c>
       <c r="G46" s="3">
-        <v>28739500</v>
+        <v>28763300</v>
       </c>
       <c r="H46" s="3">
-        <v>25531600</v>
+        <v>25552800</v>
       </c>
       <c r="I46" s="3">
-        <v>22832200</v>
+        <v>22851200</v>
       </c>
       <c r="J46" s="3">
-        <v>21028300</v>
+        <v>21045700</v>
       </c>
       <c r="K46" s="3">
         <v>19344200</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3439800</v>
+        <v>3442700</v>
       </c>
       <c r="E47" s="3">
-        <v>3623100</v>
+        <v>3626100</v>
       </c>
       <c r="F47" s="3">
-        <v>2621400</v>
+        <v>2623500</v>
       </c>
       <c r="G47" s="3">
-        <v>2936800</v>
+        <v>2939300</v>
       </c>
       <c r="H47" s="3">
-        <v>2623500</v>
+        <v>2625700</v>
       </c>
       <c r="I47" s="3">
-        <v>2181200</v>
+        <v>2183000</v>
       </c>
       <c r="J47" s="3">
-        <v>2273400</v>
+        <v>2275200</v>
       </c>
       <c r="K47" s="3">
         <v>1799700</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40531200</v>
+        <v>40564900</v>
       </c>
       <c r="E48" s="3">
-        <v>36416000</v>
+        <v>36446200</v>
       </c>
       <c r="F48" s="3">
-        <v>32990200</v>
+        <v>33017600</v>
       </c>
       <c r="G48" s="3">
-        <v>33151800</v>
+        <v>33179300</v>
       </c>
       <c r="H48" s="3">
-        <v>16382900</v>
+        <v>16396500</v>
       </c>
       <c r="I48" s="3">
-        <v>17252400</v>
+        <v>17266700</v>
       </c>
       <c r="J48" s="3">
-        <v>13159900</v>
+        <v>13170800</v>
       </c>
       <c r="K48" s="3">
         <v>11389100</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54743800</v>
+        <v>54789200</v>
       </c>
       <c r="E49" s="3">
-        <v>55031100</v>
+        <v>55076800</v>
       </c>
       <c r="F49" s="3">
-        <v>36173200</v>
+        <v>36203200</v>
       </c>
       <c r="G49" s="3">
-        <v>36434400</v>
+        <v>36464700</v>
       </c>
       <c r="H49" s="3">
-        <v>33586500</v>
+        <v>33614400</v>
       </c>
       <c r="I49" s="3">
-        <v>33383800</v>
+        <v>33411500</v>
       </c>
       <c r="J49" s="3">
-        <v>37007900</v>
+        <v>37038600</v>
       </c>
       <c r="K49" s="3">
         <v>24186800</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4172700</v>
+        <v>4176200</v>
       </c>
       <c r="E52" s="3">
-        <v>3593800</v>
+        <v>3596800</v>
       </c>
       <c r="F52" s="3">
-        <v>2690700</v>
+        <v>2693000</v>
       </c>
       <c r="G52" s="3">
-        <v>3360700</v>
+        <v>3363500</v>
       </c>
       <c r="H52" s="3">
-        <v>2424000</v>
+        <v>2426100</v>
       </c>
       <c r="I52" s="3">
-        <v>2196400</v>
+        <v>2198200</v>
       </c>
       <c r="J52" s="3">
-        <v>2436000</v>
+        <v>2438000</v>
       </c>
       <c r="K52" s="3">
         <v>2079400</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>145970000</v>
+        <v>146091000</v>
       </c>
       <c r="E54" s="3">
-        <v>135850000</v>
+        <v>135962000</v>
       </c>
       <c r="F54" s="3">
-        <v>117810000</v>
+        <v>117908000</v>
       </c>
       <c r="G54" s="3">
-        <v>104623000</v>
+        <v>104710000</v>
       </c>
       <c r="H54" s="3">
-        <v>80548600</v>
+        <v>80615500</v>
       </c>
       <c r="I54" s="3">
-        <v>75621400</v>
+        <v>75684200</v>
       </c>
       <c r="J54" s="3">
-        <v>64629700</v>
+        <v>64683400</v>
       </c>
       <c r="K54" s="3">
         <v>58799100</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9527100</v>
+        <v>9535000</v>
       </c>
       <c r="E57" s="3">
-        <v>7681900</v>
+        <v>7688300</v>
       </c>
       <c r="F57" s="3">
-        <v>5526700</v>
+        <v>5531300</v>
       </c>
       <c r="G57" s="3">
-        <v>6303000</v>
+        <v>6308200</v>
       </c>
       <c r="H57" s="3">
-        <v>5760900</v>
+        <v>5765700</v>
       </c>
       <c r="I57" s="3">
-        <v>4920700</v>
+        <v>4924800</v>
       </c>
       <c r="J57" s="3">
-        <v>4535900</v>
+        <v>4539600</v>
       </c>
       <c r="K57" s="3">
         <v>4042400</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12934400</v>
+        <v>12945100</v>
       </c>
       <c r="E58" s="3">
-        <v>11275700</v>
+        <v>11285100</v>
       </c>
       <c r="F58" s="3">
-        <v>13824400</v>
+        <v>13835900</v>
       </c>
       <c r="G58" s="3">
-        <v>10581900</v>
+        <v>10590700</v>
       </c>
       <c r="H58" s="3">
-        <v>5429200</v>
+        <v>5433700</v>
       </c>
       <c r="I58" s="3">
-        <v>5302300</v>
+        <v>5306700</v>
       </c>
       <c r="J58" s="3">
-        <v>3706500</v>
+        <v>3709600</v>
       </c>
       <c r="K58" s="3">
         <v>3819800</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11734300</v>
+        <v>11744000</v>
       </c>
       <c r="E59" s="3">
-        <v>11385200</v>
+        <v>11394700</v>
       </c>
       <c r="F59" s="3">
-        <v>8096100</v>
+        <v>8102800</v>
       </c>
       <c r="G59" s="3">
-        <v>7640700</v>
+        <v>7647100</v>
       </c>
       <c r="H59" s="3">
-        <v>7058600</v>
+        <v>7064400</v>
       </c>
       <c r="I59" s="3">
-        <v>6453600</v>
+        <v>6459000</v>
       </c>
       <c r="J59" s="3">
-        <v>5644900</v>
+        <v>5649600</v>
       </c>
       <c r="K59" s="3">
         <v>5100900</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34195800</v>
+        <v>34224200</v>
       </c>
       <c r="E60" s="3">
-        <v>30342900</v>
+        <v>30368100</v>
       </c>
       <c r="F60" s="3">
-        <v>27447200</v>
+        <v>27470000</v>
       </c>
       <c r="G60" s="3">
-        <v>24525600</v>
+        <v>24546000</v>
       </c>
       <c r="H60" s="3">
-        <v>18248700</v>
+        <v>18263800</v>
       </c>
       <c r="I60" s="3">
-        <v>16249600</v>
+        <v>16263100</v>
       </c>
       <c r="J60" s="3">
-        <v>13887300</v>
+        <v>13898900</v>
       </c>
       <c r="K60" s="3">
         <v>12963100</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25103400</v>
+        <v>25124300</v>
       </c>
       <c r="E61" s="3">
-        <v>26074800</v>
+        <v>26096400</v>
       </c>
       <c r="F61" s="3">
-        <v>26809800</v>
+        <v>26832000</v>
       </c>
       <c r="G61" s="3">
-        <v>16775400</v>
+        <v>16789300</v>
       </c>
       <c r="H61" s="3">
-        <v>6510000</v>
+        <v>6515400</v>
       </c>
       <c r="I61" s="3">
-        <v>7638600</v>
+        <v>7644900</v>
       </c>
       <c r="J61" s="3">
-        <v>4262700</v>
+        <v>4266200</v>
       </c>
       <c r="K61" s="3">
         <v>4604800</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25306100</v>
+        <v>25327200</v>
       </c>
       <c r="E62" s="3">
-        <v>26409800</v>
+        <v>26431700</v>
       </c>
       <c r="F62" s="3">
-        <v>21458700</v>
+        <v>21476500</v>
       </c>
       <c r="G62" s="3">
-        <v>21730800</v>
+        <v>21748800</v>
       </c>
       <c r="H62" s="3">
-        <v>18977200</v>
+        <v>18992900</v>
       </c>
       <c r="I62" s="3">
-        <v>18801500</v>
+        <v>18817200</v>
       </c>
       <c r="J62" s="3">
-        <v>16235500</v>
+        <v>16249000</v>
       </c>
       <c r="K62" s="3">
         <v>14895500</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>86223900</v>
+        <v>86295500</v>
       </c>
       <c r="E66" s="3">
-        <v>84767900</v>
+        <v>84838300</v>
       </c>
       <c r="F66" s="3">
-        <v>77251900</v>
+        <v>77316000</v>
       </c>
       <c r="G66" s="3">
-        <v>64960400</v>
+        <v>65014300</v>
       </c>
       <c r="H66" s="3">
-        <v>45539800</v>
+        <v>45577600</v>
       </c>
       <c r="I66" s="3">
-        <v>44216100</v>
+        <v>44252800</v>
       </c>
       <c r="J66" s="3">
-        <v>36022500</v>
+        <v>36052400</v>
       </c>
       <c r="K66" s="3">
         <v>33953800</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55388800</v>
+        <v>55434800</v>
       </c>
       <c r="E72" s="3">
-        <v>47048900</v>
+        <v>47087900</v>
       </c>
       <c r="F72" s="3">
-        <v>38337000</v>
+        <v>38368900</v>
       </c>
       <c r="G72" s="3">
-        <v>35605100</v>
+        <v>35634700</v>
       </c>
       <c r="H72" s="3">
-        <v>31239400</v>
+        <v>31265400</v>
       </c>
       <c r="I72" s="3">
-        <v>27393000</v>
+        <v>27415800</v>
       </c>
       <c r="J72" s="3">
-        <v>24057300</v>
+        <v>24077200</v>
       </c>
       <c r="K72" s="3">
         <v>20173000</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>59745800</v>
+        <v>59795400</v>
       </c>
       <c r="E76" s="3">
-        <v>51081700</v>
+        <v>51124100</v>
       </c>
       <c r="F76" s="3">
-        <v>40558300</v>
+        <v>40592000</v>
       </c>
       <c r="G76" s="3">
-        <v>39662900</v>
+        <v>39695800</v>
       </c>
       <c r="H76" s="3">
-        <v>35008800</v>
+        <v>35037900</v>
       </c>
       <c r="I76" s="3">
-        <v>31405300</v>
+        <v>31431400</v>
       </c>
       <c r="J76" s="3">
-        <v>28607200</v>
+        <v>28631000</v>
       </c>
       <c r="K76" s="3">
         <v>24845300</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15268500</v>
+        <v>15281100</v>
       </c>
       <c r="E81" s="3">
-        <v>13048200</v>
+        <v>13059100</v>
       </c>
       <c r="F81" s="3">
-        <v>5097400</v>
+        <v>5101700</v>
       </c>
       <c r="G81" s="3">
-        <v>7774100</v>
+        <v>7780500</v>
       </c>
       <c r="H81" s="3">
-        <v>6888400</v>
+        <v>6894100</v>
       </c>
       <c r="I81" s="3">
-        <v>5816200</v>
+        <v>5821000</v>
       </c>
       <c r="J81" s="3">
-        <v>4408000</v>
+        <v>4411600</v>
       </c>
       <c r="K81" s="3">
         <v>3647300</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6749600</v>
+        <v>6755200</v>
       </c>
       <c r="E83" s="3">
-        <v>6320300</v>
+        <v>6325600</v>
       </c>
       <c r="F83" s="3">
-        <v>6558800</v>
+        <v>6564300</v>
       </c>
       <c r="G83" s="3">
-        <v>5537600</v>
+        <v>5542200</v>
       </c>
       <c r="H83" s="3">
-        <v>2495600</v>
+        <v>2497700</v>
       </c>
       <c r="I83" s="3">
-        <v>2575800</v>
+        <v>2578000</v>
       </c>
       <c r="J83" s="3">
-        <v>2323200</v>
+        <v>2325200</v>
       </c>
       <c r="K83" s="3">
         <v>2124300</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19332800</v>
+        <v>19348800</v>
       </c>
       <c r="E89" s="3">
-        <v>20216300</v>
+        <v>20233100</v>
       </c>
       <c r="F89" s="3">
-        <v>11813400</v>
+        <v>11823200</v>
       </c>
       <c r="G89" s="3">
-        <v>12627600</v>
+        <v>12638100</v>
       </c>
       <c r="H89" s="3">
-        <v>9204000</v>
+        <v>9211700</v>
       </c>
       <c r="I89" s="3">
-        <v>7558300</v>
+        <v>7564600</v>
       </c>
       <c r="J89" s="3">
-        <v>6695400</v>
+        <v>6701000</v>
       </c>
       <c r="K89" s="3">
         <v>5751200</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4766800</v>
+        <v>-4770700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2888000</v>
+        <v>-2890400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2150900</v>
+        <v>-2152600</v>
       </c>
       <c r="G91" s="3">
-        <v>-3100500</v>
+        <v>-3103100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2823000</v>
+        <v>-2825300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2047900</v>
+        <v>-2049600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2330800</v>
+        <v>-2332800</v>
       </c>
       <c r="K91" s="3">
         <v>-1775200</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6417900</v>
+        <v>-6423200</v>
       </c>
       <c r="E94" s="3">
-        <v>-17322800</v>
+        <v>-17337200</v>
       </c>
       <c r="F94" s="3">
-        <v>-3186200</v>
+        <v>-3188800</v>
       </c>
       <c r="G94" s="3">
-        <v>-6362600</v>
+        <v>-6367900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3728200</v>
+        <v>-3731300</v>
       </c>
       <c r="I94" s="3">
-        <v>-9330800</v>
+        <v>-9338600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2491300</v>
+        <v>-2493300</v>
       </c>
       <c r="K94" s="3">
         <v>-2517300</v>
@@ -3998,25 +3998,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6887300</v>
+        <v>-6893000</v>
       </c>
       <c r="E96" s="3">
-        <v>-4510900</v>
+        <v>-4514700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2638700</v>
+        <v>-2640900</v>
       </c>
       <c r="G96" s="3">
-        <v>-3522200</v>
+        <v>-3525200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2943300</v>
+        <v>-2945800</v>
       </c>
       <c r="I96" s="3">
-        <v>-2287500</v>
+        <v>-2289400</v>
       </c>
       <c r="J96" s="3">
-        <v>-2015300</v>
+        <v>-2017000</v>
       </c>
       <c r="K96" s="3">
         <v>-1705800</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-13751800</v>
+        <v>-13763200</v>
       </c>
       <c r="E100" s="3">
-        <v>-16430600</v>
+        <v>-16444300</v>
       </c>
       <c r="F100" s="3">
-        <v>8025600</v>
+        <v>8032300</v>
       </c>
       <c r="G100" s="3">
-        <v>-5132100</v>
+        <v>-5136400</v>
       </c>
       <c r="H100" s="3">
-        <v>-4686600</v>
+        <v>-4690500</v>
       </c>
       <c r="I100" s="3">
-        <v>2339500</v>
+        <v>2341400</v>
       </c>
       <c r="J100" s="3">
-        <v>-4320100</v>
+        <v>-4323700</v>
       </c>
       <c r="K100" s="3">
         <v>-3601400</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>59600</v>
+        <v>59700</v>
       </c>
       <c r="E101" s="3">
-        <v>539900</v>
+        <v>540300</v>
       </c>
       <c r="F101" s="3">
-        <v>-1140500</v>
+        <v>-1141400</v>
       </c>
       <c r="G101" s="3">
         <v>42300</v>
       </c>
       <c r="H101" s="3">
-        <v>72600</v>
+        <v>72700</v>
       </c>
       <c r="I101" s="3">
-        <v>-262400</v>
+        <v>-262600</v>
       </c>
       <c r="J101" s="3">
-        <v>58500</v>
+        <v>58600</v>
       </c>
       <c r="K101" s="3">
         <v>-33700</v>
@@ -4250,22 +4250,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-777300</v>
+        <v>-777900</v>
       </c>
       <c r="E102" s="3">
-        <v>-12997300</v>
+        <v>-13008100</v>
       </c>
       <c r="F102" s="3">
-        <v>15512400</v>
+        <v>15525300</v>
       </c>
       <c r="G102" s="3">
-        <v>1175200</v>
+        <v>1176100</v>
       </c>
       <c r="H102" s="3">
-        <v>861900</v>
+        <v>862600</v>
       </c>
       <c r="I102" s="3">
-        <v>304600</v>
+        <v>304900</v>
       </c>
       <c r="J102" s="3">
         <v>-57500</v>
